--- a/Бизнес-планирование в строительстве/Эффективность проекта _лист в КП-2022.xlsx
+++ b/Бизнес-планирование в строительстве/Эффективность проекта _лист в КП-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamet\Documents\GitHub\3-term-of-SPBSTU\Бизнес-планирование в строительстве\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\3-term-of-SPBSTU\Бизнес-планирование в строительстве\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,6 +48,7 @@
     <externalReference r:id="rId32"/>
     <externalReference r:id="rId33"/>
     <externalReference r:id="rId34"/>
+    <externalReference r:id="rId35"/>
   </externalReferences>
   <definedNames>
     <definedName name="__INF_MEC">#N/A</definedName>
@@ -1775,7 +1776,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -2717,6 +2718,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2765,7 +2779,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3462,7 +3476,6 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3570,9 +3583,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3597,7 +3607,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3856,6 +3865,198 @@
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="70" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="71" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="72" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="18" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3865,137 +4066,74 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="44" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="18" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4009,9 +4147,6 @@
     <xf numFmtId="0" fontId="45" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="13" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4026,151 +4161,26 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="13" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="44" fillId="13" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="70" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="71" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="72" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="39" fillId="4" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="_Б_Декабрьская АИБИ" xfId="6"/>
@@ -4447,6 +4457,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4753,6 +4764,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8382,6 +8394,36 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Исход"/>
+      <sheetName val="Инвестиции"/>
+      <sheetName val="НЦС-пример"/>
+      <sheetName val="График Стр-ва"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="25">
+          <cell r="C25">
+            <v>66309.06998</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>19049.448</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -10158,7 +10200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
@@ -10172,282 +10214,282 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="C2" s="361" t="s">
+      <c r="C2" s="358" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="362"/>
-      <c r="E2" s="362"/>
-      <c r="F2" s="362"/>
-      <c r="G2" s="363"/>
-      <c r="H2" s="363"/>
-      <c r="I2" s="363"/>
-      <c r="J2" s="363"/>
-      <c r="K2" s="363"/>
-      <c r="L2" s="363"/>
-      <c r="M2" s="363"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="360"/>
+      <c r="I2" s="360"/>
+      <c r="J2" s="360"/>
+      <c r="K2" s="360"/>
+      <c r="L2" s="360"/>
+      <c r="M2" s="360"/>
     </row>
     <row r="3" spans="2:16" ht="36.75" customHeight="1">
-      <c r="C3" s="410" t="s">
+      <c r="C3" s="473" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="410"/>
-      <c r="E3" s="410"/>
-      <c r="F3" s="410"/>
-      <c r="G3" s="410"/>
-      <c r="H3" s="410"/>
-      <c r="I3" s="410"/>
-      <c r="J3" s="410"/>
-      <c r="K3" s="410"/>
-      <c r="L3" s="410"/>
-      <c r="M3" s="410"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="473"/>
+      <c r="G3" s="473"/>
+      <c r="H3" s="473"/>
+      <c r="I3" s="473"/>
+      <c r="J3" s="473"/>
+      <c r="K3" s="473"/>
+      <c r="L3" s="473"/>
+      <c r="M3" s="473"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1">
-      <c r="C4" s="410" t="s">
+      <c r="C4" s="473" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="410"/>
-      <c r="E4" s="411"/>
-      <c r="F4" s="364">
+      <c r="D4" s="473"/>
+      <c r="E4" s="474"/>
+      <c r="F4" s="361">
         <v>50000000</v>
       </c>
-      <c r="G4" s="363" t="s">
+      <c r="G4" s="360" t="s">
         <v>112</v>
       </c>
       <c r="H4" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="363"/>
-      <c r="J4" s="363"/>
-      <c r="K4" s="363"/>
-      <c r="L4" s="364">
+      <c r="I4" s="360"/>
+      <c r="J4" s="360"/>
+      <c r="K4" s="360"/>
+      <c r="L4" s="361">
         <v>30000000</v>
       </c>
-      <c r="M4" s="363" t="s">
+      <c r="M4" s="360" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="L5" s="363"/>
-      <c r="M5" s="363"/>
+      <c r="L5" s="360"/>
+      <c r="M5" s="360"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="K6" s="365"/>
-      <c r="L6" s="363"/>
-      <c r="M6" s="363"/>
+      <c r="K6" s="362"/>
+      <c r="L6" s="360"/>
+      <c r="M6" s="360"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="C7" s="361" t="s">
+      <c r="C7" s="358" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="412" t="s">
+      <c r="D7" s="475" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="412"/>
-      <c r="F7" s="412"/>
-      <c r="K7" s="365"/>
-      <c r="L7" s="363"/>
-      <c r="M7" s="363"/>
+      <c r="E7" s="475"/>
+      <c r="F7" s="475"/>
+      <c r="K7" s="362"/>
+      <c r="L7" s="360"/>
+      <c r="M7" s="360"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="C8" s="410" t="s">
+      <c r="C8" s="473" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="410"/>
-      <c r="E8" s="410"/>
-      <c r="F8" s="410"/>
-      <c r="G8" s="410"/>
-      <c r="H8" s="410"/>
-      <c r="I8" s="410"/>
-      <c r="J8" s="410"/>
-      <c r="K8" s="366">
+      <c r="D8" s="473"/>
+      <c r="E8" s="473"/>
+      <c r="F8" s="473"/>
+      <c r="G8" s="473"/>
+      <c r="H8" s="473"/>
+      <c r="I8" s="473"/>
+      <c r="J8" s="473"/>
+      <c r="K8" s="363">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L8" s="363"/>
-      <c r="M8" s="363"/>
+      <c r="L8" s="360"/>
+      <c r="M8" s="360"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="C9" s="410" t="s">
+      <c r="C9" s="473" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="410"/>
-      <c r="E9" s="410"/>
-      <c r="F9" s="410"/>
-      <c r="G9" s="410"/>
-      <c r="H9" s="410"/>
-      <c r="I9" s="410"/>
-      <c r="J9" s="410"/>
-      <c r="K9" s="410"/>
-      <c r="L9" s="363"/>
-      <c r="M9" s="363"/>
+      <c r="D9" s="473"/>
+      <c r="E9" s="473"/>
+      <c r="F9" s="473"/>
+      <c r="G9" s="473"/>
+      <c r="H9" s="473"/>
+      <c r="I9" s="473"/>
+      <c r="J9" s="473"/>
+      <c r="K9" s="473"/>
+      <c r="L9" s="360"/>
+      <c r="M9" s="360"/>
     </row>
     <row r="10" spans="2:16" ht="37.5" customHeight="1">
-      <c r="C10" s="410" t="s">
+      <c r="C10" s="473" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="410"/>
-      <c r="E10" s="410"/>
-      <c r="F10" s="410"/>
-      <c r="G10" s="410"/>
-      <c r="H10" s="410"/>
-      <c r="I10" s="410"/>
-      <c r="J10" s="410"/>
-      <c r="K10" s="410"/>
-      <c r="L10" s="363"/>
-      <c r="M10" s="363"/>
+      <c r="D10" s="473"/>
+      <c r="E10" s="473"/>
+      <c r="F10" s="473"/>
+      <c r="G10" s="473"/>
+      <c r="H10" s="473"/>
+      <c r="I10" s="473"/>
+      <c r="J10" s="473"/>
+      <c r="K10" s="473"/>
+      <c r="L10" s="360"/>
+      <c r="M10" s="360"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
-      <c r="C11" s="410" t="s">
+      <c r="C11" s="473" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="410"/>
-      <c r="E11" s="410"/>
-      <c r="F11" s="410"/>
-      <c r="G11" s="410"/>
-      <c r="H11" s="410"/>
-      <c r="I11" s="410"/>
-      <c r="J11" s="410"/>
-      <c r="K11" s="410"/>
-      <c r="L11" s="363"/>
-      <c r="M11" s="363"/>
+      <c r="D11" s="473"/>
+      <c r="E11" s="473"/>
+      <c r="F11" s="473"/>
+      <c r="G11" s="473"/>
+      <c r="H11" s="473"/>
+      <c r="I11" s="473"/>
+      <c r="J11" s="473"/>
+      <c r="K11" s="473"/>
+      <c r="L11" s="360"/>
+      <c r="M11" s="360"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="C12" s="367"/>
-      <c r="D12" s="367"/>
-      <c r="E12" s="367"/>
-      <c r="F12" s="367"/>
-      <c r="G12" s="367"/>
-      <c r="H12" s="367"/>
-      <c r="I12" s="367"/>
-      <c r="J12" s="367"/>
-      <c r="K12" s="367"/>
-      <c r="L12" s="363"/>
-      <c r="M12" s="363"/>
+      <c r="C12" s="364"/>
+      <c r="D12" s="364"/>
+      <c r="E12" s="364"/>
+      <c r="F12" s="364"/>
+      <c r="G12" s="364"/>
+      <c r="H12" s="364"/>
+      <c r="I12" s="364"/>
+      <c r="J12" s="364"/>
+      <c r="K12" s="364"/>
+      <c r="L12" s="360"/>
+      <c r="M12" s="360"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="C13" s="425" t="s">
+      <c r="C13" s="442" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="425"/>
-      <c r="E13" s="363"/>
-      <c r="F13" s="363"/>
-      <c r="G13" s="363"/>
-      <c r="H13" s="363"/>
-      <c r="I13" s="363"/>
-      <c r="J13" s="363"/>
-      <c r="K13" s="363"/>
-      <c r="L13" s="363"/>
-      <c r="M13" s="363"/>
+      <c r="D13" s="442"/>
+      <c r="E13" s="360"/>
+      <c r="F13" s="360"/>
+      <c r="G13" s="360"/>
+      <c r="H13" s="360"/>
+      <c r="I13" s="360"/>
+      <c r="J13" s="360"/>
+      <c r="K13" s="360"/>
+      <c r="L13" s="360"/>
+      <c r="M13" s="360"/>
     </row>
     <row r="14" spans="2:16" ht="30">
-      <c r="B14" s="368" t="s">
+      <c r="B14" s="365" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="426" t="s">
+      <c r="C14" s="443" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="426"/>
-      <c r="E14" s="426"/>
-      <c r="F14" s="369">
+      <c r="D14" s="443"/>
+      <c r="E14" s="443"/>
+      <c r="F14" s="366">
         <v>1</v>
       </c>
-      <c r="G14" s="369">
+      <c r="G14" s="366">
         <v>2</v>
       </c>
-      <c r="H14" s="369">
+      <c r="H14" s="366">
         <v>3</v>
       </c>
-      <c r="I14" s="369">
+      <c r="I14" s="366">
         <v>4</v>
       </c>
-      <c r="J14" s="369">
+      <c r="J14" s="366">
         <v>5</v>
       </c>
-      <c r="K14" s="369">
+      <c r="K14" s="366">
         <v>6</v>
       </c>
-      <c r="L14" s="369">
+      <c r="L14" s="366">
         <v>7</v>
       </c>
-      <c r="M14" s="369">
+      <c r="M14" s="366">
         <v>8</v>
       </c>
-      <c r="N14" s="369">
+      <c r="N14" s="366">
         <v>9</v>
       </c>
-      <c r="O14" s="369">
+      <c r="O14" s="366">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="28.5" customHeight="1">
-      <c r="B15" s="370">
+      <c r="B15" s="367">
         <v>1</v>
       </c>
-      <c r="C15" s="427" t="s">
+      <c r="C15" s="470" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="428"/>
-      <c r="E15" s="429"/>
-      <c r="F15" s="371">
+      <c r="D15" s="471"/>
+      <c r="E15" s="472"/>
+      <c r="F15" s="368">
         <f>F4*5%</f>
         <v>2500000</v>
       </c>
-      <c r="G15" s="371">
+      <c r="G15" s="368">
         <f>(F4-F15)/2</f>
         <v>23750000</v>
       </c>
-      <c r="H15" s="371">
+      <c r="H15" s="368">
         <f>G15</f>
         <v>23750000</v>
       </c>
-      <c r="I15" s="372"/>
-      <c r="J15" s="372"/>
-      <c r="K15" s="372"/>
-      <c r="L15" s="372"/>
-      <c r="M15" s="372"/>
-      <c r="N15" s="372"/>
-      <c r="O15" s="372"/>
+      <c r="I15" s="369"/>
+      <c r="J15" s="369"/>
+      <c r="K15" s="369"/>
+      <c r="L15" s="369"/>
+      <c r="M15" s="369"/>
+      <c r="N15" s="369"/>
+      <c r="O15" s="369"/>
       <c r="P15" t="b">
         <f>SUM(F15:O15)=F4</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="30" customHeight="1">
-      <c r="B16" s="370">
+      <c r="B16" s="367">
         <v>2</v>
       </c>
-      <c r="C16" s="422" t="s">
+      <c r="C16" s="430" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="423"/>
-      <c r="E16" s="424"/>
-      <c r="F16" s="372"/>
-      <c r="G16" s="372"/>
-      <c r="H16" s="372"/>
-      <c r="I16" s="371">
+      <c r="D16" s="431"/>
+      <c r="E16" s="432"/>
+      <c r="F16" s="369"/>
+      <c r="G16" s="369"/>
+      <c r="H16" s="369"/>
+      <c r="I16" s="368">
         <f>L4</f>
         <v>30000000</v>
       </c>
-      <c r="J16" s="371">
+      <c r="J16" s="368">
         <f>I16</f>
         <v>30000000</v>
       </c>
-      <c r="K16" s="371">
+      <c r="K16" s="368">
         <f>J16</f>
         <v>30000000</v>
       </c>
-      <c r="L16" s="371">
+      <c r="L16" s="368">
         <f t="shared" ref="L16:O16" si="0">K16</f>
         <v>30000000</v>
       </c>
-      <c r="M16" s="371">
+      <c r="M16" s="368">
         <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
-      <c r="N16" s="371">
+      <c r="N16" s="368">
         <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
-      <c r="O16" s="371">
+      <c r="O16" s="368">
         <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
@@ -10457,321 +10499,321 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="30" customHeight="1">
-      <c r="B17" s="370">
+      <c r="B17" s="367">
         <v>3</v>
       </c>
-      <c r="C17" s="422" t="s">
+      <c r="C17" s="430" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="423"/>
-      <c r="E17" s="424"/>
-      <c r="F17" s="373">
+      <c r="D17" s="431"/>
+      <c r="E17" s="432"/>
+      <c r="F17" s="370">
         <f>F16-F15</f>
         <v>-2500000</v>
       </c>
-      <c r="G17" s="373">
+      <c r="G17" s="370">
         <f t="shared" ref="G17:O17" si="1">G16-G15</f>
         <v>-23750000</v>
       </c>
-      <c r="H17" s="373">
+      <c r="H17" s="370">
         <f t="shared" si="1"/>
         <v>-23750000</v>
       </c>
-      <c r="I17" s="373">
+      <c r="I17" s="370">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="J17" s="373">
+      <c r="J17" s="370">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="K17" s="373">
+      <c r="K17" s="370">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="L17" s="373">
+      <c r="L17" s="370">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="M17" s="373">
+      <c r="M17" s="370">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="N17" s="373">
+      <c r="N17" s="370">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="O17" s="374">
+      <c r="O17" s="371">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="30" customHeight="1">
-      <c r="B18" s="370">
+      <c r="B18" s="367">
         <v>4</v>
       </c>
-      <c r="C18" s="430" t="s">
+      <c r="C18" s="444" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="431"/>
-      <c r="E18" s="432"/>
-      <c r="F18" s="375">
+      <c r="D18" s="445"/>
+      <c r="E18" s="446"/>
+      <c r="F18" s="372">
         <f t="shared" ref="F18:O18" si="2">1/(1+$K$8)^F14</f>
         <v>0.78125</v>
       </c>
-      <c r="G18" s="375">
+      <c r="G18" s="372">
         <f t="shared" si="2"/>
         <v>0.6103515625</v>
       </c>
-      <c r="H18" s="375">
+      <c r="H18" s="372">
         <f t="shared" si="2"/>
         <v>0.47683715820312494</v>
       </c>
-      <c r="I18" s="375">
+      <c r="I18" s="372">
         <f t="shared" si="2"/>
         <v>0.37252902984619141</v>
       </c>
-      <c r="J18" s="375">
+      <c r="J18" s="372">
         <f t="shared" si="2"/>
         <v>0.29103830456733704</v>
       </c>
-      <c r="K18" s="375">
+      <c r="K18" s="372">
         <f t="shared" si="2"/>
         <v>0.22737367544323206</v>
       </c>
-      <c r="L18" s="375">
+      <c r="L18" s="372">
         <f t="shared" si="2"/>
         <v>0.17763568394002502</v>
       </c>
-      <c r="M18" s="375">
+      <c r="M18" s="372">
         <f t="shared" si="2"/>
         <v>0.13877787807814454</v>
       </c>
-      <c r="N18" s="375">
+      <c r="N18" s="372">
         <f t="shared" si="2"/>
         <v>0.10842021724855043</v>
       </c>
-      <c r="O18" s="375">
+      <c r="O18" s="372">
         <f t="shared" si="2"/>
         <v>8.470329472543002E-2</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="26.25" customHeight="1">
-      <c r="B19" s="370">
+      <c r="B19" s="367">
         <v>5</v>
       </c>
-      <c r="C19" s="422" t="s">
+      <c r="C19" s="430" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="423"/>
-      <c r="E19" s="424"/>
-      <c r="F19" s="371">
+      <c r="D19" s="431"/>
+      <c r="E19" s="432"/>
+      <c r="F19" s="368">
         <f>F17*F18</f>
         <v>-1953125</v>
       </c>
-      <c r="G19" s="371">
+      <c r="G19" s="368">
         <f>G17*G18</f>
         <v>-14495849.609375</v>
       </c>
-      <c r="H19" s="371">
+      <c r="H19" s="368">
         <f>H17*H18</f>
         <v>-11324882.507324217</v>
       </c>
-      <c r="I19" s="371">
+      <c r="I19" s="368">
         <f>I17*I18</f>
         <v>11175870.895385742</v>
       </c>
-      <c r="J19" s="371">
+      <c r="J19" s="368">
         <f t="shared" ref="J19:O19" si="3">J17*J18</f>
         <v>8731149.1370201111</v>
       </c>
-      <c r="K19" s="371">
+      <c r="K19" s="368">
         <f t="shared" si="3"/>
         <v>6821210.2632969618</v>
       </c>
-      <c r="L19" s="371">
+      <c r="L19" s="368">
         <f t="shared" si="3"/>
         <v>5329070.5182007505</v>
       </c>
-      <c r="M19" s="371">
+      <c r="M19" s="368">
         <f t="shared" si="3"/>
         <v>4163336.3423443362</v>
       </c>
-      <c r="N19" s="371">
+      <c r="N19" s="368">
         <f t="shared" si="3"/>
         <v>3252606.5174565129</v>
       </c>
-      <c r="O19" s="371">
+      <c r="O19" s="368">
         <f t="shared" si="3"/>
         <v>2541098.8417629008</v>
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="433" t="s">
+      <c r="B20" s="451" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="434"/>
-      <c r="D20" s="434"/>
-      <c r="E20" s="434"/>
-      <c r="F20" s="435"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="376"/>
-      <c r="I20" s="376"/>
-      <c r="J20" s="376"/>
-      <c r="K20" s="376"/>
-      <c r="L20" s="376"/>
-      <c r="M20" s="376"/>
-      <c r="N20" s="376"/>
-      <c r="O20" s="376"/>
+      <c r="C20" s="452"/>
+      <c r="D20" s="452"/>
+      <c r="E20" s="452"/>
+      <c r="F20" s="453"/>
+      <c r="G20" s="373"/>
+      <c r="H20" s="373"/>
+      <c r="I20" s="373"/>
+      <c r="J20" s="373"/>
+      <c r="K20" s="373"/>
+      <c r="L20" s="373"/>
+      <c r="M20" s="373"/>
+      <c r="N20" s="373"/>
+      <c r="O20" s="373"/>
     </row>
     <row r="21" spans="2:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B21" s="370">
+      <c r="B21" s="367">
         <v>6</v>
       </c>
-      <c r="C21" s="430" t="s">
+      <c r="C21" s="444" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="431"/>
-      <c r="E21" s="432"/>
-      <c r="F21" s="377">
+      <c r="D21" s="445"/>
+      <c r="E21" s="446"/>
+      <c r="F21" s="374">
         <f>SUM(F17:O17)</f>
         <v>160000000</v>
       </c>
-      <c r="G21" s="378"/>
-      <c r="H21" s="378"/>
-      <c r="I21" s="378"/>
-      <c r="J21" s="378"/>
-      <c r="K21" s="378"/>
-      <c r="L21" s="378"/>
-      <c r="M21" s="378"/>
-      <c r="N21" s="378"/>
-      <c r="O21" s="378"/>
+      <c r="G21" s="375"/>
+      <c r="H21" s="375"/>
+      <c r="I21" s="375"/>
+      <c r="J21" s="375"/>
+      <c r="K21" s="375"/>
+      <c r="L21" s="375"/>
+      <c r="M21" s="375"/>
+      <c r="N21" s="375"/>
+      <c r="O21" s="375"/>
     </row>
     <row r="22" spans="2:15" ht="29.25" customHeight="1">
-      <c r="B22" s="370">
+      <c r="B22" s="367">
         <v>7</v>
       </c>
-      <c r="C22" s="422" t="s">
+      <c r="C22" s="430" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="423"/>
-      <c r="E22" s="424"/>
-      <c r="F22" s="379">
+      <c r="D22" s="431"/>
+      <c r="E22" s="432"/>
+      <c r="F22" s="376">
         <f>SUM(F19:O19)</f>
         <v>14240485.398768097</v>
       </c>
-      <c r="G22" s="378"/>
-      <c r="H22" s="413" t="s">
+      <c r="G22" s="375"/>
+      <c r="H22" s="454" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="414"/>
-      <c r="J22" s="414"/>
-      <c r="K22" s="414"/>
-      <c r="L22" s="414"/>
-      <c r="M22" s="415"/>
-      <c r="N22" s="378"/>
-      <c r="O22" s="378"/>
+      <c r="I22" s="455"/>
+      <c r="J22" s="455"/>
+      <c r="K22" s="455"/>
+      <c r="L22" s="455"/>
+      <c r="M22" s="456"/>
+      <c r="N22" s="375"/>
+      <c r="O22" s="375"/>
     </row>
     <row r="23" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B23" s="370">
+      <c r="B23" s="367">
         <v>8</v>
       </c>
-      <c r="C23" s="422" t="str">
+      <c r="C23" s="430" t="str">
         <f>C11</f>
         <v>Стоит ли принимать такой проект к рассмотрению?</v>
       </c>
-      <c r="D23" s="423"/>
-      <c r="E23" s="424"/>
-      <c r="F23" s="379" t="s">
+      <c r="D23" s="431"/>
+      <c r="E23" s="432"/>
+      <c r="F23" s="376" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="378"/>
-      <c r="H23" s="416"/>
-      <c r="I23" s="417"/>
-      <c r="J23" s="417"/>
-      <c r="K23" s="417"/>
-      <c r="L23" s="417"/>
-      <c r="M23" s="418"/>
-      <c r="N23" s="378"/>
-      <c r="O23" s="378"/>
+      <c r="G23" s="375"/>
+      <c r="H23" s="457"/>
+      <c r="I23" s="458"/>
+      <c r="J23" s="458"/>
+      <c r="K23" s="458"/>
+      <c r="L23" s="458"/>
+      <c r="M23" s="459"/>
+      <c r="N23" s="375"/>
+      <c r="O23" s="375"/>
     </row>
     <row r="24" spans="2:15" ht="29.25" customHeight="1">
-      <c r="C24" s="380"/>
-      <c r="D24" s="380"/>
-      <c r="E24" s="380"/>
-      <c r="F24" s="381"/>
-      <c r="G24" s="378"/>
-      <c r="H24" s="416"/>
-      <c r="I24" s="417"/>
-      <c r="J24" s="417"/>
-      <c r="K24" s="417"/>
-      <c r="L24" s="417"/>
-      <c r="M24" s="418"/>
-      <c r="N24" s="378"/>
-      <c r="O24" s="378"/>
+      <c r="C24" s="377"/>
+      <c r="D24" s="377"/>
+      <c r="E24" s="377"/>
+      <c r="F24" s="378"/>
+      <c r="G24" s="375"/>
+      <c r="H24" s="457"/>
+      <c r="I24" s="458"/>
+      <c r="J24" s="458"/>
+      <c r="K24" s="458"/>
+      <c r="L24" s="458"/>
+      <c r="M24" s="459"/>
+      <c r="N24" s="375"/>
+      <c r="O24" s="375"/>
     </row>
     <row r="25" spans="2:15" ht="29.25" customHeight="1">
-      <c r="C25" s="380"/>
-      <c r="D25" s="380"/>
-      <c r="E25" s="380"/>
-      <c r="F25" s="381"/>
-      <c r="G25" s="378"/>
-      <c r="H25" s="416"/>
-      <c r="I25" s="417"/>
-      <c r="J25" s="417"/>
-      <c r="K25" s="417"/>
-      <c r="L25" s="417"/>
-      <c r="M25" s="418"/>
-      <c r="N25" s="378"/>
-      <c r="O25" s="378"/>
+      <c r="C25" s="377"/>
+      <c r="D25" s="377"/>
+      <c r="E25" s="377"/>
+      <c r="F25" s="378"/>
+      <c r="G25" s="375"/>
+      <c r="H25" s="457"/>
+      <c r="I25" s="458"/>
+      <c r="J25" s="458"/>
+      <c r="K25" s="458"/>
+      <c r="L25" s="458"/>
+      <c r="M25" s="459"/>
+      <c r="N25" s="375"/>
+      <c r="O25" s="375"/>
     </row>
     <row r="26" spans="2:15" ht="29.25" customHeight="1">
-      <c r="C26" s="380"/>
-      <c r="D26" s="380"/>
-      <c r="E26" s="380"/>
-      <c r="F26" s="381"/>
-      <c r="G26" s="378"/>
-      <c r="H26" s="416"/>
-      <c r="I26" s="417"/>
-      <c r="J26" s="417"/>
-      <c r="K26" s="417"/>
-      <c r="L26" s="417"/>
-      <c r="M26" s="418"/>
-      <c r="N26" s="378"/>
-      <c r="O26" s="378"/>
+      <c r="C26" s="377"/>
+      <c r="D26" s="377"/>
+      <c r="E26" s="377"/>
+      <c r="F26" s="378"/>
+      <c r="G26" s="375"/>
+      <c r="H26" s="457"/>
+      <c r="I26" s="458"/>
+      <c r="J26" s="458"/>
+      <c r="K26" s="458"/>
+      <c r="L26" s="458"/>
+      <c r="M26" s="459"/>
+      <c r="N26" s="375"/>
+      <c r="O26" s="375"/>
     </row>
     <row r="27" spans="2:15" ht="29.25" customHeight="1">
-      <c r="C27" s="380"/>
-      <c r="D27" s="380"/>
-      <c r="E27" s="380"/>
-      <c r="F27" s="381"/>
-      <c r="G27" s="378"/>
-      <c r="H27" s="416"/>
-      <c r="I27" s="417"/>
-      <c r="J27" s="417"/>
-      <c r="K27" s="417"/>
-      <c r="L27" s="417"/>
-      <c r="M27" s="418"/>
-      <c r="N27" s="378"/>
-      <c r="O27" s="378"/>
+      <c r="C27" s="377"/>
+      <c r="D27" s="377"/>
+      <c r="E27" s="377"/>
+      <c r="F27" s="378"/>
+      <c r="G27" s="375"/>
+      <c r="H27" s="457"/>
+      <c r="I27" s="458"/>
+      <c r="J27" s="458"/>
+      <c r="K27" s="458"/>
+      <c r="L27" s="458"/>
+      <c r="M27" s="459"/>
+      <c r="N27" s="375"/>
+      <c r="O27" s="375"/>
     </row>
     <row r="28" spans="2:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="C28" s="380"/>
-      <c r="D28" s="380"/>
-      <c r="E28" s="380"/>
-      <c r="F28" s="381"/>
-      <c r="G28" s="378"/>
-      <c r="H28" s="419"/>
-      <c r="I28" s="420"/>
-      <c r="J28" s="420"/>
-      <c r="K28" s="420"/>
-      <c r="L28" s="420"/>
-      <c r="M28" s="421"/>
-      <c r="N28" s="378"/>
-      <c r="O28" s="378"/>
+      <c r="C28" s="377"/>
+      <c r="D28" s="377"/>
+      <c r="E28" s="377"/>
+      <c r="F28" s="378"/>
+      <c r="G28" s="375"/>
+      <c r="H28" s="460"/>
+      <c r="I28" s="461"/>
+      <c r="J28" s="461"/>
+      <c r="K28" s="461"/>
+      <c r="L28" s="461"/>
+      <c r="M28" s="462"/>
+      <c r="N28" s="375"/>
+      <c r="O28" s="375"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="C31" s="361" t="s">
+      <c r="C31" s="358" t="s">
         <v>131</v>
       </c>
     </row>
@@ -10781,258 +10823,258 @@
       </c>
     </row>
     <row r="33" spans="2:17">
-      <c r="C33" s="425" t="s">
+      <c r="C33" s="442" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="425"/>
+      <c r="D33" s="442"/>
     </row>
     <row r="34" spans="2:17" ht="30">
-      <c r="B34" s="368" t="s">
+      <c r="B34" s="365" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="436" t="s">
+      <c r="C34" s="467" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="437"/>
-      <c r="E34" s="438"/>
-      <c r="F34" s="369">
+      <c r="D34" s="468"/>
+      <c r="E34" s="469"/>
+      <c r="F34" s="366">
         <v>1</v>
       </c>
-      <c r="G34" s="369">
+      <c r="G34" s="366">
         <v>2</v>
       </c>
-      <c r="H34" s="369">
+      <c r="H34" s="366">
         <v>3</v>
       </c>
-      <c r="I34" s="369">
+      <c r="I34" s="366">
         <v>4</v>
       </c>
-      <c r="J34" s="369">
+      <c r="J34" s="366">
         <v>5</v>
       </c>
-      <c r="K34" s="369">
+      <c r="K34" s="366">
         <v>6</v>
       </c>
-      <c r="L34" s="369">
+      <c r="L34" s="366">
         <v>7</v>
       </c>
-      <c r="M34" s="369">
+      <c r="M34" s="366">
         <v>8</v>
       </c>
-      <c r="N34" s="369">
+      <c r="N34" s="366">
         <v>9</v>
       </c>
-      <c r="O34" s="369">
+      <c r="O34" s="366">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B35" s="370">
+      <c r="B35" s="367">
         <v>1</v>
       </c>
-      <c r="C35" s="427" t="s">
+      <c r="C35" s="470" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="428"/>
-      <c r="E35" s="429"/>
-      <c r="F35" s="382">
+      <c r="D35" s="471"/>
+      <c r="E35" s="472"/>
+      <c r="F35" s="379">
         <f>F17</f>
         <v>-2500000</v>
       </c>
-      <c r="G35" s="382">
+      <c r="G35" s="379">
         <f>F35+G17</f>
         <v>-26250000</v>
       </c>
-      <c r="H35" s="382">
+      <c r="H35" s="379">
         <f t="shared" ref="H35:O35" si="4">G35+H17</f>
         <v>-50000000</v>
       </c>
-      <c r="I35" s="383">
+      <c r="I35" s="380">
         <f t="shared" si="4"/>
         <v>-20000000</v>
       </c>
-      <c r="J35" s="383">
+      <c r="J35" s="380">
         <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
-      <c r="K35" s="382">
+      <c r="K35" s="379">
         <f t="shared" si="4"/>
         <v>40000000</v>
       </c>
-      <c r="L35" s="382">
+      <c r="L35" s="379">
         <f t="shared" si="4"/>
         <v>70000000</v>
       </c>
-      <c r="M35" s="382">
+      <c r="M35" s="379">
         <f t="shared" si="4"/>
         <v>100000000</v>
       </c>
-      <c r="N35" s="382">
+      <c r="N35" s="379">
         <f t="shared" si="4"/>
         <v>130000000</v>
       </c>
-      <c r="O35" s="382">
+      <c r="O35" s="379">
         <f t="shared" si="4"/>
         <v>160000000</v>
       </c>
-      <c r="P35" s="384" t="b">
+      <c r="P35" s="381" t="b">
         <f>F21=O35</f>
         <v>1</v>
       </c>
-      <c r="Q35" s="378"/>
+      <c r="Q35" s="375"/>
     </row>
     <row r="36" spans="2:17" ht="45.75" customHeight="1">
-      <c r="B36" s="370">
+      <c r="B36" s="367">
         <v>2</v>
       </c>
-      <c r="C36" s="427" t="s">
+      <c r="C36" s="470" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="428"/>
-      <c r="E36" s="429"/>
-      <c r="F36" s="382">
+      <c r="D36" s="471"/>
+      <c r="E36" s="472"/>
+      <c r="F36" s="379">
         <f>F19</f>
         <v>-1953125</v>
       </c>
-      <c r="G36" s="382">
+      <c r="G36" s="379">
         <f>F36+G19</f>
         <v>-16448974.609375</v>
       </c>
-      <c r="H36" s="382">
+      <c r="H36" s="379">
         <f t="shared" ref="H36:O36" si="5">G36+H19</f>
         <v>-27773857.116699219</v>
       </c>
-      <c r="I36" s="382">
+      <c r="I36" s="379">
         <f t="shared" si="5"/>
         <v>-16597986.221313477</v>
       </c>
-      <c r="J36" s="382">
+      <c r="J36" s="379">
         <f t="shared" si="5"/>
         <v>-7866837.0842933655</v>
       </c>
-      <c r="K36" s="383">
+      <c r="K36" s="380">
         <f t="shared" si="5"/>
         <v>-1045626.8209964037</v>
       </c>
-      <c r="L36" s="383">
+      <c r="L36" s="380">
         <f t="shared" si="5"/>
         <v>4283443.6972043468</v>
       </c>
-      <c r="M36" s="382">
+      <c r="M36" s="379">
         <f t="shared" si="5"/>
         <v>8446780.0395486839</v>
       </c>
-      <c r="N36" s="382">
+      <c r="N36" s="379">
         <f t="shared" si="5"/>
         <v>11699386.557005197</v>
       </c>
-      <c r="O36" s="382">
+      <c r="O36" s="379">
         <f t="shared" si="5"/>
         <v>14240485.398768097</v>
       </c>
-      <c r="P36" s="384" t="b">
+      <c r="P36" s="381" t="b">
         <f>O36=F22</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="378"/>
+      <c r="Q36" s="375"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B37" s="433" t="s">
+      <c r="B37" s="451" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="434"/>
-      <c r="D37" s="434"/>
-      <c r="E37" s="434"/>
-      <c r="F37" s="435"/>
+      <c r="C37" s="452"/>
+      <c r="D37" s="452"/>
+      <c r="E37" s="452"/>
+      <c r="F37" s="453"/>
     </row>
     <row r="38" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B38" s="370">
+      <c r="B38" s="367">
         <v>3</v>
       </c>
-      <c r="C38" s="430" t="s">
+      <c r="C38" s="444" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="431"/>
-      <c r="E38" s="432"/>
-      <c r="F38" s="385">
+      <c r="D38" s="445"/>
+      <c r="E38" s="446"/>
+      <c r="F38" s="382">
         <f>I34+(-I35/(-I35+J35))</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H38" s="413" t="s">
+      <c r="H38" s="454" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="414"/>
-      <c r="J38" s="414"/>
-      <c r="K38" s="414"/>
-      <c r="L38" s="414"/>
-      <c r="M38" s="415"/>
+      <c r="I38" s="455"/>
+      <c r="J38" s="455"/>
+      <c r="K38" s="455"/>
+      <c r="L38" s="455"/>
+      <c r="M38" s="456"/>
     </row>
     <row r="39" spans="2:17" ht="36.75" customHeight="1">
-      <c r="B39" s="370">
+      <c r="B39" s="367">
         <v>4</v>
       </c>
-      <c r="C39" s="422" t="s">
+      <c r="C39" s="430" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="423"/>
-      <c r="E39" s="424"/>
-      <c r="F39" s="385">
+      <c r="D39" s="431"/>
+      <c r="E39" s="432"/>
+      <c r="F39" s="382">
         <f>K34+(-K36/(-K36+L36))</f>
         <v>6.1962118567253333</v>
       </c>
-      <c r="H39" s="416"/>
-      <c r="I39" s="417"/>
-      <c r="J39" s="417"/>
-      <c r="K39" s="417"/>
-      <c r="L39" s="417"/>
-      <c r="M39" s="418"/>
+      <c r="H39" s="457"/>
+      <c r="I39" s="458"/>
+      <c r="J39" s="458"/>
+      <c r="K39" s="458"/>
+      <c r="L39" s="458"/>
+      <c r="M39" s="459"/>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="439" t="s">
+      <c r="B40" s="463" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="439"/>
-      <c r="D40" s="439"/>
-      <c r="E40" s="439"/>
-      <c r="F40" s="439"/>
-      <c r="H40" s="416"/>
-      <c r="I40" s="417"/>
-      <c r="J40" s="417"/>
-      <c r="K40" s="417"/>
-      <c r="L40" s="417"/>
-      <c r="M40" s="418"/>
+      <c r="C40" s="463"/>
+      <c r="D40" s="463"/>
+      <c r="E40" s="463"/>
+      <c r="F40" s="463"/>
+      <c r="H40" s="457"/>
+      <c r="I40" s="458"/>
+      <c r="J40" s="458"/>
+      <c r="K40" s="458"/>
+      <c r="L40" s="458"/>
+      <c r="M40" s="459"/>
     </row>
     <row r="41" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B41" s="440"/>
-      <c r="C41" s="440"/>
-      <c r="D41" s="440"/>
-      <c r="E41" s="440"/>
-      <c r="F41" s="440"/>
-      <c r="H41" s="416"/>
-      <c r="I41" s="417"/>
-      <c r="J41" s="417"/>
-      <c r="K41" s="417"/>
-      <c r="L41" s="417"/>
-      <c r="M41" s="418"/>
+      <c r="B41" s="464"/>
+      <c r="C41" s="464"/>
+      <c r="D41" s="464"/>
+      <c r="E41" s="464"/>
+      <c r="F41" s="464"/>
+      <c r="H41" s="457"/>
+      <c r="I41" s="458"/>
+      <c r="J41" s="458"/>
+      <c r="K41" s="458"/>
+      <c r="L41" s="458"/>
+      <c r="M41" s="459"/>
     </row>
     <row r="42" spans="2:17" ht="130.5" customHeight="1">
-      <c r="H42" s="416"/>
-      <c r="I42" s="417"/>
-      <c r="J42" s="417"/>
-      <c r="K42" s="417"/>
-      <c r="L42" s="417"/>
-      <c r="M42" s="418"/>
+      <c r="H42" s="457"/>
+      <c r="I42" s="458"/>
+      <c r="J42" s="458"/>
+      <c r="K42" s="458"/>
+      <c r="L42" s="458"/>
+      <c r="M42" s="459"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" thickBot="1">
-      <c r="H43" s="419"/>
-      <c r="I43" s="420"/>
-      <c r="J43" s="420"/>
-      <c r="K43" s="420"/>
-      <c r="L43" s="420"/>
-      <c r="M43" s="421"/>
+      <c r="H43" s="460"/>
+      <c r="I43" s="461"/>
+      <c r="J43" s="461"/>
+      <c r="K43" s="461"/>
+      <c r="L43" s="461"/>
+      <c r="M43" s="462"/>
     </row>
     <row r="47" spans="2:17">
-      <c r="C47" s="361" t="s">
+      <c r="C47" s="358" t="s">
         <v>139</v>
       </c>
     </row>
@@ -11047,388 +11089,388 @@
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="D51" s="425" t="s">
+      <c r="D51" s="442" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="425"/>
-      <c r="F51" s="363"/>
-      <c r="G51" s="363"/>
-      <c r="H51" s="363"/>
-      <c r="I51" s="363"/>
-      <c r="J51" s="363"/>
-      <c r="K51" s="363"/>
-      <c r="L51" s="363"/>
-      <c r="M51" s="363"/>
-      <c r="N51" s="363"/>
+      <c r="E51" s="442"/>
+      <c r="F51" s="360"/>
+      <c r="G51" s="360"/>
+      <c r="H51" s="360"/>
+      <c r="I51" s="360"/>
+      <c r="J51" s="360"/>
+      <c r="K51" s="360"/>
+      <c r="L51" s="360"/>
+      <c r="M51" s="360"/>
+      <c r="N51" s="360"/>
     </row>
     <row r="52" spans="2:15" ht="30">
-      <c r="B52" s="368" t="s">
+      <c r="B52" s="365" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="426" t="s">
+      <c r="C52" s="443" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="426"/>
-      <c r="E52" s="426"/>
-      <c r="F52" s="369">
+      <c r="D52" s="443"/>
+      <c r="E52" s="443"/>
+      <c r="F52" s="366">
         <v>1</v>
       </c>
-      <c r="G52" s="386">
+      <c r="G52" s="383">
         <v>2</v>
       </c>
-      <c r="H52" s="386">
+      <c r="H52" s="383">
         <v>3</v>
       </c>
-      <c r="I52" s="386">
+      <c r="I52" s="383">
         <v>4</v>
       </c>
-      <c r="J52" s="386">
+      <c r="J52" s="383">
         <v>5</v>
       </c>
-      <c r="K52" s="386">
+      <c r="K52" s="383">
         <v>6</v>
       </c>
-      <c r="L52" s="386">
+      <c r="L52" s="383">
         <v>7</v>
       </c>
-      <c r="M52" s="386">
+      <c r="M52" s="383">
         <v>8</v>
       </c>
-      <c r="N52" s="386">
+      <c r="N52" s="383">
         <v>9</v>
       </c>
-      <c r="O52" s="386">
+      <c r="O52" s="383">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="30" customHeight="1">
-      <c r="B53" s="370">
+      <c r="B53" s="367">
         <v>1</v>
       </c>
-      <c r="C53" s="422" t="s">
+      <c r="C53" s="430" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="423"/>
-      <c r="E53" s="424"/>
-      <c r="F53" s="373">
+      <c r="D53" s="431"/>
+      <c r="E53" s="432"/>
+      <c r="F53" s="370">
         <f>F17</f>
         <v>-2500000</v>
       </c>
-      <c r="G53" s="374">
+      <c r="G53" s="371">
         <f t="shared" ref="G53:O53" si="6">G17</f>
         <v>-23750000</v>
       </c>
-      <c r="H53" s="374">
+      <c r="H53" s="371">
         <f t="shared" si="6"/>
         <v>-23750000</v>
       </c>
-      <c r="I53" s="374">
+      <c r="I53" s="371">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="J53" s="374">
+      <c r="J53" s="371">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="K53" s="374">
+      <c r="K53" s="371">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="L53" s="374">
+      <c r="L53" s="371">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="M53" s="374">
+      <c r="M53" s="371">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="N53" s="374">
+      <c r="N53" s="371">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="O53" s="374">
+      <c r="O53" s="371">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="370">
+      <c r="B54" s="367">
         <v>2</v>
       </c>
-      <c r="C54" s="430" t="s">
+      <c r="C54" s="444" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="431"/>
-      <c r="E54" s="432"/>
-      <c r="F54" s="387">
+      <c r="D54" s="445"/>
+      <c r="E54" s="446"/>
+      <c r="F54" s="384">
         <v>0.43822984635546786</v>
       </c>
-      <c r="G54" s="441" t="s">
+      <c r="G54" s="465" t="s">
         <v>143</v>
       </c>
-      <c r="H54" s="442"/>
-      <c r="I54" s="442"/>
-      <c r="J54" s="442"/>
-      <c r="K54" s="442"/>
-      <c r="L54" s="442"/>
-      <c r="M54" s="442"/>
-      <c r="N54" s="442"/>
-      <c r="O54" s="442"/>
+      <c r="H54" s="466"/>
+      <c r="I54" s="466"/>
+      <c r="J54" s="466"/>
+      <c r="K54" s="466"/>
+      <c r="L54" s="466"/>
+      <c r="M54" s="466"/>
+      <c r="N54" s="466"/>
+      <c r="O54" s="466"/>
     </row>
     <row r="55" spans="2:15" ht="36" customHeight="1">
-      <c r="B55" s="370">
+      <c r="B55" s="367">
         <v>3</v>
       </c>
-      <c r="C55" s="430" t="s">
+      <c r="C55" s="444" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="431"/>
-      <c r="E55" s="432"/>
-      <c r="F55" s="375">
+      <c r="D55" s="445"/>
+      <c r="E55" s="446"/>
+      <c r="F55" s="372">
         <f>1/(1+$F$54)^F52</f>
         <v>0.69529915717855539</v>
       </c>
-      <c r="G55" s="375">
+      <c r="G55" s="372">
         <f>1/(1+$F$54)^G52</f>
         <v>0.48344091797320937</v>
       </c>
-      <c r="H55" s="375">
+      <c r="H55" s="372">
         <f>1/(1+$F$54)^H52</f>
         <v>0.33613606281239961</v>
       </c>
-      <c r="I55" s="375">
+      <c r="I55" s="372">
         <f t="shared" ref="I55:O55" si="7">1/(1+$F$54)^I52</f>
         <v>0.23371512117077936</v>
       </c>
-      <c r="J55" s="375">
+      <c r="J55" s="372">
         <f t="shared" si="7"/>
         <v>0.16250192676992684</v>
       </c>
-      <c r="K55" s="375">
+      <c r="K55" s="372">
         <f t="shared" si="7"/>
         <v>0.11298745272302145</v>
       </c>
-      <c r="L55" s="375">
+      <c r="L55" s="372">
         <f t="shared" si="7"/>
         <v>7.8560080650068684E-2</v>
       </c>
-      <c r="M55" s="375">
+      <c r="M55" s="372">
         <f t="shared" si="7"/>
         <v>5.4622757863872079E-2</v>
       </c>
-      <c r="N55" s="375">
+      <c r="N55" s="372">
         <f t="shared" si="7"/>
         <v>3.7979157505518564E-2</v>
       </c>
-      <c r="O55" s="375">
+      <c r="O55" s="372">
         <f t="shared" si="7"/>
         <v>2.640687620393866E-2</v>
       </c>
     </row>
     <row r="56" spans="2:15" ht="30" customHeight="1">
-      <c r="B56" s="370">
+      <c r="B56" s="367">
         <v>4</v>
       </c>
-      <c r="C56" s="422" t="s">
+      <c r="C56" s="430" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="423"/>
-      <c r="E56" s="424"/>
-      <c r="F56" s="371">
+      <c r="D56" s="431"/>
+      <c r="E56" s="432"/>
+      <c r="F56" s="368">
         <f t="shared" ref="F56:O56" si="8">F53*F55</f>
         <v>-1738247.8929463886</v>
       </c>
-      <c r="G56" s="371">
+      <c r="G56" s="368">
         <f t="shared" si="8"/>
         <v>-11481721.801863723</v>
       </c>
-      <c r="H56" s="371">
+      <c r="H56" s="368">
         <f t="shared" si="8"/>
         <v>-7983231.4917944903</v>
       </c>
-      <c r="I56" s="371">
+      <c r="I56" s="368">
         <f t="shared" si="8"/>
         <v>7011453.6351233805</v>
       </c>
-      <c r="J56" s="371">
+      <c r="J56" s="368">
         <f t="shared" si="8"/>
         <v>4875057.803097805</v>
       </c>
-      <c r="K56" s="371">
+      <c r="K56" s="368">
         <f t="shared" si="8"/>
         <v>3389623.5816906434</v>
       </c>
-      <c r="L56" s="371">
+      <c r="L56" s="368">
         <f t="shared" si="8"/>
         <v>2356802.4195020604</v>
       </c>
-      <c r="M56" s="371">
+      <c r="M56" s="368">
         <f t="shared" si="8"/>
         <v>1638682.7359161624</v>
       </c>
-      <c r="N56" s="371">
+      <c r="N56" s="368">
         <f t="shared" si="8"/>
         <v>1139374.7251655569</v>
       </c>
-      <c r="O56" s="371">
+      <c r="O56" s="368">
         <f t="shared" si="8"/>
         <v>792206.28611815977</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="30" customHeight="1">
-      <c r="B57" s="370">
+      <c r="B57" s="367">
         <v>5</v>
       </c>
-      <c r="C57" s="422" t="s">
+      <c r="C57" s="430" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="423"/>
-      <c r="E57" s="424"/>
-      <c r="F57" s="388">
+      <c r="D57" s="431"/>
+      <c r="E57" s="432"/>
+      <c r="F57" s="385">
         <f>SUM(F56:O56)</f>
         <v>9.1665424406528473E-6</v>
       </c>
-      <c r="G57" s="376"/>
-      <c r="H57" s="376"/>
-      <c r="I57" s="376"/>
-      <c r="J57" s="376"/>
-      <c r="K57" s="376"/>
-      <c r="L57" s="376"/>
-      <c r="M57" s="376"/>
-      <c r="N57" s="376"/>
-      <c r="O57" s="376"/>
+      <c r="G57" s="373"/>
+      <c r="H57" s="373"/>
+      <c r="I57" s="373"/>
+      <c r="J57" s="373"/>
+      <c r="K57" s="373"/>
+      <c r="L57" s="373"/>
+      <c r="M57" s="373"/>
+      <c r="N57" s="373"/>
+      <c r="O57" s="373"/>
     </row>
     <row r="58" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B58" s="433" t="s">
+      <c r="B58" s="451" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="434"/>
-      <c r="D58" s="434"/>
-      <c r="E58" s="434"/>
-      <c r="F58" s="435"/>
-      <c r="G58" s="389"/>
+      <c r="C58" s="452"/>
+      <c r="D58" s="452"/>
+      <c r="E58" s="452"/>
+      <c r="F58" s="453"/>
+      <c r="G58" s="386"/>
     </row>
     <row r="59" spans="2:15" ht="15" customHeight="1">
-      <c r="B59" s="370">
+      <c r="B59" s="367">
         <v>6</v>
       </c>
-      <c r="C59" s="422" t="s">
+      <c r="C59" s="430" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="423"/>
-      <c r="E59" s="424"/>
-      <c r="F59" s="390">
+      <c r="D59" s="431"/>
+      <c r="E59" s="432"/>
+      <c r="F59" s="387">
         <f>IRR(F53:O53)</f>
         <v>0.43822984635565154</v>
       </c>
-      <c r="H59" s="443" t="s">
+      <c r="H59" s="436" t="s">
         <v>145</v>
       </c>
-      <c r="I59" s="444"/>
-      <c r="J59" s="444"/>
-      <c r="K59" s="444"/>
-      <c r="L59" s="444"/>
-      <c r="M59" s="444"/>
-      <c r="N59" s="444"/>
-      <c r="O59" s="445"/>
+      <c r="I59" s="437"/>
+      <c r="J59" s="437"/>
+      <c r="K59" s="437"/>
+      <c r="L59" s="437"/>
+      <c r="M59" s="437"/>
+      <c r="N59" s="437"/>
+      <c r="O59" s="438"/>
     </row>
     <row r="60" spans="2:15" ht="66.75" customHeight="1">
-      <c r="B60" s="370">
+      <c r="B60" s="367">
         <v>7</v>
       </c>
-      <c r="C60" s="422" t="s">
+      <c r="C60" s="430" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="423"/>
-      <c r="E60" s="424"/>
-      <c r="F60" s="385"/>
-      <c r="H60" s="446"/>
-      <c r="I60" s="447"/>
-      <c r="J60" s="447"/>
-      <c r="K60" s="447"/>
-      <c r="L60" s="447"/>
-      <c r="M60" s="447"/>
-      <c r="N60" s="447"/>
-      <c r="O60" s="448"/>
+      <c r="D60" s="431"/>
+      <c r="E60" s="432"/>
+      <c r="F60" s="382"/>
+      <c r="H60" s="439"/>
+      <c r="I60" s="440"/>
+      <c r="J60" s="440"/>
+      <c r="K60" s="440"/>
+      <c r="L60" s="440"/>
+      <c r="M60" s="440"/>
+      <c r="N60" s="440"/>
+      <c r="O60" s="441"/>
     </row>
     <row r="61" spans="2:15" ht="33" customHeight="1">
-      <c r="H61" s="391"/>
-      <c r="I61" s="378"/>
-      <c r="J61" s="378"/>
-      <c r="K61" s="378"/>
-      <c r="L61" s="378"/>
-      <c r="M61" s="378"/>
-      <c r="N61" s="378"/>
-      <c r="O61" s="392"/>
+      <c r="H61" s="388"/>
+      <c r="I61" s="375"/>
+      <c r="J61" s="375"/>
+      <c r="K61" s="375"/>
+      <c r="L61" s="375"/>
+      <c r="M61" s="375"/>
+      <c r="N61" s="375"/>
+      <c r="O61" s="389"/>
     </row>
     <row r="62" spans="2:15">
-      <c r="H62" s="391"/>
-      <c r="I62" s="378"/>
-      <c r="J62" s="378"/>
-      <c r="K62" s="378"/>
-      <c r="L62" s="378" t="s">
+      <c r="H62" s="388"/>
+      <c r="I62" s="375"/>
+      <c r="J62" s="375"/>
+      <c r="K62" s="375"/>
+      <c r="L62" s="375" t="s">
         <v>147</v>
       </c>
-      <c r="M62" s="378"/>
-      <c r="N62" s="378"/>
-      <c r="O62" s="392"/>
+      <c r="M62" s="375"/>
+      <c r="N62" s="375"/>
+      <c r="O62" s="389"/>
     </row>
     <row r="63" spans="2:15">
-      <c r="H63" s="391"/>
-      <c r="I63" s="378"/>
-      <c r="J63" s="378"/>
-      <c r="K63" s="378"/>
-      <c r="L63" s="378" t="s">
+      <c r="H63" s="388"/>
+      <c r="I63" s="375"/>
+      <c r="J63" s="375"/>
+      <c r="K63" s="375"/>
+      <c r="L63" s="375" t="s">
         <v>148</v>
       </c>
-      <c r="M63" s="378"/>
-      <c r="N63" s="378"/>
-      <c r="O63" s="392"/>
+      <c r="M63" s="375"/>
+      <c r="N63" s="375"/>
+      <c r="O63" s="389"/>
     </row>
     <row r="64" spans="2:15">
-      <c r="H64" s="391"/>
-      <c r="I64" s="378"/>
-      <c r="J64" s="378"/>
-      <c r="K64" s="378"/>
-      <c r="L64" s="378" t="s">
+      <c r="H64" s="388"/>
+      <c r="I64" s="375"/>
+      <c r="J64" s="375"/>
+      <c r="K64" s="375"/>
+      <c r="L64" s="375" t="s">
         <v>149</v>
       </c>
-      <c r="M64" s="378"/>
-      <c r="N64" s="378"/>
-      <c r="O64" s="392"/>
+      <c r="M64" s="375"/>
+      <c r="N64" s="375"/>
+      <c r="O64" s="389"/>
     </row>
     <row r="65" spans="2:15">
-      <c r="H65" s="391"/>
-      <c r="I65" s="378"/>
-      <c r="J65" s="378"/>
-      <c r="K65" s="378"/>
-      <c r="L65" s="378"/>
-      <c r="M65" s="378"/>
-      <c r="N65" s="378"/>
-      <c r="O65" s="392"/>
+      <c r="H65" s="388"/>
+      <c r="I65" s="375"/>
+      <c r="J65" s="375"/>
+      <c r="K65" s="375"/>
+      <c r="L65" s="375"/>
+      <c r="M65" s="375"/>
+      <c r="N65" s="375"/>
+      <c r="O65" s="389"/>
     </row>
     <row r="66" spans="2:15">
-      <c r="H66" s="391"/>
-      <c r="I66" s="378"/>
-      <c r="J66" s="378"/>
-      <c r="K66" s="378"/>
-      <c r="L66" s="378"/>
-      <c r="M66" s="378"/>
-      <c r="N66" s="378"/>
-      <c r="O66" s="392"/>
+      <c r="H66" s="388"/>
+      <c r="I66" s="375"/>
+      <c r="J66" s="375"/>
+      <c r="K66" s="375"/>
+      <c r="L66" s="375"/>
+      <c r="M66" s="375"/>
+      <c r="N66" s="375"/>
+      <c r="O66" s="389"/>
     </row>
     <row r="67" spans="2:15" ht="15.75" thickBot="1">
-      <c r="H67" s="393"/>
-      <c r="I67" s="394"/>
-      <c r="J67" s="394"/>
-      <c r="K67" s="394"/>
-      <c r="L67" s="394"/>
-      <c r="M67" s="394"/>
-      <c r="N67" s="394"/>
-      <c r="O67" s="395"/>
+      <c r="H67" s="390"/>
+      <c r="I67" s="391"/>
+      <c r="J67" s="391"/>
+      <c r="K67" s="391"/>
+      <c r="L67" s="391"/>
+      <c r="M67" s="391"/>
+      <c r="N67" s="391"/>
+      <c r="O67" s="392"/>
     </row>
     <row r="71" spans="2:15">
-      <c r="C71" s="361" t="s">
+      <c r="C71" s="358" t="s">
         <v>150</v>
       </c>
     </row>
@@ -11453,348 +11495,348 @@
       </c>
     </row>
     <row r="77" spans="2:15">
-      <c r="D77" s="425" t="s">
+      <c r="D77" s="442" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="425"/>
-      <c r="F77" s="363"/>
+      <c r="E77" s="442"/>
+      <c r="F77" s="360"/>
     </row>
     <row r="78" spans="2:15" ht="30">
-      <c r="B78" s="368" t="s">
+      <c r="B78" s="365" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="426" t="s">
+      <c r="C78" s="443" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="426"/>
-      <c r="E78" s="426"/>
-      <c r="F78" s="386">
+      <c r="D78" s="443"/>
+      <c r="E78" s="443"/>
+      <c r="F78" s="383">
         <v>1</v>
       </c>
-      <c r="G78" s="386">
+      <c r="G78" s="383">
         <v>2</v>
       </c>
-      <c r="H78" s="386">
+      <c r="H78" s="383">
         <v>3</v>
       </c>
-      <c r="I78" s="386">
+      <c r="I78" s="383">
         <v>4</v>
       </c>
-      <c r="J78" s="386">
+      <c r="J78" s="383">
         <v>5</v>
       </c>
-      <c r="K78" s="386">
+      <c r="K78" s="383">
         <v>6</v>
       </c>
-      <c r="L78" s="386">
+      <c r="L78" s="383">
         <v>7</v>
       </c>
-      <c r="M78" s="386">
+      <c r="M78" s="383">
         <v>8</v>
       </c>
-      <c r="N78" s="386">
+      <c r="N78" s="383">
         <v>9</v>
       </c>
-      <c r="O78" s="386">
+      <c r="O78" s="383">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="2:15" ht="30" customHeight="1">
-      <c r="B79" s="370">
+      <c r="B79" s="367">
         <v>1</v>
       </c>
-      <c r="C79" s="422" t="str">
+      <c r="C79" s="430" t="str">
         <f>C15</f>
         <v>Затраты на осуществление ИСП (IC), руб.</v>
       </c>
-      <c r="D79" s="423"/>
-      <c r="E79" s="424"/>
-      <c r="F79" s="374">
+      <c r="D79" s="431"/>
+      <c r="E79" s="432"/>
+      <c r="F79" s="371">
         <f>F15</f>
         <v>2500000</v>
       </c>
-      <c r="G79" s="374">
+      <c r="G79" s="371">
         <f t="shared" ref="G79:O80" si="9">G15</f>
         <v>23750000</v>
       </c>
-      <c r="H79" s="374">
+      <c r="H79" s="371">
         <f t="shared" si="9"/>
         <v>23750000</v>
       </c>
-      <c r="I79" s="396"/>
-      <c r="J79" s="396"/>
-      <c r="K79" s="396"/>
-      <c r="L79" s="396"/>
-      <c r="M79" s="396"/>
-      <c r="N79" s="396"/>
-      <c r="O79" s="396"/>
+      <c r="I79" s="393"/>
+      <c r="J79" s="393"/>
+      <c r="K79" s="393"/>
+      <c r="L79" s="393"/>
+      <c r="M79" s="393"/>
+      <c r="N79" s="393"/>
+      <c r="O79" s="393"/>
     </row>
     <row r="80" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B80" s="370">
+      <c r="B80" s="367">
         <v>2</v>
       </c>
-      <c r="C80" s="422" t="s">
+      <c r="C80" s="430" t="s">
         <v>124</v>
       </c>
-      <c r="D80" s="423"/>
-      <c r="E80" s="424"/>
-      <c r="F80" s="372">
+      <c r="D80" s="431"/>
+      <c r="E80" s="432"/>
+      <c r="F80" s="369">
         <f>F16</f>
         <v>0</v>
       </c>
-      <c r="G80" s="372">
+      <c r="G80" s="369">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H80" s="372">
+      <c r="H80" s="369">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I80" s="371">
+      <c r="I80" s="368">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="J80" s="371">
+      <c r="J80" s="368">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="K80" s="371">
+      <c r="K80" s="368">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="L80" s="371">
+      <c r="L80" s="368">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="M80" s="371">
+      <c r="M80" s="368">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="N80" s="371">
+      <c r="N80" s="368">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="O80" s="371">
+      <c r="O80" s="368">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
     </row>
     <row r="81" spans="2:15">
-      <c r="B81" s="370">
+      <c r="B81" s="367">
         <v>3</v>
       </c>
-      <c r="C81" s="430" t="s">
+      <c r="C81" s="444" t="s">
         <v>126</v>
       </c>
-      <c r="D81" s="431"/>
-      <c r="E81" s="432"/>
-      <c r="F81" s="375">
+      <c r="D81" s="445"/>
+      <c r="E81" s="446"/>
+      <c r="F81" s="372">
         <f>F18</f>
         <v>0.78125</v>
       </c>
-      <c r="G81" s="375">
+      <c r="G81" s="372">
         <f t="shared" ref="G81:O81" si="10">G18</f>
         <v>0.6103515625</v>
       </c>
-      <c r="H81" s="375">
+      <c r="H81" s="372">
         <f t="shared" si="10"/>
         <v>0.47683715820312494</v>
       </c>
-      <c r="I81" s="375">
+      <c r="I81" s="372">
         <f t="shared" si="10"/>
         <v>0.37252902984619141</v>
       </c>
-      <c r="J81" s="375">
+      <c r="J81" s="372">
         <f t="shared" si="10"/>
         <v>0.29103830456733704</v>
       </c>
-      <c r="K81" s="375">
+      <c r="K81" s="372">
         <f t="shared" si="10"/>
         <v>0.22737367544323206</v>
       </c>
-      <c r="L81" s="375">
+      <c r="L81" s="372">
         <f t="shared" si="10"/>
         <v>0.17763568394002502</v>
       </c>
-      <c r="M81" s="375">
+      <c r="M81" s="372">
         <f t="shared" si="10"/>
         <v>0.13877787807814454</v>
       </c>
-      <c r="N81" s="375">
+      <c r="N81" s="372">
         <f t="shared" si="10"/>
         <v>0.10842021724855043</v>
       </c>
-      <c r="O81" s="375">
+      <c r="O81" s="372">
         <f t="shared" si="10"/>
         <v>8.470329472543002E-2</v>
       </c>
     </row>
     <row r="82" spans="2:15" ht="32.25" customHeight="1">
-      <c r="B82" s="370">
+      <c r="B82" s="367">
         <v>4</v>
       </c>
-      <c r="C82" s="449" t="s">
+      <c r="C82" s="447" t="s">
         <v>155</v>
       </c>
-      <c r="D82" s="449"/>
-      <c r="E82" s="449"/>
-      <c r="I82" s="382">
+      <c r="D82" s="447"/>
+      <c r="E82" s="447"/>
+      <c r="I82" s="379">
         <f t="shared" ref="I82:O82" si="11">I80*I81</f>
         <v>11175870.895385742</v>
       </c>
-      <c r="J82" s="382">
+      <c r="J82" s="379">
         <f t="shared" si="11"/>
         <v>8731149.1370201111</v>
       </c>
-      <c r="K82" s="382">
+      <c r="K82" s="379">
         <f t="shared" si="11"/>
         <v>6821210.2632969618</v>
       </c>
-      <c r="L82" s="382">
+      <c r="L82" s="379">
         <f t="shared" si="11"/>
         <v>5329070.5182007505</v>
       </c>
-      <c r="M82" s="382">
+      <c r="M82" s="379">
         <f t="shared" si="11"/>
         <v>4163336.3423443362</v>
       </c>
-      <c r="N82" s="382">
+      <c r="N82" s="379">
         <f t="shared" si="11"/>
         <v>3252606.5174565129</v>
       </c>
-      <c r="O82" s="382">
+      <c r="O82" s="379">
         <f t="shared" si="11"/>
         <v>2541098.8417629008</v>
       </c>
     </row>
     <row r="83" spans="2:15" ht="45" customHeight="1">
-      <c r="B83" s="370">
+      <c r="B83" s="367">
         <v>5</v>
       </c>
-      <c r="C83" s="449" t="s">
+      <c r="C83" s="447" t="s">
         <v>156</v>
       </c>
-      <c r="D83" s="449"/>
-      <c r="E83" s="449"/>
-      <c r="F83" s="371">
+      <c r="D83" s="447"/>
+      <c r="E83" s="447"/>
+      <c r="F83" s="368">
         <f>F79*F81</f>
         <v>1953125</v>
       </c>
-      <c r="G83" s="371">
+      <c r="G83" s="368">
         <f>G79*G81</f>
         <v>14495849.609375</v>
       </c>
-      <c r="H83" s="371">
+      <c r="H83" s="368">
         <f>H79*H81</f>
         <v>11324882.507324217</v>
       </c>
-      <c r="I83" s="397"/>
-      <c r="J83" s="397"/>
-      <c r="K83" s="397"/>
-      <c r="L83" s="397"/>
-      <c r="M83" s="397"/>
-      <c r="N83" s="397"/>
-      <c r="O83" s="397"/>
+      <c r="I83" s="394"/>
+      <c r="J83" s="394"/>
+      <c r="K83" s="394"/>
+      <c r="L83" s="394"/>
+      <c r="M83" s="394"/>
+      <c r="N83" s="394"/>
+      <c r="O83" s="394"/>
     </row>
     <row r="84" spans="2:15">
-      <c r="B84" s="450" t="s">
+      <c r="B84" s="448" t="s">
         <v>128</v>
       </c>
-      <c r="C84" s="451"/>
-      <c r="D84" s="451"/>
-      <c r="E84" s="451"/>
-      <c r="F84" s="452"/>
+      <c r="C84" s="449"/>
+      <c r="D84" s="449"/>
+      <c r="E84" s="449"/>
+      <c r="F84" s="450"/>
     </row>
     <row r="85" spans="2:15">
-      <c r="B85" s="370">
+      <c r="B85" s="367">
         <v>5</v>
       </c>
-      <c r="C85" s="422" t="s">
+      <c r="C85" s="430" t="s">
         <v>107</v>
       </c>
-      <c r="D85" s="423"/>
-      <c r="E85" s="424"/>
-      <c r="F85" s="398">
+      <c r="D85" s="431"/>
+      <c r="E85" s="432"/>
+      <c r="F85" s="395">
         <f>SUM(I82:O82)/SUM(F83:H83)</f>
         <v>1.5127298429934641</v>
       </c>
     </row>
     <row r="86" spans="2:15" ht="46.5" customHeight="1">
-      <c r="B86" s="370">
+      <c r="B86" s="367">
         <v>6</v>
       </c>
-      <c r="C86" s="422" t="s">
+      <c r="C86" s="430" t="s">
         <v>152</v>
       </c>
-      <c r="D86" s="423"/>
-      <c r="E86" s="424"/>
-      <c r="F86" s="454"/>
-      <c r="G86" s="454"/>
-      <c r="H86" s="454"/>
-      <c r="I86" s="454"/>
-      <c r="K86" s="399"/>
+      <c r="D86" s="431"/>
+      <c r="E86" s="432"/>
+      <c r="F86" s="433"/>
+      <c r="G86" s="433"/>
+      <c r="H86" s="433"/>
+      <c r="I86" s="433"/>
+      <c r="K86" s="396"/>
     </row>
     <row r="87" spans="2:15" ht="49.5" customHeight="1">
-      <c r="B87" s="370">
+      <c r="B87" s="367">
         <v>7</v>
       </c>
-      <c r="C87" s="422" t="s">
+      <c r="C87" s="430" t="s">
         <v>157</v>
       </c>
-      <c r="D87" s="423"/>
-      <c r="E87" s="424"/>
-      <c r="F87" s="400"/>
-      <c r="K87" s="399"/>
+      <c r="D87" s="431"/>
+      <c r="E87" s="432"/>
+      <c r="F87" s="397"/>
+      <c r="K87" s="396"/>
     </row>
     <row r="88" spans="2:15" ht="63.75" customHeight="1">
-      <c r="B88" s="370">
+      <c r="B88" s="367">
         <v>8</v>
       </c>
-      <c r="C88" s="422" t="str">
+      <c r="C88" s="430" t="str">
         <f>C75</f>
         <v>Почему для данного проекта нельзя использовать оценку экономической эффективности по PI?</v>
       </c>
-      <c r="D88" s="423"/>
-      <c r="E88" s="424"/>
-      <c r="F88" s="455"/>
-      <c r="G88" s="455"/>
-      <c r="H88" s="455"/>
-      <c r="I88" s="455"/>
+      <c r="D88" s="431"/>
+      <c r="E88" s="432"/>
+      <c r="F88" s="434"/>
+      <c r="G88" s="434"/>
+      <c r="H88" s="434"/>
+      <c r="I88" s="434"/>
     </row>
     <row r="91" spans="2:15" ht="78" customHeight="1">
-      <c r="E91" s="456" t="s">
+      <c r="E91" s="435" t="s">
         <v>158</v>
       </c>
-      <c r="F91" s="456"/>
-      <c r="G91" s="456"/>
-      <c r="H91" s="456"/>
-      <c r="I91" s="456"/>
-      <c r="J91" s="456"/>
-      <c r="K91" s="456"/>
+      <c r="F91" s="435"/>
+      <c r="G91" s="435"/>
+      <c r="H91" s="435"/>
+      <c r="I91" s="435"/>
+      <c r="J91" s="435"/>
+      <c r="K91" s="435"/>
     </row>
     <row r="92" spans="2:15">
-      <c r="E92" s="453"/>
-      <c r="F92" s="453"/>
-      <c r="G92" s="453"/>
-      <c r="H92" s="453"/>
-      <c r="I92" s="453"/>
-      <c r="J92" s="453"/>
+      <c r="E92" s="429"/>
+      <c r="F92" s="429"/>
+      <c r="G92" s="429"/>
+      <c r="H92" s="429"/>
+      <c r="I92" s="429"/>
+      <c r="J92" s="429"/>
     </row>
     <row r="93" spans="2:15">
-      <c r="E93" s="453"/>
-      <c r="F93" s="453"/>
-      <c r="G93" s="453"/>
-      <c r="H93" s="453"/>
-      <c r="I93" s="453"/>
-      <c r="J93" s="453"/>
+      <c r="E93" s="429"/>
+      <c r="F93" s="429"/>
+      <c r="G93" s="429"/>
+      <c r="H93" s="429"/>
+      <c r="I93" s="429"/>
+      <c r="J93" s="429"/>
     </row>
     <row r="94" spans="2:15">
-      <c r="E94" s="453"/>
-      <c r="F94" s="453"/>
-      <c r="G94" s="453"/>
-      <c r="H94" s="453"/>
-      <c r="I94" s="453"/>
-      <c r="J94" s="453"/>
+      <c r="E94" s="429"/>
+      <c r="F94" s="429"/>
+      <c r="G94" s="429"/>
+      <c r="H94" s="429"/>
+      <c r="I94" s="429"/>
+      <c r="J94" s="429"/>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
@@ -11808,25 +11850,30 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E92:J94"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="E91:K91"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="H59:O60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="H22:M28"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="H38:M43"/>
     <mergeCell ref="C39:E39"/>
@@ -11840,30 +11887,25 @@
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="H22:M28"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="H59:O60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="E92:J94"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="E91:K91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11877,8 +11919,8 @@
   </sheetPr>
   <dimension ref="A1:AC136"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:F20"/>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -11917,22 +11959,22 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
-      <c r="Q1" s="475" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="476"/>
-      <c r="S1" s="476"/>
-      <c r="T1" s="477"/>
-      <c r="U1" s="475"/>
-      <c r="V1" s="476"/>
-      <c r="W1" s="476"/>
-      <c r="X1" s="477"/>
+      <c r="Q1" s="488" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="489"/>
+      <c r="S1" s="489"/>
+      <c r="T1" s="490"/>
+      <c r="U1" s="488"/>
+      <c r="V1" s="489"/>
+      <c r="W1" s="489"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="15.75">
-      <c r="A2" s="486" t="s">
+      <c r="A2" s="476" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="487"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -11947,14 +11989,14 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="475"/>
-      <c r="R2" s="476"/>
-      <c r="S2" s="476"/>
-      <c r="T2" s="477"/>
-      <c r="U2" s="475"/>
-      <c r="V2" s="476"/>
-      <c r="W2" s="476"/>
-      <c r="X2" s="477"/>
+      <c r="Q2" s="488"/>
+      <c r="R2" s="489"/>
+      <c r="S2" s="489"/>
+      <c r="T2" s="490"/>
+      <c r="U2" s="488"/>
+      <c r="V2" s="489"/>
+      <c r="W2" s="489"/>
+      <c r="X2" s="490"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
@@ -11978,14 +12020,14 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="475"/>
-      <c r="R3" s="476"/>
-      <c r="S3" s="476"/>
-      <c r="T3" s="477"/>
-      <c r="U3" s="475"/>
-      <c r="V3" s="476"/>
-      <c r="W3" s="476"/>
-      <c r="X3" s="477"/>
+      <c r="Q3" s="488"/>
+      <c r="R3" s="489"/>
+      <c r="S3" s="489"/>
+      <c r="T3" s="490"/>
+      <c r="U3" s="488"/>
+      <c r="V3" s="489"/>
+      <c r="W3" s="489"/>
+      <c r="X3" s="490"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -12009,16 +12051,16 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="467" t="s">
+      <c r="Q4" s="478" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="468"/>
-      <c r="S4" s="468"/>
-      <c r="T4" s="469"/>
-      <c r="U4" s="467"/>
-      <c r="V4" s="468"/>
-      <c r="W4" s="468"/>
-      <c r="X4" s="469"/>
+      <c r="R4" s="479"/>
+      <c r="S4" s="479"/>
+      <c r="T4" s="480"/>
+      <c r="U4" s="478"/>
+      <c r="V4" s="479"/>
+      <c r="W4" s="479"/>
+      <c r="X4" s="480"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
@@ -12042,14 +12084,14 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="467"/>
-      <c r="R5" s="468"/>
-      <c r="S5" s="468"/>
-      <c r="T5" s="469"/>
-      <c r="U5" s="467"/>
-      <c r="V5" s="468"/>
-      <c r="W5" s="468"/>
-      <c r="X5" s="469"/>
+      <c r="Q5" s="478"/>
+      <c r="R5" s="479"/>
+      <c r="S5" s="479"/>
+      <c r="T5" s="480"/>
+      <c r="U5" s="478"/>
+      <c r="V5" s="479"/>
+      <c r="W5" s="479"/>
+      <c r="X5" s="480"/>
     </row>
     <row r="6" spans="1:24" hidden="1">
       <c r="A6" s="16" t="s">
@@ -12073,14 +12115,14 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="470"/>
-      <c r="R6" s="471"/>
-      <c r="S6" s="471"/>
-      <c r="T6" s="472"/>
-      <c r="U6" s="470"/>
-      <c r="V6" s="471"/>
-      <c r="W6" s="471"/>
-      <c r="X6" s="472"/>
+      <c r="Q6" s="481"/>
+      <c r="R6" s="482"/>
+      <c r="S6" s="482"/>
+      <c r="T6" s="483"/>
+      <c r="U6" s="481"/>
+      <c r="V6" s="482"/>
+      <c r="W6" s="482"/>
+      <c r="X6" s="483"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="18" t="s">
@@ -12124,7 +12166,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:24" hidden="1">
-      <c r="A9" s="473" t="s">
+      <c r="A9" s="486" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -12145,7 +12187,7 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="474"/>
+      <c r="A10" s="487"/>
       <c r="B10" s="23">
         <f>B6*B9</f>
         <v>1127.3</v>
@@ -12165,7 +12207,7 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:24" hidden="1">
-      <c r="A11" s="488" t="s">
+      <c r="A11" s="484" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
@@ -12187,7 +12229,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A12" s="489"/>
+      <c r="A12" s="485"/>
       <c r="B12" s="23">
         <f>B5*B11</f>
         <v>62858</v>
@@ -12208,7 +12250,7 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:24" hidden="1">
-      <c r="A13" s="473" t="s">
+      <c r="A13" s="486" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="24">
@@ -12230,7 +12272,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A14" s="474"/>
+      <c r="A14" s="487"/>
       <c r="B14" s="23">
         <f>B5*B13</f>
         <v>0</v>
@@ -12269,34 +12311,34 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A16" s="463" t="s">
+      <c r="A16" s="504" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="464"/>
-      <c r="C16" s="462" t="s">
+      <c r="B16" s="505"/>
+      <c r="C16" s="503" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="462"/>
-      <c r="E16" s="462"/>
-      <c r="F16" s="462"/>
-      <c r="G16" s="462" t="s">
+      <c r="D16" s="503"/>
+      <c r="E16" s="503"/>
+      <c r="F16" s="503"/>
+      <c r="G16" s="503" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="462"/>
-      <c r="I16" s="462"/>
-      <c r="J16" s="462"/>
-      <c r="K16" s="462" t="s">
+      <c r="H16" s="503"/>
+      <c r="I16" s="503"/>
+      <c r="J16" s="503"/>
+      <c r="K16" s="503" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="462"/>
-      <c r="M16" s="462"/>
+      <c r="L16" s="503"/>
+      <c r="M16" s="503"/>
       <c r="N16" s="199"/>
       <c r="O16" s="200"/>
-      <c r="P16" s="404"/>
+      <c r="P16" s="401"/>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="465"/>
-      <c r="B17" s="466"/>
+      <c r="A17" s="506"/>
+      <c r="B17" s="507"/>
       <c r="C17" s="201">
         <v>1</v>
       </c>
@@ -12346,7 +12388,7 @@
       <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:20" s="35" customFormat="1" ht="25.5">
-      <c r="A18" s="403" t="s">
+      <c r="A18" s="400" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="204"/>
@@ -12400,7 +12442,7 @@
       <c r="O18" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="405" t="s">
+      <c r="P18" s="402" t="s">
         <v>69</v>
       </c>
       <c r="Q18" s="33" t="s">
@@ -12447,26 +12489,26 @@
         <v>21</v>
       </c>
       <c r="B20" s="43"/>
-      <c r="C20" s="479">
+      <c r="C20" s="492">
         <f>Q20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D20" s="479"/>
-      <c r="E20" s="479"/>
-      <c r="F20" s="479"/>
-      <c r="G20" s="479">
+      <c r="D20" s="492"/>
+      <c r="E20" s="492"/>
+      <c r="F20" s="492"/>
+      <c r="G20" s="492">
         <f>C20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="479"/>
-      <c r="I20" s="479"/>
-      <c r="J20" s="479"/>
-      <c r="K20" s="479">
+      <c r="H20" s="492"/>
+      <c r="I20" s="492"/>
+      <c r="J20" s="492"/>
+      <c r="K20" s="492">
         <f>G20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L20" s="479"/>
-      <c r="M20" s="479"/>
+      <c r="L20" s="492"/>
+      <c r="M20" s="492"/>
       <c r="N20" s="221">
         <f>(1+C20)^(1/4)-1</f>
         <v>1.6106667595102708E-2</v>
@@ -13636,12 +13678,12 @@
       <c r="N51" s="38"/>
       <c r="O51" s="39"/>
       <c r="P51" s="38"/>
-      <c r="T51" s="475" t="s">
+      <c r="T51" s="488" t="s">
         <v>53</v>
       </c>
-      <c r="U51" s="480"/>
-      <c r="V51" s="480"/>
-      <c r="W51" s="480"/>
+      <c r="U51" s="493"/>
+      <c r="V51" s="493"/>
+      <c r="W51" s="493"/>
     </row>
     <row r="52" spans="1:23" hidden="1">
       <c r="A52" s="98" t="s">
@@ -13683,10 +13725,10 @@
       <c r="N52" s="104"/>
       <c r="O52" s="105"/>
       <c r="P52" s="104"/>
-      <c r="T52" s="475"/>
-      <c r="U52" s="480"/>
-      <c r="V52" s="480"/>
-      <c r="W52" s="480"/>
+      <c r="T52" s="488"/>
+      <c r="U52" s="493"/>
+      <c r="V52" s="493"/>
+      <c r="W52" s="493"/>
     </row>
     <row r="53" spans="1:23" hidden="1">
       <c r="A53" s="106" t="s">
@@ -13716,10 +13758,10 @@
       <c r="N53" s="54"/>
       <c r="O53" s="55"/>
       <c r="P53" s="54"/>
-      <c r="T53" s="475"/>
-      <c r="U53" s="480"/>
-      <c r="V53" s="480"/>
-      <c r="W53" s="480"/>
+      <c r="T53" s="488"/>
+      <c r="U53" s="493"/>
+      <c r="V53" s="493"/>
+      <c r="W53" s="493"/>
     </row>
     <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="110" t="s">
@@ -14237,23 +14279,23 @@
         <v>66</v>
       </c>
       <c r="B65" s="93"/>
-      <c r="C65" s="481"/>
-      <c r="D65" s="481"/>
-      <c r="E65" s="481"/>
-      <c r="F65" s="482"/>
-      <c r="G65" s="482"/>
-      <c r="H65" s="482"/>
-      <c r="I65" s="482"/>
-      <c r="J65" s="482"/>
-      <c r="K65" s="482"/>
-      <c r="L65" s="482"/>
-      <c r="M65" s="482"/>
+      <c r="C65" s="494"/>
+      <c r="D65" s="494"/>
+      <c r="E65" s="494"/>
+      <c r="F65" s="495"/>
+      <c r="G65" s="495"/>
+      <c r="H65" s="495"/>
+      <c r="I65" s="495"/>
+      <c r="J65" s="495"/>
+      <c r="K65" s="495"/>
+      <c r="L65" s="495"/>
+      <c r="M65" s="495"/>
       <c r="N65" s="130"/>
       <c r="O65" s="131"/>
       <c r="P65" s="130"/>
     </row>
     <row r="66" spans="1:17" s="7" customFormat="1" ht="22.5">
-      <c r="A66" s="403" t="s">
+      <c r="A66" s="400" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="204" t="s">
@@ -14311,7 +14353,7 @@
         <f t="shared" si="29"/>
         <v>13 квартал</v>
       </c>
-      <c r="P66" s="405" t="str">
+      <c r="P66" s="402" t="str">
         <f t="shared" ref="P66" si="30">P18</f>
         <v>14 квартал</v>
       </c>
@@ -15605,15 +15647,15 @@
       <c r="L90" s="191"/>
     </row>
     <row r="91" spans="1:17" s="14" customFormat="1" ht="15.75">
-      <c r="A91" s="483" t="s">
+      <c r="A91" s="496" t="s">
         <v>101</v>
       </c>
-      <c r="B91" s="483"/>
-      <c r="C91" s="483"/>
-      <c r="D91" s="483"/>
-      <c r="E91" s="483"/>
-      <c r="F91" s="406"/>
-      <c r="G91" s="408"/>
+      <c r="B91" s="496"/>
+      <c r="C91" s="496"/>
+      <c r="D91" s="496"/>
+      <c r="E91" s="496"/>
+      <c r="F91" s="403"/>
+      <c r="G91" s="405"/>
       <c r="H91" s="193"/>
       <c r="I91" s="193"/>
       <c r="J91" s="193"/>
@@ -15621,264 +15663,264 @@
       <c r="L91" s="193"/>
     </row>
     <row r="92" spans="1:17" ht="15.75">
-      <c r="A92" s="461" t="s">
+      <c r="A92" s="497" t="s">
         <v>102</v>
       </c>
-      <c r="B92" s="461"/>
-      <c r="C92" s="461"/>
-      <c r="D92" s="484">
+      <c r="B92" s="497"/>
+      <c r="C92" s="497"/>
+      <c r="D92" s="498">
         <f>B84</f>
         <v>401229848.55267346</v>
       </c>
-      <c r="E92" s="484"/>
-      <c r="F92" s="407"/>
-      <c r="G92" s="409"/>
+      <c r="E92" s="498"/>
+      <c r="F92" s="404"/>
+      <c r="G92" s="406"/>
     </row>
     <row r="93" spans="1:17" ht="15.75">
-      <c r="A93" s="461" t="s">
+      <c r="A93" s="497" t="s">
         <v>103</v>
       </c>
-      <c r="B93" s="461"/>
-      <c r="C93" s="461"/>
-      <c r="D93" s="484">
+      <c r="B93" s="497"/>
+      <c r="C93" s="497"/>
+      <c r="D93" s="498">
         <f>B88</f>
         <v>140243990.22569665</v>
       </c>
-      <c r="E93" s="484"/>
-      <c r="F93" s="407"/>
-      <c r="G93" s="409"/>
+      <c r="E93" s="498"/>
+      <c r="F93" s="404"/>
+      <c r="G93" s="406"/>
     </row>
     <row r="94" spans="1:17" ht="15.75">
-      <c r="A94" s="461" t="s">
+      <c r="A94" s="497" t="s">
         <v>104</v>
       </c>
-      <c r="B94" s="461"/>
-      <c r="C94" s="461"/>
-      <c r="D94" s="401"/>
-      <c r="E94" s="401"/>
-      <c r="F94" s="407"/>
-      <c r="G94" s="409"/>
+      <c r="B94" s="497"/>
+      <c r="C94" s="497"/>
+      <c r="D94" s="398"/>
+      <c r="E94" s="398"/>
+      <c r="F94" s="404"/>
+      <c r="G94" s="406"/>
     </row>
     <row r="95" spans="1:17" ht="15.75">
-      <c r="A95" s="461" t="s">
+      <c r="A95" s="497" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="461"/>
-      <c r="C95" s="461"/>
-      <c r="D95" s="401"/>
-      <c r="E95" s="401"/>
-      <c r="F95" s="407"/>
-      <c r="G95" s="409"/>
+      <c r="B95" s="497"/>
+      <c r="C95" s="497"/>
+      <c r="D95" s="398"/>
+      <c r="E95" s="398"/>
+      <c r="F95" s="404"/>
+      <c r="G95" s="406"/>
     </row>
     <row r="96" spans="1:17" ht="15.75">
-      <c r="A96" s="461" t="s">
+      <c r="A96" s="497" t="s">
         <v>106</v>
       </c>
-      <c r="B96" s="461"/>
-      <c r="C96" s="461"/>
-      <c r="D96" s="402"/>
-      <c r="E96" s="402">
+      <c r="B96" s="497"/>
+      <c r="C96" s="497"/>
+      <c r="D96" s="399"/>
+      <c r="E96" s="399">
         <f>(1+D96)^4-1</f>
         <v>0</v>
       </c>
-      <c r="F96" s="407"/>
-      <c r="G96" s="409"/>
+      <c r="F96" s="404"/>
+      <c r="G96" s="406"/>
     </row>
     <row r="97" spans="1:14" ht="15.75">
-      <c r="A97" s="461" t="s">
+      <c r="A97" s="497" t="s">
         <v>107</v>
       </c>
-      <c r="B97" s="461"/>
-      <c r="C97" s="461"/>
-      <c r="D97" s="485"/>
-      <c r="E97" s="485"/>
-      <c r="F97" s="407"/>
-      <c r="G97" s="409"/>
+      <c r="B97" s="497"/>
+      <c r="C97" s="497"/>
+      <c r="D97" s="508"/>
+      <c r="E97" s="508"/>
+      <c r="F97" s="404"/>
+      <c r="G97" s="406"/>
     </row>
     <row r="98" spans="1:14" ht="15.75">
-      <c r="A98" s="457" t="s">
+      <c r="A98" s="499" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="458"/>
-      <c r="C98" s="458"/>
-      <c r="D98" s="459"/>
-      <c r="E98" s="360"/>
+      <c r="B98" s="500"/>
+      <c r="C98" s="500"/>
+      <c r="D98" s="501"/>
+      <c r="E98" s="357"/>
     </row>
     <row r="99" spans="1:14" ht="15.75">
-      <c r="A99" s="460"/>
-      <c r="B99" s="460"/>
-      <c r="C99" s="460"/>
-      <c r="D99" s="460"/>
-      <c r="E99" s="360"/>
+      <c r="A99" s="502"/>
+      <c r="B99" s="502"/>
+      <c r="C99" s="502"/>
+      <c r="D99" s="502"/>
+      <c r="E99" s="357"/>
     </row>
     <row r="100" spans="1:14" ht="15.75">
-      <c r="A100" s="460"/>
-      <c r="B100" s="460"/>
-      <c r="C100" s="460"/>
-      <c r="D100" s="460"/>
-      <c r="E100" s="360"/>
+      <c r="A100" s="502"/>
+      <c r="B100" s="502"/>
+      <c r="C100" s="502"/>
+      <c r="D100" s="502"/>
+      <c r="E100" s="357"/>
     </row>
     <row r="101" spans="1:14" ht="15.75">
-      <c r="A101" s="460"/>
-      <c r="B101" s="460"/>
-      <c r="C101" s="460"/>
-      <c r="D101" s="460"/>
-      <c r="E101" s="360"/>
+      <c r="A101" s="502"/>
+      <c r="B101" s="502"/>
+      <c r="C101" s="502"/>
+      <c r="D101" s="502"/>
+      <c r="E101" s="357"/>
     </row>
     <row r="102" spans="1:14" ht="15.75">
-      <c r="A102" s="460"/>
-      <c r="B102" s="460"/>
-      <c r="C102" s="460"/>
-      <c r="D102" s="460"/>
-      <c r="E102" s="360"/>
+      <c r="A102" s="502"/>
+      <c r="B102" s="502"/>
+      <c r="C102" s="502"/>
+      <c r="D102" s="502"/>
+      <c r="E102" s="357"/>
     </row>
     <row r="103" spans="1:14" ht="15.75">
-      <c r="A103" s="460"/>
-      <c r="B103" s="460"/>
-      <c r="C103" s="460"/>
-      <c r="D103" s="460"/>
-      <c r="E103" s="360"/>
+      <c r="A103" s="502"/>
+      <c r="B103" s="502"/>
+      <c r="C103" s="502"/>
+      <c r="D103" s="502"/>
+      <c r="E103" s="357"/>
     </row>
     <row r="104" spans="1:14" ht="15.75">
-      <c r="A104" s="460"/>
-      <c r="B104" s="460"/>
-      <c r="C104" s="460"/>
-      <c r="D104" s="460"/>
-      <c r="E104" s="360"/>
+      <c r="A104" s="502"/>
+      <c r="B104" s="502"/>
+      <c r="C104" s="502"/>
+      <c r="D104" s="502"/>
+      <c r="E104" s="357"/>
     </row>
     <row r="105" spans="1:14" ht="15.75">
-      <c r="A105" s="460"/>
-      <c r="B105" s="460"/>
-      <c r="C105" s="460"/>
-      <c r="D105" s="460"/>
-      <c r="E105" s="360"/>
+      <c r="A105" s="502"/>
+      <c r="B105" s="502"/>
+      <c r="C105" s="502"/>
+      <c r="D105" s="502"/>
+      <c r="E105" s="357"/>
     </row>
     <row r="111" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="478" t="s">
+      <c r="A111" s="491" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="478"/>
-      <c r="C111" s="478"/>
-      <c r="D111" s="478"/>
-      <c r="E111" s="478"/>
-      <c r="F111" s="478"/>
-      <c r="G111" s="478"/>
-      <c r="H111" s="478"/>
-      <c r="I111" s="478"/>
-      <c r="J111" s="478"/>
-      <c r="K111" s="478"/>
+      <c r="B111" s="491"/>
+      <c r="C111" s="491"/>
+      <c r="D111" s="491"/>
+      <c r="E111" s="491"/>
+      <c r="F111" s="491"/>
+      <c r="G111" s="491"/>
+      <c r="H111" s="491"/>
+      <c r="I111" s="491"/>
+      <c r="J111" s="491"/>
+      <c r="K111" s="491"/>
       <c r="L111" s="185"/>
       <c r="M111" s="185"/>
       <c r="N111" s="184"/>
     </row>
     <row r="112" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A112" s="478"/>
-      <c r="B112" s="478"/>
-      <c r="C112" s="478"/>
-      <c r="D112" s="478"/>
-      <c r="E112" s="478"/>
-      <c r="F112" s="478"/>
-      <c r="G112" s="478"/>
-      <c r="H112" s="478"/>
-      <c r="I112" s="478"/>
-      <c r="J112" s="478"/>
-      <c r="K112" s="478"/>
+      <c r="A112" s="491"/>
+      <c r="B112" s="491"/>
+      <c r="C112" s="491"/>
+      <c r="D112" s="491"/>
+      <c r="E112" s="491"/>
+      <c r="F112" s="491"/>
+      <c r="G112" s="491"/>
+      <c r="H112" s="491"/>
+      <c r="I112" s="491"/>
+      <c r="J112" s="491"/>
+      <c r="K112" s="491"/>
       <c r="L112" s="186"/>
       <c r="M112" s="186"/>
       <c r="N112" s="184"/>
     </row>
     <row r="113" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A113" s="478"/>
-      <c r="B113" s="478"/>
-      <c r="C113" s="478"/>
-      <c r="D113" s="478"/>
-      <c r="E113" s="478"/>
-      <c r="F113" s="478"/>
-      <c r="G113" s="478"/>
-      <c r="H113" s="478"/>
-      <c r="I113" s="478"/>
-      <c r="J113" s="478"/>
-      <c r="K113" s="478"/>
+      <c r="A113" s="491"/>
+      <c r="B113" s="491"/>
+      <c r="C113" s="491"/>
+      <c r="D113" s="491"/>
+      <c r="E113" s="491"/>
+      <c r="F113" s="491"/>
+      <c r="G113" s="491"/>
+      <c r="H113" s="491"/>
+      <c r="I113" s="491"/>
+      <c r="J113" s="491"/>
+      <c r="K113" s="491"/>
       <c r="L113" s="186"/>
       <c r="M113" s="186"/>
       <c r="N113" s="184"/>
     </row>
     <row r="114" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A114" s="478"/>
-      <c r="B114" s="478"/>
-      <c r="C114" s="478"/>
-      <c r="D114" s="478"/>
-      <c r="E114" s="478"/>
-      <c r="F114" s="478"/>
-      <c r="G114" s="478"/>
-      <c r="H114" s="478"/>
-      <c r="I114" s="478"/>
-      <c r="J114" s="478"/>
-      <c r="K114" s="478"/>
+      <c r="A114" s="491"/>
+      <c r="B114" s="491"/>
+      <c r="C114" s="491"/>
+      <c r="D114" s="491"/>
+      <c r="E114" s="491"/>
+      <c r="F114" s="491"/>
+      <c r="G114" s="491"/>
+      <c r="H114" s="491"/>
+      <c r="I114" s="491"/>
+      <c r="J114" s="491"/>
+      <c r="K114" s="491"/>
       <c r="L114" s="186"/>
       <c r="M114" s="186"/>
       <c r="N114" s="184"/>
     </row>
     <row r="115" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A115" s="478"/>
-      <c r="B115" s="478"/>
-      <c r="C115" s="478"/>
-      <c r="D115" s="478"/>
-      <c r="E115" s="478"/>
-      <c r="F115" s="478"/>
-      <c r="G115" s="478"/>
-      <c r="H115" s="478"/>
-      <c r="I115" s="478"/>
-      <c r="J115" s="478"/>
-      <c r="K115" s="478"/>
+      <c r="A115" s="491"/>
+      <c r="B115" s="491"/>
+      <c r="C115" s="491"/>
+      <c r="D115" s="491"/>
+      <c r="E115" s="491"/>
+      <c r="F115" s="491"/>
+      <c r="G115" s="491"/>
+      <c r="H115" s="491"/>
+      <c r="I115" s="491"/>
+      <c r="J115" s="491"/>
+      <c r="K115" s="491"/>
       <c r="L115" s="187"/>
       <c r="M115" s="187"/>
       <c r="N115" s="184"/>
     </row>
     <row r="116" spans="1:14" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A116" s="478"/>
-      <c r="B116" s="478"/>
-      <c r="C116" s="478"/>
-      <c r="D116" s="478"/>
-      <c r="E116" s="478"/>
-      <c r="F116" s="478"/>
-      <c r="G116" s="478"/>
-      <c r="H116" s="478"/>
-      <c r="I116" s="478"/>
-      <c r="J116" s="478"/>
-      <c r="K116" s="478"/>
+      <c r="A116" s="491"/>
+      <c r="B116" s="491"/>
+      <c r="C116" s="491"/>
+      <c r="D116" s="491"/>
+      <c r="E116" s="491"/>
+      <c r="F116" s="491"/>
+      <c r="G116" s="491"/>
+      <c r="H116" s="491"/>
+      <c r="I116" s="491"/>
+      <c r="J116" s="491"/>
+      <c r="K116" s="491"/>
       <c r="L116" s="187"/>
       <c r="M116" s="187"/>
       <c r="N116" s="184"/>
     </row>
     <row r="117" spans="1:14" s="190" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A117" s="478"/>
-      <c r="B117" s="478"/>
-      <c r="C117" s="478"/>
-      <c r="D117" s="478"/>
-      <c r="E117" s="478"/>
-      <c r="F117" s="478"/>
-      <c r="G117" s="478"/>
-      <c r="H117" s="478"/>
-      <c r="I117" s="478"/>
-      <c r="J117" s="478"/>
-      <c r="K117" s="478"/>
+      <c r="A117" s="491"/>
+      <c r="B117" s="491"/>
+      <c r="C117" s="491"/>
+      <c r="D117" s="491"/>
+      <c r="E117" s="491"/>
+      <c r="F117" s="491"/>
+      <c r="G117" s="491"/>
+      <c r="H117" s="491"/>
+      <c r="I117" s="491"/>
+      <c r="J117" s="491"/>
+      <c r="K117" s="491"/>
       <c r="L117" s="188"/>
       <c r="M117" s="189"/>
       <c r="N117" s="189"/>
     </row>
     <row r="118" spans="1:14" s="189" customFormat="1" ht="18.75" collapsed="1">
-      <c r="A118" s="478"/>
-      <c r="B118" s="478"/>
-      <c r="C118" s="478"/>
-      <c r="D118" s="478"/>
-      <c r="E118" s="478"/>
-      <c r="F118" s="478"/>
-      <c r="G118" s="478"/>
-      <c r="H118" s="478"/>
-      <c r="I118" s="478"/>
-      <c r="J118" s="478"/>
-      <c r="K118" s="478"/>
+      <c r="A118" s="491"/>
+      <c r="B118" s="491"/>
+      <c r="C118" s="491"/>
+      <c r="D118" s="491"/>
+      <c r="E118" s="491"/>
+      <c r="F118" s="491"/>
+      <c r="G118" s="491"/>
+      <c r="H118" s="491"/>
+      <c r="I118" s="491"/>
+      <c r="J118" s="491"/>
+      <c r="K118" s="491"/>
       <c r="L118" s="188"/>
     </row>
     <row r="130" spans="2:29">
@@ -15938,14 +15980,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q4:T6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="U4:X6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Q1:T3"/>
-    <mergeCell ref="U1:X3"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A96:C96"/>
     <mergeCell ref="A111:K118"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:J20"/>
@@ -15962,13 +16003,14 @@
     <mergeCell ref="A99:D105"/>
     <mergeCell ref="A94:C94"/>
     <mergeCell ref="A95:C95"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q4:T6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="U1:X3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.31496062992125984" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -15986,8 +16028,8 @@
   </sheetPr>
   <dimension ref="A1:AC146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -16026,22 +16068,22 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
-      <c r="Q1" s="475" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="476"/>
-      <c r="S1" s="476"/>
-      <c r="T1" s="477"/>
-      <c r="U1" s="475"/>
-      <c r="V1" s="476"/>
-      <c r="W1" s="476"/>
-      <c r="X1" s="477"/>
+      <c r="Q1" s="488" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="489"/>
+      <c r="S1" s="489"/>
+      <c r="T1" s="490"/>
+      <c r="U1" s="488"/>
+      <c r="V1" s="489"/>
+      <c r="W1" s="489"/>
+      <c r="X1" s="490"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="15.75">
-      <c r="A2" s="486" t="s">
+      <c r="A2" s="476" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="487"/>
+      <c r="B2" s="477"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -16056,14 +16098,14 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="475"/>
-      <c r="R2" s="476"/>
-      <c r="S2" s="476"/>
-      <c r="T2" s="477"/>
-      <c r="U2" s="475"/>
-      <c r="V2" s="476"/>
-      <c r="W2" s="476"/>
-      <c r="X2" s="477"/>
+      <c r="Q2" s="488"/>
+      <c r="R2" s="489"/>
+      <c r="S2" s="489"/>
+      <c r="T2" s="490"/>
+      <c r="U2" s="488"/>
+      <c r="V2" s="489"/>
+      <c r="W2" s="489"/>
+      <c r="X2" s="490"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
@@ -16087,14 +16129,14 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="475"/>
-      <c r="R3" s="476"/>
-      <c r="S3" s="476"/>
-      <c r="T3" s="477"/>
-      <c r="U3" s="475"/>
-      <c r="V3" s="476"/>
-      <c r="W3" s="476"/>
-      <c r="X3" s="477"/>
+      <c r="Q3" s="488"/>
+      <c r="R3" s="489"/>
+      <c r="S3" s="489"/>
+      <c r="T3" s="490"/>
+      <c r="U3" s="488"/>
+      <c r="V3" s="489"/>
+      <c r="W3" s="489"/>
+      <c r="X3" s="490"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -16118,16 +16160,16 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="467" t="s">
+      <c r="Q4" s="478" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="468"/>
-      <c r="S4" s="468"/>
-      <c r="T4" s="469"/>
-      <c r="U4" s="467"/>
-      <c r="V4" s="468"/>
-      <c r="W4" s="468"/>
-      <c r="X4" s="469"/>
+      <c r="R4" s="479"/>
+      <c r="S4" s="479"/>
+      <c r="T4" s="480"/>
+      <c r="U4" s="478"/>
+      <c r="V4" s="479"/>
+      <c r="W4" s="479"/>
+      <c r="X4" s="480"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
@@ -16151,14 +16193,14 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="467"/>
-      <c r="R5" s="468"/>
-      <c r="S5" s="468"/>
-      <c r="T5" s="469"/>
-      <c r="U5" s="467"/>
-      <c r="V5" s="468"/>
-      <c r="W5" s="468"/>
-      <c r="X5" s="469"/>
+      <c r="Q5" s="478"/>
+      <c r="R5" s="479"/>
+      <c r="S5" s="479"/>
+      <c r="T5" s="480"/>
+      <c r="U5" s="478"/>
+      <c r="V5" s="479"/>
+      <c r="W5" s="479"/>
+      <c r="X5" s="480"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="16" t="s">
@@ -16182,14 +16224,14 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="470"/>
-      <c r="R6" s="471"/>
-      <c r="S6" s="471"/>
-      <c r="T6" s="472"/>
-      <c r="U6" s="470"/>
-      <c r="V6" s="471"/>
-      <c r="W6" s="471"/>
-      <c r="X6" s="472"/>
+      <c r="Q6" s="481"/>
+      <c r="R6" s="482"/>
+      <c r="S6" s="482"/>
+      <c r="T6" s="483"/>
+      <c r="U6" s="481"/>
+      <c r="V6" s="482"/>
+      <c r="W6" s="482"/>
+      <c r="X6" s="483"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="18" t="s">
@@ -16232,7 +16274,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:24" hidden="1">
-      <c r="A9" s="473" t="s">
+      <c r="A9" s="486" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -16253,7 +16295,7 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="474"/>
+      <c r="A10" s="487"/>
       <c r="B10" s="23">
         <f>B6*B9</f>
         <v>1127.3</v>
@@ -16273,7 +16315,7 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:24" hidden="1">
-      <c r="A11" s="488" t="s">
+      <c r="A11" s="484" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
@@ -16295,7 +16337,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A12" s="489"/>
+      <c r="A12" s="485"/>
       <c r="B12" s="23">
         <f>B5*B11</f>
         <v>62858</v>
@@ -16316,7 +16358,7 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:24" hidden="1">
-      <c r="A13" s="473" t="s">
+      <c r="A13" s="486" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="24">
@@ -16338,7 +16380,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A14" s="474"/>
+      <c r="A14" s="487"/>
       <c r="B14" s="23">
         <f>B5*B13</f>
         <v>0</v>
@@ -16377,34 +16419,34 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A16" s="490" t="s">
+      <c r="A16" s="510" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="491"/>
-      <c r="C16" s="493" t="s">
+      <c r="B16" s="511"/>
+      <c r="C16" s="513" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="493"/>
-      <c r="E16" s="493"/>
-      <c r="F16" s="493"/>
-      <c r="G16" s="493" t="s">
+      <c r="D16" s="513"/>
+      <c r="E16" s="513"/>
+      <c r="F16" s="513"/>
+      <c r="G16" s="513" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="493"/>
-      <c r="I16" s="493"/>
-      <c r="J16" s="493"/>
-      <c r="K16" s="493" t="s">
+      <c r="H16" s="513"/>
+      <c r="I16" s="513"/>
+      <c r="J16" s="513"/>
+      <c r="K16" s="513" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="493"/>
-      <c r="M16" s="493"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="257"/>
-      <c r="P16" s="495"/>
+      <c r="L16" s="513"/>
+      <c r="M16" s="513"/>
+      <c r="N16" s="255"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="407"/>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="492"/>
-      <c r="B17" s="466"/>
+      <c r="A17" s="512"/>
+      <c r="B17" s="507"/>
       <c r="C17" s="201">
         <v>1</v>
       </c>
@@ -16448,13 +16490,17 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N17" s="202"/>
-      <c r="O17" s="258"/>
-      <c r="P17" s="496"/>
+      <c r="N17" s="202">
+        <v>12</v>
+      </c>
+      <c r="O17" s="257">
+        <v>13</v>
+      </c>
+      <c r="P17" s="408"/>
       <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:20" s="35" customFormat="1" ht="25.5">
-      <c r="A18" s="259" t="s">
+      <c r="A18" s="258" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="204"/>
@@ -16505,10 +16551,10 @@
       <c r="N18" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="260" t="s">
+      <c r="O18" s="259" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="260" t="s">
+      <c r="P18" s="259" t="s">
         <v>69</v>
       </c>
       <c r="Q18" s="33" t="s">
@@ -16521,7 +16567,7 @@
       <c r="T18" s="15"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="261" t="s">
+      <c r="A19" s="260" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="220">
@@ -16539,8 +16585,8 @@
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="262"/>
-      <c r="P19" s="262"/>
+      <c r="O19" s="261"/>
+      <c r="P19" s="261"/>
       <c r="Q19" s="40">
         <f>((1+Q20)^(1/4))-1</f>
         <v>1.6106667595102708E-2</v>
@@ -16551,39 +16597,39 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="263" t="s">
+      <c r="A20" s="262" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="43"/>
-      <c r="C20" s="479">
+      <c r="C20" s="492">
         <f>Q20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D20" s="479"/>
-      <c r="E20" s="479"/>
-      <c r="F20" s="479"/>
-      <c r="G20" s="479">
+      <c r="D20" s="492"/>
+      <c r="E20" s="492"/>
+      <c r="F20" s="492"/>
+      <c r="G20" s="492">
         <f>C20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="479"/>
-      <c r="I20" s="479"/>
-      <c r="J20" s="479"/>
-      <c r="K20" s="479">
+      <c r="H20" s="492"/>
+      <c r="I20" s="492"/>
+      <c r="J20" s="492"/>
+      <c r="K20" s="492">
         <f>G20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L20" s="479"/>
-      <c r="M20" s="479"/>
+      <c r="L20" s="492"/>
+      <c r="M20" s="492"/>
       <c r="N20" s="221">
         <f>(1+C20)^(1/4)-1</f>
         <v>1.6106667595102708E-2</v>
       </c>
-      <c r="O20" s="264">
+      <c r="O20" s="263">
         <f>Q19</f>
         <v>1.6106667595102708E-2</v>
       </c>
-      <c r="P20" s="264">
+      <c r="P20" s="263">
         <f>R19</f>
         <v>1.2272234429039353E-2</v>
       </c>
@@ -16595,7 +16641,7 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="263" t="s">
+      <c r="A21" s="262" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="46"/>
@@ -16646,17 +16692,17 @@
       <c r="N21" s="48">
         <v>1.61E-2</v>
       </c>
-      <c r="O21" s="265">
+      <c r="O21" s="264">
         <f>N21</f>
         <v>1.61E-2</v>
       </c>
-      <c r="P21" s="265">
+      <c r="P21" s="264">
         <f>O21</f>
         <v>1.61E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="263" t="s">
+      <c r="A22" s="262" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="46"/>
@@ -16708,17 +16754,17 @@
         <f>M22*(1+N21)</f>
         <v>1.2113475472006958</v>
       </c>
-      <c r="O22" s="266">
+      <c r="O22" s="265">
         <f>N22*(1+O21)</f>
         <v>1.2308502427106269</v>
       </c>
-      <c r="P22" s="266">
+      <c r="P22" s="265">
         <f>O22*(1+P21)</f>
         <v>1.2506669316182679</v>
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="263" t="s">
+      <c r="A23" s="262" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="53"/>
@@ -16770,17 +16816,17 @@
         <f t="shared" si="3"/>
         <v>100093.64782519349</v>
       </c>
-      <c r="O23" s="267">
+      <c r="O23" s="266">
         <f>$B$19*O22</f>
         <v>101705.15555517911</v>
       </c>
-      <c r="P23" s="267">
+      <c r="P23" s="266">
         <f>$B$19*P22</f>
         <v>103342.60855961748</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="12" customHeight="1">
-      <c r="A24" s="261" t="s">
+      <c r="A24" s="260" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="56">
@@ -16823,17 +16869,17 @@
         <f t="shared" si="4"/>
         <v>1.2272234429039353</v>
       </c>
-      <c r="O24" s="268">
+      <c r="O24" s="267">
         <f t="shared" si="4"/>
         <v>1.2272234429039353</v>
       </c>
-      <c r="P24" s="268">
+      <c r="P24" s="267">
         <f t="shared" si="4"/>
         <v>1.2272234429039353</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="263" t="s">
+      <c r="A25" s="262" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="53"/>
@@ -16872,15 +16918,15 @@
       <c r="N25" s="61">
         <v>1</v>
       </c>
-      <c r="O25" s="269">
+      <c r="O25" s="268">
         <v>1</v>
       </c>
-      <c r="P25" s="269">
+      <c r="P25" s="268">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="263" t="s">
+      <c r="A26" s="262" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="63"/>
@@ -16920,79 +16966,79 @@
         <f t="shared" si="6"/>
         <v>100093.64782519349</v>
       </c>
-      <c r="O26" s="270">
+      <c r="O26" s="269">
         <f t="shared" si="6"/>
         <v>101705.15555517911</v>
       </c>
-      <c r="P26" s="270">
+      <c r="P26" s="269">
         <f t="shared" ref="P26" si="7">P23*P25</f>
         <v>206685.21711923496</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A27" s="320" t="s">
+      <c r="A27" s="317" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="321">
+      <c r="B27" s="318">
         <f>SUM(C27:O27)</f>
         <v>96.5</v>
       </c>
-      <c r="C27" s="322">
+      <c r="C27" s="319">
         <f>'[31]М. остатка'!D31</f>
         <v>0</v>
       </c>
-      <c r="D27" s="322">
+      <c r="D27" s="319">
         <f>'[31]М. остатка'!E31</f>
         <v>0</v>
       </c>
-      <c r="E27" s="322">
+      <c r="E27" s="319">
         <f>'[31]М. остатка'!F31</f>
         <v>0</v>
       </c>
-      <c r="F27" s="322">
+      <c r="F27" s="319">
         <f>'[31]М. остатка'!G31</f>
         <v>0</v>
       </c>
-      <c r="G27" s="323">
+      <c r="G27" s="320">
         <v>17</v>
       </c>
-      <c r="H27" s="323">
+      <c r="H27" s="320">
         <v>15</v>
       </c>
-      <c r="I27" s="323">
+      <c r="I27" s="320">
         <v>14</v>
       </c>
-      <c r="J27" s="323">
+      <c r="J27" s="320">
         <v>13</v>
       </c>
-      <c r="K27" s="323">
+      <c r="K27" s="320">
         <f>'[30]График реализации'!D22*100</f>
         <v>12</v>
       </c>
-      <c r="L27" s="323">
+      <c r="L27" s="320">
         <f>'[30]График реализации'!D25*100</f>
         <v>9.4</v>
       </c>
-      <c r="M27" s="323">
+      <c r="M27" s="320">
         <f>'[30]График реализации'!D28*100</f>
         <v>8.1</v>
       </c>
-      <c r="N27" s="324">
+      <c r="N27" s="321">
         <v>4.25</v>
       </c>
-      <c r="O27" s="325">
+      <c r="O27" s="322">
         <v>3.75</v>
       </c>
-      <c r="P27" s="325">
+      <c r="P27" s="322">
         <v>3.5</v>
       </c>
-      <c r="Q27" s="515">
+      <c r="Q27" s="427">
         <f>SUM(G27:P27)</f>
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="271" t="s">
+      <c r="A28" s="270" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="68">
@@ -17045,7 +17091,7 @@
       <c r="Q28" s="72"/>
     </row>
     <row r="29" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A29" s="272" t="s">
+      <c r="A29" s="271" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="74">
@@ -17098,7 +17144,7 @@
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="271" t="s">
+      <c r="A30" s="270" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="68">
@@ -17147,7 +17193,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A31" s="272" t="s">
+      <c r="A31" s="271" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="74">
@@ -17197,7 +17243,7 @@
       </c>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="271" t="s">
+      <c r="A32" s="270" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="68">
@@ -17218,7 +17264,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="70">
-        <f t="shared" ref="K32:P46" si="14">(100-$H$30)/($M$17-$H$17)</f>
+        <f t="shared" ref="K32:P44" si="14">(100-$H$30)/($M$17-$H$17)</f>
         <v>0</v>
       </c>
       <c r="L32" s="70">
@@ -17243,7 +17289,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A33" s="272" t="s">
+      <c r="A33" s="271" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="74">
@@ -17290,7 +17336,7 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="271" t="s">
+      <c r="A34" s="270" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="68">
@@ -17333,7 +17379,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A35" s="272" t="s">
+      <c r="A35" s="271" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="74">
@@ -17377,7 +17423,7 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="271" t="s">
+      <c r="A36" s="270" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="68">
@@ -17417,7 +17463,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A37" s="272" t="s">
+      <c r="A37" s="271" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="74">
@@ -17458,7 +17504,7 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="271" t="s">
+      <c r="A38" s="270" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="68">
@@ -17495,7 +17541,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A39" s="272" t="s">
+      <c r="A39" s="271" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="74">
@@ -17533,7 +17579,7 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="271" t="s">
+      <c r="A40" s="270" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="68">
@@ -17567,7 +17613,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A41" s="272" t="s">
+      <c r="A41" s="271" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="74">
@@ -17589,7 +17635,7 @@
         <v>495471089.16849571</v>
       </c>
       <c r="N41" s="76">
-        <f t="shared" ref="N41:P41" si="19">$B$5*(1-$M$48)*$H$26*$H$27%*N40%</f>
+        <f t="shared" ref="N41:O41" si="19">$B$5*(1-$M$48)*$H$26*$H$27%*N40%</f>
         <v>0</v>
       </c>
       <c r="O41" s="76">
@@ -17602,7 +17648,7 @@
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="271" t="s">
+      <c r="A42" s="270" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="68">
@@ -17632,7 +17678,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A43" s="272" t="s">
+      <c r="A43" s="271" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="74">
@@ -17664,7 +17710,7 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="271" t="s">
+      <c r="A44" s="270" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="68">
@@ -17681,8 +17727,8 @@
       <c r="K44" s="81"/>
       <c r="L44" s="81"/>
       <c r="M44" s="82"/>
-      <c r="N44" s="510"/>
-      <c r="O44" s="514">
+      <c r="N44" s="422"/>
+      <c r="O44" s="426">
         <v>100</v>
       </c>
       <c r="P44" s="70">
@@ -17691,26 +17737,26 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A45" s="501" t="s">
+      <c r="A45" s="413" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="497">
+      <c r="B45" s="409">
         <f>O45</f>
         <v>239736850.04577932</v>
       </c>
-      <c r="C45" s="498"/>
-      <c r="D45" s="498"/>
-      <c r="E45" s="498"/>
-      <c r="F45" s="499"/>
-      <c r="G45" s="499"/>
-      <c r="H45" s="499"/>
-      <c r="I45" s="499"/>
-      <c r="J45" s="499"/>
-      <c r="K45" s="499"/>
-      <c r="L45" s="499"/>
-      <c r="M45" s="500"/>
-      <c r="N45" s="511"/>
-      <c r="O45" s="514">
+      <c r="C45" s="410"/>
+      <c r="D45" s="410"/>
+      <c r="E45" s="410"/>
+      <c r="F45" s="411"/>
+      <c r="G45" s="411"/>
+      <c r="H45" s="411"/>
+      <c r="I45" s="411"/>
+      <c r="J45" s="411"/>
+      <c r="K45" s="411"/>
+      <c r="L45" s="411"/>
+      <c r="M45" s="412"/>
+      <c r="N45" s="423"/>
+      <c r="O45" s="426">
         <f>$B$5*(1-$O$48)*$O$26*$O$27%*N42%</f>
         <v>239736850.04577932</v>
       </c>
@@ -17720,57 +17766,57 @@
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="271" t="s">
+      <c r="A46" s="270" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="506">
+      <c r="B46" s="418">
         <v>100</v>
       </c>
-      <c r="C46" s="507"/>
-      <c r="D46" s="507"/>
-      <c r="E46" s="507"/>
-      <c r="F46" s="508"/>
-      <c r="G46" s="508"/>
-      <c r="H46" s="508"/>
-      <c r="I46" s="508"/>
-      <c r="J46" s="508"/>
-      <c r="K46" s="508"/>
-      <c r="L46" s="508"/>
+      <c r="C46" s="419"/>
+      <c r="D46" s="419"/>
+      <c r="E46" s="419"/>
+      <c r="F46" s="420"/>
+      <c r="G46" s="420"/>
+      <c r="H46" s="420"/>
+      <c r="I46" s="420"/>
+      <c r="J46" s="420"/>
+      <c r="K46" s="420"/>
+      <c r="L46" s="420"/>
       <c r="M46" s="12"/>
-      <c r="N46" s="512"/>
-      <c r="O46" s="514"/>
-      <c r="P46" s="509">
+      <c r="N46" s="424"/>
+      <c r="O46" s="426"/>
+      <c r="P46" s="421">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A47" s="501" t="s">
+      <c r="A47" s="413" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="502">
+      <c r="B47" s="414">
         <f>P47</f>
         <v>454713678.21883059</v>
       </c>
-      <c r="C47" s="503"/>
-      <c r="D47" s="503"/>
-      <c r="E47" s="503"/>
-      <c r="F47" s="504"/>
-      <c r="G47" s="504"/>
-      <c r="H47" s="504"/>
-      <c r="I47" s="504"/>
-      <c r="J47" s="504"/>
-      <c r="K47" s="504"/>
-      <c r="L47" s="504"/>
-      <c r="M47" s="505"/>
-      <c r="N47" s="505"/>
-      <c r="O47" s="513"/>
-      <c r="P47" s="273">
+      <c r="C47" s="415"/>
+      <c r="D47" s="415"/>
+      <c r="E47" s="415"/>
+      <c r="F47" s="416"/>
+      <c r="G47" s="416"/>
+      <c r="H47" s="416"/>
+      <c r="I47" s="416"/>
+      <c r="J47" s="416"/>
+      <c r="K47" s="416"/>
+      <c r="L47" s="416"/>
+      <c r="M47" s="417"/>
+      <c r="N47" s="417"/>
+      <c r="O47" s="425"/>
+      <c r="P47" s="272">
         <f>$B$5*(1-$M$48)*$P$26*$P$27%*P46%</f>
         <v>454713678.21883059</v>
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="274" t="s">
+      <c r="A48" s="273" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="85">
@@ -17788,13 +17834,13 @@
       <c r="L48" s="87"/>
       <c r="M48" s="88"/>
       <c r="N48" s="89"/>
-      <c r="O48" s="275"/>
-      <c r="P48" s="275">
+      <c r="O48" s="274"/>
+      <c r="P48" s="274">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23">
-      <c r="A49" s="276" t="s">
+      <c r="A49" s="275" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="92">
@@ -17813,79 +17859,79 @@
       <c r="L49" s="94"/>
       <c r="M49" s="95"/>
       <c r="N49" s="54"/>
-      <c r="O49" s="277"/>
-      <c r="P49" s="277">
+      <c r="O49" s="276"/>
+      <c r="P49" s="276">
         <f>B5*P26*P48</f>
         <v>12991819377.680872</v>
       </c>
     </row>
     <row r="50" spans="1:23">
-      <c r="A50" s="326" t="s">
+      <c r="A50" s="323" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="327">
+      <c r="B50" s="324">
         <f>SUM(C50:O50)</f>
         <v>5426379162.5683441</v>
       </c>
-      <c r="C50" s="328">
+      <c r="C50" s="325">
         <f t="shared" ref="C50:H50" si="23">C29+C31+C33+C35+C37+C39+C49+C41</f>
         <v>0</v>
       </c>
-      <c r="D50" s="328">
+      <c r="D50" s="325">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="E50" s="328">
+      <c r="E50" s="325">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F50" s="328">
+      <c r="F50" s="325">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G50" s="329">
+      <c r="G50" s="326">
         <f t="shared" si="23"/>
         <v>878137381.88673151</v>
       </c>
-      <c r="H50" s="329">
+      <c r="H50" s="326">
         <f t="shared" si="23"/>
         <v>796969000.11310542</v>
       </c>
-      <c r="I50" s="329">
+      <c r="I50" s="326">
         <f>I33</f>
         <v>765094062.13527811</v>
       </c>
-      <c r="J50" s="329">
+      <c r="J50" s="326">
         <f>J35</f>
         <v>730746550.60559154</v>
       </c>
-      <c r="K50" s="329">
+      <c r="K50" s="326">
         <f>K37</f>
         <v>693811179.91469562</v>
       </c>
-      <c r="L50" s="329">
+      <c r="L50" s="326">
         <f>L39</f>
         <v>559016371.81133568</v>
       </c>
-      <c r="M50" s="329">
+      <c r="M50" s="326">
         <f>M41</f>
         <v>495471089.16849571</v>
       </c>
-      <c r="N50" s="329">
+      <c r="N50" s="326">
         <f>N43</f>
         <v>267396676.88733056</v>
       </c>
-      <c r="O50" s="330">
+      <c r="O50" s="327">
         <f>O45</f>
         <v>239736850.04577932</v>
       </c>
-      <c r="P50" s="330">
+      <c r="P50" s="327">
         <f>P47</f>
         <v>454713678.21883059</v>
       </c>
     </row>
     <row r="51" spans="1:23" hidden="1">
-      <c r="A51" s="278" t="s">
+      <c r="A51" s="277" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="99">
@@ -17904,11 +17950,11 @@
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
       <c r="N51" s="38"/>
-      <c r="O51" s="262"/>
-      <c r="P51" s="262"/>
+      <c r="O51" s="261"/>
+      <c r="P51" s="261"/>
     </row>
     <row r="52" spans="1:23" hidden="1">
-      <c r="A52" s="278" t="s">
+      <c r="A52" s="277" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="100"/>
@@ -17945,11 +17991,11 @@
         <v>4005.6370028484776</v>
       </c>
       <c r="N52" s="38"/>
-      <c r="O52" s="262"/>
-      <c r="P52" s="262"/>
+      <c r="O52" s="261"/>
+      <c r="P52" s="261"/>
     </row>
     <row r="53" spans="1:23" ht="25.5" hidden="1">
-      <c r="A53" s="261" t="s">
+      <c r="A53" s="260" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="56">
@@ -17989,17 +18035,17 @@
         <v>1.2272234429039353</v>
       </c>
       <c r="N53" s="38"/>
-      <c r="O53" s="262"/>
-      <c r="P53" s="262"/>
-      <c r="T53" s="475" t="s">
+      <c r="O53" s="261"/>
+      <c r="P53" s="261"/>
+      <c r="T53" s="488" t="s">
         <v>53</v>
       </c>
-      <c r="U53" s="480"/>
-      <c r="V53" s="480"/>
-      <c r="W53" s="480"/>
+      <c r="U53" s="493"/>
+      <c r="V53" s="493"/>
+      <c r="W53" s="493"/>
     </row>
     <row r="54" spans="1:23" hidden="1">
-      <c r="A54" s="278" t="s">
+      <c r="A54" s="277" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="102"/>
@@ -18036,15 +18082,15 @@
         <v>3957.0748526040643</v>
       </c>
       <c r="N54" s="104"/>
-      <c r="O54" s="279"/>
-      <c r="P54" s="279"/>
-      <c r="T54" s="475"/>
-      <c r="U54" s="480"/>
-      <c r="V54" s="480"/>
-      <c r="W54" s="480"/>
+      <c r="O54" s="278"/>
+      <c r="P54" s="278"/>
+      <c r="T54" s="488"/>
+      <c r="U54" s="493"/>
+      <c r="V54" s="493"/>
+      <c r="W54" s="493"/>
     </row>
     <row r="55" spans="1:23" hidden="1">
-      <c r="A55" s="280" t="s">
+      <c r="A55" s="279" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="107">
@@ -18069,15 +18115,15 @@
       <c r="L55" s="108"/>
       <c r="M55" s="108"/>
       <c r="N55" s="54"/>
-      <c r="O55" s="267"/>
-      <c r="P55" s="267"/>
-      <c r="T55" s="475"/>
-      <c r="U55" s="480"/>
-      <c r="V55" s="480"/>
-      <c r="W55" s="480"/>
+      <c r="O55" s="266"/>
+      <c r="P55" s="266"/>
+      <c r="T55" s="488"/>
+      <c r="U55" s="493"/>
+      <c r="V55" s="493"/>
+      <c r="W55" s="493"/>
     </row>
     <row r="56" spans="1:23" hidden="1">
-      <c r="A56" s="281" t="s">
+      <c r="A56" s="280" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="63">
@@ -18102,14 +18148,14 @@
       <c r="L56" s="63"/>
       <c r="M56" s="63"/>
       <c r="N56" s="64"/>
-      <c r="O56" s="270"/>
-      <c r="P56" s="270"/>
+      <c r="O56" s="269"/>
+      <c r="P56" s="269"/>
       <c r="T56" s="112" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:23" hidden="1">
-      <c r="A57" s="282" t="s">
+      <c r="A57" s="281" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="97">
@@ -18155,11 +18201,11 @@
         <v>0</v>
       </c>
       <c r="N57" s="115"/>
-      <c r="O57" s="283"/>
-      <c r="P57" s="283"/>
+      <c r="O57" s="282"/>
+      <c r="P57" s="282"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="278" t="s">
+      <c r="A58" s="277" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="219">
@@ -18177,12 +18223,12 @@
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
       <c r="N58" s="38"/>
-      <c r="O58" s="262"/>
-      <c r="P58" s="262"/>
+      <c r="O58" s="261"/>
+      <c r="P58" s="261"/>
       <c r="T58" s="117"/>
     </row>
     <row r="59" spans="1:23" hidden="1">
-      <c r="A59" s="278" t="s">
+      <c r="A59" s="277" t="s">
         <v>51</v>
       </c>
       <c r="B59" s="100"/>
@@ -18198,11 +18244,11 @@
       <c r="L59" s="54"/>
       <c r="M59" s="101"/>
       <c r="N59" s="38"/>
-      <c r="O59" s="262"/>
-      <c r="P59" s="262"/>
+      <c r="O59" s="261"/>
+      <c r="P59" s="261"/>
     </row>
     <row r="60" spans="1:23">
-      <c r="A60" s="261" t="s">
+      <c r="A60" s="260" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="56">
@@ -18245,17 +18291,17 @@
         <f t="shared" si="28"/>
         <v>1.2113475472006958</v>
       </c>
-      <c r="O60" s="284">
+      <c r="O60" s="283">
         <f t="shared" si="28"/>
         <v>1.2308502427106269</v>
       </c>
-      <c r="P60" s="284">
+      <c r="P60" s="283">
         <f t="shared" ref="P60" si="29">P25*P22</f>
         <v>2.5013338632365358</v>
       </c>
     </row>
     <row r="61" spans="1:23">
-      <c r="A61" s="278" t="s">
+      <c r="A61" s="277" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="102"/>
@@ -18301,135 +18347,135 @@
         <f t="shared" si="30"/>
         <v>1574751.8113609045</v>
       </c>
-      <c r="O61" s="285">
+      <c r="O61" s="284">
         <f t="shared" si="30"/>
         <v>1600105.3155238151</v>
       </c>
-      <c r="P61" s="285">
+      <c r="P61" s="284">
         <f t="shared" ref="P61" si="31">$B$58*P60</f>
         <v>3251734.0222074967</v>
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="332" t="s">
+      <c r="A62" s="329" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="333">
-        <f>SUM(C62:O62)</f>
-        <v>96.5</v>
-      </c>
-      <c r="C62" s="334"/>
-      <c r="D62" s="334"/>
-      <c r="E62" s="335">
+      <c r="B62" s="330">
+        <f>SUM(C62:P62)</f>
+        <v>100</v>
+      </c>
+      <c r="C62" s="331"/>
+      <c r="D62" s="331"/>
+      <c r="E62" s="332">
         <f>ROUND(E55%*$B$7,0)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="335">
+      <c r="F62" s="332">
         <f>ROUND(F55%*$B$7,0)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="336">
+      <c r="G62" s="333">
         <f>G27</f>
         <v>17</v>
       </c>
-      <c r="H62" s="336">
+      <c r="H62" s="333">
         <f t="shared" ref="H62:O62" si="32">H27</f>
         <v>15</v>
       </c>
-      <c r="I62" s="336">
+      <c r="I62" s="333">
         <f t="shared" si="32"/>
         <v>14</v>
       </c>
-      <c r="J62" s="336">
+      <c r="J62" s="333">
         <f t="shared" si="32"/>
         <v>13</v>
       </c>
-      <c r="K62" s="336">
+      <c r="K62" s="333">
         <f t="shared" si="32"/>
         <v>12</v>
       </c>
-      <c r="L62" s="336">
+      <c r="L62" s="333">
         <f t="shared" si="32"/>
         <v>9.4</v>
       </c>
-      <c r="M62" s="336">
+      <c r="M62" s="333">
         <f t="shared" si="32"/>
         <v>8.1</v>
       </c>
-      <c r="N62" s="336">
+      <c r="N62" s="333">
         <f t="shared" si="32"/>
         <v>4.25</v>
       </c>
-      <c r="O62" s="337">
+      <c r="O62" s="334">
         <f t="shared" si="32"/>
         <v>3.75</v>
       </c>
-      <c r="P62" s="337">
+      <c r="P62" s="334">
         <f t="shared" ref="P62" si="33">P27</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="125" customFormat="1">
-      <c r="A63" s="286" t="s">
+      <c r="A63" s="285" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="338">
+      <c r="B63" s="335">
         <f>SUM(C63:M63)</f>
         <v>55405906.3583657</v>
       </c>
-      <c r="C63" s="338"/>
-      <c r="D63" s="338"/>
-      <c r="E63" s="328">
+      <c r="C63" s="335"/>
+      <c r="D63" s="335"/>
+      <c r="E63" s="325">
         <f>E62*E61</f>
         <v>0</v>
       </c>
-      <c r="F63" s="328">
+      <c r="F63" s="325">
         <f>F62*F61</f>
         <v>0</v>
       </c>
-      <c r="G63" s="338">
+      <c r="G63" s="335">
         <f>$B$7*G61*G62%</f>
         <v>9890540.3702846132</v>
       </c>
-      <c r="H63" s="338">
+      <c r="H63" s="335">
         <f t="shared" ref="H63:O63" si="34">$B$7*H61*H62%</f>
         <v>8976333.5806842651</v>
       </c>
-      <c r="I63" s="338">
+      <c r="I63" s="335">
         <f t="shared" si="34"/>
         <v>8617323.2852875907</v>
       </c>
-      <c r="J63" s="338">
+      <c r="J63" s="335">
         <f t="shared" si="34"/>
         <v>8230464.1714285705</v>
       </c>
-      <c r="K63" s="338">
+      <c r="K63" s="335">
         <f t="shared" si="34"/>
         <v>7814457.7669126373</v>
       </c>
-      <c r="L63" s="338">
+      <c r="L63" s="335">
         <f t="shared" si="34"/>
         <v>6296251.7108322084</v>
       </c>
-      <c r="M63" s="338">
+      <c r="M63" s="335">
         <f t="shared" si="34"/>
         <v>5580535.4729358209</v>
       </c>
-      <c r="N63" s="338">
+      <c r="N63" s="335">
         <f t="shared" si="34"/>
         <v>3011712.8392277304</v>
       </c>
-      <c r="O63" s="339">
+      <c r="O63" s="336">
         <f t="shared" si="34"/>
         <v>2700177.719946438</v>
       </c>
-      <c r="P63" s="339">
+      <c r="P63" s="336">
         <f t="shared" ref="P63" si="35">$B$7*P61*P62%</f>
         <v>5121481.0849768072</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="56.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A64" s="282" t="s">
+      <c r="A64" s="281" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="97">
@@ -18454,16 +18500,16 @@
       <c r="L64" s="97"/>
       <c r="M64" s="97"/>
       <c r="N64" s="54"/>
-      <c r="O64" s="267"/>
-      <c r="P64" s="267"/>
+      <c r="O64" s="266"/>
+      <c r="P64" s="266"/>
     </row>
     <row r="65" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="287" t="s">
+      <c r="A65" s="286" t="s">
         <v>93</v>
       </c>
       <c r="B65" s="215">
-        <f>SUM(C65:O65)</f>
-        <v>5487496959.4858837</v>
+        <f>SUM(C65:P65)</f>
+        <v>5947332118.789691</v>
       </c>
       <c r="C65" s="216">
         <f>C50+C57+C64</f>
@@ -18513,22 +18559,22 @@
         <f t="shared" si="36"/>
         <v>270408389.72655827</v>
       </c>
-      <c r="O65" s="288">
+      <c r="O65" s="287">
         <f t="shared" si="36"/>
         <v>242437027.76572576</v>
       </c>
-      <c r="P65" s="288">
+      <c r="P65" s="287">
         <f t="shared" ref="P65" si="37">SUM(P50+P63)</f>
         <v>459835159.30380738</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="7" customFormat="1">
-      <c r="A66" s="289" t="s">
+      <c r="A66" s="288" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="246">
-        <f>SUM(C66:M66)</f>
-        <v>829108590.33226657</v>
+        <f>SUM(C66:P66)</f>
+        <v>991222019.79828191</v>
       </c>
       <c r="C66" s="127">
         <f t="shared" ref="C66:O66" si="38">C65/(1+$B$88)*$B$88</f>
@@ -18578,17 +18624,17 @@
         <f t="shared" si="38"/>
         <v>45068064.954426378</v>
       </c>
-      <c r="O66" s="290">
+      <c r="O66" s="289">
         <f t="shared" si="38"/>
         <v>40406171.294287629</v>
       </c>
-      <c r="P66" s="290">
+      <c r="P66" s="289">
         <f t="shared" ref="P66" si="39">P65/(1+$B$88)*$B$88</f>
         <v>76639193.217301235</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="287" t="s">
+      <c r="A67" s="286" t="s">
         <v>89</v>
       </c>
       <c r="B67" s="215"/>
@@ -18607,17 +18653,17 @@
         <f>SUM(G65:N65)</f>
         <v>5245059931.7201576</v>
       </c>
-      <c r="O67" s="288">
+      <c r="O67" s="287">
         <f>O65</f>
         <v>242437027.76572576</v>
       </c>
-      <c r="P67" s="288">
+      <c r="P67" s="287">
         <f>P65</f>
         <v>459835159.30380738</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="7" customFormat="1" ht="15.75">
-      <c r="A68" s="259" t="s">
+      <c r="A68" s="258" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="204" t="s">
@@ -18671,195 +18717,193 @@
         <f t="shared" si="40"/>
         <v>12 квартал</v>
       </c>
-      <c r="O68" s="260" t="str">
+      <c r="O68" s="259" t="str">
         <f t="shared" si="40"/>
         <v>13 квартал</v>
       </c>
-      <c r="P68" s="260" t="str">
+      <c r="P68" s="259" t="str">
         <f t="shared" ref="P68" si="41">P18</f>
         <v>14 квартал</v>
       </c>
       <c r="Q68" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="R68" s="516"/>
+      <c r="R68" s="428"/>
     </row>
     <row r="69" spans="1:18" s="7" customFormat="1">
-      <c r="A69" s="291" t="s">
+      <c r="A69" s="290" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="134">
-        <f t="shared" ref="B69:B75" si="42">SUM(C69:M69)</f>
-        <v>1.0000000000000002</v>
+        <f>SUM(C69:P69)</f>
+        <v>1</v>
       </c>
       <c r="C69" s="135"/>
       <c r="D69" s="135"/>
       <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
+      <c r="F69" s="135">
+        <v>0.05</v>
+      </c>
       <c r="G69" s="135">
-        <f>'[30]График Стр-ва'!AQ7%</f>
-        <v>0.14285714285714288</v>
+        <v>0.1</v>
       </c>
       <c r="H69" s="135">
-        <f t="shared" ref="H69:M69" si="43">G69</f>
-        <v>0.14285714285714288</v>
+        <v>0.15</v>
       </c>
       <c r="I69" s="135">
-        <f t="shared" si="43"/>
-        <v>0.14285714285714288</v>
+        <v>0.2</v>
       </c>
       <c r="J69" s="135">
-        <f t="shared" si="43"/>
-        <v>0.14285714285714288</v>
+        <v>0.15</v>
       </c>
       <c r="K69" s="135">
-        <f t="shared" si="43"/>
-        <v>0.14285714285714288</v>
+        <v>0.15</v>
       </c>
       <c r="L69" s="135">
-        <f t="shared" si="43"/>
-        <v>0.14285714285714288</v>
+        <v>0.1</v>
       </c>
       <c r="M69" s="135">
-        <f t="shared" si="43"/>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="N69" s="136"/>
-      <c r="O69" s="292"/>
-      <c r="P69" s="292"/>
+        <v>0.05</v>
+      </c>
+      <c r="N69" s="135">
+        <v>0.05</v>
+      </c>
+      <c r="O69" s="135"/>
+      <c r="P69" s="135"/>
       <c r="Q69" s="138" t="b">
         <f>B69=100%</f>
         <v>1</v>
       </c>
-      <c r="R69" s="516"/>
+      <c r="R69" s="428"/>
     </row>
     <row r="70" spans="1:18" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A70" s="293" t="s">
+      <c r="A70" s="291" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="93">
-        <f>SUM(C70:M70)</f>
-        <v>4793508324.9936466</v>
+        <f>SUM(C70:P70)</f>
+        <v>4357400896</v>
       </c>
       <c r="C70" s="247">
-        <f>'[30]строит (ИТОГО)'!C8</f>
-        <v>55948396.90355999</v>
+        <f>'[32]График Стр-ва'!$C$26:$E$26*1000</f>
+        <v>19049448</v>
       </c>
       <c r="D70" s="247">
-        <f>'[30]строит (ИТОГО)'!D8</f>
-        <v>56224004.77008</v>
+        <f>19049448</f>
+        <v>19049448</v>
       </c>
       <c r="E70" s="247">
-        <f>'[30]строит (ИТОГО)'!E8</f>
-        <v>56664977.356511988</v>
+        <f>195095000</f>
+        <v>195095000</v>
       </c>
       <c r="F70" s="247">
-        <f>'[30]строит (ИТОГО)'!F8</f>
-        <v>57161071.51624798</v>
+        <v>400038000</v>
       </c>
       <c r="G70" s="247">
-        <f>'[30]строит (ИТОГО)'!G8</f>
-        <v>349550149.81291765</v>
+        <v>380989000</v>
       </c>
       <c r="H70" s="247">
-        <f>'[30]строит (ИТОГО)'!H8</f>
-        <v>487082884.93226194</v>
+        <v>571484000</v>
       </c>
       <c r="I70" s="247">
-        <f>'[30]строит (ИТОГО)'!I8</f>
-        <v>671116179.29086065</v>
+        <v>761978000</v>
       </c>
       <c r="J70" s="247">
-        <f>'[30]строит (ИТОГО)'!J8</f>
-        <v>824945056.3417995</v>
+        <v>571484000</v>
       </c>
       <c r="K70" s="247">
-        <f>'[30]строит (ИТОГО)'!K8</f>
-        <v>785404694.03215528</v>
+        <v>571484000</v>
       </c>
       <c r="L70" s="247">
-        <f>'[30]строит (ИТОГО)'!L8</f>
-        <v>745172133.79059577</v>
+        <v>380989000</v>
       </c>
       <c r="M70" s="247">
-        <f>'[30]строит (ИТОГО)'!M8</f>
-        <v>704238776.24665558</v>
+        <v>190495000</v>
       </c>
       <c r="N70" s="92">
-        <v>0</v>
-      </c>
-      <c r="O70" s="294">
-        <v>0</v>
-      </c>
-      <c r="P70" s="294">
-        <v>1</v>
+        <v>295266000</v>
+      </c>
+      <c r="O70" s="292">
+        <v>0</v>
+      </c>
+      <c r="P70" s="292">
+        <v>0</v>
       </c>
       <c r="Q70" s="143" t="b">
         <f>B70='[30]строит (ИТОГО)'!B8</f>
-        <v>1</v>
-      </c>
-      <c r="R70" s="516"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="428"/>
     </row>
     <row r="71" spans="1:18" s="7" customFormat="1">
-      <c r="A71" s="295" t="s">
+      <c r="A71" s="293" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="93">
-        <f t="shared" si="42"/>
-        <v>798918054.16560769</v>
+        <f>SUM(C71:P76)</f>
+        <v>726233482.66666675</v>
       </c>
       <c r="C71" s="92">
         <f>C70/(1+$B$88)*$B$88</f>
-        <v>9324732.817259999</v>
+        <v>3174908</v>
       </c>
       <c r="D71" s="92">
-        <f t="shared" ref="D71:M71" si="44">D70/(1+$B$88)*$B$88</f>
-        <v>9370667.4616800006</v>
+        <f t="shared" ref="D71:P71" si="42">D70/(1+$B$88)*$B$88</f>
+        <v>3174908</v>
       </c>
       <c r="E71" s="92">
-        <f t="shared" si="44"/>
-        <v>9444162.8927519973</v>
+        <f t="shared" si="42"/>
+        <v>32515833.33333334</v>
       </c>
       <c r="F71" s="92">
-        <f t="shared" si="44"/>
-        <v>9526845.2527079973</v>
+        <f t="shared" si="42"/>
+        <v>66673000</v>
       </c>
       <c r="G71" s="92">
         <f>G70/(1+$B$88)*$B$88</f>
-        <v>58258358.302152947</v>
+        <v>63498166.666666679</v>
       </c>
       <c r="H71" s="92">
         <f>H70/(1+$B$88)*$B$88</f>
-        <v>81180480.822043657</v>
+        <v>95247333.333333343</v>
       </c>
       <c r="I71" s="92">
         <f>I70/(1+$B$88)*$B$88</f>
-        <v>111852696.5484768</v>
+        <v>126996333.33333336</v>
       </c>
       <c r="J71" s="92">
         <f>J70/(1+$B$88)*$B$88</f>
-        <v>137490842.72363326</v>
+        <v>95247333.333333343</v>
       </c>
       <c r="K71" s="92">
         <f>K70/(1+$B$88)*$B$88</f>
-        <v>130900782.33869255</v>
+        <v>95247333.333333343</v>
       </c>
       <c r="L71" s="92">
-        <f t="shared" si="44"/>
-        <v>124195355.63176596</v>
+        <f t="shared" si="42"/>
+        <v>63498166.666666679</v>
       </c>
       <c r="M71" s="92">
-        <f t="shared" si="44"/>
-        <v>117373129.37444261</v>
-      </c>
-      <c r="N71" s="92"/>
-      <c r="O71" s="294"/>
-      <c r="P71" s="294"/>
+        <f t="shared" si="42"/>
+        <v>31749166.666666672</v>
+      </c>
+      <c r="N71" s="92">
+        <f t="shared" si="42"/>
+        <v>49211000</v>
+      </c>
+      <c r="O71" s="92">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="92">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="Q71" s="143"/>
-      <c r="R71" s="516"/>
+      <c r="R71" s="428"/>
     </row>
     <row r="72" spans="1:18" s="7" customFormat="1" hidden="1">
-      <c r="A72" s="296" t="s">
+      <c r="A72" s="294" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="93">
@@ -18899,17 +18943,17 @@
         <v>0</v>
       </c>
       <c r="N72" s="93"/>
-      <c r="O72" s="290"/>
-      <c r="P72" s="290"/>
+      <c r="O72" s="289"/>
+      <c r="P72" s="289"/>
       <c r="Q72" s="143"/>
-      <c r="R72" s="516"/>
+      <c r="R72" s="428"/>
     </row>
     <row r="73" spans="1:18" s="7" customFormat="1" hidden="1">
-      <c r="A73" s="276" t="s">
+      <c r="A73" s="275" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="93">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="B69:B75" si="43">SUM(C73:M73)</f>
         <v>0</v>
       </c>
       <c r="C73" s="92">
@@ -18945,17 +18989,17 @@
         <v>0</v>
       </c>
       <c r="N73" s="92"/>
-      <c r="O73" s="294"/>
-      <c r="P73" s="294"/>
+      <c r="O73" s="292"/>
+      <c r="P73" s="292"/>
       <c r="Q73" s="143"/>
-      <c r="R73" s="516"/>
+      <c r="R73" s="428"/>
     </row>
     <row r="74" spans="1:18" s="7" customFormat="1" hidden="1">
-      <c r="A74" s="296" t="s">
+      <c r="A74" s="294" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="93">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="C74" s="93">
@@ -18984,17 +19028,17 @@
         <v>0</v>
       </c>
       <c r="N74" s="93"/>
-      <c r="O74" s="290"/>
-      <c r="P74" s="290"/>
+      <c r="O74" s="289"/>
+      <c r="P74" s="289"/>
       <c r="Q74" s="143"/>
-      <c r="R74" s="516"/>
+      <c r="R74" s="428"/>
     </row>
     <row r="75" spans="1:18" s="7" customFormat="1" hidden="1">
-      <c r="A75" s="276" t="s">
+      <c r="A75" s="275" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="93">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="C75" s="92">
@@ -19030,13 +19074,13 @@
         <v>0</v>
       </c>
       <c r="N75" s="92"/>
-      <c r="O75" s="294"/>
-      <c r="P75" s="294"/>
+      <c r="O75" s="292"/>
+      <c r="P75" s="292"/>
       <c r="Q75" s="143"/>
-      <c r="R75" s="516"/>
+      <c r="R75" s="428"/>
     </row>
     <row r="76" spans="1:18" s="7" customFormat="1" ht="29.25" hidden="1" customHeight="1">
-      <c r="A76" s="297" t="s">
+      <c r="A76" s="295" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="147">
@@ -19044,43 +19088,43 @@
         <v>0</v>
       </c>
       <c r="C76" s="147">
-        <f t="shared" ref="C76:L76" si="45">$B$107*C65</f>
+        <f t="shared" ref="C76:L76" si="44">$B$107*C65</f>
         <v>0</v>
       </c>
       <c r="D76" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E76" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F76" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G76" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H76" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I76" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="J76" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K76" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L76" s="147">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M76" s="93">
@@ -19088,235 +19132,244 @@
         <v>0</v>
       </c>
       <c r="N76" s="92"/>
-      <c r="O76" s="294"/>
-      <c r="P76" s="294"/>
+      <c r="O76" s="292"/>
+      <c r="P76" s="292"/>
       <c r="Q76" s="143"/>
-      <c r="R76" s="516"/>
+      <c r="R76" s="428"/>
     </row>
     <row r="77" spans="1:18" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A77" s="296" t="s">
+      <c r="A77" s="294" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="148">
-        <f>SUM(C77:O77)</f>
-        <v>760469616.58199942</v>
+        <f>SUM(C77:P77)</f>
+        <v>142506861.97999999</v>
       </c>
       <c r="C77" s="149">
-        <f>('[30]строит (ИТОГО)'!$B$9*0.003/4)*2+'[30]строит (ИТОГО)'!B9</f>
-        <v>748143733.79849994</v>
+        <f>'[32]График Стр-ва'!$C$25:$E$25*1000</f>
+        <v>66309069.979999997</v>
       </c>
       <c r="D77" s="149">
-        <f>('[30]строит (ИТОГО)'!$B$9*0.003/4)*2</f>
-        <v>1120534.7985</v>
+        <f>$C$71*2</f>
+        <v>6349816</v>
       </c>
       <c r="E77" s="149">
-        <f>('[30]строит (ИТОГО)'!$B$9*0.003/4)*2</f>
-        <v>1120534.7985</v>
+        <f t="shared" ref="E77:N77" si="45">$C$71*2</f>
+        <v>6349816</v>
       </c>
       <c r="F77" s="149">
-        <f>('[30]строит (ИТОГО)'!$B$9*0.003/4)*2</f>
-        <v>1120534.7985</v>
+        <f t="shared" si="45"/>
+        <v>6349816</v>
       </c>
       <c r="G77" s="149">
-        <f>('[30]строит (ИТОГО)'!$B$9*0.003/4)*2</f>
-        <v>1120534.7985</v>
+        <f t="shared" si="45"/>
+        <v>6349816</v>
       </c>
       <c r="H77" s="149">
-        <f>('[30]строит (ИТОГО)'!$B$9*0.003/4)*2</f>
-        <v>1120534.7985</v>
+        <f t="shared" si="45"/>
+        <v>6349816</v>
       </c>
       <c r="I77" s="149">
-        <f>('[30]строит (ИТОГО)'!$B$9*0.003/4)*2</f>
-        <v>1120534.7985</v>
+        <f t="shared" si="45"/>
+        <v>6349816</v>
       </c>
       <c r="J77" s="149">
-        <f>('[30]строит (ИТОГО)'!$B$9*0.003/4)*2</f>
-        <v>1120534.7985</v>
+        <f t="shared" si="45"/>
+        <v>6349816</v>
       </c>
       <c r="K77" s="149">
-        <f>('[30]строит (ИТОГО)'!$B$9*0.003/4)*2</f>
-        <v>1120534.7985</v>
+        <f t="shared" si="45"/>
+        <v>6349816</v>
       </c>
       <c r="L77" s="149">
-        <f>('[30]строит (ИТОГО)'!$B$9*0.003/4)*2</f>
-        <v>1120534.7985</v>
+        <f t="shared" si="45"/>
+        <v>6349816</v>
       </c>
       <c r="M77" s="149">
-        <f>('[30]строит (ИТОГО)'!$B$9*0.003/4)*2</f>
-        <v>1120534.7985</v>
+        <f t="shared" si="45"/>
+        <v>6349816</v>
       </c>
       <c r="N77" s="149">
-        <f>'[30]строит (ИТОГО)'!$B$9*0.003/4</f>
-        <v>560267.39925000002</v>
-      </c>
-      <c r="O77" s="298">
-        <f>'[30]строит (ИТОГО)'!$B$9*0.003/4</f>
-        <v>560267.39925000002</v>
-      </c>
-      <c r="P77" s="298">
-        <f>'[30]строит (ИТОГО)'!$B$9*0.003/4</f>
-        <v>560267.39925000002</v>
+        <f t="shared" si="45"/>
+        <v>6349816</v>
+      </c>
+      <c r="O77" s="296">
+        <f>C71</f>
+        <v>3174908</v>
+      </c>
+      <c r="P77" s="296">
+        <f>O77</f>
+        <v>3174908</v>
       </c>
       <c r="Q77" s="143"/>
-      <c r="R77" s="516"/>
+      <c r="R77" s="428"/>
     </row>
     <row r="78" spans="1:18" s="7" customFormat="1" ht="24" customHeight="1">
-      <c r="A78" s="299" t="s">
+      <c r="A78" s="297" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="215">
-        <f>SUM(C78:M78)</f>
-        <v>5552857406.7771463</v>
+        <f>SUM(C78:P78)</f>
+        <v>4204641757.98</v>
       </c>
       <c r="C78" s="215">
         <f>C70+C77</f>
-        <v>804092130.70205998</v>
+        <v>85358517.979999989</v>
       </c>
       <c r="D78" s="215">
         <f t="shared" ref="D78:M78" si="46">D70+D72+D74+D76+D77</f>
-        <v>57344539.568580002</v>
+        <v>25399264</v>
       </c>
       <c r="E78" s="215">
         <f t="shared" si="46"/>
-        <v>57785512.155011989</v>
+        <v>201444816</v>
       </c>
       <c r="F78" s="215">
         <f t="shared" si="46"/>
-        <v>58281606.314747982</v>
+        <v>406387816</v>
       </c>
       <c r="G78" s="215">
         <f t="shared" si="46"/>
-        <v>350670684.61141765</v>
+        <v>387338816</v>
       </c>
       <c r="H78" s="215">
         <f t="shared" si="46"/>
-        <v>488203419.73076195</v>
+        <v>577833816</v>
       </c>
       <c r="I78" s="215">
         <f t="shared" si="46"/>
-        <v>672236714.08936059</v>
+        <v>768327816</v>
       </c>
       <c r="J78" s="215">
         <f t="shared" si="46"/>
-        <v>826065591.14029944</v>
+        <v>577833816</v>
       </c>
       <c r="K78" s="215">
         <f t="shared" si="46"/>
-        <v>786525228.83065522</v>
+        <v>577833816</v>
       </c>
       <c r="L78" s="215">
         <f t="shared" si="46"/>
-        <v>746292668.58909571</v>
+        <v>387338816</v>
       </c>
       <c r="M78" s="215">
         <f t="shared" si="46"/>
-        <v>705359311.04515553</v>
+        <v>196844816</v>
       </c>
       <c r="N78" s="215">
         <f>N77</f>
-        <v>560267.39925000002</v>
-      </c>
-      <c r="O78" s="288">
+        <v>6349816</v>
+      </c>
+      <c r="O78" s="287">
         <f>O77</f>
-        <v>560267.39925000002</v>
-      </c>
-      <c r="P78" s="288">
+        <v>3174908</v>
+      </c>
+      <c r="P78" s="287">
         <f>P77</f>
-        <v>560267.39925000002</v>
+        <v>3174908</v>
       </c>
       <c r="Q78" s="143"/>
-      <c r="R78" s="516"/>
+      <c r="R78" s="428"/>
     </row>
     <row r="79" spans="1:18" s="7" customFormat="1">
-      <c r="A79" s="300" t="s">
+      <c r="A79" s="298" t="s">
         <v>65</v>
       </c>
       <c r="B79" s="253">
-        <f>SUM(C79:M79)</f>
-        <v>798918054.16560769</v>
+        <f>SUM(C79:P79)</f>
+        <v>726233482.66666675</v>
       </c>
       <c r="C79" s="253">
         <f>C71+C73+C75</f>
-        <v>9324732.817259999</v>
+        <v>3174908</v>
       </c>
       <c r="D79" s="253">
-        <f t="shared" ref="D79:M79" si="47">D71+D73+D75</f>
-        <v>9370667.4616800006</v>
+        <f t="shared" ref="D79:P79" si="47">D71+D73+D75</f>
+        <v>3174908</v>
       </c>
       <c r="E79" s="253">
         <f t="shared" si="47"/>
-        <v>9444162.8927519973</v>
+        <v>32515833.33333334</v>
       </c>
       <c r="F79" s="253">
         <f t="shared" si="47"/>
-        <v>9526845.2527079973</v>
+        <v>66673000</v>
       </c>
       <c r="G79" s="253">
         <f>G71+G73+G75</f>
-        <v>58258358.302152947</v>
+        <v>63498166.666666679</v>
       </c>
       <c r="H79" s="253">
         <f t="shared" si="47"/>
-        <v>81180480.822043657</v>
+        <v>95247333.333333343</v>
       </c>
       <c r="I79" s="253">
         <f t="shared" si="47"/>
-        <v>111852696.5484768</v>
+        <v>126996333.33333336</v>
       </c>
       <c r="J79" s="253">
         <f t="shared" si="47"/>
-        <v>137490842.72363326</v>
+        <v>95247333.333333343</v>
       </c>
       <c r="K79" s="253">
         <f t="shared" si="47"/>
-        <v>130900782.33869255</v>
+        <v>95247333.333333343</v>
       </c>
       <c r="L79" s="253">
         <f t="shared" si="47"/>
-        <v>124195355.63176596</v>
+        <v>63498166.666666679</v>
       </c>
       <c r="M79" s="253">
         <f t="shared" si="47"/>
-        <v>117373129.37444261</v>
-      </c>
-      <c r="N79" s="254"/>
-      <c r="O79" s="301"/>
-      <c r="P79" s="301"/>
-      <c r="Q79" s="255"/>
-      <c r="R79" s="516"/>
+        <v>31749166.666666672</v>
+      </c>
+      <c r="N79" s="253">
+        <f t="shared" si="47"/>
+        <v>49211000</v>
+      </c>
+      <c r="O79" s="253">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="P79" s="253">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="254"/>
+      <c r="R79" s="428"/>
     </row>
     <row r="80" spans="1:18" s="156" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A80" s="302"/>
-      <c r="B80" s="303"/>
-      <c r="C80" s="303"/>
-      <c r="D80" s="303"/>
-      <c r="E80" s="303"/>
-      <c r="F80" s="304"/>
-      <c r="G80" s="304"/>
-      <c r="H80" s="304"/>
-      <c r="I80" s="304"/>
-      <c r="J80" s="304"/>
-      <c r="K80" s="304"/>
-      <c r="L80" s="304"/>
-      <c r="M80" s="305"/>
-      <c r="N80" s="305"/>
-      <c r="O80" s="306"/>
-      <c r="P80" s="306"/>
+      <c r="A80" s="299"/>
+      <c r="B80" s="300"/>
+      <c r="C80" s="300"/>
+      <c r="D80" s="300"/>
+      <c r="E80" s="300"/>
+      <c r="F80" s="301"/>
+      <c r="G80" s="301"/>
+      <c r="H80" s="301"/>
+      <c r="I80" s="301"/>
+      <c r="J80" s="301"/>
+      <c r="K80" s="301"/>
+      <c r="L80" s="301"/>
+      <c r="M80" s="302"/>
+      <c r="N80" s="302"/>
+      <c r="O80" s="303"/>
+      <c r="P80" s="303"/>
       <c r="Q80" s="138"/>
     </row>
     <row r="81" spans="1:17" s="156" customFormat="1">
-      <c r="A81" s="307"/>
-      <c r="B81" s="308"/>
-      <c r="C81" s="308"/>
-      <c r="D81" s="308"/>
-      <c r="E81" s="308"/>
-      <c r="F81" s="309"/>
-      <c r="G81" s="309"/>
-      <c r="H81" s="309"/>
-      <c r="I81" s="309"/>
-      <c r="J81" s="309"/>
-      <c r="K81" s="309"/>
-      <c r="L81" s="309"/>
+      <c r="A81" s="304"/>
+      <c r="B81" s="305"/>
+      <c r="C81" s="305"/>
+      <c r="D81" s="305"/>
+      <c r="E81" s="305"/>
+      <c r="F81" s="306"/>
+      <c r="G81" s="306"/>
+      <c r="H81" s="306"/>
+      <c r="I81" s="306"/>
+      <c r="J81" s="306"/>
+      <c r="K81" s="306"/>
+      <c r="L81" s="306"/>
     </row>
     <row r="82" spans="1:17" s="156" customFormat="1" ht="13.5" thickBot="1">
       <c r="A82" s="249"/>
@@ -19338,535 +19391,539 @@
       <c r="Q82" s="252"/>
     </row>
     <row r="83" spans="1:17" s="6" customFormat="1">
-      <c r="A83" s="312" t="s">
+      <c r="A83" s="309" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="313">
-        <f>SUM(C83:O83)</f>
-        <v>-66480982.089762986</v>
-      </c>
-      <c r="C83" s="313">
+      <c r="B83" s="310">
+        <f>SUM(C83:P83)</f>
+        <v>1742690360.809691</v>
+      </c>
+      <c r="C83" s="310">
         <f>C67-C78</f>
-        <v>-804092130.70205998</v>
-      </c>
-      <c r="D83" s="313">
+        <v>-85358517.979999989</v>
+      </c>
+      <c r="D83" s="310">
         <f t="shared" ref="D83:O83" si="48">D67-D78</f>
-        <v>-57344539.568580002</v>
-      </c>
-      <c r="E83" s="313">
+        <v>-25399264</v>
+      </c>
+      <c r="E83" s="310">
         <f t="shared" si="48"/>
-        <v>-57785512.155011989</v>
-      </c>
-      <c r="F83" s="313">
+        <v>-201444816</v>
+      </c>
+      <c r="F83" s="310">
         <f t="shared" si="48"/>
-        <v>-58281606.314747982</v>
-      </c>
-      <c r="G83" s="313">
+        <v>-406387816</v>
+      </c>
+      <c r="G83" s="310">
         <f t="shared" si="48"/>
-        <v>-350670684.61141765</v>
-      </c>
-      <c r="H83" s="313">
+        <v>-387338816</v>
+      </c>
+      <c r="H83" s="310">
         <f t="shared" si="48"/>
-        <v>-488203419.73076195</v>
-      </c>
-      <c r="I83" s="313">
+        <v>-577833816</v>
+      </c>
+      <c r="I83" s="310">
         <f t="shared" si="48"/>
-        <v>-672236714.08936059</v>
-      </c>
-      <c r="J83" s="313">
+        <v>-768327816</v>
+      </c>
+      <c r="J83" s="310">
         <f t="shared" si="48"/>
-        <v>-826065591.14029944</v>
-      </c>
-      <c r="K83" s="313">
+        <v>-577833816</v>
+      </c>
+      <c r="K83" s="310">
         <f t="shared" si="48"/>
-        <v>-786525228.83065522</v>
-      </c>
-      <c r="L83" s="313">
+        <v>-577833816</v>
+      </c>
+      <c r="L83" s="310">
         <f t="shared" si="48"/>
-        <v>-746292668.58909571</v>
-      </c>
-      <c r="M83" s="313">
+        <v>-387338816</v>
+      </c>
+      <c r="M83" s="310">
         <f t="shared" si="48"/>
-        <v>-705359311.04515553</v>
-      </c>
-      <c r="N83" s="313">
+        <v>-196844816</v>
+      </c>
+      <c r="N83" s="310">
         <f t="shared" si="48"/>
-        <v>5244499664.3209076</v>
-      </c>
-      <c r="O83" s="313">
+        <v>5238710115.7201576</v>
+      </c>
+      <c r="O83" s="310">
         <f t="shared" si="48"/>
-        <v>241876760.36647576</v>
-      </c>
-      <c r="P83" s="313">
+        <v>239262119.76572576</v>
+      </c>
+      <c r="P83" s="310">
         <f t="shared" ref="P83" si="49">P67-P78</f>
-        <v>459274891.90455741</v>
+        <v>456660251.30380738</v>
       </c>
       <c r="Q83" s="248"/>
     </row>
-    <row r="84" spans="1:17" s="344" customFormat="1" ht="25.5">
-      <c r="A84" s="340" t="s">
+    <row r="84" spans="1:17" s="341" customFormat="1" ht="25.5">
+      <c r="A84" s="337" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="341"/>
-      <c r="C84" s="341">
+      <c r="B84" s="338"/>
+      <c r="C84" s="338">
         <f>C83-C85</f>
-        <v>-804092130.70205998</v>
-      </c>
-      <c r="D84" s="341">
+        <v>-85358517.979999989</v>
+      </c>
+      <c r="D84" s="338">
         <f t="shared" ref="D84:O84" si="50">D83-D85</f>
-        <v>-57344539.568580002</v>
-      </c>
-      <c r="E84" s="341">
+        <v>-25399264</v>
+      </c>
+      <c r="E84" s="338">
         <f t="shared" si="50"/>
-        <v>-57785512.155011989</v>
-      </c>
-      <c r="F84" s="341">
+        <v>-201444816</v>
+      </c>
+      <c r="F84" s="338">
         <f t="shared" si="50"/>
-        <v>-58281606.314747982</v>
-      </c>
-      <c r="G84" s="341">
+        <v>-406387816</v>
+      </c>
+      <c r="G84" s="338">
         <f t="shared" si="50"/>
-        <v>-350670684.61141765</v>
-      </c>
-      <c r="H84" s="341">
+        <v>-387338816</v>
+      </c>
+      <c r="H84" s="338">
         <f t="shared" si="50"/>
-        <v>-488203419.73076195</v>
-      </c>
-      <c r="I84" s="341">
+        <v>-577833816</v>
+      </c>
+      <c r="I84" s="338">
         <f t="shared" si="50"/>
-        <v>-672236714.08936059</v>
-      </c>
-      <c r="J84" s="341">
+        <v>-768327816</v>
+      </c>
+      <c r="J84" s="338">
         <f t="shared" si="50"/>
-        <v>-826065591.14029944</v>
-      </c>
-      <c r="K84" s="341">
+        <v>-577833816</v>
+      </c>
+      <c r="K84" s="338">
         <f t="shared" si="50"/>
-        <v>-786525228.83065522</v>
-      </c>
-      <c r="L84" s="341">
+        <v>-577833816</v>
+      </c>
+      <c r="L84" s="338">
         <f t="shared" si="50"/>
-        <v>-746292668.58909571</v>
-      </c>
-      <c r="M84" s="341">
+        <v>-387338816</v>
+      </c>
+      <c r="M84" s="338">
         <f t="shared" si="50"/>
-        <v>-705359311.04515553</v>
-      </c>
-      <c r="N84" s="341">
+        <v>-196844816</v>
+      </c>
+      <c r="N84" s="338">
         <f t="shared" si="50"/>
-        <v>-560267.39925003052</v>
-      </c>
-      <c r="O84" s="342">
+        <v>-6349816</v>
+      </c>
+      <c r="O84" s="339">
         <f t="shared" si="50"/>
-        <v>-560267.39925000072</v>
-      </c>
-      <c r="P84" s="342">
+        <v>-3174908</v>
+      </c>
+      <c r="P84" s="339">
         <f t="shared" ref="P84" si="51">P83-P85</f>
-        <v>-560267.39924997091</v>
-      </c>
-      <c r="Q84" s="343"/>
-    </row>
-    <row r="85" spans="1:17" s="344" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A85" s="340" t="s">
+        <v>-3174908</v>
+      </c>
+      <c r="Q84" s="340"/>
+    </row>
+    <row r="85" spans="1:17" s="341" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A85" s="337" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="345"/>
-      <c r="C85" s="346"/>
-      <c r="D85" s="346"/>
-      <c r="E85" s="346"/>
-      <c r="F85" s="346"/>
-      <c r="G85" s="345"/>
-      <c r="H85" s="345"/>
-      <c r="I85" s="345"/>
-      <c r="J85" s="345"/>
-      <c r="K85" s="345"/>
-      <c r="L85" s="345"/>
-      <c r="M85" s="345"/>
-      <c r="N85" s="345">
+      <c r="B85" s="342"/>
+      <c r="C85" s="343"/>
+      <c r="D85" s="343"/>
+      <c r="E85" s="343"/>
+      <c r="F85" s="343"/>
+      <c r="G85" s="342"/>
+      <c r="H85" s="342"/>
+      <c r="I85" s="342"/>
+      <c r="J85" s="342"/>
+      <c r="K85" s="342"/>
+      <c r="L85" s="342"/>
+      <c r="M85" s="342"/>
+      <c r="N85" s="342">
         <f>SUM(G65:N65)</f>
         <v>5245059931.7201576</v>
       </c>
-      <c r="O85" s="347">
+      <c r="O85" s="344">
         <f>O65</f>
         <v>242437027.76572576</v>
       </c>
-      <c r="P85" s="347">
+      <c r="P85" s="344">
         <f>P65</f>
         <v>459835159.30380738</v>
       </c>
+      <c r="Q85" s="514">
+        <f>SUM(N85:P85)</f>
+        <v>5947332118.789691</v>
+      </c>
     </row>
     <row r="86" spans="1:17" s="6" customFormat="1">
-      <c r="A86" s="312" t="s">
+      <c r="A86" s="309" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="313"/>
-      <c r="C86" s="313"/>
-      <c r="D86" s="313"/>
-      <c r="E86" s="313"/>
-      <c r="F86" s="313"/>
-      <c r="G86" s="313"/>
-      <c r="H86" s="313"/>
-      <c r="I86" s="313"/>
-      <c r="J86" s="313"/>
-      <c r="K86" s="313"/>
-      <c r="L86" s="313"/>
-      <c r="M86" s="313"/>
-      <c r="N86" s="313"/>
-      <c r="O86" s="313"/>
-      <c r="P86" s="313"/>
+      <c r="B86" s="310"/>
+      <c r="C86" s="310"/>
+      <c r="D86" s="310"/>
+      <c r="E86" s="310"/>
+      <c r="F86" s="310"/>
+      <c r="G86" s="310"/>
+      <c r="H86" s="310"/>
+      <c r="I86" s="310"/>
+      <c r="J86" s="310"/>
+      <c r="K86" s="310"/>
+      <c r="L86" s="310"/>
+      <c r="M86" s="310"/>
+      <c r="N86" s="310"/>
+      <c r="O86" s="310"/>
+      <c r="P86" s="310"/>
       <c r="Q86" s="248"/>
     </row>
-    <row r="87" spans="1:17" s="331" customFormat="1">
-      <c r="A87" s="354" t="s">
+    <row r="87" spans="1:17" s="328" customFormat="1">
+      <c r="A87" s="351" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="350">
-        <f>SUM(C87:O87)</f>
-        <v>693988634.49223721</v>
-      </c>
-      <c r="C87" s="350">
+      <c r="B87" s="347">
+        <f>SUM(C87:P87)</f>
+        <v>1885197222.7896905</v>
+      </c>
+      <c r="C87" s="347">
         <f t="shared" ref="C87:O87" si="52">C65-C78+C77</f>
-        <v>-55948396.903560042</v>
-      </c>
-      <c r="D87" s="350">
+        <v>-19049447.999999993</v>
+      </c>
+      <c r="D87" s="347">
         <f t="shared" si="52"/>
-        <v>-56224004.77008</v>
-      </c>
-      <c r="E87" s="350">
+        <v>-19049448</v>
+      </c>
+      <c r="E87" s="347">
         <f t="shared" si="52"/>
-        <v>-56664977.356511988</v>
-      </c>
-      <c r="F87" s="350">
+        <v>-195095000</v>
+      </c>
+      <c r="F87" s="347">
         <f t="shared" si="52"/>
-        <v>-57161071.51624798</v>
-      </c>
-      <c r="G87" s="350">
+        <v>-400038000</v>
+      </c>
+      <c r="G87" s="347">
         <f t="shared" si="52"/>
-        <v>538477772.44409835</v>
-      </c>
-      <c r="H87" s="350">
+        <v>507038922.25701606</v>
+      </c>
+      <c r="H87" s="347">
         <f t="shared" si="52"/>
-        <v>318862448.76152778</v>
-      </c>
-      <c r="I87" s="350">
+        <v>234461333.69378972</v>
+      </c>
+      <c r="I87" s="347">
         <f t="shared" si="52"/>
-        <v>102595206.12970513</v>
-      </c>
-      <c r="J87" s="350">
+        <v>11733385.420565724</v>
+      </c>
+      <c r="J87" s="347">
         <f t="shared" si="52"/>
-        <v>-85968041.564779341</v>
-      </c>
-      <c r="K87" s="350">
+        <v>167493014.7770201</v>
+      </c>
+      <c r="K87" s="347">
         <f t="shared" si="52"/>
-        <v>-83779056.350547016</v>
-      </c>
-      <c r="L87" s="350">
+        <v>130141637.6816082</v>
+      </c>
+      <c r="L87" s="347">
         <f t="shared" si="52"/>
-        <v>-179859510.26842779</v>
-      </c>
-      <c r="M87" s="350">
+        <v>184323623.52216792</v>
+      </c>
+      <c r="M87" s="347">
         <f t="shared" si="52"/>
-        <v>-203187151.60522401</v>
-      </c>
-      <c r="N87" s="350">
+        <v>310556624.64143151</v>
+      </c>
+      <c r="N87" s="347">
         <f t="shared" si="52"/>
         <v>270408389.72655827</v>
       </c>
-      <c r="O87" s="351">
+      <c r="O87" s="348">
         <f t="shared" si="52"/>
         <v>242437027.76572576</v>
       </c>
-      <c r="P87" s="351">
+      <c r="P87" s="348">
         <f t="shared" ref="P87" si="53">P65-P78+P77</f>
         <v>459835159.30380738</v>
       </c>
-      <c r="Q87" s="352"/>
-    </row>
-    <row r="88" spans="1:17" s="331" customFormat="1">
-      <c r="A88" s="354" t="s">
+      <c r="Q87" s="349"/>
+    </row>
+    <row r="88" spans="1:17" s="328" customFormat="1">
+      <c r="A88" s="351" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="355">
+      <c r="B88" s="352">
         <v>0.2</v>
       </c>
-      <c r="C88" s="350">
-        <v>0</v>
-      </c>
-      <c r="D88" s="350">
-        <v>0</v>
-      </c>
-      <c r="E88" s="350">
-        <v>0</v>
-      </c>
-      <c r="F88" s="350">
-        <v>0</v>
-      </c>
-      <c r="G88" s="350">
-        <v>0</v>
-      </c>
-      <c r="H88" s="350">
-        <v>0</v>
-      </c>
-      <c r="I88" s="350">
-        <v>0</v>
-      </c>
-      <c r="J88" s="350">
-        <v>0</v>
-      </c>
-      <c r="K88" s="350">
-        <v>0</v>
-      </c>
-      <c r="L88" s="350">
-        <v>0</v>
-      </c>
-      <c r="M88" s="350">
-        <v>0</v>
-      </c>
-      <c r="N88" s="350">
-        <v>0</v>
-      </c>
-      <c r="O88" s="351">
-        <v>0</v>
-      </c>
-      <c r="P88" s="351">
+      <c r="C88" s="347">
+        <v>0</v>
+      </c>
+      <c r="D88" s="347">
+        <v>0</v>
+      </c>
+      <c r="E88" s="347">
+        <v>0</v>
+      </c>
+      <c r="F88" s="347">
+        <v>0</v>
+      </c>
+      <c r="G88" s="347">
+        <v>0</v>
+      </c>
+      <c r="H88" s="347">
+        <v>0</v>
+      </c>
+      <c r="I88" s="347">
+        <v>0</v>
+      </c>
+      <c r="J88" s="347">
+        <v>0</v>
+      </c>
+      <c r="K88" s="347">
+        <v>0</v>
+      </c>
+      <c r="L88" s="347">
+        <v>0</v>
+      </c>
+      <c r="M88" s="347">
+        <v>0</v>
+      </c>
+      <c r="N88" s="347">
+        <v>0</v>
+      </c>
+      <c r="O88" s="348">
+        <v>0</v>
+      </c>
+      <c r="P88" s="348">
         <v>1</v>
       </c>
-      <c r="Q88" s="352">
+      <c r="Q88" s="349">
         <f>B87/(1+B88)*B88</f>
-        <v>115664772.41537288</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" s="331" customFormat="1">
-      <c r="A89" s="354" t="s">
+        <v>314199537.1316151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="328" customFormat="1">
+      <c r="A89" s="351" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="350">
+      <c r="B89" s="347">
         <f>SUM(C89:Q89)</f>
-        <v>277129136.39942157</v>
-      </c>
-      <c r="C89" s="350">
+        <v>1428490822.6780758</v>
+      </c>
+      <c r="C89" s="347">
         <f>C83-C88</f>
-        <v>-804092130.70205998</v>
-      </c>
-      <c r="D89" s="350">
+        <v>-85358517.979999989</v>
+      </c>
+      <c r="D89" s="347">
         <f t="shared" ref="D89:M89" si="54">D83-D88</f>
-        <v>-57344539.568580002</v>
-      </c>
-      <c r="E89" s="350">
+        <v>-25399264</v>
+      </c>
+      <c r="E89" s="347">
         <f t="shared" si="54"/>
-        <v>-57785512.155011989</v>
-      </c>
-      <c r="F89" s="350">
+        <v>-201444816</v>
+      </c>
+      <c r="F89" s="347">
         <f t="shared" si="54"/>
-        <v>-58281606.314747982</v>
-      </c>
-      <c r="G89" s="350">
+        <v>-406387816</v>
+      </c>
+      <c r="G89" s="347">
         <f t="shared" si="54"/>
-        <v>-350670684.61141765</v>
-      </c>
-      <c r="H89" s="350">
+        <v>-387338816</v>
+      </c>
+      <c r="H89" s="347">
         <f>H83-H88</f>
-        <v>-488203419.73076195</v>
-      </c>
-      <c r="I89" s="350">
+        <v>-577833816</v>
+      </c>
+      <c r="I89" s="347">
         <f>I83-I88</f>
-        <v>-672236714.08936059</v>
-      </c>
-      <c r="J89" s="350">
+        <v>-768327816</v>
+      </c>
+      <c r="J89" s="347">
         <f>J83-J88</f>
-        <v>-826065591.14029944</v>
-      </c>
-      <c r="K89" s="350">
+        <v>-577833816</v>
+      </c>
+      <c r="K89" s="347">
         <f>K83-K88</f>
-        <v>-786525228.83065522</v>
-      </c>
-      <c r="L89" s="350">
+        <v>-577833816</v>
+      </c>
+      <c r="L89" s="347">
         <f t="shared" si="54"/>
-        <v>-746292668.58909571</v>
-      </c>
-      <c r="M89" s="350">
+        <v>-387338816</v>
+      </c>
+      <c r="M89" s="347">
         <f t="shared" si="54"/>
-        <v>-705359311.04515553</v>
-      </c>
-      <c r="N89" s="350">
+        <v>-196844816</v>
+      </c>
+      <c r="N89" s="347">
         <f>N83-N88</f>
-        <v>5244499664.3209076</v>
-      </c>
-      <c r="O89" s="351">
+        <v>5238710115.7201576</v>
+      </c>
+      <c r="O89" s="348">
         <f>O83-O88</f>
-        <v>241876760.36647576</v>
-      </c>
-      <c r="P89" s="351">
+        <v>239262119.76572576</v>
+      </c>
+      <c r="P89" s="348">
         <f>P83-P88</f>
-        <v>459274890.90455741</v>
-      </c>
-      <c r="Q89" s="356">
+        <v>456660250.30380738</v>
+      </c>
+      <c r="Q89" s="353">
         <f>Q83-Q88</f>
-        <v>-115664772.41537288</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" s="353" customFormat="1">
-      <c r="A90" s="357" t="s">
+        <v>-314199537.1316151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" s="350" customFormat="1">
+      <c r="A90" s="354" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="318">
+      <c r="B90" s="315">
         <v>0.2</v>
       </c>
-      <c r="C90" s="318">
-        <v>0</v>
-      </c>
-      <c r="D90" s="318">
-        <v>0</v>
-      </c>
-      <c r="E90" s="318">
-        <v>0</v>
-      </c>
-      <c r="F90" s="318">
-        <v>0</v>
-      </c>
-      <c r="G90" s="318">
-        <v>0</v>
-      </c>
-      <c r="H90" s="318">
-        <v>0</v>
-      </c>
-      <c r="I90" s="318">
-        <v>0</v>
-      </c>
-      <c r="J90" s="318">
-        <v>0</v>
-      </c>
-      <c r="K90" s="318">
-        <v>0</v>
-      </c>
-      <c r="L90" s="318">
-        <v>0</v>
-      </c>
-      <c r="M90" s="318">
-        <v>0</v>
-      </c>
-      <c r="N90" s="318">
-        <v>0</v>
-      </c>
-      <c r="O90" s="319">
-        <v>0</v>
-      </c>
-      <c r="P90" s="319">
+      <c r="C90" s="315">
+        <v>0</v>
+      </c>
+      <c r="D90" s="315">
+        <v>0</v>
+      </c>
+      <c r="E90" s="315">
+        <v>0</v>
+      </c>
+      <c r="F90" s="315">
+        <v>0</v>
+      </c>
+      <c r="G90" s="315">
+        <v>0</v>
+      </c>
+      <c r="H90" s="315">
+        <v>0</v>
+      </c>
+      <c r="I90" s="315">
+        <v>0</v>
+      </c>
+      <c r="J90" s="315">
+        <v>0</v>
+      </c>
+      <c r="K90" s="315">
+        <v>0</v>
+      </c>
+      <c r="L90" s="315">
+        <v>0</v>
+      </c>
+      <c r="M90" s="315">
+        <v>0</v>
+      </c>
+      <c r="N90" s="315">
+        <v>0</v>
+      </c>
+      <c r="O90" s="316">
+        <v>0</v>
+      </c>
+      <c r="P90" s="316">
         <v>1</v>
       </c>
-      <c r="Q90" s="352">
+      <c r="Q90" s="349">
         <f>-B89*B90</f>
-        <v>-55425827.279884316</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="353" customFormat="1">
-      <c r="A91" s="358" t="s">
+        <v>-285698164.53561515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" s="350" customFormat="1">
+      <c r="A91" s="355" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="359"/>
-      <c r="C91" s="359">
+      <c r="B91" s="356"/>
+      <c r="C91" s="356">
         <f>C88+C90</f>
         <v>0</v>
       </c>
-      <c r="D91" s="359">
+      <c r="D91" s="356">
         <f t="shared" ref="D91:O91" si="55">D88+D90</f>
         <v>0</v>
       </c>
-      <c r="E91" s="359">
+      <c r="E91" s="356">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="F91" s="359">
+      <c r="F91" s="356">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="G91" s="359">
+      <c r="G91" s="356">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="H91" s="359">
+      <c r="H91" s="356">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="I91" s="359">
+      <c r="I91" s="356">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="J91" s="359">
+      <c r="J91" s="356">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="K91" s="359">
+      <c r="K91" s="356">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="L91" s="359">
+      <c r="L91" s="356">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="M91" s="359">
+      <c r="M91" s="356">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="N91" s="359">
+      <c r="N91" s="356">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="O91" s="359">
+      <c r="O91" s="356">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="P91" s="359">
+      <c r="P91" s="356">
         <f t="shared" ref="P91" si="56">P88+P90</f>
         <v>2</v>
       </c>
-      <c r="Q91" s="359">
+      <c r="Q91" s="356">
         <f>Q89+Q90</f>
-        <v>-171090599.69525719</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" s="331" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A92" s="348"/>
-      <c r="B92" s="349"/>
-      <c r="C92" s="350"/>
-      <c r="D92" s="350"/>
-      <c r="E92" s="350"/>
-      <c r="F92" s="350"/>
-      <c r="G92" s="350"/>
-      <c r="H92" s="350"/>
-      <c r="I92" s="350"/>
-      <c r="J92" s="350"/>
-      <c r="K92" s="350"/>
-      <c r="L92" s="350"/>
-      <c r="M92" s="350"/>
-      <c r="N92" s="350"/>
-      <c r="O92" s="351"/>
-      <c r="P92" s="351"/>
-      <c r="Q92" s="352"/>
+        <v>-599897701.66723025</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" s="328" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A92" s="345"/>
+      <c r="B92" s="346"/>
+      <c r="C92" s="347"/>
+      <c r="D92" s="347"/>
+      <c r="E92" s="347"/>
+      <c r="F92" s="347"/>
+      <c r="G92" s="347"/>
+      <c r="H92" s="347"/>
+      <c r="I92" s="347"/>
+      <c r="J92" s="347"/>
+      <c r="K92" s="347"/>
+      <c r="L92" s="347"/>
+      <c r="M92" s="347"/>
+      <c r="N92" s="347"/>
+      <c r="O92" s="348"/>
+      <c r="P92" s="348"/>
+      <c r="Q92" s="349"/>
     </row>
     <row r="93" spans="1:17" s="6" customFormat="1">
-      <c r="A93" s="312" t="s">
+      <c r="A93" s="309" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="313"/>
-      <c r="C93" s="313"/>
-      <c r="D93" s="313"/>
-      <c r="E93" s="313"/>
-      <c r="F93" s="313"/>
-      <c r="G93" s="313"/>
-      <c r="H93" s="313"/>
-      <c r="I93" s="313"/>
-      <c r="J93" s="313"/>
-      <c r="K93" s="313"/>
-      <c r="L93" s="313"/>
-      <c r="M93" s="313"/>
-      <c r="N93" s="313"/>
-      <c r="O93" s="313"/>
-      <c r="P93" s="313"/>
+      <c r="B93" s="310"/>
+      <c r="C93" s="310"/>
+      <c r="D93" s="310"/>
+      <c r="E93" s="310"/>
+      <c r="F93" s="310"/>
+      <c r="G93" s="310"/>
+      <c r="H93" s="310"/>
+      <c r="I93" s="310"/>
+      <c r="J93" s="310"/>
+      <c r="K93" s="310"/>
+      <c r="L93" s="310"/>
+      <c r="M93" s="310"/>
+      <c r="N93" s="310"/>
+      <c r="O93" s="310"/>
+      <c r="P93" s="310"/>
       <c r="Q93" s="248"/>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="263" t="s">
+      <c r="A94" s="262" t="s">
         <v>86</v>
       </c>
       <c r="B94" s="163">
@@ -19920,11 +19977,11 @@
         <f>M94</f>
         <v>4.4447802172789874</v>
       </c>
-      <c r="O94" s="314">
+      <c r="O94" s="311">
         <f>N94</f>
         <v>4.4447802172789874</v>
       </c>
-      <c r="P94" s="314">
+      <c r="P94" s="311">
         <f>O94</f>
         <v>4.4447802172789874</v>
       </c>
@@ -19934,7 +19991,7 @@
       </c>
     </row>
     <row r="95" spans="1:17" ht="25.5">
-      <c r="A95" s="261" t="s">
+      <c r="A95" s="260" t="s">
         <v>90</v>
       </c>
       <c r="B95" s="167"/>
@@ -19986,11 +20043,11 @@
         <f t="shared" si="58"/>
         <v>0.60646045301229912</v>
       </c>
-      <c r="O95" s="315">
+      <c r="O95" s="312">
         <f t="shared" si="58"/>
         <v>0.58065175851839113</v>
       </c>
-      <c r="P95" s="315">
+      <c r="P95" s="312">
         <f t="shared" si="58"/>
         <v>0.55594138578342289</v>
       </c>
@@ -20000,7 +20057,7 @@
       </c>
     </row>
     <row r="96" spans="1:17" ht="38.25">
-      <c r="A96" s="261" t="s">
+      <c r="A96" s="260" t="s">
         <v>91</v>
       </c>
       <c r="B96" s="167"/>
@@ -20052,11 +20109,11 @@
         <f t="shared" si="59"/>
         <v>0.6137860049161753</v>
       </c>
-      <c r="O96" s="315">
+      <c r="O96" s="312">
         <f>N96/(1+O94/100)</f>
         <v>0.5876655622610355</v>
       </c>
-      <c r="P96" s="315">
+      <c r="P96" s="312">
         <f>O96/(1+P94/100)</f>
         <v>0.56265670820360836</v>
       </c>
@@ -20069,91 +20126,91 @@
       <c r="A97" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="316">
+      <c r="B97" s="313">
         <f>SUM(C97:Q97)</f>
-        <v>-677493512.99958348</v>
-      </c>
-      <c r="C97" s="317">
+        <v>3439100956.0950851</v>
+      </c>
+      <c r="C97" s="314">
         <f>C84*C95+C85*C96+C91*C95</f>
-        <v>-786796540.5535146</v>
-      </c>
-      <c r="D97" s="317">
+        <v>-83522502.07299152</v>
+      </c>
+      <c r="D97" s="314">
         <f t="shared" ref="D97:O97" si="60">D84*D95+D85*D96+D91*D95</f>
-        <v>-53723210.661598079</v>
-      </c>
-      <c r="E97" s="317">
+        <v>-23795291.073697839</v>
+      </c>
+      <c r="E97" s="314">
         <f t="shared" si="60"/>
-        <v>-51832495.17428714</v>
-      </c>
-      <c r="F97" s="317">
+        <v>-180692133.09377122</v>
+      </c>
+      <c r="F97" s="314">
         <f t="shared" si="60"/>
-        <v>-50052747.493920736</v>
-      </c>
-      <c r="G97" s="317">
+        <v>-349009370.62379384</v>
+      </c>
+      <c r="G97" s="314">
         <f t="shared" si="60"/>
-        <v>-288342812.10251027</v>
-      </c>
-      <c r="H97" s="317">
+        <v>-318493584.84487456</v>
+      </c>
+      <c r="H97" s="314">
         <f t="shared" si="60"/>
-        <v>-384347221.01297611</v>
-      </c>
-      <c r="I97" s="317">
+        <v>-454910417.27934349</v>
+      </c>
+      <c r="I97" s="314">
         <f t="shared" si="60"/>
-        <v>-506708763.4767589</v>
-      </c>
-      <c r="J97" s="317">
+        <v>-579138909.59904718</v>
+      </c>
+      <c r="J97" s="314">
         <f t="shared" si="60"/>
-        <v>-596161574.01877403</v>
-      </c>
-      <c r="K97" s="317">
+        <v>-417015695.80245066</v>
+      </c>
+      <c r="K97" s="314">
         <f t="shared" si="60"/>
-        <v>-543469736.11512375</v>
-      </c>
-      <c r="L97" s="317">
+        <v>-399269063.45623291</v>
+      </c>
+      <c r="L97" s="314">
         <f t="shared" si="60"/>
-        <v>-493725026.64676225</v>
-      </c>
-      <c r="M97" s="317">
+        <v>-256251836.98035273</v>
+      </c>
+      <c r="M97" s="314">
         <f t="shared" si="60"/>
-        <v>-446786075.98184586</v>
-      </c>
-      <c r="N97" s="317">
+        <v>-124684712.51580071</v>
+      </c>
+      <c r="N97" s="314">
         <f t="shared" si="60"/>
-        <v>3219004601.0156655</v>
-      </c>
-      <c r="O97" s="317">
+        <v>3215493468.748518</v>
+      </c>
+      <c r="O97" s="314">
         <f t="shared" si="60"/>
-        <v>142146571.98422447</v>
-      </c>
-      <c r="P97" s="317">
+        <v>140628376.3215054</v>
+      </c>
+      <c r="P97" s="314">
         <f t="shared" ref="P97" si="61">P84*P95+P85*P96+P91*P95</f>
-        <v>258417862.32769659</v>
-      </c>
-      <c r="Q97" s="317">
+        <v>256964275.40879002</v>
+      </c>
+      <c r="Q97" s="314">
         <f>Q84*Q95+Q85*Q96+Q91*Q95</f>
-        <v>-95116345.089098155</v>
+        <v>3012798352.9586287</v>
       </c>
     </row>
     <row r="98" spans="1:17" s="14" customFormat="1" ht="13.5" thickTop="1">
       <c r="A98" s="176"/>
       <c r="B98" s="177"/>
       <c r="C98" s="177"/>
-      <c r="D98" s="310"/>
-      <c r="E98" s="310"/>
-      <c r="F98" s="310"/>
-      <c r="G98" s="310"/>
-      <c r="H98" s="310"/>
-      <c r="I98" s="310"/>
-      <c r="J98" s="310"/>
-      <c r="K98" s="310"/>
-      <c r="L98" s="310"/>
-      <c r="M98" s="311"/>
+      <c r="D98" s="307"/>
+      <c r="E98" s="307"/>
+      <c r="F98" s="307"/>
+      <c r="G98" s="307"/>
+      <c r="H98" s="307"/>
+      <c r="I98" s="307"/>
+      <c r="J98" s="307"/>
+      <c r="K98" s="307"/>
+      <c r="L98" s="307"/>
+      <c r="M98" s="308"/>
     </row>
     <row r="99" spans="1:17" s="14" customFormat="1">
       <c r="A99" s="181"/>
-      <c r="B99" s="494"/>
-      <c r="C99" s="494"/>
-      <c r="D99" s="494"/>
+      <c r="B99" s="509"/>
+      <c r="C99" s="509"/>
+      <c r="D99" s="509"/>
       <c r="E99" s="182"/>
       <c r="F99" s="183"/>
       <c r="G99" s="183"/>
@@ -20166,131 +20223,131 @@
       <c r="N99" s="184"/>
     </row>
     <row r="100" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="478" t="s">
+      <c r="A100" s="491" t="s">
         <v>88</v>
       </c>
-      <c r="B100" s="478"/>
-      <c r="C100" s="478"/>
-      <c r="D100" s="478"/>
-      <c r="E100" s="478"/>
-      <c r="F100" s="478"/>
-      <c r="G100" s="478"/>
-      <c r="H100" s="478"/>
-      <c r="I100" s="478"/>
-      <c r="J100" s="478"/>
-      <c r="K100" s="478"/>
+      <c r="B100" s="491"/>
+      <c r="C100" s="491"/>
+      <c r="D100" s="491"/>
+      <c r="E100" s="491"/>
+      <c r="F100" s="491"/>
+      <c r="G100" s="491"/>
+      <c r="H100" s="491"/>
+      <c r="I100" s="491"/>
+      <c r="J100" s="491"/>
+      <c r="K100" s="491"/>
       <c r="L100" s="185"/>
       <c r="M100" s="185"/>
       <c r="N100" s="184"/>
     </row>
     <row r="101" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="478"/>
-      <c r="B101" s="478"/>
-      <c r="C101" s="478"/>
-      <c r="D101" s="478"/>
-      <c r="E101" s="478"/>
-      <c r="F101" s="478"/>
-      <c r="G101" s="478"/>
-      <c r="H101" s="478"/>
-      <c r="I101" s="478"/>
-      <c r="J101" s="478"/>
-      <c r="K101" s="478"/>
+      <c r="A101" s="491"/>
+      <c r="B101" s="491"/>
+      <c r="C101" s="491"/>
+      <c r="D101" s="491"/>
+      <c r="E101" s="491"/>
+      <c r="F101" s="491"/>
+      <c r="G101" s="491"/>
+      <c r="H101" s="491"/>
+      <c r="I101" s="491"/>
+      <c r="J101" s="491"/>
+      <c r="K101" s="491"/>
       <c r="L101" s="186"/>
       <c r="M101" s="186"/>
       <c r="N101" s="184"/>
     </row>
     <row r="102" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A102" s="478"/>
-      <c r="B102" s="478"/>
-      <c r="C102" s="478"/>
-      <c r="D102" s="478"/>
-      <c r="E102" s="478"/>
-      <c r="F102" s="478"/>
-      <c r="G102" s="478"/>
-      <c r="H102" s="478"/>
-      <c r="I102" s="478"/>
-      <c r="J102" s="478"/>
-      <c r="K102" s="478"/>
+      <c r="A102" s="491"/>
+      <c r="B102" s="491"/>
+      <c r="C102" s="491"/>
+      <c r="D102" s="491"/>
+      <c r="E102" s="491"/>
+      <c r="F102" s="491"/>
+      <c r="G102" s="491"/>
+      <c r="H102" s="491"/>
+      <c r="I102" s="491"/>
+      <c r="J102" s="491"/>
+      <c r="K102" s="491"/>
       <c r="L102" s="186"/>
       <c r="M102" s="186"/>
       <c r="N102" s="184"/>
     </row>
     <row r="103" spans="1:17" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A103" s="478"/>
-      <c r="B103" s="478"/>
-      <c r="C103" s="478"/>
-      <c r="D103" s="478"/>
-      <c r="E103" s="478"/>
-      <c r="F103" s="478"/>
-      <c r="G103" s="478"/>
-      <c r="H103" s="478"/>
-      <c r="I103" s="478"/>
-      <c r="J103" s="478"/>
-      <c r="K103" s="478"/>
+      <c r="A103" s="491"/>
+      <c r="B103" s="491"/>
+      <c r="C103" s="491"/>
+      <c r="D103" s="491"/>
+      <c r="E103" s="491"/>
+      <c r="F103" s="491"/>
+      <c r="G103" s="491"/>
+      <c r="H103" s="491"/>
+      <c r="I103" s="491"/>
+      <c r="J103" s="491"/>
+      <c r="K103" s="491"/>
       <c r="L103" s="186"/>
       <c r="M103" s="186"/>
       <c r="N103" s="184"/>
     </row>
     <row r="104" spans="1:17" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A104" s="478"/>
-      <c r="B104" s="478"/>
-      <c r="C104" s="478"/>
-      <c r="D104" s="478"/>
-      <c r="E104" s="478"/>
-      <c r="F104" s="478"/>
-      <c r="G104" s="478"/>
-      <c r="H104" s="478"/>
-      <c r="I104" s="478"/>
-      <c r="J104" s="478"/>
-      <c r="K104" s="478"/>
+      <c r="A104" s="491"/>
+      <c r="B104" s="491"/>
+      <c r="C104" s="491"/>
+      <c r="D104" s="491"/>
+      <c r="E104" s="491"/>
+      <c r="F104" s="491"/>
+      <c r="G104" s="491"/>
+      <c r="H104" s="491"/>
+      <c r="I104" s="491"/>
+      <c r="J104" s="491"/>
+      <c r="K104" s="491"/>
       <c r="L104" s="187"/>
       <c r="M104" s="187"/>
       <c r="N104" s="184"/>
     </row>
     <row r="105" spans="1:17" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A105" s="478"/>
-      <c r="B105" s="478"/>
-      <c r="C105" s="478"/>
-      <c r="D105" s="478"/>
-      <c r="E105" s="478"/>
-      <c r="F105" s="478"/>
-      <c r="G105" s="478"/>
-      <c r="H105" s="478"/>
-      <c r="I105" s="478"/>
-      <c r="J105" s="478"/>
-      <c r="K105" s="478"/>
+      <c r="A105" s="491"/>
+      <c r="B105" s="491"/>
+      <c r="C105" s="491"/>
+      <c r="D105" s="491"/>
+      <c r="E105" s="491"/>
+      <c r="F105" s="491"/>
+      <c r="G105" s="491"/>
+      <c r="H105" s="491"/>
+      <c r="I105" s="491"/>
+      <c r="J105" s="491"/>
+      <c r="K105" s="491"/>
       <c r="L105" s="187"/>
       <c r="M105" s="187"/>
       <c r="N105" s="184"/>
     </row>
     <row r="106" spans="1:17" s="190" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A106" s="478"/>
-      <c r="B106" s="478"/>
-      <c r="C106" s="478"/>
-      <c r="D106" s="478"/>
-      <c r="E106" s="478"/>
-      <c r="F106" s="478"/>
-      <c r="G106" s="478"/>
-      <c r="H106" s="478"/>
-      <c r="I106" s="478"/>
-      <c r="J106" s="478"/>
-      <c r="K106" s="478"/>
+      <c r="A106" s="491"/>
+      <c r="B106" s="491"/>
+      <c r="C106" s="491"/>
+      <c r="D106" s="491"/>
+      <c r="E106" s="491"/>
+      <c r="F106" s="491"/>
+      <c r="G106" s="491"/>
+      <c r="H106" s="491"/>
+      <c r="I106" s="491"/>
+      <c r="J106" s="491"/>
+      <c r="K106" s="491"/>
       <c r="L106" s="188"/>
       <c r="M106" s="189"/>
       <c r="N106" s="189"/>
     </row>
     <row r="107" spans="1:17" s="189" customFormat="1" ht="18.75" collapsed="1">
-      <c r="A107" s="478"/>
-      <c r="B107" s="478"/>
-      <c r="C107" s="478"/>
-      <c r="D107" s="478"/>
-      <c r="E107" s="478"/>
-      <c r="F107" s="478"/>
-      <c r="G107" s="478"/>
-      <c r="H107" s="478"/>
-      <c r="I107" s="478"/>
-      <c r="J107" s="478"/>
-      <c r="K107" s="478"/>
+      <c r="A107" s="491"/>
+      <c r="B107" s="491"/>
+      <c r="C107" s="491"/>
+      <c r="D107" s="491"/>
+      <c r="E107" s="491"/>
+      <c r="F107" s="491"/>
+      <c r="G107" s="491"/>
+      <c r="H107" s="491"/>
+      <c r="I107" s="491"/>
+      <c r="J107" s="491"/>
+      <c r="K107" s="491"/>
       <c r="L107" s="188"/>
     </row>
     <row r="108" spans="1:17" s="190" customFormat="1" ht="18.75">
@@ -20389,11 +20446,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="A100:K107"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="U1:X3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q4:T6"/>
+    <mergeCell ref="U4:X6"/>
     <mergeCell ref="T53:W55"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
@@ -20401,12 +20459,11 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="K16:M16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Q1:T3"/>
-    <mergeCell ref="U1:X3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q4:T6"/>
-    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="A100:K107"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.31496062992125984" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/Бизнес-планирование в строительстве/Эффективность проекта _лист в КП-2022.xlsx
+++ b/Бизнес-планирование в строительстве/Эффективность проекта _лист в КП-2022.xlsx
@@ -507,7 +507,7 @@
     <definedName name="нк" localSheetId="2">#REF!</definedName>
     <definedName name="нк">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Весь проект'!$A$1:$L$117</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Весь проект_эскроу'!$A$1:$L$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Весь проект_эскроу'!$A$1:$L$117</definedName>
     <definedName name="пао" localSheetId="2">#REF!</definedName>
     <definedName name="пао" localSheetId="0">#REF!</definedName>
     <definedName name="пао">#REF!</definedName>
@@ -708,10 +708,65 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>N.V.Braila</author>
     <author>Verter</author>
   </authors>
   <commentList>
-    <comment ref="C77" authorId="0" shapeId="0">
+    <comment ref="U69" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>N.V.Braila:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+общая сумма инвестиций с учетом индексов изменения стоимости строительства</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>N.V.Braila:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Вспоминаем или смотрим лекцию о финансировании проектов (там нужно найти инфо о минимальной доле собственных средств, см. лист "Российская практика".
+Собственные средства лучше использовать на первых этапах проекта, например, приобретение земельного участка и проектирование/согласование проекта, строительные работы нулевого цикла.
+Все зависит от того, сколько вы закладывается собственных средств в проект.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C77" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -725,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D77" authorId="0" shapeId="0">
+    <comment ref="D77" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -744,7 +799,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="180">
   <si>
     <t>!!! Цена продажи м.-мест растет в том же темпе, что и квартиры</t>
   </si>
@@ -1290,6 +1345,51 @@
   <si>
     <t>15 кваптал</t>
   </si>
+  <si>
+    <t>Кредит</t>
+  </si>
+  <si>
+    <t>процентная ставка</t>
+  </si>
+  <si>
+    <t>Срок погашения, кварталов</t>
+  </si>
+  <si>
+    <t>Сумма кредита (основной долг)</t>
+  </si>
+  <si>
+    <t>Величина долга  на начало квартала</t>
+  </si>
+  <si>
+    <t>капитализация процентов</t>
+  </si>
+  <si>
+    <t>Уплата процентов (текущих)</t>
+  </si>
+  <si>
+    <t>Погашение долга</t>
+  </si>
+  <si>
+    <t>Остаток долга на конец квартала</t>
+  </si>
+  <si>
+    <t>Периодическая выплата суммы долга (аннуитетный платеж)</t>
+  </si>
+  <si>
+    <t>Объём финансирования</t>
+  </si>
+  <si>
+    <t>Собственные средства</t>
+  </si>
+  <si>
+    <t>Средства в кредит</t>
+  </si>
+  <si>
+    <t>разница 60 млн</t>
+  </si>
+  <si>
+    <t>проверка</t>
+  </si>
 </sst>
 </file>
 
@@ -1318,7 +1418,7 @@
     <numFmt numFmtId="183" formatCode="_-* #,##0.000_р_._-;\-* #,##0.000_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="184" formatCode="0.000000%"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1653,6 +1753,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -1776,7 +1884,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="74">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -2480,36 +2588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="1"/>
       </left>
@@ -2731,6 +2809,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2779,7 +2892,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="515">
+  <cellXfs count="532">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3463,9 +3576,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3607,17 +3717,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="53" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3643,10 +3742,10 @@
     <xf numFmtId="171" fontId="4" fillId="2" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="52" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="4" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3806,7 +3905,7 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="18" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="18" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3820,7 +3919,7 @@
     <xf numFmtId="182" fontId="0" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="18" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3829,17 +3928,17 @@
     </xf>
     <xf numFmtId="183" fontId="0" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="0" fillId="18" borderId="55" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="18" borderId="53" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="18" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="18" borderId="65" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="18" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="44" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3869,55 +3968,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="66" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="64" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="65" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="68" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="69" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="67" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="70" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="71" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="72" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3925,18 +4024,139 @@
     </xf>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="39" fillId="4" borderId="71" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="18" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3946,124 +4166,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="44" fillId="13" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="13" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4102,85 +4259,82 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="44" fillId="13" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="39" fillId="4" borderId="73" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="33" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="5" xfId="33" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="5" xfId="33" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="12" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="36" fillId="12" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="12" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="12" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="19" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="_Б_Декабрьская АИБИ" xfId="6"/>
@@ -4764,7 +4918,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8413,11 +8566,6 @@
             <v>66309.06998</v>
           </cell>
         </row>
-        <row r="26">
-          <cell r="C26">
-            <v>19049.448</v>
-          </cell>
-        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -10214,282 +10362,282 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="C2" s="358" t="s">
+      <c r="C2" s="352" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="359"/>
-      <c r="G2" s="360"/>
-      <c r="H2" s="360"/>
-      <c r="I2" s="360"/>
-      <c r="J2" s="360"/>
-      <c r="K2" s="360"/>
-      <c r="L2" s="360"/>
-      <c r="M2" s="360"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="353"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="354"/>
+      <c r="H2" s="354"/>
+      <c r="I2" s="354"/>
+      <c r="J2" s="354"/>
+      <c r="K2" s="354"/>
+      <c r="L2" s="354"/>
+      <c r="M2" s="354"/>
     </row>
     <row r="3" spans="2:16" ht="36.75" customHeight="1">
-      <c r="C3" s="473" t="s">
+      <c r="C3" s="424" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="473"/>
-      <c r="E3" s="473"/>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="473"/>
-      <c r="I3" s="473"/>
-      <c r="J3" s="473"/>
-      <c r="K3" s="473"/>
-      <c r="L3" s="473"/>
-      <c r="M3" s="473"/>
+      <c r="D3" s="424"/>
+      <c r="E3" s="424"/>
+      <c r="F3" s="424"/>
+      <c r="G3" s="424"/>
+      <c r="H3" s="424"/>
+      <c r="I3" s="424"/>
+      <c r="J3" s="424"/>
+      <c r="K3" s="424"/>
+      <c r="L3" s="424"/>
+      <c r="M3" s="424"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1">
-      <c r="C4" s="473" t="s">
+      <c r="C4" s="424" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="473"/>
-      <c r="E4" s="474"/>
-      <c r="F4" s="361">
+      <c r="D4" s="424"/>
+      <c r="E4" s="425"/>
+      <c r="F4" s="355">
         <v>50000000</v>
       </c>
-      <c r="G4" s="360" t="s">
+      <c r="G4" s="354" t="s">
         <v>112</v>
       </c>
       <c r="H4" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="360"/>
-      <c r="J4" s="360"/>
-      <c r="K4" s="360"/>
-      <c r="L4" s="361">
+      <c r="I4" s="354"/>
+      <c r="J4" s="354"/>
+      <c r="K4" s="354"/>
+      <c r="L4" s="355">
         <v>30000000</v>
       </c>
-      <c r="M4" s="360" t="s">
+      <c r="M4" s="354" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="L5" s="360"/>
-      <c r="M5" s="360"/>
+      <c r="L5" s="354"/>
+      <c r="M5" s="354"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="K6" s="362"/>
-      <c r="L6" s="360"/>
-      <c r="M6" s="360"/>
+      <c r="K6" s="356"/>
+      <c r="L6" s="354"/>
+      <c r="M6" s="354"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="C7" s="358" t="s">
+      <c r="C7" s="352" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="475" t="s">
+      <c r="D7" s="426" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="475"/>
-      <c r="F7" s="475"/>
-      <c r="K7" s="362"/>
-      <c r="L7" s="360"/>
-      <c r="M7" s="360"/>
+      <c r="E7" s="426"/>
+      <c r="F7" s="426"/>
+      <c r="K7" s="356"/>
+      <c r="L7" s="354"/>
+      <c r="M7" s="354"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="C8" s="473" t="s">
+      <c r="C8" s="424" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="473"/>
-      <c r="E8" s="473"/>
-      <c r="F8" s="473"/>
-      <c r="G8" s="473"/>
-      <c r="H8" s="473"/>
-      <c r="I8" s="473"/>
-      <c r="J8" s="473"/>
-      <c r="K8" s="363">
+      <c r="D8" s="424"/>
+      <c r="E8" s="424"/>
+      <c r="F8" s="424"/>
+      <c r="G8" s="424"/>
+      <c r="H8" s="424"/>
+      <c r="I8" s="424"/>
+      <c r="J8" s="424"/>
+      <c r="K8" s="357">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L8" s="360"/>
-      <c r="M8" s="360"/>
+      <c r="L8" s="354"/>
+      <c r="M8" s="354"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="C9" s="473" t="s">
+      <c r="C9" s="424" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="473"/>
-      <c r="E9" s="473"/>
-      <c r="F9" s="473"/>
-      <c r="G9" s="473"/>
-      <c r="H9" s="473"/>
-      <c r="I9" s="473"/>
-      <c r="J9" s="473"/>
-      <c r="K9" s="473"/>
-      <c r="L9" s="360"/>
-      <c r="M9" s="360"/>
+      <c r="D9" s="424"/>
+      <c r="E9" s="424"/>
+      <c r="F9" s="424"/>
+      <c r="G9" s="424"/>
+      <c r="H9" s="424"/>
+      <c r="I9" s="424"/>
+      <c r="J9" s="424"/>
+      <c r="K9" s="424"/>
+      <c r="L9" s="354"/>
+      <c r="M9" s="354"/>
     </row>
     <row r="10" spans="2:16" ht="37.5" customHeight="1">
-      <c r="C10" s="473" t="s">
+      <c r="C10" s="424" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="473"/>
-      <c r="E10" s="473"/>
-      <c r="F10" s="473"/>
-      <c r="G10" s="473"/>
-      <c r="H10" s="473"/>
-      <c r="I10" s="473"/>
-      <c r="J10" s="473"/>
-      <c r="K10" s="473"/>
-      <c r="L10" s="360"/>
-      <c r="M10" s="360"/>
+      <c r="D10" s="424"/>
+      <c r="E10" s="424"/>
+      <c r="F10" s="424"/>
+      <c r="G10" s="424"/>
+      <c r="H10" s="424"/>
+      <c r="I10" s="424"/>
+      <c r="J10" s="424"/>
+      <c r="K10" s="424"/>
+      <c r="L10" s="354"/>
+      <c r="M10" s="354"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
-      <c r="C11" s="473" t="s">
+      <c r="C11" s="424" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="473"/>
-      <c r="E11" s="473"/>
-      <c r="F11" s="473"/>
-      <c r="G11" s="473"/>
-      <c r="H11" s="473"/>
-      <c r="I11" s="473"/>
-      <c r="J11" s="473"/>
-      <c r="K11" s="473"/>
-      <c r="L11" s="360"/>
-      <c r="M11" s="360"/>
+      <c r="D11" s="424"/>
+      <c r="E11" s="424"/>
+      <c r="F11" s="424"/>
+      <c r="G11" s="424"/>
+      <c r="H11" s="424"/>
+      <c r="I11" s="424"/>
+      <c r="J11" s="424"/>
+      <c r="K11" s="424"/>
+      <c r="L11" s="354"/>
+      <c r="M11" s="354"/>
     </row>
     <row r="12" spans="2:16">
-      <c r="C12" s="364"/>
-      <c r="D12" s="364"/>
-      <c r="E12" s="364"/>
-      <c r="F12" s="364"/>
-      <c r="G12" s="364"/>
-      <c r="H12" s="364"/>
-      <c r="I12" s="364"/>
-      <c r="J12" s="364"/>
-      <c r="K12" s="364"/>
-      <c r="L12" s="360"/>
-      <c r="M12" s="360"/>
+      <c r="C12" s="358"/>
+      <c r="D12" s="358"/>
+      <c r="E12" s="358"/>
+      <c r="F12" s="358"/>
+      <c r="G12" s="358"/>
+      <c r="H12" s="358"/>
+      <c r="I12" s="358"/>
+      <c r="J12" s="358"/>
+      <c r="K12" s="358"/>
+      <c r="L12" s="354"/>
+      <c r="M12" s="354"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="C13" s="442" t="s">
+      <c r="C13" s="439" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="442"/>
-      <c r="E13" s="360"/>
-      <c r="F13" s="360"/>
-      <c r="G13" s="360"/>
-      <c r="H13" s="360"/>
-      <c r="I13" s="360"/>
-      <c r="J13" s="360"/>
-      <c r="K13" s="360"/>
-      <c r="L13" s="360"/>
-      <c r="M13" s="360"/>
+      <c r="D13" s="439"/>
+      <c r="E13" s="354"/>
+      <c r="F13" s="354"/>
+      <c r="G13" s="354"/>
+      <c r="H13" s="354"/>
+      <c r="I13" s="354"/>
+      <c r="J13" s="354"/>
+      <c r="K13" s="354"/>
+      <c r="L13" s="354"/>
+      <c r="M13" s="354"/>
     </row>
     <row r="14" spans="2:16" ht="30">
-      <c r="B14" s="365" t="s">
+      <c r="B14" s="359" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="443" t="s">
+      <c r="C14" s="440" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="443"/>
-      <c r="E14" s="443"/>
-      <c r="F14" s="366">
+      <c r="D14" s="440"/>
+      <c r="E14" s="440"/>
+      <c r="F14" s="360">
         <v>1</v>
       </c>
-      <c r="G14" s="366">
+      <c r="G14" s="360">
         <v>2</v>
       </c>
-      <c r="H14" s="366">
+      <c r="H14" s="360">
         <v>3</v>
       </c>
-      <c r="I14" s="366">
+      <c r="I14" s="360">
         <v>4</v>
       </c>
-      <c r="J14" s="366">
+      <c r="J14" s="360">
         <v>5</v>
       </c>
-      <c r="K14" s="366">
+      <c r="K14" s="360">
         <v>6</v>
       </c>
-      <c r="L14" s="366">
+      <c r="L14" s="360">
         <v>7</v>
       </c>
-      <c r="M14" s="366">
+      <c r="M14" s="360">
         <v>8</v>
       </c>
-      <c r="N14" s="366">
+      <c r="N14" s="360">
         <v>9</v>
       </c>
-      <c r="O14" s="366">
+      <c r="O14" s="360">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="28.5" customHeight="1">
-      <c r="B15" s="367">
+      <c r="B15" s="361">
         <v>1</v>
       </c>
-      <c r="C15" s="470" t="s">
+      <c r="C15" s="441" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="471"/>
-      <c r="E15" s="472"/>
-      <c r="F15" s="368">
+      <c r="D15" s="442"/>
+      <c r="E15" s="443"/>
+      <c r="F15" s="362">
         <f>F4*5%</f>
         <v>2500000</v>
       </c>
-      <c r="G15" s="368">
+      <c r="G15" s="362">
         <f>(F4-F15)/2</f>
         <v>23750000</v>
       </c>
-      <c r="H15" s="368">
+      <c r="H15" s="362">
         <f>G15</f>
         <v>23750000</v>
       </c>
-      <c r="I15" s="369"/>
-      <c r="J15" s="369"/>
-      <c r="K15" s="369"/>
-      <c r="L15" s="369"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="369"/>
-      <c r="O15" s="369"/>
+      <c r="I15" s="363"/>
+      <c r="J15" s="363"/>
+      <c r="K15" s="363"/>
+      <c r="L15" s="363"/>
+      <c r="M15" s="363"/>
+      <c r="N15" s="363"/>
+      <c r="O15" s="363"/>
       <c r="P15" t="b">
         <f>SUM(F15:O15)=F4</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="30" customHeight="1">
-      <c r="B16" s="367">
+      <c r="B16" s="361">
         <v>2</v>
       </c>
-      <c r="C16" s="430" t="s">
+      <c r="C16" s="436" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="431"/>
-      <c r="E16" s="432"/>
-      <c r="F16" s="369"/>
-      <c r="G16" s="369"/>
-      <c r="H16" s="369"/>
-      <c r="I16" s="368">
+      <c r="D16" s="437"/>
+      <c r="E16" s="438"/>
+      <c r="F16" s="363"/>
+      <c r="G16" s="363"/>
+      <c r="H16" s="363"/>
+      <c r="I16" s="362">
         <f>L4</f>
         <v>30000000</v>
       </c>
-      <c r="J16" s="368">
+      <c r="J16" s="362">
         <f>I16</f>
         <v>30000000</v>
       </c>
-      <c r="K16" s="368">
+      <c r="K16" s="362">
         <f>J16</f>
         <v>30000000</v>
       </c>
-      <c r="L16" s="368">
+      <c r="L16" s="362">
         <f t="shared" ref="L16:O16" si="0">K16</f>
         <v>30000000</v>
       </c>
-      <c r="M16" s="368">
+      <c r="M16" s="362">
         <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
-      <c r="N16" s="368">
+      <c r="N16" s="362">
         <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
-      <c r="O16" s="368">
+      <c r="O16" s="362">
         <f t="shared" si="0"/>
         <v>30000000</v>
       </c>
@@ -10499,57 +10647,57 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="30" customHeight="1">
-      <c r="B17" s="367">
+      <c r="B17" s="361">
         <v>3</v>
       </c>
-      <c r="C17" s="430" t="s">
+      <c r="C17" s="436" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="431"/>
-      <c r="E17" s="432"/>
-      <c r="F17" s="370">
+      <c r="D17" s="437"/>
+      <c r="E17" s="438"/>
+      <c r="F17" s="364">
         <f>F16-F15</f>
         <v>-2500000</v>
       </c>
-      <c r="G17" s="370">
+      <c r="G17" s="364">
         <f t="shared" ref="G17:O17" si="1">G16-G15</f>
         <v>-23750000</v>
       </c>
-      <c r="H17" s="370">
+      <c r="H17" s="364">
         <f t="shared" si="1"/>
         <v>-23750000</v>
       </c>
-      <c r="I17" s="370">
+      <c r="I17" s="364">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="J17" s="370">
+      <c r="J17" s="364">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="K17" s="370">
+      <c r="K17" s="364">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="L17" s="370">
+      <c r="L17" s="364">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="M17" s="370">
+      <c r="M17" s="364">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="N17" s="370">
+      <c r="N17" s="364">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
-      <c r="O17" s="371">
+      <c r="O17" s="365">
         <f t="shared" si="1"/>
         <v>30000000</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="30" customHeight="1">
-      <c r="B18" s="367">
+      <c r="B18" s="361">
         <v>4</v>
       </c>
       <c r="C18" s="444" t="s">
@@ -10557,117 +10705,117 @@
       </c>
       <c r="D18" s="445"/>
       <c r="E18" s="446"/>
-      <c r="F18" s="372">
+      <c r="F18" s="366">
         <f t="shared" ref="F18:O18" si="2">1/(1+$K$8)^F14</f>
         <v>0.78125</v>
       </c>
-      <c r="G18" s="372">
+      <c r="G18" s="366">
         <f t="shared" si="2"/>
         <v>0.6103515625</v>
       </c>
-      <c r="H18" s="372">
+      <c r="H18" s="366">
         <f t="shared" si="2"/>
         <v>0.47683715820312494</v>
       </c>
-      <c r="I18" s="372">
+      <c r="I18" s="366">
         <f t="shared" si="2"/>
         <v>0.37252902984619141</v>
       </c>
-      <c r="J18" s="372">
+      <c r="J18" s="366">
         <f t="shared" si="2"/>
         <v>0.29103830456733704</v>
       </c>
-      <c r="K18" s="372">
+      <c r="K18" s="366">
         <f t="shared" si="2"/>
         <v>0.22737367544323206</v>
       </c>
-      <c r="L18" s="372">
+      <c r="L18" s="366">
         <f t="shared" si="2"/>
         <v>0.17763568394002502</v>
       </c>
-      <c r="M18" s="372">
+      <c r="M18" s="366">
         <f t="shared" si="2"/>
         <v>0.13877787807814454</v>
       </c>
-      <c r="N18" s="372">
+      <c r="N18" s="366">
         <f t="shared" si="2"/>
         <v>0.10842021724855043</v>
       </c>
-      <c r="O18" s="372">
+      <c r="O18" s="366">
         <f t="shared" si="2"/>
         <v>8.470329472543002E-2</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="26.25" customHeight="1">
-      <c r="B19" s="367">
+      <c r="B19" s="361">
         <v>5</v>
       </c>
-      <c r="C19" s="430" t="s">
+      <c r="C19" s="436" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="431"/>
-      <c r="E19" s="432"/>
-      <c r="F19" s="368">
+      <c r="D19" s="437"/>
+      <c r="E19" s="438"/>
+      <c r="F19" s="362">
         <f>F17*F18</f>
         <v>-1953125</v>
       </c>
-      <c r="G19" s="368">
+      <c r="G19" s="362">
         <f>G17*G18</f>
         <v>-14495849.609375</v>
       </c>
-      <c r="H19" s="368">
+      <c r="H19" s="362">
         <f>H17*H18</f>
         <v>-11324882.507324217</v>
       </c>
-      <c r="I19" s="368">
+      <c r="I19" s="362">
         <f>I17*I18</f>
         <v>11175870.895385742</v>
       </c>
-      <c r="J19" s="368">
+      <c r="J19" s="362">
         <f t="shared" ref="J19:O19" si="3">J17*J18</f>
         <v>8731149.1370201111</v>
       </c>
-      <c r="K19" s="368">
+      <c r="K19" s="362">
         <f t="shared" si="3"/>
         <v>6821210.2632969618</v>
       </c>
-      <c r="L19" s="368">
+      <c r="L19" s="362">
         <f t="shared" si="3"/>
         <v>5329070.5182007505</v>
       </c>
-      <c r="M19" s="368">
+      <c r="M19" s="362">
         <f t="shared" si="3"/>
         <v>4163336.3423443362</v>
       </c>
-      <c r="N19" s="368">
+      <c r="N19" s="362">
         <f t="shared" si="3"/>
         <v>3252606.5174565129</v>
       </c>
-      <c r="O19" s="368">
+      <c r="O19" s="362">
         <f t="shared" si="3"/>
         <v>2541098.8417629008</v>
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="451" t="s">
+      <c r="B20" s="447" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="452"/>
-      <c r="D20" s="452"/>
-      <c r="E20" s="452"/>
-      <c r="F20" s="453"/>
-      <c r="G20" s="373"/>
-      <c r="H20" s="373"/>
-      <c r="I20" s="373"/>
-      <c r="J20" s="373"/>
-      <c r="K20" s="373"/>
-      <c r="L20" s="373"/>
-      <c r="M20" s="373"/>
-      <c r="N20" s="373"/>
-      <c r="O20" s="373"/>
+      <c r="C20" s="448"/>
+      <c r="D20" s="448"/>
+      <c r="E20" s="448"/>
+      <c r="F20" s="449"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="367"/>
+      <c r="I20" s="367"/>
+      <c r="J20" s="367"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="367"/>
+      <c r="M20" s="367"/>
+      <c r="N20" s="367"/>
+      <c r="O20" s="367"/>
     </row>
     <row r="21" spans="2:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="B21" s="367">
+      <c r="B21" s="361">
         <v>6</v>
       </c>
       <c r="C21" s="444" t="s">
@@ -10675,145 +10823,145 @@
       </c>
       <c r="D21" s="445"/>
       <c r="E21" s="446"/>
-      <c r="F21" s="374">
+      <c r="F21" s="368">
         <f>SUM(F17:O17)</f>
         <v>160000000</v>
       </c>
-      <c r="G21" s="375"/>
-      <c r="H21" s="375"/>
-      <c r="I21" s="375"/>
-      <c r="J21" s="375"/>
-      <c r="K21" s="375"/>
-      <c r="L21" s="375"/>
-      <c r="M21" s="375"/>
-      <c r="N21" s="375"/>
-      <c r="O21" s="375"/>
+      <c r="G21" s="369"/>
+      <c r="H21" s="369"/>
+      <c r="I21" s="369"/>
+      <c r="J21" s="369"/>
+      <c r="K21" s="369"/>
+      <c r="L21" s="369"/>
+      <c r="M21" s="369"/>
+      <c r="N21" s="369"/>
+      <c r="O21" s="369"/>
     </row>
     <row r="22" spans="2:15" ht="29.25" customHeight="1">
-      <c r="B22" s="367">
+      <c r="B22" s="361">
         <v>7</v>
       </c>
-      <c r="C22" s="430" t="s">
+      <c r="C22" s="436" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="431"/>
-      <c r="E22" s="432"/>
-      <c r="F22" s="376">
+      <c r="D22" s="437"/>
+      <c r="E22" s="438"/>
+      <c r="F22" s="370">
         <f>SUM(F19:O19)</f>
         <v>14240485.398768097</v>
       </c>
-      <c r="G22" s="375"/>
-      <c r="H22" s="454" t="s">
+      <c r="G22" s="369"/>
+      <c r="H22" s="427" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="455"/>
-      <c r="J22" s="455"/>
-      <c r="K22" s="455"/>
-      <c r="L22" s="455"/>
-      <c r="M22" s="456"/>
-      <c r="N22" s="375"/>
-      <c r="O22" s="375"/>
+      <c r="I22" s="428"/>
+      <c r="J22" s="428"/>
+      <c r="K22" s="428"/>
+      <c r="L22" s="428"/>
+      <c r="M22" s="429"/>
+      <c r="N22" s="369"/>
+      <c r="O22" s="369"/>
     </row>
     <row r="23" spans="2:15" ht="34.5" customHeight="1">
-      <c r="B23" s="367">
+      <c r="B23" s="361">
         <v>8</v>
       </c>
-      <c r="C23" s="430" t="str">
+      <c r="C23" s="436" t="str">
         <f>C11</f>
         <v>Стоит ли принимать такой проект к рассмотрению?</v>
       </c>
-      <c r="D23" s="431"/>
-      <c r="E23" s="432"/>
-      <c r="F23" s="376" t="s">
+      <c r="D23" s="437"/>
+      <c r="E23" s="438"/>
+      <c r="F23" s="370" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="375"/>
-      <c r="H23" s="457"/>
-      <c r="I23" s="458"/>
-      <c r="J23" s="458"/>
-      <c r="K23" s="458"/>
-      <c r="L23" s="458"/>
-      <c r="M23" s="459"/>
-      <c r="N23" s="375"/>
-      <c r="O23" s="375"/>
+      <c r="G23" s="369"/>
+      <c r="H23" s="430"/>
+      <c r="I23" s="431"/>
+      <c r="J23" s="431"/>
+      <c r="K23" s="431"/>
+      <c r="L23" s="431"/>
+      <c r="M23" s="432"/>
+      <c r="N23" s="369"/>
+      <c r="O23" s="369"/>
     </row>
     <row r="24" spans="2:15" ht="29.25" customHeight="1">
-      <c r="C24" s="377"/>
-      <c r="D24" s="377"/>
-      <c r="E24" s="377"/>
-      <c r="F24" s="378"/>
-      <c r="G24" s="375"/>
-      <c r="H24" s="457"/>
-      <c r="I24" s="458"/>
-      <c r="J24" s="458"/>
-      <c r="K24" s="458"/>
-      <c r="L24" s="458"/>
-      <c r="M24" s="459"/>
-      <c r="N24" s="375"/>
-      <c r="O24" s="375"/>
+      <c r="C24" s="371"/>
+      <c r="D24" s="371"/>
+      <c r="E24" s="371"/>
+      <c r="F24" s="372"/>
+      <c r="G24" s="369"/>
+      <c r="H24" s="430"/>
+      <c r="I24" s="431"/>
+      <c r="J24" s="431"/>
+      <c r="K24" s="431"/>
+      <c r="L24" s="431"/>
+      <c r="M24" s="432"/>
+      <c r="N24" s="369"/>
+      <c r="O24" s="369"/>
     </row>
     <row r="25" spans="2:15" ht="29.25" customHeight="1">
-      <c r="C25" s="377"/>
-      <c r="D25" s="377"/>
-      <c r="E25" s="377"/>
-      <c r="F25" s="378"/>
-      <c r="G25" s="375"/>
-      <c r="H25" s="457"/>
-      <c r="I25" s="458"/>
-      <c r="J25" s="458"/>
-      <c r="K25" s="458"/>
-      <c r="L25" s="458"/>
-      <c r="M25" s="459"/>
-      <c r="N25" s="375"/>
-      <c r="O25" s="375"/>
+      <c r="C25" s="371"/>
+      <c r="D25" s="371"/>
+      <c r="E25" s="371"/>
+      <c r="F25" s="372"/>
+      <c r="G25" s="369"/>
+      <c r="H25" s="430"/>
+      <c r="I25" s="431"/>
+      <c r="J25" s="431"/>
+      <c r="K25" s="431"/>
+      <c r="L25" s="431"/>
+      <c r="M25" s="432"/>
+      <c r="N25" s="369"/>
+      <c r="O25" s="369"/>
     </row>
     <row r="26" spans="2:15" ht="29.25" customHeight="1">
-      <c r="C26" s="377"/>
-      <c r="D26" s="377"/>
-      <c r="E26" s="377"/>
-      <c r="F26" s="378"/>
-      <c r="G26" s="375"/>
-      <c r="H26" s="457"/>
-      <c r="I26" s="458"/>
-      <c r="J26" s="458"/>
-      <c r="K26" s="458"/>
-      <c r="L26" s="458"/>
-      <c r="M26" s="459"/>
-      <c r="N26" s="375"/>
-      <c r="O26" s="375"/>
+      <c r="C26" s="371"/>
+      <c r="D26" s="371"/>
+      <c r="E26" s="371"/>
+      <c r="F26" s="372"/>
+      <c r="G26" s="369"/>
+      <c r="H26" s="430"/>
+      <c r="I26" s="431"/>
+      <c r="J26" s="431"/>
+      <c r="K26" s="431"/>
+      <c r="L26" s="431"/>
+      <c r="M26" s="432"/>
+      <c r="N26" s="369"/>
+      <c r="O26" s="369"/>
     </row>
     <row r="27" spans="2:15" ht="29.25" customHeight="1">
-      <c r="C27" s="377"/>
-      <c r="D27" s="377"/>
-      <c r="E27" s="377"/>
-      <c r="F27" s="378"/>
-      <c r="G27" s="375"/>
-      <c r="H27" s="457"/>
-      <c r="I27" s="458"/>
-      <c r="J27" s="458"/>
-      <c r="K27" s="458"/>
-      <c r="L27" s="458"/>
-      <c r="M27" s="459"/>
-      <c r="N27" s="375"/>
-      <c r="O27" s="375"/>
+      <c r="C27" s="371"/>
+      <c r="D27" s="371"/>
+      <c r="E27" s="371"/>
+      <c r="F27" s="372"/>
+      <c r="G27" s="369"/>
+      <c r="H27" s="430"/>
+      <c r="I27" s="431"/>
+      <c r="J27" s="431"/>
+      <c r="K27" s="431"/>
+      <c r="L27" s="431"/>
+      <c r="M27" s="432"/>
+      <c r="N27" s="369"/>
+      <c r="O27" s="369"/>
     </row>
     <row r="28" spans="2:15" ht="29.25" customHeight="1" thickBot="1">
-      <c r="C28" s="377"/>
-      <c r="D28" s="377"/>
-      <c r="E28" s="377"/>
-      <c r="F28" s="378"/>
-      <c r="G28" s="375"/>
-      <c r="H28" s="460"/>
-      <c r="I28" s="461"/>
-      <c r="J28" s="461"/>
-      <c r="K28" s="461"/>
-      <c r="L28" s="461"/>
-      <c r="M28" s="462"/>
-      <c r="N28" s="375"/>
-      <c r="O28" s="375"/>
+      <c r="C28" s="371"/>
+      <c r="D28" s="371"/>
+      <c r="E28" s="371"/>
+      <c r="F28" s="372"/>
+      <c r="G28" s="369"/>
+      <c r="H28" s="433"/>
+      <c r="I28" s="434"/>
+      <c r="J28" s="434"/>
+      <c r="K28" s="434"/>
+      <c r="L28" s="434"/>
+      <c r="M28" s="435"/>
+      <c r="N28" s="369"/>
+      <c r="O28" s="369"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="C31" s="358" t="s">
+      <c r="C31" s="352" t="s">
         <v>131</v>
       </c>
     </row>
@@ -10823,172 +10971,172 @@
       </c>
     </row>
     <row r="33" spans="2:17">
-      <c r="C33" s="442" t="s">
+      <c r="C33" s="439" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="442"/>
+      <c r="D33" s="439"/>
     </row>
     <row r="34" spans="2:17" ht="30">
-      <c r="B34" s="365" t="s">
+      <c r="B34" s="359" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="467" t="s">
+      <c r="C34" s="450" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="468"/>
-      <c r="E34" s="469"/>
-      <c r="F34" s="366">
+      <c r="D34" s="451"/>
+      <c r="E34" s="452"/>
+      <c r="F34" s="360">
         <v>1</v>
       </c>
-      <c r="G34" s="366">
+      <c r="G34" s="360">
         <v>2</v>
       </c>
-      <c r="H34" s="366">
+      <c r="H34" s="360">
         <v>3</v>
       </c>
-      <c r="I34" s="366">
+      <c r="I34" s="360">
         <v>4</v>
       </c>
-      <c r="J34" s="366">
+      <c r="J34" s="360">
         <v>5</v>
       </c>
-      <c r="K34" s="366">
+      <c r="K34" s="360">
         <v>6</v>
       </c>
-      <c r="L34" s="366">
+      <c r="L34" s="360">
         <v>7</v>
       </c>
-      <c r="M34" s="366">
+      <c r="M34" s="360">
         <v>8</v>
       </c>
-      <c r="N34" s="366">
+      <c r="N34" s="360">
         <v>9</v>
       </c>
-      <c r="O34" s="366">
+      <c r="O34" s="360">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B35" s="367">
+      <c r="B35" s="361">
         <v>1</v>
       </c>
-      <c r="C35" s="470" t="s">
+      <c r="C35" s="441" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="471"/>
-      <c r="E35" s="472"/>
-      <c r="F35" s="379">
+      <c r="D35" s="442"/>
+      <c r="E35" s="443"/>
+      <c r="F35" s="373">
         <f>F17</f>
         <v>-2500000</v>
       </c>
-      <c r="G35" s="379">
+      <c r="G35" s="373">
         <f>F35+G17</f>
         <v>-26250000</v>
       </c>
-      <c r="H35" s="379">
+      <c r="H35" s="373">
         <f t="shared" ref="H35:O35" si="4">G35+H17</f>
         <v>-50000000</v>
       </c>
-      <c r="I35" s="380">
+      <c r="I35" s="374">
         <f t="shared" si="4"/>
         <v>-20000000</v>
       </c>
-      <c r="J35" s="380">
+      <c r="J35" s="374">
         <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
-      <c r="K35" s="379">
+      <c r="K35" s="373">
         <f t="shared" si="4"/>
         <v>40000000</v>
       </c>
-      <c r="L35" s="379">
+      <c r="L35" s="373">
         <f t="shared" si="4"/>
         <v>70000000</v>
       </c>
-      <c r="M35" s="379">
+      <c r="M35" s="373">
         <f t="shared" si="4"/>
         <v>100000000</v>
       </c>
-      <c r="N35" s="379">
+      <c r="N35" s="373">
         <f t="shared" si="4"/>
         <v>130000000</v>
       </c>
-      <c r="O35" s="379">
+      <c r="O35" s="373">
         <f t="shared" si="4"/>
         <v>160000000</v>
       </c>
-      <c r="P35" s="381" t="b">
+      <c r="P35" s="375" t="b">
         <f>F21=O35</f>
         <v>1</v>
       </c>
-      <c r="Q35" s="375"/>
+      <c r="Q35" s="369"/>
     </row>
     <row r="36" spans="2:17" ht="45.75" customHeight="1">
-      <c r="B36" s="367">
+      <c r="B36" s="361">
         <v>2</v>
       </c>
-      <c r="C36" s="470" t="s">
+      <c r="C36" s="441" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="471"/>
-      <c r="E36" s="472"/>
-      <c r="F36" s="379">
+      <c r="D36" s="442"/>
+      <c r="E36" s="443"/>
+      <c r="F36" s="373">
         <f>F19</f>
         <v>-1953125</v>
       </c>
-      <c r="G36" s="379">
+      <c r="G36" s="373">
         <f>F36+G19</f>
         <v>-16448974.609375</v>
       </c>
-      <c r="H36" s="379">
+      <c r="H36" s="373">
         <f t="shared" ref="H36:O36" si="5">G36+H19</f>
         <v>-27773857.116699219</v>
       </c>
-      <c r="I36" s="379">
+      <c r="I36" s="373">
         <f t="shared" si="5"/>
         <v>-16597986.221313477</v>
       </c>
-      <c r="J36" s="379">
+      <c r="J36" s="373">
         <f t="shared" si="5"/>
         <v>-7866837.0842933655</v>
       </c>
-      <c r="K36" s="380">
+      <c r="K36" s="374">
         <f t="shared" si="5"/>
         <v>-1045626.8209964037</v>
       </c>
-      <c r="L36" s="380">
+      <c r="L36" s="374">
         <f t="shared" si="5"/>
         <v>4283443.6972043468</v>
       </c>
-      <c r="M36" s="379">
+      <c r="M36" s="373">
         <f t="shared" si="5"/>
         <v>8446780.0395486839</v>
       </c>
-      <c r="N36" s="379">
+      <c r="N36" s="373">
         <f t="shared" si="5"/>
         <v>11699386.557005197</v>
       </c>
-      <c r="O36" s="379">
+      <c r="O36" s="373">
         <f t="shared" si="5"/>
         <v>14240485.398768097</v>
       </c>
-      <c r="P36" s="381" t="b">
+      <c r="P36" s="375" t="b">
         <f>O36=F22</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="375"/>
+      <c r="Q36" s="369"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B37" s="451" t="s">
+      <c r="B37" s="447" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="452"/>
-      <c r="D37" s="452"/>
-      <c r="E37" s="452"/>
-      <c r="F37" s="453"/>
+      <c r="C37" s="448"/>
+      <c r="D37" s="448"/>
+      <c r="E37" s="448"/>
+      <c r="F37" s="449"/>
     </row>
     <row r="38" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B38" s="367">
+      <c r="B38" s="361">
         <v>3</v>
       </c>
       <c r="C38" s="444" t="s">
@@ -10996,85 +11144,85 @@
       </c>
       <c r="D38" s="445"/>
       <c r="E38" s="446"/>
-      <c r="F38" s="382">
+      <c r="F38" s="376">
         <f>I34+(-I35/(-I35+J35))</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H38" s="454" t="s">
+      <c r="H38" s="427" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="455"/>
-      <c r="J38" s="455"/>
-      <c r="K38" s="455"/>
-      <c r="L38" s="455"/>
-      <c r="M38" s="456"/>
+      <c r="I38" s="428"/>
+      <c r="J38" s="428"/>
+      <c r="K38" s="428"/>
+      <c r="L38" s="428"/>
+      <c r="M38" s="429"/>
     </row>
     <row r="39" spans="2:17" ht="36.75" customHeight="1">
-      <c r="B39" s="367">
+      <c r="B39" s="361">
         <v>4</v>
       </c>
-      <c r="C39" s="430" t="s">
+      <c r="C39" s="436" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="431"/>
-      <c r="E39" s="432"/>
-      <c r="F39" s="382">
+      <c r="D39" s="437"/>
+      <c r="E39" s="438"/>
+      <c r="F39" s="376">
         <f>K34+(-K36/(-K36+L36))</f>
         <v>6.1962118567253333</v>
       </c>
-      <c r="H39" s="457"/>
-      <c r="I39" s="458"/>
-      <c r="J39" s="458"/>
-      <c r="K39" s="458"/>
-      <c r="L39" s="458"/>
-      <c r="M39" s="459"/>
+      <c r="H39" s="430"/>
+      <c r="I39" s="431"/>
+      <c r="J39" s="431"/>
+      <c r="K39" s="431"/>
+      <c r="L39" s="431"/>
+      <c r="M39" s="432"/>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="463" t="s">
+      <c r="B40" s="453" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="463"/>
-      <c r="D40" s="463"/>
-      <c r="E40" s="463"/>
-      <c r="F40" s="463"/>
-      <c r="H40" s="457"/>
-      <c r="I40" s="458"/>
-      <c r="J40" s="458"/>
-      <c r="K40" s="458"/>
-      <c r="L40" s="458"/>
-      <c r="M40" s="459"/>
+      <c r="C40" s="453"/>
+      <c r="D40" s="453"/>
+      <c r="E40" s="453"/>
+      <c r="F40" s="453"/>
+      <c r="H40" s="430"/>
+      <c r="I40" s="431"/>
+      <c r="J40" s="431"/>
+      <c r="K40" s="431"/>
+      <c r="L40" s="431"/>
+      <c r="M40" s="432"/>
     </row>
     <row r="41" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B41" s="464"/>
-      <c r="C41" s="464"/>
-      <c r="D41" s="464"/>
-      <c r="E41" s="464"/>
-      <c r="F41" s="464"/>
-      <c r="H41" s="457"/>
-      <c r="I41" s="458"/>
-      <c r="J41" s="458"/>
-      <c r="K41" s="458"/>
-      <c r="L41" s="458"/>
-      <c r="M41" s="459"/>
+      <c r="B41" s="454"/>
+      <c r="C41" s="454"/>
+      <c r="D41" s="454"/>
+      <c r="E41" s="454"/>
+      <c r="F41" s="454"/>
+      <c r="H41" s="430"/>
+      <c r="I41" s="431"/>
+      <c r="J41" s="431"/>
+      <c r="K41" s="431"/>
+      <c r="L41" s="431"/>
+      <c r="M41" s="432"/>
     </row>
     <row r="42" spans="2:17" ht="130.5" customHeight="1">
-      <c r="H42" s="457"/>
-      <c r="I42" s="458"/>
-      <c r="J42" s="458"/>
-      <c r="K42" s="458"/>
-      <c r="L42" s="458"/>
-      <c r="M42" s="459"/>
+      <c r="H42" s="430"/>
+      <c r="I42" s="431"/>
+      <c r="J42" s="431"/>
+      <c r="K42" s="431"/>
+      <c r="L42" s="431"/>
+      <c r="M42" s="432"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" thickBot="1">
-      <c r="H43" s="460"/>
-      <c r="I43" s="461"/>
-      <c r="J43" s="461"/>
-      <c r="K43" s="461"/>
-      <c r="L43" s="461"/>
-      <c r="M43" s="462"/>
+      <c r="H43" s="433"/>
+      <c r="I43" s="434"/>
+      <c r="J43" s="434"/>
+      <c r="K43" s="434"/>
+      <c r="L43" s="434"/>
+      <c r="M43" s="435"/>
     </row>
     <row r="47" spans="2:17">
-      <c r="C47" s="358" t="s">
+      <c r="C47" s="352" t="s">
         <v>139</v>
       </c>
     </row>
@@ -11089,112 +11237,112 @@
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="D51" s="442" t="s">
+      <c r="D51" s="439" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="442"/>
-      <c r="F51" s="360"/>
-      <c r="G51" s="360"/>
-      <c r="H51" s="360"/>
-      <c r="I51" s="360"/>
-      <c r="J51" s="360"/>
-      <c r="K51" s="360"/>
-      <c r="L51" s="360"/>
-      <c r="M51" s="360"/>
-      <c r="N51" s="360"/>
+      <c r="E51" s="439"/>
+      <c r="F51" s="354"/>
+      <c r="G51" s="354"/>
+      <c r="H51" s="354"/>
+      <c r="I51" s="354"/>
+      <c r="J51" s="354"/>
+      <c r="K51" s="354"/>
+      <c r="L51" s="354"/>
+      <c r="M51" s="354"/>
+      <c r="N51" s="354"/>
     </row>
     <row r="52" spans="2:15" ht="30">
-      <c r="B52" s="365" t="s">
+      <c r="B52" s="359" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="443" t="s">
+      <c r="C52" s="440" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="443"/>
-      <c r="E52" s="443"/>
-      <c r="F52" s="366">
+      <c r="D52" s="440"/>
+      <c r="E52" s="440"/>
+      <c r="F52" s="360">
         <v>1</v>
       </c>
-      <c r="G52" s="383">
+      <c r="G52" s="377">
         <v>2</v>
       </c>
-      <c r="H52" s="383">
+      <c r="H52" s="377">
         <v>3</v>
       </c>
-      <c r="I52" s="383">
+      <c r="I52" s="377">
         <v>4</v>
       </c>
-      <c r="J52" s="383">
+      <c r="J52" s="377">
         <v>5</v>
       </c>
-      <c r="K52" s="383">
+      <c r="K52" s="377">
         <v>6</v>
       </c>
-      <c r="L52" s="383">
+      <c r="L52" s="377">
         <v>7</v>
       </c>
-      <c r="M52" s="383">
+      <c r="M52" s="377">
         <v>8</v>
       </c>
-      <c r="N52" s="383">
+      <c r="N52" s="377">
         <v>9</v>
       </c>
-      <c r="O52" s="383">
+      <c r="O52" s="377">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="30" customHeight="1">
-      <c r="B53" s="367">
+      <c r="B53" s="361">
         <v>1</v>
       </c>
-      <c r="C53" s="430" t="s">
+      <c r="C53" s="436" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="431"/>
-      <c r="E53" s="432"/>
-      <c r="F53" s="370">
+      <c r="D53" s="437"/>
+      <c r="E53" s="438"/>
+      <c r="F53" s="364">
         <f>F17</f>
         <v>-2500000</v>
       </c>
-      <c r="G53" s="371">
+      <c r="G53" s="365">
         <f t="shared" ref="G53:O53" si="6">G17</f>
         <v>-23750000</v>
       </c>
-      <c r="H53" s="371">
+      <c r="H53" s="365">
         <f t="shared" si="6"/>
         <v>-23750000</v>
       </c>
-      <c r="I53" s="371">
+      <c r="I53" s="365">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="J53" s="371">
+      <c r="J53" s="365">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="K53" s="371">
+      <c r="K53" s="365">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="L53" s="371">
+      <c r="L53" s="365">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="M53" s="371">
+      <c r="M53" s="365">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="N53" s="371">
+      <c r="N53" s="365">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
-      <c r="O53" s="371">
+      <c r="O53" s="365">
         <f t="shared" si="6"/>
         <v>30000000</v>
       </c>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="367">
+      <c r="B54" s="361">
         <v>2</v>
       </c>
       <c r="C54" s="444" t="s">
@@ -11202,23 +11350,23 @@
       </c>
       <c r="D54" s="445"/>
       <c r="E54" s="446"/>
-      <c r="F54" s="384">
+      <c r="F54" s="378">
         <v>0.43822984635546786</v>
       </c>
-      <c r="G54" s="465" t="s">
+      <c r="G54" s="455" t="s">
         <v>143</v>
       </c>
-      <c r="H54" s="466"/>
-      <c r="I54" s="466"/>
-      <c r="J54" s="466"/>
-      <c r="K54" s="466"/>
-      <c r="L54" s="466"/>
-      <c r="M54" s="466"/>
-      <c r="N54" s="466"/>
-      <c r="O54" s="466"/>
+      <c r="H54" s="456"/>
+      <c r="I54" s="456"/>
+      <c r="J54" s="456"/>
+      <c r="K54" s="456"/>
+      <c r="L54" s="456"/>
+      <c r="M54" s="456"/>
+      <c r="N54" s="456"/>
+      <c r="O54" s="456"/>
     </row>
     <row r="55" spans="2:15" ht="36" customHeight="1">
-      <c r="B55" s="367">
+      <c r="B55" s="361">
         <v>3</v>
       </c>
       <c r="C55" s="444" t="s">
@@ -11226,251 +11374,251 @@
       </c>
       <c r="D55" s="445"/>
       <c r="E55" s="446"/>
-      <c r="F55" s="372">
+      <c r="F55" s="366">
         <f>1/(1+$F$54)^F52</f>
         <v>0.69529915717855539</v>
       </c>
-      <c r="G55" s="372">
+      <c r="G55" s="366">
         <f>1/(1+$F$54)^G52</f>
         <v>0.48344091797320937</v>
       </c>
-      <c r="H55" s="372">
+      <c r="H55" s="366">
         <f>1/(1+$F$54)^H52</f>
         <v>0.33613606281239961</v>
       </c>
-      <c r="I55" s="372">
+      <c r="I55" s="366">
         <f t="shared" ref="I55:O55" si="7">1/(1+$F$54)^I52</f>
         <v>0.23371512117077936</v>
       </c>
-      <c r="J55" s="372">
+      <c r="J55" s="366">
         <f t="shared" si="7"/>
         <v>0.16250192676992684</v>
       </c>
-      <c r="K55" s="372">
+      <c r="K55" s="366">
         <f t="shared" si="7"/>
         <v>0.11298745272302145</v>
       </c>
-      <c r="L55" s="372">
+      <c r="L55" s="366">
         <f t="shared" si="7"/>
         <v>7.8560080650068684E-2</v>
       </c>
-      <c r="M55" s="372">
+      <c r="M55" s="366">
         <f t="shared" si="7"/>
         <v>5.4622757863872079E-2</v>
       </c>
-      <c r="N55" s="372">
+      <c r="N55" s="366">
         <f t="shared" si="7"/>
         <v>3.7979157505518564E-2</v>
       </c>
-      <c r="O55" s="372">
+      <c r="O55" s="366">
         <f t="shared" si="7"/>
         <v>2.640687620393866E-2</v>
       </c>
     </row>
     <row r="56" spans="2:15" ht="30" customHeight="1">
-      <c r="B56" s="367">
+      <c r="B56" s="361">
         <v>4</v>
       </c>
-      <c r="C56" s="430" t="s">
+      <c r="C56" s="436" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="431"/>
-      <c r="E56" s="432"/>
-      <c r="F56" s="368">
+      <c r="D56" s="437"/>
+      <c r="E56" s="438"/>
+      <c r="F56" s="362">
         <f t="shared" ref="F56:O56" si="8">F53*F55</f>
         <v>-1738247.8929463886</v>
       </c>
-      <c r="G56" s="368">
+      <c r="G56" s="362">
         <f t="shared" si="8"/>
         <v>-11481721.801863723</v>
       </c>
-      <c r="H56" s="368">
+      <c r="H56" s="362">
         <f t="shared" si="8"/>
         <v>-7983231.4917944903</v>
       </c>
-      <c r="I56" s="368">
+      <c r="I56" s="362">
         <f t="shared" si="8"/>
         <v>7011453.6351233805</v>
       </c>
-      <c r="J56" s="368">
+      <c r="J56" s="362">
         <f t="shared" si="8"/>
         <v>4875057.803097805</v>
       </c>
-      <c r="K56" s="368">
+      <c r="K56" s="362">
         <f t="shared" si="8"/>
         <v>3389623.5816906434</v>
       </c>
-      <c r="L56" s="368">
+      <c r="L56" s="362">
         <f t="shared" si="8"/>
         <v>2356802.4195020604</v>
       </c>
-      <c r="M56" s="368">
+      <c r="M56" s="362">
         <f t="shared" si="8"/>
         <v>1638682.7359161624</v>
       </c>
-      <c r="N56" s="368">
+      <c r="N56" s="362">
         <f t="shared" si="8"/>
         <v>1139374.7251655569</v>
       </c>
-      <c r="O56" s="368">
+      <c r="O56" s="362">
         <f t="shared" si="8"/>
         <v>792206.28611815977</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="30" customHeight="1">
-      <c r="B57" s="367">
+      <c r="B57" s="361">
         <v>5</v>
       </c>
-      <c r="C57" s="430" t="s">
+      <c r="C57" s="436" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="431"/>
-      <c r="E57" s="432"/>
-      <c r="F57" s="385">
+      <c r="D57" s="437"/>
+      <c r="E57" s="438"/>
+      <c r="F57" s="379">
         <f>SUM(F56:O56)</f>
         <v>9.1665424406528473E-6</v>
       </c>
-      <c r="G57" s="373"/>
-      <c r="H57" s="373"/>
-      <c r="I57" s="373"/>
-      <c r="J57" s="373"/>
-      <c r="K57" s="373"/>
-      <c r="L57" s="373"/>
-      <c r="M57" s="373"/>
-      <c r="N57" s="373"/>
-      <c r="O57" s="373"/>
+      <c r="G57" s="367"/>
+      <c r="H57" s="367"/>
+      <c r="I57" s="367"/>
+      <c r="J57" s="367"/>
+      <c r="K57" s="367"/>
+      <c r="L57" s="367"/>
+      <c r="M57" s="367"/>
+      <c r="N57" s="367"/>
+      <c r="O57" s="367"/>
     </row>
     <row r="58" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B58" s="451" t="s">
+      <c r="B58" s="447" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="452"/>
-      <c r="D58" s="452"/>
-      <c r="E58" s="452"/>
-      <c r="F58" s="453"/>
-      <c r="G58" s="386"/>
+      <c r="C58" s="448"/>
+      <c r="D58" s="448"/>
+      <c r="E58" s="448"/>
+      <c r="F58" s="449"/>
+      <c r="G58" s="380"/>
     </row>
     <row r="59" spans="2:15" ht="15" customHeight="1">
-      <c r="B59" s="367">
+      <c r="B59" s="361">
         <v>6</v>
       </c>
-      <c r="C59" s="430" t="s">
+      <c r="C59" s="436" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="431"/>
-      <c r="E59" s="432"/>
-      <c r="F59" s="387">
+      <c r="D59" s="437"/>
+      <c r="E59" s="438"/>
+      <c r="F59" s="381">
         <f>IRR(F53:O53)</f>
         <v>0.43822984635565154</v>
       </c>
-      <c r="H59" s="436" t="s">
+      <c r="H59" s="457" t="s">
         <v>145</v>
       </c>
-      <c r="I59" s="437"/>
-      <c r="J59" s="437"/>
-      <c r="K59" s="437"/>
-      <c r="L59" s="437"/>
-      <c r="M59" s="437"/>
-      <c r="N59" s="437"/>
-      <c r="O59" s="438"/>
+      <c r="I59" s="458"/>
+      <c r="J59" s="458"/>
+      <c r="K59" s="458"/>
+      <c r="L59" s="458"/>
+      <c r="M59" s="458"/>
+      <c r="N59" s="458"/>
+      <c r="O59" s="459"/>
     </row>
     <row r="60" spans="2:15" ht="66.75" customHeight="1">
-      <c r="B60" s="367">
+      <c r="B60" s="361">
         <v>7</v>
       </c>
-      <c r="C60" s="430" t="s">
+      <c r="C60" s="436" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="431"/>
-      <c r="E60" s="432"/>
-      <c r="F60" s="382"/>
-      <c r="H60" s="439"/>
-      <c r="I60" s="440"/>
-      <c r="J60" s="440"/>
-      <c r="K60" s="440"/>
-      <c r="L60" s="440"/>
-      <c r="M60" s="440"/>
-      <c r="N60" s="440"/>
-      <c r="O60" s="441"/>
+      <c r="D60" s="437"/>
+      <c r="E60" s="438"/>
+      <c r="F60" s="376"/>
+      <c r="H60" s="460"/>
+      <c r="I60" s="461"/>
+      <c r="J60" s="461"/>
+      <c r="K60" s="461"/>
+      <c r="L60" s="461"/>
+      <c r="M60" s="461"/>
+      <c r="N60" s="461"/>
+      <c r="O60" s="462"/>
     </row>
     <row r="61" spans="2:15" ht="33" customHeight="1">
-      <c r="H61" s="388"/>
-      <c r="I61" s="375"/>
-      <c r="J61" s="375"/>
-      <c r="K61" s="375"/>
-      <c r="L61" s="375"/>
-      <c r="M61" s="375"/>
-      <c r="N61" s="375"/>
-      <c r="O61" s="389"/>
+      <c r="H61" s="382"/>
+      <c r="I61" s="369"/>
+      <c r="J61" s="369"/>
+      <c r="K61" s="369"/>
+      <c r="L61" s="369"/>
+      <c r="M61" s="369"/>
+      <c r="N61" s="369"/>
+      <c r="O61" s="383"/>
     </row>
     <row r="62" spans="2:15">
-      <c r="H62" s="388"/>
-      <c r="I62" s="375"/>
-      <c r="J62" s="375"/>
-      <c r="K62" s="375"/>
-      <c r="L62" s="375" t="s">
+      <c r="H62" s="382"/>
+      <c r="I62" s="369"/>
+      <c r="J62" s="369"/>
+      <c r="K62" s="369"/>
+      <c r="L62" s="369" t="s">
         <v>147</v>
       </c>
-      <c r="M62" s="375"/>
-      <c r="N62" s="375"/>
-      <c r="O62" s="389"/>
+      <c r="M62" s="369"/>
+      <c r="N62" s="369"/>
+      <c r="O62" s="383"/>
     </row>
     <row r="63" spans="2:15">
-      <c r="H63" s="388"/>
-      <c r="I63" s="375"/>
-      <c r="J63" s="375"/>
-      <c r="K63" s="375"/>
-      <c r="L63" s="375" t="s">
+      <c r="H63" s="382"/>
+      <c r="I63" s="369"/>
+      <c r="J63" s="369"/>
+      <c r="K63" s="369"/>
+      <c r="L63" s="369" t="s">
         <v>148</v>
       </c>
-      <c r="M63" s="375"/>
-      <c r="N63" s="375"/>
-      <c r="O63" s="389"/>
+      <c r="M63" s="369"/>
+      <c r="N63" s="369"/>
+      <c r="O63" s="383"/>
     </row>
     <row r="64" spans="2:15">
-      <c r="H64" s="388"/>
-      <c r="I64" s="375"/>
-      <c r="J64" s="375"/>
-      <c r="K64" s="375"/>
-      <c r="L64" s="375" t="s">
+      <c r="H64" s="382"/>
+      <c r="I64" s="369"/>
+      <c r="J64" s="369"/>
+      <c r="K64" s="369"/>
+      <c r="L64" s="369" t="s">
         <v>149</v>
       </c>
-      <c r="M64" s="375"/>
-      <c r="N64" s="375"/>
-      <c r="O64" s="389"/>
+      <c r="M64" s="369"/>
+      <c r="N64" s="369"/>
+      <c r="O64" s="383"/>
     </row>
     <row r="65" spans="2:15">
-      <c r="H65" s="388"/>
-      <c r="I65" s="375"/>
-      <c r="J65" s="375"/>
-      <c r="K65" s="375"/>
-      <c r="L65" s="375"/>
-      <c r="M65" s="375"/>
-      <c r="N65" s="375"/>
-      <c r="O65" s="389"/>
+      <c r="H65" s="382"/>
+      <c r="I65" s="369"/>
+      <c r="J65" s="369"/>
+      <c r="K65" s="369"/>
+      <c r="L65" s="369"/>
+      <c r="M65" s="369"/>
+      <c r="N65" s="369"/>
+      <c r="O65" s="383"/>
     </row>
     <row r="66" spans="2:15">
-      <c r="H66" s="388"/>
-      <c r="I66" s="375"/>
-      <c r="J66" s="375"/>
-      <c r="K66" s="375"/>
-      <c r="L66" s="375"/>
-      <c r="M66" s="375"/>
-      <c r="N66" s="375"/>
-      <c r="O66" s="389"/>
+      <c r="H66" s="382"/>
+      <c r="I66" s="369"/>
+      <c r="J66" s="369"/>
+      <c r="K66" s="369"/>
+      <c r="L66" s="369"/>
+      <c r="M66" s="369"/>
+      <c r="N66" s="369"/>
+      <c r="O66" s="383"/>
     </row>
     <row r="67" spans="2:15" ht="15.75" thickBot="1">
-      <c r="H67" s="390"/>
-      <c r="I67" s="391"/>
-      <c r="J67" s="391"/>
-      <c r="K67" s="391"/>
-      <c r="L67" s="391"/>
-      <c r="M67" s="391"/>
-      <c r="N67" s="391"/>
-      <c r="O67" s="392"/>
+      <c r="H67" s="384"/>
+      <c r="I67" s="385"/>
+      <c r="J67" s="385"/>
+      <c r="K67" s="385"/>
+      <c r="L67" s="385"/>
+      <c r="M67" s="385"/>
+      <c r="N67" s="385"/>
+      <c r="O67" s="386"/>
     </row>
     <row r="71" spans="2:15">
-      <c r="C71" s="358" t="s">
+      <c r="C71" s="352" t="s">
         <v>150</v>
       </c>
     </row>
@@ -11495,134 +11643,134 @@
       </c>
     </row>
     <row r="77" spans="2:15">
-      <c r="D77" s="442" t="s">
+      <c r="D77" s="439" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="442"/>
-      <c r="F77" s="360"/>
+      <c r="E77" s="439"/>
+      <c r="F77" s="354"/>
     </row>
     <row r="78" spans="2:15" ht="30">
-      <c r="B78" s="365" t="s">
+      <c r="B78" s="359" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="443" t="s">
+      <c r="C78" s="440" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="443"/>
-      <c r="E78" s="443"/>
-      <c r="F78" s="383">
+      <c r="D78" s="440"/>
+      <c r="E78" s="440"/>
+      <c r="F78" s="377">
         <v>1</v>
       </c>
-      <c r="G78" s="383">
+      <c r="G78" s="377">
         <v>2</v>
       </c>
-      <c r="H78" s="383">
+      <c r="H78" s="377">
         <v>3</v>
       </c>
-      <c r="I78" s="383">
+      <c r="I78" s="377">
         <v>4</v>
       </c>
-      <c r="J78" s="383">
+      <c r="J78" s="377">
         <v>5</v>
       </c>
-      <c r="K78" s="383">
+      <c r="K78" s="377">
         <v>6</v>
       </c>
-      <c r="L78" s="383">
+      <c r="L78" s="377">
         <v>7</v>
       </c>
-      <c r="M78" s="383">
+      <c r="M78" s="377">
         <v>8</v>
       </c>
-      <c r="N78" s="383">
+      <c r="N78" s="377">
         <v>9</v>
       </c>
-      <c r="O78" s="383">
+      <c r="O78" s="377">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="2:15" ht="30" customHeight="1">
-      <c r="B79" s="367">
+      <c r="B79" s="361">
         <v>1</v>
       </c>
-      <c r="C79" s="430" t="str">
+      <c r="C79" s="436" t="str">
         <f>C15</f>
         <v>Затраты на осуществление ИСП (IC), руб.</v>
       </c>
-      <c r="D79" s="431"/>
-      <c r="E79" s="432"/>
-      <c r="F79" s="371">
+      <c r="D79" s="437"/>
+      <c r="E79" s="438"/>
+      <c r="F79" s="365">
         <f>F15</f>
         <v>2500000</v>
       </c>
-      <c r="G79" s="371">
+      <c r="G79" s="365">
         <f t="shared" ref="G79:O80" si="9">G15</f>
         <v>23750000</v>
       </c>
-      <c r="H79" s="371">
+      <c r="H79" s="365">
         <f t="shared" si="9"/>
         <v>23750000</v>
       </c>
-      <c r="I79" s="393"/>
-      <c r="J79" s="393"/>
-      <c r="K79" s="393"/>
-      <c r="L79" s="393"/>
-      <c r="M79" s="393"/>
-      <c r="N79" s="393"/>
-      <c r="O79" s="393"/>
+      <c r="I79" s="387"/>
+      <c r="J79" s="387"/>
+      <c r="K79" s="387"/>
+      <c r="L79" s="387"/>
+      <c r="M79" s="387"/>
+      <c r="N79" s="387"/>
+      <c r="O79" s="387"/>
     </row>
     <row r="80" spans="2:15" ht="33.75" customHeight="1">
-      <c r="B80" s="367">
+      <c r="B80" s="361">
         <v>2</v>
       </c>
-      <c r="C80" s="430" t="s">
+      <c r="C80" s="436" t="s">
         <v>124</v>
       </c>
-      <c r="D80" s="431"/>
-      <c r="E80" s="432"/>
-      <c r="F80" s="369">
+      <c r="D80" s="437"/>
+      <c r="E80" s="438"/>
+      <c r="F80" s="363">
         <f>F16</f>
         <v>0</v>
       </c>
-      <c r="G80" s="369">
+      <c r="G80" s="363">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H80" s="369">
+      <c r="H80" s="363">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I80" s="368">
+      <c r="I80" s="362">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="J80" s="368">
+      <c r="J80" s="362">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="K80" s="368">
+      <c r="K80" s="362">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="L80" s="368">
+      <c r="L80" s="362">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="M80" s="368">
+      <c r="M80" s="362">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="N80" s="368">
+      <c r="N80" s="362">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
-      <c r="O80" s="368">
+      <c r="O80" s="362">
         <f t="shared" si="9"/>
         <v>30000000</v>
       </c>
     </row>
     <row r="81" spans="2:15">
-      <c r="B81" s="367">
+      <c r="B81" s="361">
         <v>3</v>
       </c>
       <c r="C81" s="444" t="s">
@@ -11630,213 +11778,213 @@
       </c>
       <c r="D81" s="445"/>
       <c r="E81" s="446"/>
-      <c r="F81" s="372">
+      <c r="F81" s="366">
         <f>F18</f>
         <v>0.78125</v>
       </c>
-      <c r="G81" s="372">
+      <c r="G81" s="366">
         <f t="shared" ref="G81:O81" si="10">G18</f>
         <v>0.6103515625</v>
       </c>
-      <c r="H81" s="372">
+      <c r="H81" s="366">
         <f t="shared" si="10"/>
         <v>0.47683715820312494</v>
       </c>
-      <c r="I81" s="372">
+      <c r="I81" s="366">
         <f t="shared" si="10"/>
         <v>0.37252902984619141</v>
       </c>
-      <c r="J81" s="372">
+      <c r="J81" s="366">
         <f t="shared" si="10"/>
         <v>0.29103830456733704</v>
       </c>
-      <c r="K81" s="372">
+      <c r="K81" s="366">
         <f t="shared" si="10"/>
         <v>0.22737367544323206</v>
       </c>
-      <c r="L81" s="372">
+      <c r="L81" s="366">
         <f t="shared" si="10"/>
         <v>0.17763568394002502</v>
       </c>
-      <c r="M81" s="372">
+      <c r="M81" s="366">
         <f t="shared" si="10"/>
         <v>0.13877787807814454</v>
       </c>
-      <c r="N81" s="372">
+      <c r="N81" s="366">
         <f t="shared" si="10"/>
         <v>0.10842021724855043</v>
       </c>
-      <c r="O81" s="372">
+      <c r="O81" s="366">
         <f t="shared" si="10"/>
         <v>8.470329472543002E-2</v>
       </c>
     </row>
     <row r="82" spans="2:15" ht="32.25" customHeight="1">
-      <c r="B82" s="367">
+      <c r="B82" s="361">
         <v>4</v>
       </c>
-      <c r="C82" s="447" t="s">
+      <c r="C82" s="463" t="s">
         <v>155</v>
       </c>
-      <c r="D82" s="447"/>
-      <c r="E82" s="447"/>
-      <c r="I82" s="379">
+      <c r="D82" s="463"/>
+      <c r="E82" s="463"/>
+      <c r="I82" s="373">
         <f t="shared" ref="I82:O82" si="11">I80*I81</f>
         <v>11175870.895385742</v>
       </c>
-      <c r="J82" s="379">
+      <c r="J82" s="373">
         <f t="shared" si="11"/>
         <v>8731149.1370201111</v>
       </c>
-      <c r="K82" s="379">
+      <c r="K82" s="373">
         <f t="shared" si="11"/>
         <v>6821210.2632969618</v>
       </c>
-      <c r="L82" s="379">
+      <c r="L82" s="373">
         <f t="shared" si="11"/>
         <v>5329070.5182007505</v>
       </c>
-      <c r="M82" s="379">
+      <c r="M82" s="373">
         <f t="shared" si="11"/>
         <v>4163336.3423443362</v>
       </c>
-      <c r="N82" s="379">
+      <c r="N82" s="373">
         <f t="shared" si="11"/>
         <v>3252606.5174565129</v>
       </c>
-      <c r="O82" s="379">
+      <c r="O82" s="373">
         <f t="shared" si="11"/>
         <v>2541098.8417629008</v>
       </c>
     </row>
     <row r="83" spans="2:15" ht="45" customHeight="1">
-      <c r="B83" s="367">
+      <c r="B83" s="361">
         <v>5</v>
       </c>
-      <c r="C83" s="447" t="s">
+      <c r="C83" s="463" t="s">
         <v>156</v>
       </c>
-      <c r="D83" s="447"/>
-      <c r="E83" s="447"/>
-      <c r="F83" s="368">
+      <c r="D83" s="463"/>
+      <c r="E83" s="463"/>
+      <c r="F83" s="362">
         <f>F79*F81</f>
         <v>1953125</v>
       </c>
-      <c r="G83" s="368">
+      <c r="G83" s="362">
         <f>G79*G81</f>
         <v>14495849.609375</v>
       </c>
-      <c r="H83" s="368">
+      <c r="H83" s="362">
         <f>H79*H81</f>
         <v>11324882.507324217</v>
       </c>
-      <c r="I83" s="394"/>
-      <c r="J83" s="394"/>
-      <c r="K83" s="394"/>
-      <c r="L83" s="394"/>
-      <c r="M83" s="394"/>
-      <c r="N83" s="394"/>
-      <c r="O83" s="394"/>
+      <c r="I83" s="388"/>
+      <c r="J83" s="388"/>
+      <c r="K83" s="388"/>
+      <c r="L83" s="388"/>
+      <c r="M83" s="388"/>
+      <c r="N83" s="388"/>
+      <c r="O83" s="388"/>
     </row>
     <row r="84" spans="2:15">
-      <c r="B84" s="448" t="s">
+      <c r="B84" s="464" t="s">
         <v>128</v>
       </c>
-      <c r="C84" s="449"/>
-      <c r="D84" s="449"/>
-      <c r="E84" s="449"/>
-      <c r="F84" s="450"/>
+      <c r="C84" s="465"/>
+      <c r="D84" s="465"/>
+      <c r="E84" s="465"/>
+      <c r="F84" s="466"/>
     </row>
     <row r="85" spans="2:15">
-      <c r="B85" s="367">
+      <c r="B85" s="361">
         <v>5</v>
       </c>
-      <c r="C85" s="430" t="s">
+      <c r="C85" s="436" t="s">
         <v>107</v>
       </c>
-      <c r="D85" s="431"/>
-      <c r="E85" s="432"/>
-      <c r="F85" s="395">
+      <c r="D85" s="437"/>
+      <c r="E85" s="438"/>
+      <c r="F85" s="389">
         <f>SUM(I82:O82)/SUM(F83:H83)</f>
         <v>1.5127298429934641</v>
       </c>
     </row>
     <row r="86" spans="2:15" ht="46.5" customHeight="1">
-      <c r="B86" s="367">
+      <c r="B86" s="361">
         <v>6</v>
       </c>
-      <c r="C86" s="430" t="s">
+      <c r="C86" s="436" t="s">
         <v>152</v>
       </c>
-      <c r="D86" s="431"/>
-      <c r="E86" s="432"/>
-      <c r="F86" s="433"/>
-      <c r="G86" s="433"/>
-      <c r="H86" s="433"/>
-      <c r="I86" s="433"/>
-      <c r="K86" s="396"/>
+      <c r="D86" s="437"/>
+      <c r="E86" s="438"/>
+      <c r="F86" s="468"/>
+      <c r="G86" s="468"/>
+      <c r="H86" s="468"/>
+      <c r="I86" s="468"/>
+      <c r="K86" s="390"/>
     </row>
     <row r="87" spans="2:15" ht="49.5" customHeight="1">
-      <c r="B87" s="367">
+      <c r="B87" s="361">
         <v>7</v>
       </c>
-      <c r="C87" s="430" t="s">
+      <c r="C87" s="436" t="s">
         <v>157</v>
       </c>
-      <c r="D87" s="431"/>
-      <c r="E87" s="432"/>
-      <c r="F87" s="397"/>
-      <c r="K87" s="396"/>
+      <c r="D87" s="437"/>
+      <c r="E87" s="438"/>
+      <c r="F87" s="391"/>
+      <c r="K87" s="390"/>
     </row>
     <row r="88" spans="2:15" ht="63.75" customHeight="1">
-      <c r="B88" s="367">
+      <c r="B88" s="361">
         <v>8</v>
       </c>
-      <c r="C88" s="430" t="str">
+      <c r="C88" s="436" t="str">
         <f>C75</f>
         <v>Почему для данного проекта нельзя использовать оценку экономической эффективности по PI?</v>
       </c>
-      <c r="D88" s="431"/>
-      <c r="E88" s="432"/>
-      <c r="F88" s="434"/>
-      <c r="G88" s="434"/>
-      <c r="H88" s="434"/>
-      <c r="I88" s="434"/>
+      <c r="D88" s="437"/>
+      <c r="E88" s="438"/>
+      <c r="F88" s="469"/>
+      <c r="G88" s="469"/>
+      <c r="H88" s="469"/>
+      <c r="I88" s="469"/>
     </row>
     <row r="91" spans="2:15" ht="78" customHeight="1">
-      <c r="E91" s="435" t="s">
+      <c r="E91" s="470" t="s">
         <v>158</v>
       </c>
-      <c r="F91" s="435"/>
-      <c r="G91" s="435"/>
-      <c r="H91" s="435"/>
-      <c r="I91" s="435"/>
-      <c r="J91" s="435"/>
-      <c r="K91" s="435"/>
+      <c r="F91" s="470"/>
+      <c r="G91" s="470"/>
+      <c r="H91" s="470"/>
+      <c r="I91" s="470"/>
+      <c r="J91" s="470"/>
+      <c r="K91" s="470"/>
     </row>
     <row r="92" spans="2:15">
-      <c r="E92" s="429"/>
-      <c r="F92" s="429"/>
-      <c r="G92" s="429"/>
-      <c r="H92" s="429"/>
-      <c r="I92" s="429"/>
-      <c r="J92" s="429"/>
+      <c r="E92" s="467"/>
+      <c r="F92" s="467"/>
+      <c r="G92" s="467"/>
+      <c r="H92" s="467"/>
+      <c r="I92" s="467"/>
+      <c r="J92" s="467"/>
     </row>
     <row r="93" spans="2:15">
-      <c r="E93" s="429"/>
-      <c r="F93" s="429"/>
-      <c r="G93" s="429"/>
-      <c r="H93" s="429"/>
-      <c r="I93" s="429"/>
-      <c r="J93" s="429"/>
+      <c r="E93" s="467"/>
+      <c r="F93" s="467"/>
+      <c r="G93" s="467"/>
+      <c r="H93" s="467"/>
+      <c r="I93" s="467"/>
+      <c r="J93" s="467"/>
     </row>
     <row r="94" spans="2:15">
-      <c r="E94" s="429"/>
-      <c r="F94" s="429"/>
-      <c r="G94" s="429"/>
-      <c r="H94" s="429"/>
-      <c r="I94" s="429"/>
-      <c r="J94" s="429"/>
+      <c r="E94" s="467"/>
+      <c r="F94" s="467"/>
+      <c r="G94" s="467"/>
+      <c r="H94" s="467"/>
+      <c r="I94" s="467"/>
+      <c r="J94" s="467"/>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
@@ -11850,12 +11998,43 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="E92:J94"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="E91:K91"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="H59:O60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="H38:M43"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B40:F41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:O54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="H22:M28"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C11:K11"/>
@@ -11869,43 +12048,12 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="H38:M43"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="B40:F41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:O54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="H59:O60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="E92:J94"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="E91:K91"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11919,7 +12067,7 @@
   </sheetPr>
   <dimension ref="A1:AC136"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A84" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -11959,22 +12107,22 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
-      <c r="Q1" s="488" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="489"/>
-      <c r="S1" s="489"/>
-      <c r="T1" s="490"/>
-      <c r="U1" s="488"/>
-      <c r="V1" s="489"/>
-      <c r="W1" s="489"/>
-      <c r="X1" s="490"/>
+      <c r="Q1" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="502"/>
+      <c r="S1" s="502"/>
+      <c r="T1" s="503"/>
+      <c r="U1" s="480"/>
+      <c r="V1" s="502"/>
+      <c r="W1" s="502"/>
+      <c r="X1" s="503"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="15.75">
-      <c r="A2" s="476" t="s">
+      <c r="A2" s="490" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="477"/>
+      <c r="B2" s="491"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -11989,14 +12137,14 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="488"/>
-      <c r="R2" s="489"/>
-      <c r="S2" s="489"/>
-      <c r="T2" s="490"/>
-      <c r="U2" s="488"/>
-      <c r="V2" s="489"/>
-      <c r="W2" s="489"/>
-      <c r="X2" s="490"/>
+      <c r="Q2" s="480"/>
+      <c r="R2" s="502"/>
+      <c r="S2" s="502"/>
+      <c r="T2" s="503"/>
+      <c r="U2" s="480"/>
+      <c r="V2" s="502"/>
+      <c r="W2" s="502"/>
+      <c r="X2" s="503"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
@@ -12020,14 +12168,14 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="488"/>
-      <c r="R3" s="489"/>
-      <c r="S3" s="489"/>
-      <c r="T3" s="490"/>
-      <c r="U3" s="488"/>
-      <c r="V3" s="489"/>
-      <c r="W3" s="489"/>
-      <c r="X3" s="490"/>
+      <c r="Q3" s="480"/>
+      <c r="R3" s="502"/>
+      <c r="S3" s="502"/>
+      <c r="T3" s="503"/>
+      <c r="U3" s="480"/>
+      <c r="V3" s="502"/>
+      <c r="W3" s="502"/>
+      <c r="X3" s="503"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -12051,16 +12199,16 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="478" t="s">
+      <c r="Q4" s="492" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="479"/>
-      <c r="S4" s="479"/>
-      <c r="T4" s="480"/>
-      <c r="U4" s="478"/>
-      <c r="V4" s="479"/>
-      <c r="W4" s="479"/>
-      <c r="X4" s="480"/>
+      <c r="R4" s="493"/>
+      <c r="S4" s="493"/>
+      <c r="T4" s="494"/>
+      <c r="U4" s="492"/>
+      <c r="V4" s="493"/>
+      <c r="W4" s="493"/>
+      <c r="X4" s="494"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
@@ -12084,14 +12232,14 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="478"/>
-      <c r="R5" s="479"/>
-      <c r="S5" s="479"/>
-      <c r="T5" s="480"/>
-      <c r="U5" s="478"/>
-      <c r="V5" s="479"/>
-      <c r="W5" s="479"/>
-      <c r="X5" s="480"/>
+      <c r="Q5" s="492"/>
+      <c r="R5" s="493"/>
+      <c r="S5" s="493"/>
+      <c r="T5" s="494"/>
+      <c r="U5" s="492"/>
+      <c r="V5" s="493"/>
+      <c r="W5" s="493"/>
+      <c r="X5" s="494"/>
     </row>
     <row r="6" spans="1:24" hidden="1">
       <c r="A6" s="16" t="s">
@@ -12115,14 +12263,14 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="481"/>
-      <c r="R6" s="482"/>
-      <c r="S6" s="482"/>
-      <c r="T6" s="483"/>
-      <c r="U6" s="481"/>
-      <c r="V6" s="482"/>
-      <c r="W6" s="482"/>
-      <c r="X6" s="483"/>
+      <c r="Q6" s="495"/>
+      <c r="R6" s="496"/>
+      <c r="S6" s="496"/>
+      <c r="T6" s="497"/>
+      <c r="U6" s="495"/>
+      <c r="V6" s="496"/>
+      <c r="W6" s="496"/>
+      <c r="X6" s="497"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="18" t="s">
@@ -12166,7 +12314,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:24" hidden="1">
-      <c r="A9" s="486" t="s">
+      <c r="A9" s="500" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -12187,7 +12335,7 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="487"/>
+      <c r="A10" s="501"/>
       <c r="B10" s="23">
         <f>B6*B9</f>
         <v>1127.3</v>
@@ -12207,7 +12355,7 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:24" hidden="1">
-      <c r="A11" s="484" t="s">
+      <c r="A11" s="498" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
@@ -12229,7 +12377,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A12" s="485"/>
+      <c r="A12" s="499"/>
       <c r="B12" s="23">
         <f>B5*B11</f>
         <v>62858</v>
@@ -12250,7 +12398,7 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:24" hidden="1">
-      <c r="A13" s="486" t="s">
+      <c r="A13" s="500" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="24">
@@ -12272,7 +12420,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A14" s="487"/>
+      <c r="A14" s="501"/>
       <c r="B14" s="23">
         <f>B5*B13</f>
         <v>0</v>
@@ -12311,34 +12459,34 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A16" s="504" t="s">
+      <c r="A16" s="474" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="505"/>
-      <c r="C16" s="503" t="s">
+      <c r="B16" s="475"/>
+      <c r="C16" s="473" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="503"/>
-      <c r="E16" s="503"/>
-      <c r="F16" s="503"/>
-      <c r="G16" s="503" t="s">
+      <c r="D16" s="473"/>
+      <c r="E16" s="473"/>
+      <c r="F16" s="473"/>
+      <c r="G16" s="473" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="503"/>
-      <c r="I16" s="503"/>
-      <c r="J16" s="503"/>
-      <c r="K16" s="503" t="s">
+      <c r="H16" s="473"/>
+      <c r="I16" s="473"/>
+      <c r="J16" s="473"/>
+      <c r="K16" s="473" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="503"/>
-      <c r="M16" s="503"/>
+      <c r="L16" s="473"/>
+      <c r="M16" s="473"/>
       <c r="N16" s="199"/>
       <c r="O16" s="200"/>
-      <c r="P16" s="401"/>
+      <c r="P16" s="395"/>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="506"/>
-      <c r="B17" s="507"/>
+      <c r="A17" s="476"/>
+      <c r="B17" s="477"/>
       <c r="C17" s="201">
         <v>1</v>
       </c>
@@ -12388,7 +12536,7 @@
       <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:20" s="35" customFormat="1" ht="25.5">
-      <c r="A18" s="400" t="s">
+      <c r="A18" s="394" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="204"/>
@@ -12442,7 +12590,7 @@
       <c r="O18" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="402" t="s">
+      <c r="P18" s="396" t="s">
         <v>69</v>
       </c>
       <c r="Q18" s="33" t="s">
@@ -12489,26 +12637,26 @@
         <v>21</v>
       </c>
       <c r="B20" s="43"/>
-      <c r="C20" s="492">
+      <c r="C20" s="479">
         <f>Q20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D20" s="492"/>
-      <c r="E20" s="492"/>
-      <c r="F20" s="492"/>
-      <c r="G20" s="492">
+      <c r="D20" s="479"/>
+      <c r="E20" s="479"/>
+      <c r="F20" s="479"/>
+      <c r="G20" s="479">
         <f>C20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="492"/>
-      <c r="I20" s="492"/>
-      <c r="J20" s="492"/>
-      <c r="K20" s="492">
+      <c r="H20" s="479"/>
+      <c r="I20" s="479"/>
+      <c r="J20" s="479"/>
+      <c r="K20" s="479">
         <f>G20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L20" s="492"/>
-      <c r="M20" s="492"/>
+      <c r="L20" s="479"/>
+      <c r="M20" s="479"/>
       <c r="N20" s="221">
         <f>(1+C20)^(1/4)-1</f>
         <v>1.6106667595102708E-2</v>
@@ -13678,12 +13826,12 @@
       <c r="N51" s="38"/>
       <c r="O51" s="39"/>
       <c r="P51" s="38"/>
-      <c r="T51" s="488" t="s">
+      <c r="T51" s="480" t="s">
         <v>53</v>
       </c>
-      <c r="U51" s="493"/>
-      <c r="V51" s="493"/>
-      <c r="W51" s="493"/>
+      <c r="U51" s="481"/>
+      <c r="V51" s="481"/>
+      <c r="W51" s="481"/>
     </row>
     <row r="52" spans="1:23" hidden="1">
       <c r="A52" s="98" t="s">
@@ -13725,10 +13873,10 @@
       <c r="N52" s="104"/>
       <c r="O52" s="105"/>
       <c r="P52" s="104"/>
-      <c r="T52" s="488"/>
-      <c r="U52" s="493"/>
-      <c r="V52" s="493"/>
-      <c r="W52" s="493"/>
+      <c r="T52" s="480"/>
+      <c r="U52" s="481"/>
+      <c r="V52" s="481"/>
+      <c r="W52" s="481"/>
     </row>
     <row r="53" spans="1:23" hidden="1">
       <c r="A53" s="106" t="s">
@@ -13758,10 +13906,10 @@
       <c r="N53" s="54"/>
       <c r="O53" s="55"/>
       <c r="P53" s="54"/>
-      <c r="T53" s="488"/>
-      <c r="U53" s="493"/>
-      <c r="V53" s="493"/>
-      <c r="W53" s="493"/>
+      <c r="T53" s="480"/>
+      <c r="U53" s="481"/>
+      <c r="V53" s="481"/>
+      <c r="W53" s="481"/>
     </row>
     <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="110" t="s">
@@ -14279,23 +14427,23 @@
         <v>66</v>
       </c>
       <c r="B65" s="93"/>
-      <c r="C65" s="494"/>
-      <c r="D65" s="494"/>
-      <c r="E65" s="494"/>
-      <c r="F65" s="495"/>
-      <c r="G65" s="495"/>
-      <c r="H65" s="495"/>
-      <c r="I65" s="495"/>
-      <c r="J65" s="495"/>
-      <c r="K65" s="495"/>
-      <c r="L65" s="495"/>
-      <c r="M65" s="495"/>
+      <c r="C65" s="482"/>
+      <c r="D65" s="482"/>
+      <c r="E65" s="482"/>
+      <c r="F65" s="483"/>
+      <c r="G65" s="483"/>
+      <c r="H65" s="483"/>
+      <c r="I65" s="483"/>
+      <c r="J65" s="483"/>
+      <c r="K65" s="483"/>
+      <c r="L65" s="483"/>
+      <c r="M65" s="483"/>
       <c r="N65" s="130"/>
       <c r="O65" s="131"/>
       <c r="P65" s="130"/>
     </row>
     <row r="66" spans="1:17" s="7" customFormat="1" ht="22.5">
-      <c r="A66" s="400" t="s">
+      <c r="A66" s="394" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="204" t="s">
@@ -14353,7 +14501,7 @@
         <f t="shared" si="29"/>
         <v>13 квартал</v>
       </c>
-      <c r="P66" s="402" t="str">
+      <c r="P66" s="396" t="str">
         <f t="shared" ref="P66" si="30">P18</f>
         <v>14 квартал</v>
       </c>
@@ -15647,15 +15795,15 @@
       <c r="L90" s="191"/>
     </row>
     <row r="91" spans="1:17" s="14" customFormat="1" ht="15.75">
-      <c r="A91" s="496" t="s">
+      <c r="A91" s="484" t="s">
         <v>101</v>
       </c>
-      <c r="B91" s="496"/>
-      <c r="C91" s="496"/>
-      <c r="D91" s="496"/>
-      <c r="E91" s="496"/>
-      <c r="F91" s="403"/>
-      <c r="G91" s="405"/>
+      <c r="B91" s="484"/>
+      <c r="C91" s="484"/>
+      <c r="D91" s="484"/>
+      <c r="E91" s="484"/>
+      <c r="F91" s="397"/>
+      <c r="G91" s="399"/>
       <c r="H91" s="193"/>
       <c r="I91" s="193"/>
       <c r="J91" s="193"/>
@@ -15663,264 +15811,264 @@
       <c r="L91" s="193"/>
     </row>
     <row r="92" spans="1:17" ht="15.75">
-      <c r="A92" s="497" t="s">
+      <c r="A92" s="471" t="s">
         <v>102</v>
       </c>
-      <c r="B92" s="497"/>
-      <c r="C92" s="497"/>
-      <c r="D92" s="498">
+      <c r="B92" s="471"/>
+      <c r="C92" s="471"/>
+      <c r="D92" s="485">
         <f>B84</f>
         <v>401229848.55267346</v>
       </c>
-      <c r="E92" s="498"/>
-      <c r="F92" s="404"/>
-      <c r="G92" s="406"/>
+      <c r="E92" s="485"/>
+      <c r="F92" s="398"/>
+      <c r="G92" s="400"/>
     </row>
     <row r="93" spans="1:17" ht="15.75">
-      <c r="A93" s="497" t="s">
+      <c r="A93" s="471" t="s">
         <v>103</v>
       </c>
-      <c r="B93" s="497"/>
-      <c r="C93" s="497"/>
-      <c r="D93" s="498">
+      <c r="B93" s="471"/>
+      <c r="C93" s="471"/>
+      <c r="D93" s="485">
         <f>B88</f>
         <v>140243990.22569665</v>
       </c>
-      <c r="E93" s="498"/>
-      <c r="F93" s="404"/>
-      <c r="G93" s="406"/>
+      <c r="E93" s="485"/>
+      <c r="F93" s="398"/>
+      <c r="G93" s="400"/>
     </row>
     <row r="94" spans="1:17" ht="15.75">
-      <c r="A94" s="497" t="s">
+      <c r="A94" s="471" t="s">
         <v>104</v>
       </c>
-      <c r="B94" s="497"/>
-      <c r="C94" s="497"/>
-      <c r="D94" s="398"/>
-      <c r="E94" s="398"/>
-      <c r="F94" s="404"/>
-      <c r="G94" s="406"/>
+      <c r="B94" s="471"/>
+      <c r="C94" s="471"/>
+      <c r="D94" s="392"/>
+      <c r="E94" s="392"/>
+      <c r="F94" s="398"/>
+      <c r="G94" s="400"/>
     </row>
     <row r="95" spans="1:17" ht="15.75">
-      <c r="A95" s="497" t="s">
+      <c r="A95" s="471" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="497"/>
-      <c r="C95" s="497"/>
-      <c r="D95" s="398"/>
-      <c r="E95" s="398"/>
-      <c r="F95" s="404"/>
-      <c r="G95" s="406"/>
+      <c r="B95" s="471"/>
+      <c r="C95" s="471"/>
+      <c r="D95" s="392"/>
+      <c r="E95" s="392"/>
+      <c r="F95" s="398"/>
+      <c r="G95" s="400"/>
     </row>
     <row r="96" spans="1:17" ht="15.75">
-      <c r="A96" s="497" t="s">
+      <c r="A96" s="471" t="s">
         <v>106</v>
       </c>
-      <c r="B96" s="497"/>
-      <c r="C96" s="497"/>
-      <c r="D96" s="399"/>
-      <c r="E96" s="399">
+      <c r="B96" s="471"/>
+      <c r="C96" s="471"/>
+      <c r="D96" s="393"/>
+      <c r="E96" s="393">
         <f>(1+D96)^4-1</f>
         <v>0</v>
       </c>
-      <c r="F96" s="404"/>
-      <c r="G96" s="406"/>
+      <c r="F96" s="398"/>
+      <c r="G96" s="400"/>
     </row>
     <row r="97" spans="1:14" ht="15.75">
-      <c r="A97" s="497" t="s">
+      <c r="A97" s="471" t="s">
         <v>107</v>
       </c>
-      <c r="B97" s="497"/>
-      <c r="C97" s="497"/>
-      <c r="D97" s="508"/>
-      <c r="E97" s="508"/>
-      <c r="F97" s="404"/>
-      <c r="G97" s="406"/>
+      <c r="B97" s="471"/>
+      <c r="C97" s="471"/>
+      <c r="D97" s="472"/>
+      <c r="E97" s="472"/>
+      <c r="F97" s="398"/>
+      <c r="G97" s="400"/>
     </row>
     <row r="98" spans="1:14" ht="15.75">
-      <c r="A98" s="499" t="s">
+      <c r="A98" s="486" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="500"/>
-      <c r="C98" s="500"/>
-      <c r="D98" s="501"/>
-      <c r="E98" s="357"/>
+      <c r="B98" s="487"/>
+      <c r="C98" s="487"/>
+      <c r="D98" s="488"/>
+      <c r="E98" s="351"/>
     </row>
     <row r="99" spans="1:14" ht="15.75">
-      <c r="A99" s="502"/>
-      <c r="B99" s="502"/>
-      <c r="C99" s="502"/>
-      <c r="D99" s="502"/>
-      <c r="E99" s="357"/>
+      <c r="A99" s="489"/>
+      <c r="B99" s="489"/>
+      <c r="C99" s="489"/>
+      <c r="D99" s="489"/>
+      <c r="E99" s="351"/>
     </row>
     <row r="100" spans="1:14" ht="15.75">
-      <c r="A100" s="502"/>
-      <c r="B100" s="502"/>
-      <c r="C100" s="502"/>
-      <c r="D100" s="502"/>
-      <c r="E100" s="357"/>
+      <c r="A100" s="489"/>
+      <c r="B100" s="489"/>
+      <c r="C100" s="489"/>
+      <c r="D100" s="489"/>
+      <c r="E100" s="351"/>
     </row>
     <row r="101" spans="1:14" ht="15.75">
-      <c r="A101" s="502"/>
-      <c r="B101" s="502"/>
-      <c r="C101" s="502"/>
-      <c r="D101" s="502"/>
-      <c r="E101" s="357"/>
+      <c r="A101" s="489"/>
+      <c r="B101" s="489"/>
+      <c r="C101" s="489"/>
+      <c r="D101" s="489"/>
+      <c r="E101" s="351"/>
     </row>
     <row r="102" spans="1:14" ht="15.75">
-      <c r="A102" s="502"/>
-      <c r="B102" s="502"/>
-      <c r="C102" s="502"/>
-      <c r="D102" s="502"/>
-      <c r="E102" s="357"/>
+      <c r="A102" s="489"/>
+      <c r="B102" s="489"/>
+      <c r="C102" s="489"/>
+      <c r="D102" s="489"/>
+      <c r="E102" s="351"/>
     </row>
     <row r="103" spans="1:14" ht="15.75">
-      <c r="A103" s="502"/>
-      <c r="B103" s="502"/>
-      <c r="C103" s="502"/>
-      <c r="D103" s="502"/>
-      <c r="E103" s="357"/>
+      <c r="A103" s="489"/>
+      <c r="B103" s="489"/>
+      <c r="C103" s="489"/>
+      <c r="D103" s="489"/>
+      <c r="E103" s="351"/>
     </row>
     <row r="104" spans="1:14" ht="15.75">
-      <c r="A104" s="502"/>
-      <c r="B104" s="502"/>
-      <c r="C104" s="502"/>
-      <c r="D104" s="502"/>
-      <c r="E104" s="357"/>
+      <c r="A104" s="489"/>
+      <c r="B104" s="489"/>
+      <c r="C104" s="489"/>
+      <c r="D104" s="489"/>
+      <c r="E104" s="351"/>
     </row>
     <row r="105" spans="1:14" ht="15.75">
-      <c r="A105" s="502"/>
-      <c r="B105" s="502"/>
-      <c r="C105" s="502"/>
-      <c r="D105" s="502"/>
-      <c r="E105" s="357"/>
+      <c r="A105" s="489"/>
+      <c r="B105" s="489"/>
+      <c r="C105" s="489"/>
+      <c r="D105" s="489"/>
+      <c r="E105" s="351"/>
     </row>
     <row r="111" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="491" t="s">
+      <c r="A111" s="478" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="491"/>
-      <c r="C111" s="491"/>
-      <c r="D111" s="491"/>
-      <c r="E111" s="491"/>
-      <c r="F111" s="491"/>
-      <c r="G111" s="491"/>
-      <c r="H111" s="491"/>
-      <c r="I111" s="491"/>
-      <c r="J111" s="491"/>
-      <c r="K111" s="491"/>
+      <c r="B111" s="478"/>
+      <c r="C111" s="478"/>
+      <c r="D111" s="478"/>
+      <c r="E111" s="478"/>
+      <c r="F111" s="478"/>
+      <c r="G111" s="478"/>
+      <c r="H111" s="478"/>
+      <c r="I111" s="478"/>
+      <c r="J111" s="478"/>
+      <c r="K111" s="478"/>
       <c r="L111" s="185"/>
       <c r="M111" s="185"/>
       <c r="N111" s="184"/>
     </row>
     <row r="112" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A112" s="491"/>
-      <c r="B112" s="491"/>
-      <c r="C112" s="491"/>
-      <c r="D112" s="491"/>
-      <c r="E112" s="491"/>
-      <c r="F112" s="491"/>
-      <c r="G112" s="491"/>
-      <c r="H112" s="491"/>
-      <c r="I112" s="491"/>
-      <c r="J112" s="491"/>
-      <c r="K112" s="491"/>
+      <c r="A112" s="478"/>
+      <c r="B112" s="478"/>
+      <c r="C112" s="478"/>
+      <c r="D112" s="478"/>
+      <c r="E112" s="478"/>
+      <c r="F112" s="478"/>
+      <c r="G112" s="478"/>
+      <c r="H112" s="478"/>
+      <c r="I112" s="478"/>
+      <c r="J112" s="478"/>
+      <c r="K112" s="478"/>
       <c r="L112" s="186"/>
       <c r="M112" s="186"/>
       <c r="N112" s="184"/>
     </row>
     <row r="113" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A113" s="491"/>
-      <c r="B113" s="491"/>
-      <c r="C113" s="491"/>
-      <c r="D113" s="491"/>
-      <c r="E113" s="491"/>
-      <c r="F113" s="491"/>
-      <c r="G113" s="491"/>
-      <c r="H113" s="491"/>
-      <c r="I113" s="491"/>
-      <c r="J113" s="491"/>
-      <c r="K113" s="491"/>
+      <c r="A113" s="478"/>
+      <c r="B113" s="478"/>
+      <c r="C113" s="478"/>
+      <c r="D113" s="478"/>
+      <c r="E113" s="478"/>
+      <c r="F113" s="478"/>
+      <c r="G113" s="478"/>
+      <c r="H113" s="478"/>
+      <c r="I113" s="478"/>
+      <c r="J113" s="478"/>
+      <c r="K113" s="478"/>
       <c r="L113" s="186"/>
       <c r="M113" s="186"/>
       <c r="N113" s="184"/>
     </row>
     <row r="114" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A114" s="491"/>
-      <c r="B114" s="491"/>
-      <c r="C114" s="491"/>
-      <c r="D114" s="491"/>
-      <c r="E114" s="491"/>
-      <c r="F114" s="491"/>
-      <c r="G114" s="491"/>
-      <c r="H114" s="491"/>
-      <c r="I114" s="491"/>
-      <c r="J114" s="491"/>
-      <c r="K114" s="491"/>
+      <c r="A114" s="478"/>
+      <c r="B114" s="478"/>
+      <c r="C114" s="478"/>
+      <c r="D114" s="478"/>
+      <c r="E114" s="478"/>
+      <c r="F114" s="478"/>
+      <c r="G114" s="478"/>
+      <c r="H114" s="478"/>
+      <c r="I114" s="478"/>
+      <c r="J114" s="478"/>
+      <c r="K114" s="478"/>
       <c r="L114" s="186"/>
       <c r="M114" s="186"/>
       <c r="N114" s="184"/>
     </row>
     <row r="115" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A115" s="491"/>
-      <c r="B115" s="491"/>
-      <c r="C115" s="491"/>
-      <c r="D115" s="491"/>
-      <c r="E115" s="491"/>
-      <c r="F115" s="491"/>
-      <c r="G115" s="491"/>
-      <c r="H115" s="491"/>
-      <c r="I115" s="491"/>
-      <c r="J115" s="491"/>
-      <c r="K115" s="491"/>
+      <c r="A115" s="478"/>
+      <c r="B115" s="478"/>
+      <c r="C115" s="478"/>
+      <c r="D115" s="478"/>
+      <c r="E115" s="478"/>
+      <c r="F115" s="478"/>
+      <c r="G115" s="478"/>
+      <c r="H115" s="478"/>
+      <c r="I115" s="478"/>
+      <c r="J115" s="478"/>
+      <c r="K115" s="478"/>
       <c r="L115" s="187"/>
       <c r="M115" s="187"/>
       <c r="N115" s="184"/>
     </row>
     <row r="116" spans="1:14" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A116" s="491"/>
-      <c r="B116" s="491"/>
-      <c r="C116" s="491"/>
-      <c r="D116" s="491"/>
-      <c r="E116" s="491"/>
-      <c r="F116" s="491"/>
-      <c r="G116" s="491"/>
-      <c r="H116" s="491"/>
-      <c r="I116" s="491"/>
-      <c r="J116" s="491"/>
-      <c r="K116" s="491"/>
+      <c r="A116" s="478"/>
+      <c r="B116" s="478"/>
+      <c r="C116" s="478"/>
+      <c r="D116" s="478"/>
+      <c r="E116" s="478"/>
+      <c r="F116" s="478"/>
+      <c r="G116" s="478"/>
+      <c r="H116" s="478"/>
+      <c r="I116" s="478"/>
+      <c r="J116" s="478"/>
+      <c r="K116" s="478"/>
       <c r="L116" s="187"/>
       <c r="M116" s="187"/>
       <c r="N116" s="184"/>
     </row>
     <row r="117" spans="1:14" s="190" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A117" s="491"/>
-      <c r="B117" s="491"/>
-      <c r="C117" s="491"/>
-      <c r="D117" s="491"/>
-      <c r="E117" s="491"/>
-      <c r="F117" s="491"/>
-      <c r="G117" s="491"/>
-      <c r="H117" s="491"/>
-      <c r="I117" s="491"/>
-      <c r="J117" s="491"/>
-      <c r="K117" s="491"/>
+      <c r="A117" s="478"/>
+      <c r="B117" s="478"/>
+      <c r="C117" s="478"/>
+      <c r="D117" s="478"/>
+      <c r="E117" s="478"/>
+      <c r="F117" s="478"/>
+      <c r="G117" s="478"/>
+      <c r="H117" s="478"/>
+      <c r="I117" s="478"/>
+      <c r="J117" s="478"/>
+      <c r="K117" s="478"/>
       <c r="L117" s="188"/>
       <c r="M117" s="189"/>
       <c r="N117" s="189"/>
     </row>
     <row r="118" spans="1:14" s="189" customFormat="1" ht="18.75" collapsed="1">
-      <c r="A118" s="491"/>
-      <c r="B118" s="491"/>
-      <c r="C118" s="491"/>
-      <c r="D118" s="491"/>
-      <c r="E118" s="491"/>
-      <c r="F118" s="491"/>
-      <c r="G118" s="491"/>
-      <c r="H118" s="491"/>
-      <c r="I118" s="491"/>
-      <c r="J118" s="491"/>
-      <c r="K118" s="491"/>
+      <c r="A118" s="478"/>
+      <c r="B118" s="478"/>
+      <c r="C118" s="478"/>
+      <c r="D118" s="478"/>
+      <c r="E118" s="478"/>
+      <c r="F118" s="478"/>
+      <c r="G118" s="478"/>
+      <c r="H118" s="478"/>
+      <c r="I118" s="478"/>
+      <c r="J118" s="478"/>
+      <c r="K118" s="478"/>
       <c r="L118" s="188"/>
     </row>
     <row r="130" spans="2:29">
@@ -15980,13 +16128,14 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q4:T6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="U1:X3"/>
     <mergeCell ref="A111:K118"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:J20"/>
@@ -16003,14 +16152,13 @@
     <mergeCell ref="A99:D105"/>
     <mergeCell ref="A94:C94"/>
     <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q4:T6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="U4:X6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Q1:T3"/>
-    <mergeCell ref="U1:X3"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A96:C96"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.31496062992125984" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -16026,10 +16174,10 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:AC146"/>
+  <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q70" sqref="Q70"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -16049,8 +16197,11 @@
     <col min="15" max="15" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.42578125" style="15" customWidth="1"/>
     <col min="17" max="17" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="15" customWidth="1"/>
-    <col min="19" max="28" width="9.140625" style="15" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" style="15" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="15" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="15" customWidth="1"/>
+    <col min="22" max="28" width="9.140625" style="15" customWidth="1"/>
     <col min="29" max="29" width="14.42578125" style="15" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="15"/>
   </cols>
@@ -16068,22 +16219,22 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
-      <c r="Q1" s="488" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="489"/>
-      <c r="S1" s="489"/>
-      <c r="T1" s="490"/>
-      <c r="U1" s="488"/>
-      <c r="V1" s="489"/>
-      <c r="W1" s="489"/>
-      <c r="X1" s="490"/>
+      <c r="Q1" s="480" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="502"/>
+      <c r="S1" s="502"/>
+      <c r="T1" s="503"/>
+      <c r="U1" s="480"/>
+      <c r="V1" s="502"/>
+      <c r="W1" s="502"/>
+      <c r="X1" s="503"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="15.75">
-      <c r="A2" s="476" t="s">
+      <c r="A2" s="490" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="477"/>
+      <c r="B2" s="491"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -16098,14 +16249,14 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="488"/>
-      <c r="R2" s="489"/>
-      <c r="S2" s="489"/>
-      <c r="T2" s="490"/>
-      <c r="U2" s="488"/>
-      <c r="V2" s="489"/>
-      <c r="W2" s="489"/>
-      <c r="X2" s="490"/>
+      <c r="Q2" s="480"/>
+      <c r="R2" s="502"/>
+      <c r="S2" s="502"/>
+      <c r="T2" s="503"/>
+      <c r="U2" s="480"/>
+      <c r="V2" s="502"/>
+      <c r="W2" s="502"/>
+      <c r="X2" s="503"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
@@ -16129,14 +16280,14 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="488"/>
-      <c r="R3" s="489"/>
-      <c r="S3" s="489"/>
-      <c r="T3" s="490"/>
-      <c r="U3" s="488"/>
-      <c r="V3" s="489"/>
-      <c r="W3" s="489"/>
-      <c r="X3" s="490"/>
+      <c r="Q3" s="480"/>
+      <c r="R3" s="502"/>
+      <c r="S3" s="502"/>
+      <c r="T3" s="503"/>
+      <c r="U3" s="480"/>
+      <c r="V3" s="502"/>
+      <c r="W3" s="502"/>
+      <c r="X3" s="503"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -16160,16 +16311,16 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="478" t="s">
+      <c r="Q4" s="492" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="479"/>
-      <c r="S4" s="479"/>
-      <c r="T4" s="480"/>
-      <c r="U4" s="478"/>
-      <c r="V4" s="479"/>
-      <c r="W4" s="479"/>
-      <c r="X4" s="480"/>
+      <c r="R4" s="493"/>
+      <c r="S4" s="493"/>
+      <c r="T4" s="494"/>
+      <c r="U4" s="492"/>
+      <c r="V4" s="493"/>
+      <c r="W4" s="493"/>
+      <c r="X4" s="494"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
@@ -16193,14 +16344,14 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="478"/>
-      <c r="R5" s="479"/>
-      <c r="S5" s="479"/>
-      <c r="T5" s="480"/>
-      <c r="U5" s="478"/>
-      <c r="V5" s="479"/>
-      <c r="W5" s="479"/>
-      <c r="X5" s="480"/>
+      <c r="Q5" s="492"/>
+      <c r="R5" s="493"/>
+      <c r="S5" s="493"/>
+      <c r="T5" s="494"/>
+      <c r="U5" s="492"/>
+      <c r="V5" s="493"/>
+      <c r="W5" s="493"/>
+      <c r="X5" s="494"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="16" t="s">
@@ -16224,14 +16375,14 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="481"/>
-      <c r="R6" s="482"/>
-      <c r="S6" s="482"/>
-      <c r="T6" s="483"/>
-      <c r="U6" s="481"/>
-      <c r="V6" s="482"/>
-      <c r="W6" s="482"/>
-      <c r="X6" s="483"/>
+      <c r="Q6" s="495"/>
+      <c r="R6" s="496"/>
+      <c r="S6" s="496"/>
+      <c r="T6" s="497"/>
+      <c r="U6" s="495"/>
+      <c r="V6" s="496"/>
+      <c r="W6" s="496"/>
+      <c r="X6" s="497"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="18" t="s">
@@ -16274,7 +16425,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:24" hidden="1">
-      <c r="A9" s="486" t="s">
+      <c r="A9" s="500" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -16295,7 +16446,7 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="487"/>
+      <c r="A10" s="501"/>
       <c r="B10" s="23">
         <f>B6*B9</f>
         <v>1127.3</v>
@@ -16315,7 +16466,7 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:24" hidden="1">
-      <c r="A11" s="484" t="s">
+      <c r="A11" s="498" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
@@ -16337,7 +16488,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A12" s="485"/>
+      <c r="A12" s="499"/>
       <c r="B12" s="23">
         <f>B5*B11</f>
         <v>62858</v>
@@ -16358,7 +16509,7 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:24" hidden="1">
-      <c r="A13" s="486" t="s">
+      <c r="A13" s="500" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="24">
@@ -16380,7 +16531,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A14" s="487"/>
+      <c r="A14" s="501"/>
       <c r="B14" s="23">
         <f>B5*B13</f>
         <v>0</v>
@@ -16419,34 +16570,34 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A16" s="510" t="s">
+      <c r="A16" s="504" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="511"/>
-      <c r="C16" s="513" t="s">
+      <c r="B16" s="505"/>
+      <c r="C16" s="507" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="513"/>
-      <c r="E16" s="513"/>
-      <c r="F16" s="513"/>
-      <c r="G16" s="513" t="s">
+      <c r="D16" s="507"/>
+      <c r="E16" s="507"/>
+      <c r="F16" s="507"/>
+      <c r="G16" s="507" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="513"/>
-      <c r="I16" s="513"/>
-      <c r="J16" s="513"/>
-      <c r="K16" s="513" t="s">
+      <c r="H16" s="507"/>
+      <c r="I16" s="507"/>
+      <c r="J16" s="507"/>
+      <c r="K16" s="507" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="513"/>
-      <c r="M16" s="513"/>
-      <c r="N16" s="255"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="407"/>
+      <c r="L16" s="507"/>
+      <c r="M16" s="507"/>
+      <c r="N16" s="254"/>
+      <c r="O16" s="255"/>
+      <c r="P16" s="401"/>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="512"/>
-      <c r="B17" s="507"/>
+      <c r="A17" s="506"/>
+      <c r="B17" s="477"/>
       <c r="C17" s="201">
         <v>1</v>
       </c>
@@ -16493,14 +16644,14 @@
       <c r="N17" s="202">
         <v>12</v>
       </c>
-      <c r="O17" s="257">
+      <c r="O17" s="256">
         <v>13</v>
       </c>
-      <c r="P17" s="408"/>
+      <c r="P17" s="402"/>
       <c r="R17" s="32"/>
     </row>
     <row r="18" spans="1:20" s="35" customFormat="1" ht="25.5">
-      <c r="A18" s="258" t="s">
+      <c r="A18" s="257" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="204"/>
@@ -16551,10 +16702,10 @@
       <c r="N18" s="205" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="259" t="s">
+      <c r="O18" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="259" t="s">
+      <c r="P18" s="258" t="s">
         <v>69</v>
       </c>
       <c r="Q18" s="33" t="s">
@@ -16567,7 +16718,7 @@
       <c r="T18" s="15"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="260" t="s">
+      <c r="A19" s="259" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="220">
@@ -16585,8 +16736,8 @@
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="261"/>
-      <c r="P19" s="261"/>
+      <c r="O19" s="260"/>
+      <c r="P19" s="260"/>
       <c r="Q19" s="40">
         <f>((1+Q20)^(1/4))-1</f>
         <v>1.6106667595102708E-2</v>
@@ -16597,39 +16748,39 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="262" t="s">
+      <c r="A20" s="261" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="43"/>
-      <c r="C20" s="492">
+      <c r="C20" s="479">
         <f>Q20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D20" s="492"/>
-      <c r="E20" s="492"/>
-      <c r="F20" s="492"/>
-      <c r="G20" s="492">
+      <c r="D20" s="479"/>
+      <c r="E20" s="479"/>
+      <c r="F20" s="479"/>
+      <c r="G20" s="479">
         <f>C20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="492"/>
-      <c r="I20" s="492"/>
-      <c r="J20" s="492"/>
-      <c r="K20" s="492">
+      <c r="H20" s="479"/>
+      <c r="I20" s="479"/>
+      <c r="J20" s="479"/>
+      <c r="K20" s="479">
         <f>G20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L20" s="492"/>
-      <c r="M20" s="492"/>
+      <c r="L20" s="479"/>
+      <c r="M20" s="479"/>
       <c r="N20" s="221">
         <f>(1+C20)^(1/4)-1</f>
         <v>1.6106667595102708E-2</v>
       </c>
-      <c r="O20" s="263">
+      <c r="O20" s="262">
         <f>Q19</f>
         <v>1.6106667595102708E-2</v>
       </c>
-      <c r="P20" s="263">
+      <c r="P20" s="262">
         <f>R19</f>
         <v>1.2272234429039353E-2</v>
       </c>
@@ -16641,7 +16792,7 @@
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="262" t="s">
+      <c r="A21" s="261" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="46"/>
@@ -16692,17 +16843,17 @@
       <c r="N21" s="48">
         <v>1.61E-2</v>
       </c>
-      <c r="O21" s="264">
+      <c r="O21" s="263">
         <f>N21</f>
         <v>1.61E-2</v>
       </c>
-      <c r="P21" s="264">
+      <c r="P21" s="263">
         <f>O21</f>
         <v>1.61E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="262" t="s">
+      <c r="A22" s="261" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="46"/>
@@ -16754,17 +16905,17 @@
         <f>M22*(1+N21)</f>
         <v>1.2113475472006958</v>
       </c>
-      <c r="O22" s="265">
+      <c r="O22" s="264">
         <f>N22*(1+O21)</f>
         <v>1.2308502427106269</v>
       </c>
-      <c r="P22" s="265">
+      <c r="P22" s="264">
         <f>O22*(1+P21)</f>
         <v>1.2506669316182679</v>
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="262" t="s">
+      <c r="A23" s="261" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="53"/>
@@ -16816,17 +16967,17 @@
         <f t="shared" si="3"/>
         <v>100093.64782519349</v>
       </c>
-      <c r="O23" s="266">
+      <c r="O23" s="265">
         <f>$B$19*O22</f>
         <v>101705.15555517911</v>
       </c>
-      <c r="P23" s="266">
+      <c r="P23" s="265">
         <f>$B$19*P22</f>
         <v>103342.60855961748</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="12" customHeight="1">
-      <c r="A24" s="260" t="s">
+      <c r="A24" s="259" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="56">
@@ -16869,17 +17020,17 @@
         <f t="shared" si="4"/>
         <v>1.2272234429039353</v>
       </c>
-      <c r="O24" s="267">
+      <c r="O24" s="266">
         <f t="shared" si="4"/>
         <v>1.2272234429039353</v>
       </c>
-      <c r="P24" s="267">
+      <c r="P24" s="266">
         <f t="shared" si="4"/>
         <v>1.2272234429039353</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="262" t="s">
+      <c r="A25" s="261" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="53"/>
@@ -16918,15 +17069,15 @@
       <c r="N25" s="61">
         <v>1</v>
       </c>
-      <c r="O25" s="268">
+      <c r="O25" s="267">
         <v>1</v>
       </c>
-      <c r="P25" s="268">
+      <c r="P25" s="267">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="262" t="s">
+      <c r="A26" s="261" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="63"/>
@@ -16966,79 +17117,79 @@
         <f t="shared" si="6"/>
         <v>100093.64782519349</v>
       </c>
-      <c r="O26" s="269">
+      <c r="O26" s="268">
         <f t="shared" si="6"/>
         <v>101705.15555517911</v>
       </c>
-      <c r="P26" s="269">
+      <c r="P26" s="268">
         <f t="shared" ref="P26" si="7">P23*P25</f>
         <v>206685.21711923496</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A27" s="317" t="s">
+      <c r="A27" s="311" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="318">
+      <c r="B27" s="312">
         <f>SUM(C27:O27)</f>
         <v>96.5</v>
       </c>
-      <c r="C27" s="319">
+      <c r="C27" s="313">
         <f>'[31]М. остатка'!D31</f>
         <v>0</v>
       </c>
-      <c r="D27" s="319">
+      <c r="D27" s="313">
         <f>'[31]М. остатка'!E31</f>
         <v>0</v>
       </c>
-      <c r="E27" s="319">
+      <c r="E27" s="313">
         <f>'[31]М. остатка'!F31</f>
         <v>0</v>
       </c>
-      <c r="F27" s="319">
+      <c r="F27" s="313">
         <f>'[31]М. остатка'!G31</f>
         <v>0</v>
       </c>
-      <c r="G27" s="320">
+      <c r="G27" s="314">
         <v>17</v>
       </c>
-      <c r="H27" s="320">
+      <c r="H27" s="314">
         <v>15</v>
       </c>
-      <c r="I27" s="320">
+      <c r="I27" s="314">
         <v>14</v>
       </c>
-      <c r="J27" s="320">
+      <c r="J27" s="314">
         <v>13</v>
       </c>
-      <c r="K27" s="320">
+      <c r="K27" s="314">
         <f>'[30]График реализации'!D22*100</f>
         <v>12</v>
       </c>
-      <c r="L27" s="320">
+      <c r="L27" s="314">
         <f>'[30]График реализации'!D25*100</f>
         <v>9.4</v>
       </c>
-      <c r="M27" s="320">
+      <c r="M27" s="314">
         <f>'[30]График реализации'!D28*100</f>
         <v>8.1</v>
       </c>
-      <c r="N27" s="321">
+      <c r="N27" s="315">
         <v>4.25</v>
       </c>
-      <c r="O27" s="322">
+      <c r="O27" s="316">
         <v>3.75</v>
       </c>
-      <c r="P27" s="322">
+      <c r="P27" s="316">
         <v>3.5</v>
       </c>
-      <c r="Q27" s="427">
+      <c r="Q27" s="421">
         <f>SUM(G27:P27)</f>
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="270" t="s">
+      <c r="A28" s="269" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="68">
@@ -17091,7 +17242,7 @@
       <c r="Q28" s="72"/>
     </row>
     <row r="29" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A29" s="271" t="s">
+      <c r="A29" s="270" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="74">
@@ -17144,7 +17295,7 @@
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="270" t="s">
+      <c r="A30" s="269" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="68">
@@ -17193,7 +17344,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A31" s="271" t="s">
+      <c r="A31" s="270" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="74">
@@ -17243,7 +17394,7 @@
       </c>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="270" t="s">
+      <c r="A32" s="269" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="68">
@@ -17289,7 +17440,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A33" s="271" t="s">
+      <c r="A33" s="270" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="74">
@@ -17336,7 +17487,7 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="270" t="s">
+      <c r="A34" s="269" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="68">
@@ -17379,7 +17530,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A35" s="271" t="s">
+      <c r="A35" s="270" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="74">
@@ -17423,7 +17574,7 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="270" t="s">
+      <c r="A36" s="269" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="68">
@@ -17463,7 +17614,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A37" s="271" t="s">
+      <c r="A37" s="270" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="74">
@@ -17504,7 +17655,7 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="270" t="s">
+      <c r="A38" s="269" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="68">
@@ -17541,7 +17692,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A39" s="271" t="s">
+      <c r="A39" s="270" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="74">
@@ -17579,7 +17730,7 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="270" t="s">
+      <c r="A40" s="269" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="68">
@@ -17613,7 +17764,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A41" s="271" t="s">
+      <c r="A41" s="270" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="74">
@@ -17648,7 +17799,7 @@
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="270" t="s">
+      <c r="A42" s="269" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="68">
@@ -17678,7 +17829,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A43" s="271" t="s">
+      <c r="A43" s="270" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="74">
@@ -17710,7 +17861,7 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="270" t="s">
+      <c r="A44" s="269" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="68">
@@ -17727,8 +17878,8 @@
       <c r="K44" s="81"/>
       <c r="L44" s="81"/>
       <c r="M44" s="82"/>
-      <c r="N44" s="422"/>
-      <c r="O44" s="426">
+      <c r="N44" s="416"/>
+      <c r="O44" s="420">
         <v>100</v>
       </c>
       <c r="P44" s="70">
@@ -17737,26 +17888,26 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A45" s="413" t="s">
+      <c r="A45" s="407" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="409">
+      <c r="B45" s="403">
         <f>O45</f>
         <v>239736850.04577932</v>
       </c>
-      <c r="C45" s="410"/>
-      <c r="D45" s="410"/>
-      <c r="E45" s="410"/>
-      <c r="F45" s="411"/>
-      <c r="G45" s="411"/>
-      <c r="H45" s="411"/>
-      <c r="I45" s="411"/>
-      <c r="J45" s="411"/>
-      <c r="K45" s="411"/>
-      <c r="L45" s="411"/>
-      <c r="M45" s="412"/>
-      <c r="N45" s="423"/>
-      <c r="O45" s="426">
+      <c r="C45" s="404"/>
+      <c r="D45" s="404"/>
+      <c r="E45" s="404"/>
+      <c r="F45" s="405"/>
+      <c r="G45" s="405"/>
+      <c r="H45" s="405"/>
+      <c r="I45" s="405"/>
+      <c r="J45" s="405"/>
+      <c r="K45" s="405"/>
+      <c r="L45" s="405"/>
+      <c r="M45" s="406"/>
+      <c r="N45" s="417"/>
+      <c r="O45" s="420">
         <f>$B$5*(1-$O$48)*$O$26*$O$27%*N42%</f>
         <v>239736850.04577932</v>
       </c>
@@ -17766,57 +17917,57 @@
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="270" t="s">
+      <c r="A46" s="269" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="418">
+      <c r="B46" s="412">
         <v>100</v>
       </c>
-      <c r="C46" s="419"/>
-      <c r="D46" s="419"/>
-      <c r="E46" s="419"/>
-      <c r="F46" s="420"/>
-      <c r="G46" s="420"/>
-      <c r="H46" s="420"/>
-      <c r="I46" s="420"/>
-      <c r="J46" s="420"/>
-      <c r="K46" s="420"/>
-      <c r="L46" s="420"/>
+      <c r="C46" s="413"/>
+      <c r="D46" s="413"/>
+      <c r="E46" s="413"/>
+      <c r="F46" s="414"/>
+      <c r="G46" s="414"/>
+      <c r="H46" s="414"/>
+      <c r="I46" s="414"/>
+      <c r="J46" s="414"/>
+      <c r="K46" s="414"/>
+      <c r="L46" s="414"/>
       <c r="M46" s="12"/>
-      <c r="N46" s="424"/>
-      <c r="O46" s="426"/>
-      <c r="P46" s="421">
+      <c r="N46" s="418"/>
+      <c r="O46" s="420"/>
+      <c r="P46" s="415">
         <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="13.5" thickBot="1">
-      <c r="A47" s="413" t="s">
+      <c r="A47" s="407" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="414">
+      <c r="B47" s="408">
         <f>P47</f>
         <v>454713678.21883059</v>
       </c>
-      <c r="C47" s="415"/>
-      <c r="D47" s="415"/>
-      <c r="E47" s="415"/>
-      <c r="F47" s="416"/>
-      <c r="G47" s="416"/>
-      <c r="H47" s="416"/>
-      <c r="I47" s="416"/>
-      <c r="J47" s="416"/>
-      <c r="K47" s="416"/>
-      <c r="L47" s="416"/>
-      <c r="M47" s="417"/>
-      <c r="N47" s="417"/>
-      <c r="O47" s="425"/>
-      <c r="P47" s="272">
+      <c r="C47" s="409"/>
+      <c r="D47" s="409"/>
+      <c r="E47" s="409"/>
+      <c r="F47" s="410"/>
+      <c r="G47" s="410"/>
+      <c r="H47" s="410"/>
+      <c r="I47" s="410"/>
+      <c r="J47" s="410"/>
+      <c r="K47" s="410"/>
+      <c r="L47" s="410"/>
+      <c r="M47" s="411"/>
+      <c r="N47" s="411"/>
+      <c r="O47" s="419"/>
+      <c r="P47" s="271">
         <f>$B$5*(1-$M$48)*$P$26*$P$27%*P46%</f>
         <v>454713678.21883059</v>
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="273" t="s">
+      <c r="A48" s="272" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="85">
@@ -17834,13 +17985,13 @@
       <c r="L48" s="87"/>
       <c r="M48" s="88"/>
       <c r="N48" s="89"/>
-      <c r="O48" s="274"/>
-      <c r="P48" s="274">
+      <c r="O48" s="273"/>
+      <c r="P48" s="273">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:23">
-      <c r="A49" s="275" t="s">
+      <c r="A49" s="274" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="92">
@@ -17859,79 +18010,79 @@
       <c r="L49" s="94"/>
       <c r="M49" s="95"/>
       <c r="N49" s="54"/>
-      <c r="O49" s="276"/>
-      <c r="P49" s="276">
+      <c r="O49" s="275"/>
+      <c r="P49" s="275">
         <f>B5*P26*P48</f>
         <v>12991819377.680872</v>
       </c>
     </row>
     <row r="50" spans="1:23">
-      <c r="A50" s="323" t="s">
+      <c r="A50" s="317" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="324">
-        <f>SUM(C50:O50)</f>
-        <v>5426379162.5683441</v>
-      </c>
-      <c r="C50" s="325">
+      <c r="B50" s="318">
+        <f>SUM(C50:P57)</f>
+        <v>5881145084.9286709</v>
+      </c>
+      <c r="C50" s="319">
         <f t="shared" ref="C50:H50" si="23">C29+C31+C33+C35+C37+C39+C49+C41</f>
         <v>0</v>
       </c>
-      <c r="D50" s="325">
+      <c r="D50" s="319">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="E50" s="325">
+      <c r="E50" s="319">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="F50" s="325">
+      <c r="F50" s="319">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G50" s="326">
+      <c r="G50" s="320">
         <f t="shared" si="23"/>
         <v>878137381.88673151</v>
       </c>
-      <c r="H50" s="326">
+      <c r="H50" s="320">
         <f t="shared" si="23"/>
         <v>796969000.11310542</v>
       </c>
-      <c r="I50" s="326">
+      <c r="I50" s="320">
         <f>I33</f>
         <v>765094062.13527811</v>
       </c>
-      <c r="J50" s="326">
+      <c r="J50" s="320">
         <f>J35</f>
         <v>730746550.60559154</v>
       </c>
-      <c r="K50" s="326">
+      <c r="K50" s="320">
         <f>K37</f>
         <v>693811179.91469562</v>
       </c>
-      <c r="L50" s="326">
+      <c r="L50" s="320">
         <f>L39</f>
         <v>559016371.81133568</v>
       </c>
-      <c r="M50" s="326">
+      <c r="M50" s="320">
         <f>M41</f>
         <v>495471089.16849571</v>
       </c>
-      <c r="N50" s="326">
+      <c r="N50" s="320">
         <f>N43</f>
         <v>267396676.88733056</v>
       </c>
-      <c r="O50" s="327">
+      <c r="O50" s="321">
         <f>O45</f>
         <v>239736850.04577932</v>
       </c>
-      <c r="P50" s="327">
+      <c r="P50" s="321">
         <f>P47</f>
         <v>454713678.21883059</v>
       </c>
     </row>
     <row r="51" spans="1:23" hidden="1">
-      <c r="A51" s="277" t="s">
+      <c r="A51" s="276" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="99">
@@ -17950,11 +18101,11 @@
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
       <c r="N51" s="38"/>
-      <c r="O51" s="261"/>
-      <c r="P51" s="261"/>
+      <c r="O51" s="260"/>
+      <c r="P51" s="260"/>
     </row>
     <row r="52" spans="1:23" hidden="1">
-      <c r="A52" s="277" t="s">
+      <c r="A52" s="276" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="100"/>
@@ -17991,11 +18142,11 @@
         <v>4005.6370028484776</v>
       </c>
       <c r="N52" s="38"/>
-      <c r="O52" s="261"/>
-      <c r="P52" s="261"/>
+      <c r="O52" s="260"/>
+      <c r="P52" s="260"/>
     </row>
     <row r="53" spans="1:23" ht="25.5" hidden="1">
-      <c r="A53" s="260" t="s">
+      <c r="A53" s="259" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="56">
@@ -18035,17 +18186,17 @@
         <v>1.2272234429039353</v>
       </c>
       <c r="N53" s="38"/>
-      <c r="O53" s="261"/>
-      <c r="P53" s="261"/>
-      <c r="T53" s="488" t="s">
+      <c r="O53" s="260"/>
+      <c r="P53" s="260"/>
+      <c r="T53" s="480" t="s">
         <v>53</v>
       </c>
-      <c r="U53" s="493"/>
-      <c r="V53" s="493"/>
-      <c r="W53" s="493"/>
+      <c r="U53" s="481"/>
+      <c r="V53" s="481"/>
+      <c r="W53" s="481"/>
     </row>
     <row r="54" spans="1:23" hidden="1">
-      <c r="A54" s="277" t="s">
+      <c r="A54" s="276" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="102"/>
@@ -18082,15 +18233,15 @@
         <v>3957.0748526040643</v>
       </c>
       <c r="N54" s="104"/>
-      <c r="O54" s="278"/>
-      <c r="P54" s="278"/>
-      <c r="T54" s="488"/>
-      <c r="U54" s="493"/>
-      <c r="V54" s="493"/>
-      <c r="W54" s="493"/>
+      <c r="O54" s="277"/>
+      <c r="P54" s="277"/>
+      <c r="T54" s="480"/>
+      <c r="U54" s="481"/>
+      <c r="V54" s="481"/>
+      <c r="W54" s="481"/>
     </row>
     <row r="55" spans="1:23" hidden="1">
-      <c r="A55" s="279" t="s">
+      <c r="A55" s="278" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="107">
@@ -18115,15 +18266,15 @@
       <c r="L55" s="108"/>
       <c r="M55" s="108"/>
       <c r="N55" s="54"/>
-      <c r="O55" s="266"/>
-      <c r="P55" s="266"/>
-      <c r="T55" s="488"/>
-      <c r="U55" s="493"/>
-      <c r="V55" s="493"/>
-      <c r="W55" s="493"/>
+      <c r="O55" s="265"/>
+      <c r="P55" s="265"/>
+      <c r="T55" s="480"/>
+      <c r="U55" s="481"/>
+      <c r="V55" s="481"/>
+      <c r="W55" s="481"/>
     </row>
     <row r="56" spans="1:23" hidden="1">
-      <c r="A56" s="280" t="s">
+      <c r="A56" s="279" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="63">
@@ -18148,14 +18299,14 @@
       <c r="L56" s="63"/>
       <c r="M56" s="63"/>
       <c r="N56" s="64"/>
-      <c r="O56" s="269"/>
-      <c r="P56" s="269"/>
+      <c r="O56" s="268"/>
+      <c r="P56" s="268"/>
       <c r="T56" s="112" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:23" hidden="1">
-      <c r="A57" s="281" t="s">
+      <c r="A57" s="280" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="97">
@@ -18201,11 +18352,11 @@
         <v>0</v>
       </c>
       <c r="N57" s="115"/>
-      <c r="O57" s="282"/>
-      <c r="P57" s="282"/>
+      <c r="O57" s="281"/>
+      <c r="P57" s="281"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="277" t="s">
+      <c r="A58" s="276" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="219">
@@ -18223,12 +18374,12 @@
       <c r="L58" s="38"/>
       <c r="M58" s="38"/>
       <c r="N58" s="38"/>
-      <c r="O58" s="261"/>
-      <c r="P58" s="261"/>
+      <c r="O58" s="260"/>
+      <c r="P58" s="260"/>
       <c r="T58" s="117"/>
     </row>
     <row r="59" spans="1:23" hidden="1">
-      <c r="A59" s="277" t="s">
+      <c r="A59" s="276" t="s">
         <v>51</v>
       </c>
       <c r="B59" s="100"/>
@@ -18244,11 +18395,11 @@
       <c r="L59" s="54"/>
       <c r="M59" s="101"/>
       <c r="N59" s="38"/>
-      <c r="O59" s="261"/>
-      <c r="P59" s="261"/>
+      <c r="O59" s="260"/>
+      <c r="P59" s="260"/>
     </row>
     <row r="60" spans="1:23">
-      <c r="A60" s="260" t="s">
+      <c r="A60" s="259" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="56">
@@ -18291,17 +18442,17 @@
         <f t="shared" si="28"/>
         <v>1.2113475472006958</v>
       </c>
-      <c r="O60" s="283">
+      <c r="O60" s="282">
         <f t="shared" si="28"/>
         <v>1.2308502427106269</v>
       </c>
-      <c r="P60" s="283">
+      <c r="P60" s="282">
         <f t="shared" ref="P60" si="29">P25*P22</f>
         <v>2.5013338632365358</v>
       </c>
     </row>
     <row r="61" spans="1:23">
-      <c r="A61" s="277" t="s">
+      <c r="A61" s="276" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="102"/>
@@ -18347,135 +18498,135 @@
         <f t="shared" si="30"/>
         <v>1574751.8113609045</v>
       </c>
-      <c r="O61" s="284">
+      <c r="O61" s="283">
         <f t="shared" si="30"/>
         <v>1600105.3155238151</v>
       </c>
-      <c r="P61" s="284">
+      <c r="P61" s="283">
         <f t="shared" ref="P61" si="31">$B$58*P60</f>
         <v>3251734.0222074967</v>
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="329" t="s">
+      <c r="A62" s="323" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="330">
+      <c r="B62" s="324">
         <f>SUM(C62:P62)</f>
         <v>100</v>
       </c>
-      <c r="C62" s="331"/>
-      <c r="D62" s="331"/>
-      <c r="E62" s="332">
+      <c r="C62" s="325"/>
+      <c r="D62" s="325"/>
+      <c r="E62" s="326">
         <f>ROUND(E55%*$B$7,0)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="332">
+      <c r="F62" s="326">
         <f>ROUND(F55%*$B$7,0)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="333">
+      <c r="G62" s="327">
         <f>G27</f>
         <v>17</v>
       </c>
-      <c r="H62" s="333">
+      <c r="H62" s="327">
         <f t="shared" ref="H62:O62" si="32">H27</f>
         <v>15</v>
       </c>
-      <c r="I62" s="333">
+      <c r="I62" s="327">
         <f t="shared" si="32"/>
         <v>14</v>
       </c>
-      <c r="J62" s="333">
+      <c r="J62" s="327">
         <f t="shared" si="32"/>
         <v>13</v>
       </c>
-      <c r="K62" s="333">
+      <c r="K62" s="327">
         <f t="shared" si="32"/>
         <v>12</v>
       </c>
-      <c r="L62" s="333">
+      <c r="L62" s="327">
         <f t="shared" si="32"/>
         <v>9.4</v>
       </c>
-      <c r="M62" s="333">
+      <c r="M62" s="327">
         <f t="shared" si="32"/>
         <v>8.1</v>
       </c>
-      <c r="N62" s="333">
+      <c r="N62" s="327">
         <f t="shared" si="32"/>
         <v>4.25</v>
       </c>
-      <c r="O62" s="334">
+      <c r="O62" s="328">
         <f t="shared" si="32"/>
         <v>3.75</v>
       </c>
-      <c r="P62" s="334">
+      <c r="P62" s="328">
         <f t="shared" ref="P62" si="33">P27</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="63" spans="1:23" s="125" customFormat="1">
-      <c r="A63" s="285" t="s">
+      <c r="A63" s="284" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="335">
+      <c r="B63" s="329">
         <f>SUM(C63:M63)</f>
         <v>55405906.3583657</v>
       </c>
-      <c r="C63" s="335"/>
-      <c r="D63" s="335"/>
-      <c r="E63" s="325">
+      <c r="C63" s="329"/>
+      <c r="D63" s="329"/>
+      <c r="E63" s="319">
         <f>E62*E61</f>
         <v>0</v>
       </c>
-      <c r="F63" s="325">
+      <c r="F63" s="319">
         <f>F62*F61</f>
         <v>0</v>
       </c>
-      <c r="G63" s="335">
+      <c r="G63" s="329">
         <f>$B$7*G61*G62%</f>
         <v>9890540.3702846132</v>
       </c>
-      <c r="H63" s="335">
+      <c r="H63" s="329">
         <f t="shared" ref="H63:O63" si="34">$B$7*H61*H62%</f>
         <v>8976333.5806842651</v>
       </c>
-      <c r="I63" s="335">
+      <c r="I63" s="329">
         <f t="shared" si="34"/>
         <v>8617323.2852875907</v>
       </c>
-      <c r="J63" s="335">
+      <c r="J63" s="329">
         <f t="shared" si="34"/>
         <v>8230464.1714285705</v>
       </c>
-      <c r="K63" s="335">
+      <c r="K63" s="329">
         <f t="shared" si="34"/>
         <v>7814457.7669126373</v>
       </c>
-      <c r="L63" s="335">
+      <c r="L63" s="329">
         <f t="shared" si="34"/>
         <v>6296251.7108322084</v>
       </c>
-      <c r="M63" s="335">
+      <c r="M63" s="329">
         <f t="shared" si="34"/>
         <v>5580535.4729358209</v>
       </c>
-      <c r="N63" s="335">
+      <c r="N63" s="329">
         <f t="shared" si="34"/>
         <v>3011712.8392277304</v>
       </c>
-      <c r="O63" s="336">
+      <c r="O63" s="330">
         <f t="shared" si="34"/>
         <v>2700177.719946438</v>
       </c>
-      <c r="P63" s="336">
+      <c r="P63" s="330">
         <f t="shared" ref="P63" si="35">$B$7*P61*P62%</f>
         <v>5121481.0849768072</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="56.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A64" s="281" t="s">
+      <c r="A64" s="280" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="97">
@@ -18500,11 +18651,11 @@
       <c r="L64" s="97"/>
       <c r="M64" s="97"/>
       <c r="N64" s="54"/>
-      <c r="O64" s="266"/>
-      <c r="P64" s="266"/>
-    </row>
-    <row r="65" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="286" t="s">
+      <c r="O64" s="265"/>
+      <c r="P64" s="265"/>
+    </row>
+    <row r="65" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A65" s="285" t="s">
         <v>93</v>
       </c>
       <c r="B65" s="215">
@@ -18559,17 +18710,17 @@
         <f t="shared" si="36"/>
         <v>270408389.72655827</v>
       </c>
-      <c r="O65" s="287">
+      <c r="O65" s="286">
         <f t="shared" si="36"/>
         <v>242437027.76572576</v>
       </c>
-      <c r="P65" s="287">
+      <c r="P65" s="286">
         <f t="shared" ref="P65" si="37">SUM(P50+P63)</f>
         <v>459835159.30380738</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="7" customFormat="1">
-      <c r="A66" s="288" t="s">
+    <row r="66" spans="1:21" s="7" customFormat="1">
+      <c r="A66" s="287" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="246">
@@ -18577,7 +18728,7 @@
         <v>991222019.79828191</v>
       </c>
       <c r="C66" s="127">
-        <f t="shared" ref="C66:O66" si="38">C65/(1+$B$88)*$B$88</f>
+        <f t="shared" ref="C66:O66" si="38">C65/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="D66" s="127">
@@ -18624,17 +18775,17 @@
         <f t="shared" si="38"/>
         <v>45068064.954426378</v>
       </c>
-      <c r="O66" s="289">
+      <c r="O66" s="288">
         <f t="shared" si="38"/>
         <v>40406171.294287629</v>
       </c>
-      <c r="P66" s="289">
-        <f t="shared" ref="P66" si="39">P65/(1+$B$88)*$B$88</f>
+      <c r="P66" s="288">
+        <f t="shared" ref="P66" si="39">P65/(1+$B$99)*$B$99</f>
         <v>76639193.217301235</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A67" s="286" t="s">
+    <row r="67" spans="1:21" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A67" s="285" t="s">
         <v>89</v>
       </c>
       <c r="B67" s="215"/>
@@ -18653,17 +18804,17 @@
         <f>SUM(G65:N65)</f>
         <v>5245059931.7201576</v>
       </c>
-      <c r="O67" s="287">
+      <c r="O67" s="286">
         <f>O65</f>
         <v>242437027.76572576</v>
       </c>
-      <c r="P67" s="287">
+      <c r="P67" s="286">
         <f>P65</f>
         <v>459835159.30380738</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="7" customFormat="1" ht="15.75">
-      <c r="A68" s="258" t="s">
+    <row r="68" spans="1:21" s="7" customFormat="1" ht="15.75">
+      <c r="A68" s="257" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="204" t="s">
@@ -18717,21 +18868,21 @@
         <f t="shared" si="40"/>
         <v>12 квартал</v>
       </c>
-      <c r="O68" s="259" t="str">
+      <c r="O68" s="258" t="str">
         <f t="shared" si="40"/>
         <v>13 квартал</v>
       </c>
-      <c r="P68" s="259" t="str">
+      <c r="P68" s="258" t="str">
         <f t="shared" ref="P68" si="41">P18</f>
         <v>14 квартал</v>
       </c>
       <c r="Q68" s="132" t="s">
         <v>164</v>
       </c>
-      <c r="R68" s="428"/>
-    </row>
-    <row r="69" spans="1:18" s="7" customFormat="1">
-      <c r="A69" s="290" t="s">
+      <c r="R68" s="156"/>
+    </row>
+    <row r="69" spans="1:21" s="7" customFormat="1">
+      <c r="A69" s="289" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="134">
@@ -18774,18 +18925,27 @@
         <f>B69=100%</f>
         <v>1</v>
       </c>
-      <c r="R69" s="428"/>
-    </row>
-    <row r="70" spans="1:18" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A70" s="291" t="s">
+      <c r="R69" s="156"/>
+      <c r="S69" s="514" t="s">
+        <v>175</v>
+      </c>
+      <c r="T69" s="515">
+        <v>1</v>
+      </c>
+      <c r="U69" s="516">
+        <f>B78</f>
+        <v>4469907757.9799995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" s="7" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A70" s="290" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="93">
         <f>SUM(C70:P70)</f>
-        <v>4357400896</v>
+        <v>4327400896</v>
       </c>
       <c r="C70" s="247">
-        <f>'[32]График Стр-ва'!$C$26:$E$26*1000</f>
         <v>19049448</v>
       </c>
       <c r="D70" s="247">
@@ -18793,8 +18953,8 @@
         <v>19049448</v>
       </c>
       <c r="E70" s="247">
-        <f>195095000</f>
-        <v>195095000</v>
+        <f>165095000</f>
+        <v>165095000</v>
       </c>
       <c r="F70" s="247">
         <v>400038000</v>
@@ -18820,63 +18980,75 @@
       <c r="M70" s="247">
         <v>190495000</v>
       </c>
-      <c r="N70" s="92">
+      <c r="N70" s="93">
         <v>295266000</v>
       </c>
-      <c r="O70" s="292">
-        <v>0</v>
-      </c>
-      <c r="P70" s="292">
+      <c r="O70" s="288">
+        <v>0</v>
+      </c>
+      <c r="P70" s="288">
         <v>0</v>
       </c>
       <c r="Q70" s="143" t="b">
         <f>B70='[30]строит (ИТОГО)'!B8</f>
         <v>0</v>
       </c>
-      <c r="R70" s="428"/>
-    </row>
-    <row r="71" spans="1:18" s="7" customFormat="1">
-      <c r="A71" s="293" t="s">
+      <c r="R70" s="422" t="s">
+        <v>178</v>
+      </c>
+      <c r="S70" s="514" t="s">
+        <v>176</v>
+      </c>
+      <c r="T70" s="515">
+        <v>0.15</v>
+      </c>
+      <c r="U70" s="516">
+        <f>U69*T70</f>
+        <v>670486163.69699991</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" s="7" customFormat="1">
+      <c r="A71" s="292" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="93">
         <f>SUM(C71:P76)</f>
-        <v>726233482.66666675</v>
+        <v>721233482.66666675</v>
       </c>
       <c r="C71" s="92">
-        <f>C70/(1+$B$88)*$B$88</f>
+        <f>C70/(1+$B$99)*$B$99</f>
         <v>3174908</v>
       </c>
       <c r="D71" s="92">
-        <f t="shared" ref="D71:P71" si="42">D70/(1+$B$88)*$B$88</f>
+        <f t="shared" ref="D71:P71" si="42">D70/(1+$B$99)*$B$99</f>
         <v>3174908</v>
       </c>
       <c r="E71" s="92">
         <f t="shared" si="42"/>
-        <v>32515833.33333334</v>
+        <v>27515833.33333334</v>
       </c>
       <c r="F71" s="92">
         <f t="shared" si="42"/>
         <v>66673000</v>
       </c>
       <c r="G71" s="92">
-        <f>G70/(1+$B$88)*$B$88</f>
+        <f>G70/(1+$B$99)*$B$99</f>
         <v>63498166.666666679</v>
       </c>
       <c r="H71" s="92">
-        <f>H70/(1+$B$88)*$B$88</f>
+        <f>H70/(1+$B$99)*$B$99</f>
         <v>95247333.333333343</v>
       </c>
       <c r="I71" s="92">
-        <f>I70/(1+$B$88)*$B$88</f>
+        <f>I70/(1+$B$99)*$B$99</f>
         <v>126996333.33333336</v>
       </c>
       <c r="J71" s="92">
-        <f>J70/(1+$B$88)*$B$88</f>
+        <f>J70/(1+$B$99)*$B$99</f>
         <v>95247333.333333343</v>
       </c>
       <c r="K71" s="92">
-        <f>K70/(1+$B$88)*$B$88</f>
+        <f>K70/(1+$B$99)*$B$99</f>
         <v>95247333.333333343</v>
       </c>
       <c r="L71" s="92">
@@ -18900,10 +19072,20 @@
         <v>0</v>
       </c>
       <c r="Q71" s="143"/>
-      <c r="R71" s="428"/>
-    </row>
-    <row r="72" spans="1:18" s="7" customFormat="1" hidden="1">
-      <c r="A72" s="294" t="s">
+      <c r="R71" s="156"/>
+      <c r="S71" s="514" t="s">
+        <v>177</v>
+      </c>
+      <c r="T71" s="515">
+        <v>0.85</v>
+      </c>
+      <c r="U71" s="516">
+        <f>U69*T71</f>
+        <v>3799421594.2829995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" s="7" customFormat="1" hidden="1">
+      <c r="A72" s="293" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="93">
@@ -18943,37 +19125,37 @@
         <v>0</v>
       </c>
       <c r="N72" s="93"/>
-      <c r="O72" s="289"/>
-      <c r="P72" s="289"/>
+      <c r="O72" s="288"/>
+      <c r="P72" s="288"/>
       <c r="Q72" s="143"/>
-      <c r="R72" s="428"/>
-    </row>
-    <row r="73" spans="1:18" s="7" customFormat="1" hidden="1">
-      <c r="A73" s="275" t="s">
+      <c r="R72" s="156"/>
+    </row>
+    <row r="73" spans="1:21" s="7" customFormat="1" hidden="1">
+      <c r="A73" s="274" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="93">
-        <f t="shared" ref="B69:B75" si="43">SUM(C73:M73)</f>
+        <f t="shared" ref="B73:B75" si="43">SUM(C73:M73)</f>
         <v>0</v>
       </c>
       <c r="C73" s="92">
-        <f>C72/(1+$B$88)*$B$88</f>
+        <f>C72/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="D73" s="92">
-        <f>D72/(1+$B$88)*$B$88</f>
+        <f>D72/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="E73" s="92">
-        <f>E72/(1+$B$88)*$B$88</f>
+        <f>E72/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="F73" s="92">
-        <f>F72/(1+$B$88)*$B$88</f>
+        <f>F72/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="G73" s="92">
-        <f>G72/(1+$B$88)*$B$88</f>
+        <f>G72/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="H73" s="92"/>
@@ -18981,21 +19163,21 @@
       <c r="J73" s="92"/>
       <c r="K73" s="92"/>
       <c r="L73" s="92">
-        <f>L72/(1+$B$88)*$B$88</f>
+        <f>L72/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="M73" s="92">
-        <f>M72/(1+$B$88)*$B$88</f>
+        <f>M72/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="N73" s="92"/>
-      <c r="O73" s="292"/>
-      <c r="P73" s="292"/>
+      <c r="O73" s="291"/>
+      <c r="P73" s="291"/>
       <c r="Q73" s="143"/>
-      <c r="R73" s="428"/>
-    </row>
-    <row r="74" spans="1:18" s="7" customFormat="1" hidden="1">
-      <c r="A74" s="294" t="s">
+      <c r="R73" s="156"/>
+    </row>
+    <row r="74" spans="1:21" s="7" customFormat="1" hidden="1">
+      <c r="A74" s="293" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="93">
@@ -19028,13 +19210,13 @@
         <v>0</v>
       </c>
       <c r="N74" s="93"/>
-      <c r="O74" s="289"/>
-      <c r="P74" s="289"/>
+      <c r="O74" s="288"/>
+      <c r="P74" s="288"/>
       <c r="Q74" s="143"/>
-      <c r="R74" s="428"/>
-    </row>
-    <row r="75" spans="1:18" s="7" customFormat="1" hidden="1">
-      <c r="A75" s="275" t="s">
+      <c r="R74" s="156"/>
+    </row>
+    <row r="75" spans="1:21" s="7" customFormat="1" hidden="1">
+      <c r="A75" s="274" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="93">
@@ -19042,23 +19224,23 @@
         <v>0</v>
       </c>
       <c r="C75" s="92">
-        <f>C74/(1+$B$88)*$B$88</f>
+        <f>C74/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="D75" s="92">
-        <f>D74/(1+$B$88)*$B$88</f>
+        <f>D74/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="E75" s="92">
-        <f>E74/(1+$B$88)*$B$88</f>
+        <f>E74/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="F75" s="92">
-        <f>F74/(1+$B$88)*$B$88</f>
+        <f>F74/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="G75" s="92">
-        <f>G74/(1+$B$88)*$B$88</f>
+        <f>G74/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="H75" s="92"/>
@@ -19066,21 +19248,21 @@
       <c r="J75" s="92"/>
       <c r="K75" s="92"/>
       <c r="L75" s="92">
-        <f>L74/(1+$B$88)*$B$88</f>
+        <f>L74/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="M75" s="92">
-        <f>M74/(1+$B$88)*$B$88</f>
+        <f>M74/(1+$B$99)*$B$99</f>
         <v>0</v>
       </c>
       <c r="N75" s="92"/>
-      <c r="O75" s="292"/>
-      <c r="P75" s="292"/>
+      <c r="O75" s="291"/>
+      <c r="P75" s="291"/>
       <c r="Q75" s="143"/>
-      <c r="R75" s="428"/>
-    </row>
-    <row r="76" spans="1:18" s="7" customFormat="1" ht="29.25" hidden="1" customHeight="1">
-      <c r="A76" s="295" t="s">
+      <c r="R75" s="156"/>
+    </row>
+    <row r="76" spans="1:21" s="7" customFormat="1" ht="29.25" hidden="1" customHeight="1">
+      <c r="A76" s="294" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="147">
@@ -19088,7 +19270,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="147">
-        <f t="shared" ref="C76:L76" si="44">$B$107*C65</f>
+        <f t="shared" ref="C76:L76" si="44">$B$118*C65</f>
         <v>0</v>
       </c>
       <c r="D76" s="147">
@@ -19128,17 +19310,17 @@
         <v>0</v>
       </c>
       <c r="M76" s="93">
-        <f>$B$107*(M65-M49)</f>
+        <f>$B$118*(M65-M49)</f>
         <v>0</v>
       </c>
       <c r="N76" s="92"/>
-      <c r="O76" s="292"/>
-      <c r="P76" s="292"/>
+      <c r="O76" s="291"/>
+      <c r="P76" s="291"/>
       <c r="Q76" s="143"/>
-      <c r="R76" s="428"/>
-    </row>
-    <row r="77" spans="1:18" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A77" s="294" t="s">
+      <c r="R76" s="156"/>
+    </row>
+    <row r="77" spans="1:21" s="7" customFormat="1" ht="12" customHeight="1">
+      <c r="A77" s="293" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="148">
@@ -19193,36 +19375,36 @@
         <f t="shared" si="45"/>
         <v>6349816</v>
       </c>
-      <c r="O77" s="296">
+      <c r="O77" s="295">
         <f>C71</f>
         <v>3174908</v>
       </c>
-      <c r="P77" s="296">
+      <c r="P77" s="295">
         <f>O77</f>
         <v>3174908</v>
       </c>
       <c r="Q77" s="143"/>
-      <c r="R77" s="428"/>
-    </row>
-    <row r="78" spans="1:18" s="7" customFormat="1" ht="24" customHeight="1">
-      <c r="A78" s="297" t="s">
+      <c r="R77" s="156"/>
+    </row>
+    <row r="78" spans="1:21" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A78" s="296" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="215">
         <f>SUM(C78:P78)</f>
-        <v>4204641757.98</v>
+        <v>4469907757.9799995</v>
       </c>
       <c r="C78" s="215">
         <f>C70+C77</f>
         <v>85358517.979999989</v>
       </c>
       <c r="D78" s="215">
-        <f t="shared" ref="D78:M78" si="46">D70+D72+D74+D76+D77</f>
+        <f t="shared" ref="D78:P78" si="46">D70+D72+D74+D76+D77</f>
         <v>25399264</v>
       </c>
       <c r="E78" s="215">
         <f t="shared" si="46"/>
-        <v>201444816</v>
+        <v>171444816</v>
       </c>
       <c r="F78" s="215">
         <f t="shared" si="46"/>
@@ -19257,1201 +19439,1642 @@
         <v>196844816</v>
       </c>
       <c r="N78" s="215">
-        <f>N77</f>
-        <v>6349816</v>
-      </c>
-      <c r="O78" s="287">
-        <f>O77</f>
+        <f t="shared" si="46"/>
+        <v>301615816</v>
+      </c>
+      <c r="O78" s="215">
+        <f t="shared" si="46"/>
         <v>3174908</v>
       </c>
-      <c r="P78" s="287">
-        <f>P77</f>
+      <c r="P78" s="215">
+        <f t="shared" si="46"/>
         <v>3174908</v>
       </c>
       <c r="Q78" s="143"/>
-      <c r="R78" s="428"/>
-    </row>
-    <row r="79" spans="1:18" s="7" customFormat="1">
-      <c r="A79" s="298" t="s">
+      <c r="R78" s="156"/>
+    </row>
+    <row r="79" spans="1:21" s="7" customFormat="1">
+      <c r="A79" s="297" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="253">
+      <c r="B79" s="252">
         <f>SUM(C79:P79)</f>
-        <v>726233482.66666675</v>
-      </c>
-      <c r="C79" s="253">
+        <v>721233482.66666675</v>
+      </c>
+      <c r="C79" s="252">
         <f>C71+C73+C75</f>
         <v>3174908</v>
       </c>
-      <c r="D79" s="253">
+      <c r="D79" s="252">
         <f t="shared" ref="D79:P79" si="47">D71+D73+D75</f>
         <v>3174908</v>
       </c>
-      <c r="E79" s="253">
+      <c r="E79" s="252">
         <f t="shared" si="47"/>
-        <v>32515833.33333334</v>
-      </c>
-      <c r="F79" s="253">
+        <v>27515833.33333334</v>
+      </c>
+      <c r="F79" s="252">
         <f t="shared" si="47"/>
         <v>66673000</v>
       </c>
-      <c r="G79" s="253">
+      <c r="G79" s="252">
         <f>G71+G73+G75</f>
         <v>63498166.666666679</v>
       </c>
-      <c r="H79" s="253">
+      <c r="H79" s="252">
         <f t="shared" si="47"/>
         <v>95247333.333333343</v>
       </c>
-      <c r="I79" s="253">
+      <c r="I79" s="252">
         <f t="shared" si="47"/>
         <v>126996333.33333336</v>
       </c>
-      <c r="J79" s="253">
+      <c r="J79" s="252">
         <f t="shared" si="47"/>
         <v>95247333.333333343</v>
       </c>
-      <c r="K79" s="253">
+      <c r="K79" s="252">
         <f t="shared" si="47"/>
         <v>95247333.333333343</v>
       </c>
-      <c r="L79" s="253">
+      <c r="L79" s="252">
         <f t="shared" si="47"/>
         <v>63498166.666666679</v>
       </c>
-      <c r="M79" s="253">
+      <c r="M79" s="252">
         <f t="shared" si="47"/>
         <v>31749166.666666672</v>
       </c>
-      <c r="N79" s="253">
+      <c r="N79" s="252">
         <f t="shared" si="47"/>
         <v>49211000</v>
       </c>
-      <c r="O79" s="253">
+      <c r="O79" s="252">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="P79" s="253">
+      <c r="P79" s="252">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="Q79" s="254"/>
-      <c r="R79" s="428"/>
-    </row>
-    <row r="80" spans="1:18" s="156" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A80" s="299"/>
-      <c r="B80" s="300"/>
-      <c r="C80" s="300"/>
-      <c r="D80" s="300"/>
-      <c r="E80" s="300"/>
-      <c r="F80" s="301"/>
-      <c r="G80" s="301"/>
-      <c r="H80" s="301"/>
-      <c r="I80" s="301"/>
-      <c r="J80" s="301"/>
-      <c r="K80" s="301"/>
-      <c r="L80" s="301"/>
-      <c r="M80" s="302"/>
-      <c r="N80" s="302"/>
-      <c r="O80" s="303"/>
-      <c r="P80" s="303"/>
-      <c r="Q80" s="138"/>
-    </row>
-    <row r="81" spans="1:17" s="156" customFormat="1">
-      <c r="A81" s="304"/>
-      <c r="B81" s="305"/>
-      <c r="C81" s="305"/>
-      <c r="D81" s="305"/>
-      <c r="E81" s="305"/>
-      <c r="F81" s="306"/>
-      <c r="G81" s="306"/>
-      <c r="H81" s="306"/>
-      <c r="I81" s="306"/>
-      <c r="J81" s="306"/>
-      <c r="K81" s="306"/>
-      <c r="L81" s="306"/>
-    </row>
-    <row r="82" spans="1:17" s="156" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A82" s="249"/>
-      <c r="B82" s="250"/>
-      <c r="C82" s="250"/>
-      <c r="D82" s="250"/>
-      <c r="E82" s="250"/>
-      <c r="F82" s="251"/>
-      <c r="G82" s="251"/>
-      <c r="H82" s="251"/>
-      <c r="I82" s="251"/>
-      <c r="J82" s="251"/>
-      <c r="K82" s="251"/>
-      <c r="L82" s="251"/>
-      <c r="M82" s="252"/>
-      <c r="N82" s="252"/>
-      <c r="O82" s="252"/>
-      <c r="P82" s="252"/>
-      <c r="Q82" s="252"/>
-    </row>
-    <row r="83" spans="1:17" s="6" customFormat="1">
-      <c r="A83" s="309" t="s">
+      <c r="Q79" s="253"/>
+      <c r="R79" s="156"/>
+    </row>
+    <row r="80" spans="1:21" s="7" customFormat="1">
+      <c r="A80" s="523"/>
+      <c r="B80" s="524"/>
+      <c r="C80" s="524"/>
+      <c r="D80" s="524"/>
+      <c r="E80" s="524"/>
+      <c r="F80" s="524"/>
+      <c r="G80" s="524"/>
+      <c r="H80" s="524"/>
+      <c r="I80" s="524"/>
+      <c r="J80" s="524"/>
+      <c r="K80" s="524"/>
+      <c r="L80" s="524"/>
+      <c r="M80" s="524"/>
+      <c r="N80" s="524"/>
+      <c r="O80" s="524"/>
+      <c r="P80" s="524"/>
+      <c r="Q80" s="253"/>
+      <c r="R80" s="156"/>
+    </row>
+    <row r="81" spans="1:18" s="156" customFormat="1">
+      <c r="A81" s="509" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="521">
+        <f>U71</f>
+        <v>3799421594.2829995</v>
+      </c>
+      <c r="C81" s="517"/>
+      <c r="D81" s="517"/>
+      <c r="E81" s="517"/>
+      <c r="F81" s="518"/>
+      <c r="G81" s="518"/>
+      <c r="H81" s="518"/>
+      <c r="I81" s="518"/>
+      <c r="J81" s="518"/>
+      <c r="K81" s="518"/>
+      <c r="L81" s="518"/>
+      <c r="M81" s="519"/>
+      <c r="N81" s="519"/>
+      <c r="O81" s="520"/>
+      <c r="P81" s="520"/>
+      <c r="Q81" s="138"/>
+    </row>
+    <row r="82" spans="1:18" s="156" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="510" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="522">
+        <v>0.115</v>
+      </c>
+      <c r="C82" s="511"/>
+      <c r="D82" s="511"/>
+      <c r="E82" s="511"/>
+      <c r="F82" s="512"/>
+      <c r="G82" s="512"/>
+      <c r="H82" s="512"/>
+      <c r="I82" s="512"/>
+      <c r="J82" s="512"/>
+      <c r="K82" s="512"/>
+      <c r="L82" s="512"/>
+      <c r="M82" s="513"/>
+      <c r="N82" s="513"/>
+      <c r="O82" s="513"/>
+      <c r="P82" s="513"/>
+    </row>
+    <row r="83" spans="1:18" s="156" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="510" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="511">
+        <f>SUM(C83:P83)</f>
+        <v>13</v>
+      </c>
+      <c r="C83" s="511"/>
+      <c r="D83" s="511">
+        <v>1</v>
+      </c>
+      <c r="E83" s="511">
+        <v>1</v>
+      </c>
+      <c r="F83" s="512">
+        <v>1</v>
+      </c>
+      <c r="G83" s="511">
+        <v>1</v>
+      </c>
+      <c r="H83" s="511">
+        <v>1</v>
+      </c>
+      <c r="I83" s="511">
+        <v>1</v>
+      </c>
+      <c r="J83" s="512">
+        <v>1</v>
+      </c>
+      <c r="K83" s="511">
+        <v>1</v>
+      </c>
+      <c r="L83" s="511">
+        <v>1</v>
+      </c>
+      <c r="M83" s="511">
+        <v>1</v>
+      </c>
+      <c r="N83" s="512">
+        <v>1</v>
+      </c>
+      <c r="O83" s="513">
+        <v>1</v>
+      </c>
+      <c r="P83" s="513">
+        <v>1</v>
+      </c>
+      <c r="R83" s="422"/>
+    </row>
+    <row r="84" spans="1:18" s="156" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="510" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="511"/>
+      <c r="C84" s="511">
+        <f>B81</f>
+        <v>3799421594.2829995</v>
+      </c>
+      <c r="D84" s="511"/>
+      <c r="E84" s="511"/>
+      <c r="F84" s="512"/>
+      <c r="G84" s="512"/>
+      <c r="H84" s="512"/>
+      <c r="I84" s="512"/>
+      <c r="J84" s="512"/>
+      <c r="K84" s="512"/>
+      <c r="L84" s="512"/>
+      <c r="M84" s="513"/>
+      <c r="N84" s="513"/>
+      <c r="O84" s="513"/>
+      <c r="P84" s="513"/>
+      <c r="R84" s="422"/>
+    </row>
+    <row r="85" spans="1:18" s="156" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="510" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="511"/>
+      <c r="C85" s="511">
+        <f>C84</f>
+        <v>3799421594.2829995</v>
+      </c>
+      <c r="D85" s="511">
+        <f>C89</f>
+        <v>4236355077.6255445</v>
+      </c>
+      <c r="E85" s="511">
+        <f t="shared" ref="E85:P85" si="48">D89</f>
+        <v>4080053479.483077</v>
+      </c>
+      <c r="F85" s="511">
+        <f t="shared" si="48"/>
+        <v>3905777197.5542259</v>
+      </c>
+      <c r="G85" s="511">
+        <f t="shared" si="48"/>
+        <v>3711459143.2035565</v>
+      </c>
+      <c r="H85" s="511">
+        <f t="shared" si="48"/>
+        <v>3494794512.6025605</v>
+      </c>
+      <c r="I85" s="511">
+        <f t="shared" si="48"/>
+        <v>3253213449.4824495</v>
+      </c>
+      <c r="J85" s="511">
+        <f t="shared" si="48"/>
+        <v>2983850564.1035261</v>
+      </c>
+      <c r="K85" s="511">
+        <f t="shared" si="48"/>
+        <v>2683510946.9060264</v>
+      </c>
+      <c r="L85" s="511">
+        <f t="shared" si="48"/>
+        <v>2348632273.730814</v>
+      </c>
+      <c r="M85" s="511">
+        <f t="shared" si="48"/>
+        <v>1975242553.1404524</v>
+      </c>
+      <c r="N85" s="511">
+        <f t="shared" si="48"/>
+        <v>1558913014.6821992</v>
+      </c>
+      <c r="O85" s="511">
+        <f t="shared" si="48"/>
+        <v>1094705579.3012471</v>
+      </c>
+      <c r="P85" s="511">
+        <f t="shared" si="48"/>
+        <v>577114288.85148537</v>
+      </c>
+      <c r="R85" s="422"/>
+    </row>
+    <row r="86" spans="1:18" s="156" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="510" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="511"/>
+      <c r="C86" s="511">
+        <f>C85*B82</f>
+        <v>436933483.34254497</v>
+      </c>
+      <c r="D86" s="511"/>
+      <c r="E86" s="511"/>
+      <c r="F86" s="512"/>
+      <c r="G86" s="512"/>
+      <c r="H86" s="512"/>
+      <c r="I86" s="512"/>
+      <c r="J86" s="512"/>
+      <c r="K86" s="512"/>
+      <c r="L86" s="512"/>
+      <c r="M86" s="513"/>
+      <c r="N86" s="513"/>
+      <c r="O86" s="513"/>
+      <c r="P86" s="513"/>
+      <c r="R86" s="422"/>
+    </row>
+    <row r="87" spans="1:18" s="156" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="510" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="511"/>
+      <c r="C87" s="511"/>
+      <c r="D87" s="511">
+        <f>D85*$B$82</f>
+        <v>487180833.92693764</v>
+      </c>
+      <c r="E87" s="511">
+        <f t="shared" ref="E87:P87" si="49">E85*$B$82</f>
+        <v>469206150.14055389</v>
+      </c>
+      <c r="F87" s="511">
+        <f t="shared" si="49"/>
+        <v>449164377.71873599</v>
+      </c>
+      <c r="G87" s="511">
+        <f t="shared" si="49"/>
+        <v>426817801.468409</v>
+      </c>
+      <c r="H87" s="511">
+        <f t="shared" si="49"/>
+        <v>401901368.94929445</v>
+      </c>
+      <c r="I87" s="511">
+        <f t="shared" si="49"/>
+        <v>374119546.69048172</v>
+      </c>
+      <c r="J87" s="511">
+        <f t="shared" si="49"/>
+        <v>343142814.87190551</v>
+      </c>
+      <c r="K87" s="511">
+        <f t="shared" si="49"/>
+        <v>308603758.89419305</v>
+      </c>
+      <c r="L87" s="511">
+        <f t="shared" si="49"/>
+        <v>270092711.4790436</v>
+      </c>
+      <c r="M87" s="511">
+        <f t="shared" si="49"/>
+        <v>227152893.61115202</v>
+      </c>
+      <c r="N87" s="511">
+        <f t="shared" si="49"/>
+        <v>179274996.68845293</v>
+      </c>
+      <c r="O87" s="511">
+        <f t="shared" si="49"/>
+        <v>125891141.61964342</v>
+      </c>
+      <c r="P87" s="511">
+        <f t="shared" si="49"/>
+        <v>66368143.217920817</v>
+      </c>
+      <c r="R87" s="422"/>
+    </row>
+    <row r="88" spans="1:18" s="156" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="510" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="511"/>
+      <c r="C88" s="511"/>
+      <c r="D88" s="511">
+        <f>$D$90-D87</f>
+        <v>156301598.14246756</v>
+      </c>
+      <c r="E88" s="511">
+        <f t="shared" ref="E88:P88" si="50">$D$90-E87</f>
+        <v>174276281.92885131</v>
+      </c>
+      <c r="F88" s="511">
+        <f t="shared" si="50"/>
+        <v>194318054.35066921</v>
+      </c>
+      <c r="G88" s="511">
+        <f t="shared" si="50"/>
+        <v>216664630.6009962</v>
+      </c>
+      <c r="H88" s="511">
+        <f t="shared" si="50"/>
+        <v>241581063.12011075</v>
+      </c>
+      <c r="I88" s="511">
+        <f t="shared" si="50"/>
+        <v>269362885.37892348</v>
+      </c>
+      <c r="J88" s="511">
+        <f t="shared" si="50"/>
+        <v>300339617.19749969</v>
+      </c>
+      <c r="K88" s="511">
+        <f t="shared" si="50"/>
+        <v>334878673.17521214</v>
+      </c>
+      <c r="L88" s="511">
+        <f t="shared" si="50"/>
+        <v>373389720.5903616</v>
+      </c>
+      <c r="M88" s="511">
+        <f t="shared" si="50"/>
+        <v>416329538.45825315</v>
+      </c>
+      <c r="N88" s="511">
+        <f t="shared" si="50"/>
+        <v>464207435.38095224</v>
+      </c>
+      <c r="O88" s="511">
+        <f t="shared" si="50"/>
+        <v>517591290.44976175</v>
+      </c>
+      <c r="P88" s="511">
+        <f t="shared" si="50"/>
+        <v>577114288.85148442</v>
+      </c>
+      <c r="R88" s="422"/>
+    </row>
+    <row r="89" spans="1:18" s="156" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="510" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="511"/>
+      <c r="C89" s="511">
+        <f>C85+C86</f>
+        <v>4236355077.6255445</v>
+      </c>
+      <c r="D89" s="511">
+        <f>C89-D88</f>
+        <v>4080053479.483077</v>
+      </c>
+      <c r="E89" s="511">
+        <f t="shared" ref="E89:P89" si="51">D89-E88</f>
+        <v>3905777197.5542259</v>
+      </c>
+      <c r="F89" s="511">
+        <f t="shared" si="51"/>
+        <v>3711459143.2035565</v>
+      </c>
+      <c r="G89" s="511">
+        <f t="shared" si="51"/>
+        <v>3494794512.6025605</v>
+      </c>
+      <c r="H89" s="511">
+        <f t="shared" si="51"/>
+        <v>3253213449.4824495</v>
+      </c>
+      <c r="I89" s="511">
+        <f t="shared" si="51"/>
+        <v>2983850564.1035261</v>
+      </c>
+      <c r="J89" s="511">
+        <f t="shared" si="51"/>
+        <v>2683510946.9060264</v>
+      </c>
+      <c r="K89" s="511">
+        <f t="shared" si="51"/>
+        <v>2348632273.730814</v>
+      </c>
+      <c r="L89" s="511">
+        <f t="shared" si="51"/>
+        <v>1975242553.1404524</v>
+      </c>
+      <c r="M89" s="511">
+        <f t="shared" si="51"/>
+        <v>1558913014.6821992</v>
+      </c>
+      <c r="N89" s="511">
+        <f t="shared" si="51"/>
+        <v>1094705579.3012471</v>
+      </c>
+      <c r="O89" s="511">
+        <f t="shared" si="51"/>
+        <v>577114288.85148537</v>
+      </c>
+      <c r="P89" s="511">
+        <f t="shared" si="51"/>
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="R89" s="422"/>
+    </row>
+    <row r="90" spans="1:18" s="156" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="510" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="511"/>
+      <c r="C90" s="511"/>
+      <c r="D90" s="511">
+        <f>-PMT(B82,B83,C89,,0)</f>
+        <v>643482432.0694052</v>
+      </c>
+      <c r="E90" s="511"/>
+      <c r="F90" s="512"/>
+      <c r="G90" s="512"/>
+      <c r="H90" s="512"/>
+      <c r="I90" s="512"/>
+      <c r="J90" s="512"/>
+      <c r="K90" s="512"/>
+      <c r="L90" s="512"/>
+      <c r="M90" s="513"/>
+      <c r="N90" s="513"/>
+      <c r="O90" s="513"/>
+      <c r="P90" s="513"/>
+      <c r="R90" s="422"/>
+    </row>
+    <row r="91" spans="1:18" s="156" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="525"/>
+      <c r="B91" s="526"/>
+      <c r="C91" s="526"/>
+      <c r="D91" s="526"/>
+      <c r="E91" s="526"/>
+      <c r="F91" s="527"/>
+      <c r="G91" s="527"/>
+      <c r="H91" s="527"/>
+      <c r="I91" s="527"/>
+      <c r="J91" s="527"/>
+      <c r="K91" s="527"/>
+      <c r="L91" s="527"/>
+      <c r="M91" s="528"/>
+      <c r="N91" s="528"/>
+      <c r="O91" s="528"/>
+      <c r="P91" s="529">
+        <f>P89</f>
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="R91" s="422"/>
+    </row>
+    <row r="92" spans="1:18" s="156" customFormat="1">
+      <c r="A92" s="298"/>
+      <c r="B92" s="299"/>
+      <c r="C92" s="299"/>
+      <c r="D92" s="299"/>
+      <c r="E92" s="299"/>
+      <c r="F92" s="300"/>
+      <c r="G92" s="300"/>
+      <c r="H92" s="300"/>
+      <c r="I92" s="300"/>
+      <c r="J92" s="300"/>
+      <c r="K92" s="300"/>
+      <c r="L92" s="300"/>
+    </row>
+    <row r="93" spans="1:18" s="156" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A93" s="530" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" s="531">
+        <f>B65-B78</f>
+        <v>1477424360.8096914</v>
+      </c>
+      <c r="C93" s="249"/>
+      <c r="D93" s="249"/>
+      <c r="E93" s="249"/>
+      <c r="F93" s="250"/>
+      <c r="G93" s="250"/>
+      <c r="H93" s="250"/>
+      <c r="I93" s="250"/>
+      <c r="J93" s="250"/>
+      <c r="K93" s="250"/>
+      <c r="L93" s="250"/>
+      <c r="M93" s="251"/>
+      <c r="N93" s="251"/>
+      <c r="O93" s="251"/>
+      <c r="P93" s="251"/>
+      <c r="Q93" s="251"/>
+    </row>
+    <row r="94" spans="1:18" s="6" customFormat="1">
+      <c r="A94" s="303" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="310">
-        <f>SUM(C83:P83)</f>
-        <v>1742690360.809691</v>
-      </c>
-      <c r="C83" s="310">
+      <c r="B94" s="304">
+        <f>SUM(C94:P94)</f>
+        <v>1477424360.8096907</v>
+      </c>
+      <c r="C94" s="304">
         <f>C67-C78</f>
         <v>-85358517.979999989</v>
       </c>
-      <c r="D83" s="310">
-        <f t="shared" ref="D83:O83" si="48">D67-D78</f>
+      <c r="D94" s="304">
+        <f t="shared" ref="D94:O94" si="52">D67-D78</f>
         <v>-25399264</v>
       </c>
-      <c r="E83" s="310">
-        <f t="shared" si="48"/>
-        <v>-201444816</v>
-      </c>
-      <c r="F83" s="310">
-        <f t="shared" si="48"/>
+      <c r="E94" s="304">
+        <f t="shared" si="52"/>
+        <v>-171444816</v>
+      </c>
+      <c r="F94" s="304">
+        <f t="shared" si="52"/>
         <v>-406387816</v>
       </c>
-      <c r="G83" s="310">
-        <f t="shared" si="48"/>
+      <c r="G94" s="304">
+        <f t="shared" si="52"/>
         <v>-387338816</v>
       </c>
-      <c r="H83" s="310">
-        <f t="shared" si="48"/>
+      <c r="H94" s="304">
+        <f t="shared" si="52"/>
         <v>-577833816</v>
       </c>
-      <c r="I83" s="310">
-        <f t="shared" si="48"/>
+      <c r="I94" s="304">
+        <f t="shared" si="52"/>
         <v>-768327816</v>
       </c>
-      <c r="J83" s="310">
-        <f t="shared" si="48"/>
+      <c r="J94" s="304">
+        <f t="shared" si="52"/>
         <v>-577833816</v>
       </c>
-      <c r="K83" s="310">
-        <f t="shared" si="48"/>
+      <c r="K94" s="304">
+        <f t="shared" si="52"/>
         <v>-577833816</v>
       </c>
-      <c r="L83" s="310">
-        <f t="shared" si="48"/>
+      <c r="L94" s="304">
+        <f t="shared" si="52"/>
         <v>-387338816</v>
       </c>
-      <c r="M83" s="310">
-        <f t="shared" si="48"/>
+      <c r="M94" s="304">
+        <f t="shared" si="52"/>
         <v>-196844816</v>
       </c>
-      <c r="N83" s="310">
-        <f t="shared" si="48"/>
-        <v>5238710115.7201576</v>
-      </c>
-      <c r="O83" s="310">
-        <f t="shared" si="48"/>
+      <c r="N94" s="304">
+        <f t="shared" si="52"/>
+        <v>4943444115.7201576</v>
+      </c>
+      <c r="O94" s="304">
+        <f t="shared" si="52"/>
         <v>239262119.76572576</v>
       </c>
-      <c r="P83" s="310">
-        <f t="shared" ref="P83" si="49">P67-P78</f>
+      <c r="P94" s="304">
+        <f t="shared" ref="P94" si="53">P67-P78</f>
         <v>456660251.30380738</v>
       </c>
-      <c r="Q83" s="248"/>
-    </row>
-    <row r="84" spans="1:17" s="341" customFormat="1" ht="25.5">
-      <c r="A84" s="337" t="s">
+      <c r="Q94" s="248"/>
+    </row>
+    <row r="95" spans="1:18" s="335" customFormat="1" ht="25.5">
+      <c r="A95" s="331" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="338"/>
-      <c r="C84" s="338">
-        <f>C83-C85</f>
+      <c r="B95" s="332"/>
+      <c r="C95" s="332">
+        <f>C94-C96</f>
         <v>-85358517.979999989</v>
       </c>
-      <c r="D84" s="338">
-        <f t="shared" ref="D84:O84" si="50">D83-D85</f>
+      <c r="D95" s="332">
+        <f t="shared" ref="D95:O95" si="54">D94-D96</f>
         <v>-25399264</v>
       </c>
-      <c r="E84" s="338">
-        <f t="shared" si="50"/>
-        <v>-201444816</v>
-      </c>
-      <c r="F84" s="338">
-        <f t="shared" si="50"/>
+      <c r="E95" s="332">
+        <f t="shared" si="54"/>
+        <v>-171444816</v>
+      </c>
+      <c r="F95" s="332">
+        <f t="shared" si="54"/>
         <v>-406387816</v>
       </c>
-      <c r="G84" s="338">
-        <f t="shared" si="50"/>
+      <c r="G95" s="332">
+        <f t="shared" si="54"/>
         <v>-387338816</v>
       </c>
-      <c r="H84" s="338">
-        <f t="shared" si="50"/>
+      <c r="H95" s="332">
+        <f t="shared" si="54"/>
         <v>-577833816</v>
       </c>
-      <c r="I84" s="338">
-        <f t="shared" si="50"/>
+      <c r="I95" s="332">
+        <f t="shared" si="54"/>
         <v>-768327816</v>
       </c>
-      <c r="J84" s="338">
-        <f t="shared" si="50"/>
+      <c r="J95" s="332">
+        <f t="shared" si="54"/>
         <v>-577833816</v>
       </c>
-      <c r="K84" s="338">
-        <f t="shared" si="50"/>
+      <c r="K95" s="332">
+        <f t="shared" si="54"/>
         <v>-577833816</v>
       </c>
-      <c r="L84" s="338">
-        <f t="shared" si="50"/>
+      <c r="L95" s="332">
+        <f t="shared" si="54"/>
         <v>-387338816</v>
       </c>
-      <c r="M84" s="338">
-        <f t="shared" si="50"/>
+      <c r="M95" s="332">
+        <f t="shared" si="54"/>
         <v>-196844816</v>
       </c>
-      <c r="N84" s="338">
-        <f t="shared" si="50"/>
-        <v>-6349816</v>
-      </c>
-      <c r="O84" s="339">
-        <f t="shared" si="50"/>
+      <c r="N95" s="332">
+        <f t="shared" si="54"/>
+        <v>-301615816</v>
+      </c>
+      <c r="O95" s="333">
+        <f t="shared" si="54"/>
         <v>-3174908</v>
       </c>
-      <c r="P84" s="339">
-        <f t="shared" ref="P84" si="51">P83-P85</f>
+      <c r="P95" s="333">
+        <f t="shared" ref="P95" si="55">P94-P96</f>
         <v>-3174908</v>
       </c>
-      <c r="Q84" s="340"/>
-    </row>
-    <row r="85" spans="1:17" s="341" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A85" s="337" t="s">
+      <c r="Q95" s="334"/>
+    </row>
+    <row r="96" spans="1:18" s="335" customFormat="1" ht="26.25" thickBot="1">
+      <c r="A96" s="331" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="342"/>
-      <c r="C85" s="343"/>
-      <c r="D85" s="343"/>
-      <c r="E85" s="343"/>
-      <c r="F85" s="343"/>
-      <c r="G85" s="342"/>
-      <c r="H85" s="342"/>
-      <c r="I85" s="342"/>
-      <c r="J85" s="342"/>
-      <c r="K85" s="342"/>
-      <c r="L85" s="342"/>
-      <c r="M85" s="342"/>
-      <c r="N85" s="342">
+      <c r="B96" s="336"/>
+      <c r="C96" s="337"/>
+      <c r="D96" s="337"/>
+      <c r="E96" s="337"/>
+      <c r="F96" s="337"/>
+      <c r="G96" s="336"/>
+      <c r="H96" s="336"/>
+      <c r="I96" s="336"/>
+      <c r="J96" s="336"/>
+      <c r="K96" s="336"/>
+      <c r="L96" s="336"/>
+      <c r="M96" s="336"/>
+      <c r="N96" s="336">
         <f>SUM(G65:N65)</f>
         <v>5245059931.7201576</v>
       </c>
-      <c r="O85" s="344">
+      <c r="O96" s="338">
         <f>O65</f>
         <v>242437027.76572576</v>
       </c>
-      <c r="P85" s="344">
+      <c r="P96" s="338">
         <f>P65</f>
         <v>459835159.30380738</v>
       </c>
-      <c r="Q85" s="514">
-        <f>SUM(N85:P85)</f>
+      <c r="Q96" s="423">
+        <f>SUM(N96:P96)</f>
         <v>5947332118.789691</v>
       </c>
     </row>
-    <row r="86" spans="1:17" s="6" customFormat="1">
-      <c r="A86" s="309" t="s">
+    <row r="97" spans="1:17" s="6" customFormat="1">
+      <c r="A97" s="303" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="310"/>
-      <c r="C86" s="310"/>
-      <c r="D86" s="310"/>
-      <c r="E86" s="310"/>
-      <c r="F86" s="310"/>
-      <c r="G86" s="310"/>
-      <c r="H86" s="310"/>
-      <c r="I86" s="310"/>
-      <c r="J86" s="310"/>
-      <c r="K86" s="310"/>
-      <c r="L86" s="310"/>
-      <c r="M86" s="310"/>
-      <c r="N86" s="310"/>
-      <c r="O86" s="310"/>
-      <c r="P86" s="310"/>
-      <c r="Q86" s="248"/>
-    </row>
-    <row r="87" spans="1:17" s="328" customFormat="1">
-      <c r="A87" s="351" t="s">
+      <c r="B97" s="304"/>
+      <c r="C97" s="304"/>
+      <c r="D97" s="304"/>
+      <c r="E97" s="304"/>
+      <c r="F97" s="304"/>
+      <c r="G97" s="304"/>
+      <c r="H97" s="304"/>
+      <c r="I97" s="304"/>
+      <c r="J97" s="304"/>
+      <c r="K97" s="304"/>
+      <c r="L97" s="304"/>
+      <c r="M97" s="304"/>
+      <c r="N97" s="304"/>
+      <c r="O97" s="304"/>
+      <c r="P97" s="304"/>
+      <c r="Q97" s="248"/>
+    </row>
+    <row r="98" spans="1:17" s="322" customFormat="1">
+      <c r="A98" s="345" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="347">
-        <f>SUM(C87:P87)</f>
-        <v>1885197222.7896905</v>
-      </c>
-      <c r="C87" s="347">
-        <f t="shared" ref="C87:O87" si="52">C65-C78+C77</f>
+      <c r="B98" s="341">
+        <f>SUM(C98:P98)</f>
+        <v>1619931222.7896905</v>
+      </c>
+      <c r="C98" s="341">
+        <f t="shared" ref="C98:O98" si="56">C65-C78+C77</f>
         <v>-19049447.999999993</v>
       </c>
-      <c r="D87" s="347">
-        <f t="shared" si="52"/>
+      <c r="D98" s="341">
+        <f t="shared" si="56"/>
         <v>-19049448</v>
       </c>
-      <c r="E87" s="347">
-        <f t="shared" si="52"/>
-        <v>-195095000</v>
-      </c>
-      <c r="F87" s="347">
-        <f t="shared" si="52"/>
+      <c r="E98" s="341">
+        <f t="shared" si="56"/>
+        <v>-165095000</v>
+      </c>
+      <c r="F98" s="341">
+        <f t="shared" si="56"/>
         <v>-400038000</v>
       </c>
-      <c r="G87" s="347">
-        <f t="shared" si="52"/>
+      <c r="G98" s="341">
+        <f t="shared" si="56"/>
         <v>507038922.25701606</v>
       </c>
-      <c r="H87" s="347">
-        <f t="shared" si="52"/>
+      <c r="H98" s="341">
+        <f t="shared" si="56"/>
         <v>234461333.69378972</v>
       </c>
-      <c r="I87" s="347">
-        <f t="shared" si="52"/>
+      <c r="I98" s="341">
+        <f t="shared" si="56"/>
         <v>11733385.420565724</v>
       </c>
-      <c r="J87" s="347">
-        <f t="shared" si="52"/>
+      <c r="J98" s="341">
+        <f t="shared" si="56"/>
         <v>167493014.7770201</v>
       </c>
-      <c r="K87" s="347">
-        <f t="shared" si="52"/>
+      <c r="K98" s="341">
+        <f t="shared" si="56"/>
         <v>130141637.6816082</v>
       </c>
-      <c r="L87" s="347">
-        <f t="shared" si="52"/>
+      <c r="L98" s="341">
+        <f t="shared" si="56"/>
         <v>184323623.52216792</v>
       </c>
-      <c r="M87" s="347">
-        <f t="shared" si="52"/>
+      <c r="M98" s="341">
+        <f t="shared" si="56"/>
         <v>310556624.64143151</v>
       </c>
-      <c r="N87" s="347">
-        <f t="shared" si="52"/>
-        <v>270408389.72655827</v>
-      </c>
-      <c r="O87" s="348">
-        <f t="shared" si="52"/>
+      <c r="N98" s="341">
+        <f t="shared" si="56"/>
+        <v>-24857610.273441732</v>
+      </c>
+      <c r="O98" s="342">
+        <f t="shared" si="56"/>
         <v>242437027.76572576</v>
       </c>
-      <c r="P87" s="348">
-        <f t="shared" ref="P87" si="53">P65-P78+P77</f>
+      <c r="P98" s="342">
+        <f t="shared" ref="P98" si="57">P65-P78+P77</f>
         <v>459835159.30380738</v>
       </c>
-      <c r="Q87" s="349"/>
-    </row>
-    <row r="88" spans="1:17" s="328" customFormat="1">
-      <c r="A88" s="351" t="s">
+      <c r="Q98" s="343"/>
+    </row>
+    <row r="99" spans="1:17" s="322" customFormat="1">
+      <c r="A99" s="345" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="352">
+      <c r="B99" s="346">
         <v>0.2</v>
       </c>
-      <c r="C88" s="347">
-        <v>0</v>
-      </c>
-      <c r="D88" s="347">
-        <v>0</v>
-      </c>
-      <c r="E88" s="347">
-        <v>0</v>
-      </c>
-      <c r="F88" s="347">
-        <v>0</v>
-      </c>
-      <c r="G88" s="347">
-        <v>0</v>
-      </c>
-      <c r="H88" s="347">
-        <v>0</v>
-      </c>
-      <c r="I88" s="347">
-        <v>0</v>
-      </c>
-      <c r="J88" s="347">
-        <v>0</v>
-      </c>
-      <c r="K88" s="347">
-        <v>0</v>
-      </c>
-      <c r="L88" s="347">
-        <v>0</v>
-      </c>
-      <c r="M88" s="347">
-        <v>0</v>
-      </c>
-      <c r="N88" s="347">
-        <v>0</v>
-      </c>
-      <c r="O88" s="348">
-        <v>0</v>
-      </c>
-      <c r="P88" s="348">
+      <c r="C99" s="341">
+        <v>0</v>
+      </c>
+      <c r="D99" s="341">
+        <v>0</v>
+      </c>
+      <c r="E99" s="341">
+        <v>0</v>
+      </c>
+      <c r="F99" s="341">
+        <v>0</v>
+      </c>
+      <c r="G99" s="341">
+        <v>0</v>
+      </c>
+      <c r="H99" s="341">
+        <v>0</v>
+      </c>
+      <c r="I99" s="341">
+        <v>0</v>
+      </c>
+      <c r="J99" s="341">
+        <v>0</v>
+      </c>
+      <c r="K99" s="341">
+        <v>0</v>
+      </c>
+      <c r="L99" s="341">
+        <v>0</v>
+      </c>
+      <c r="M99" s="341">
+        <v>0</v>
+      </c>
+      <c r="N99" s="341">
+        <v>0</v>
+      </c>
+      <c r="O99" s="342">
+        <v>0</v>
+      </c>
+      <c r="P99" s="342">
         <v>1</v>
       </c>
-      <c r="Q88" s="349">
-        <f>B87/(1+B88)*B88</f>
-        <v>314199537.1316151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" s="328" customFormat="1">
-      <c r="A89" s="351" t="s">
+      <c r="Q99" s="343">
+        <f>B98/(1+B99)*B99</f>
+        <v>269988537.1316151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="322" customFormat="1">
+      <c r="A100" s="345" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="347">
-        <f>SUM(C89:Q89)</f>
-        <v>1428490822.6780758</v>
-      </c>
-      <c r="C89" s="347">
-        <f>C83-C88</f>
+      <c r="B100" s="341">
+        <f>SUM(C100:Q100)</f>
+        <v>1207435822.6780756</v>
+      </c>
+      <c r="C100" s="341">
+        <f>C94-C99</f>
         <v>-85358517.979999989</v>
       </c>
-      <c r="D89" s="347">
-        <f t="shared" ref="D89:M89" si="54">D83-D88</f>
+      <c r="D100" s="341">
+        <f t="shared" ref="D100:M100" si="58">D94-D99</f>
         <v>-25399264</v>
       </c>
-      <c r="E89" s="347">
-        <f t="shared" si="54"/>
-        <v>-201444816</v>
-      </c>
-      <c r="F89" s="347">
-        <f t="shared" si="54"/>
+      <c r="E100" s="341">
+        <f t="shared" si="58"/>
+        <v>-171444816</v>
+      </c>
+      <c r="F100" s="341">
+        <f t="shared" si="58"/>
         <v>-406387816</v>
       </c>
-      <c r="G89" s="347">
-        <f t="shared" si="54"/>
+      <c r="G100" s="341">
+        <f t="shared" si="58"/>
         <v>-387338816</v>
       </c>
-      <c r="H89" s="347">
-        <f>H83-H88</f>
+      <c r="H100" s="341">
+        <f>H94-H99</f>
         <v>-577833816</v>
       </c>
-      <c r="I89" s="347">
-        <f>I83-I88</f>
+      <c r="I100" s="341">
+        <f>I94-I99</f>
         <v>-768327816</v>
       </c>
-      <c r="J89" s="347">
-        <f>J83-J88</f>
+      <c r="J100" s="341">
+        <f>J94-J99</f>
         <v>-577833816</v>
       </c>
-      <c r="K89" s="347">
-        <f>K83-K88</f>
+      <c r="K100" s="341">
+        <f>K94-K99</f>
         <v>-577833816</v>
       </c>
-      <c r="L89" s="347">
-        <f t="shared" si="54"/>
+      <c r="L100" s="341">
+        <f t="shared" si="58"/>
         <v>-387338816</v>
       </c>
-      <c r="M89" s="347">
-        <f t="shared" si="54"/>
+      <c r="M100" s="341">
+        <f t="shared" si="58"/>
         <v>-196844816</v>
       </c>
-      <c r="N89" s="347">
-        <f>N83-N88</f>
-        <v>5238710115.7201576</v>
-      </c>
-      <c r="O89" s="348">
-        <f>O83-O88</f>
+      <c r="N100" s="341">
+        <f>N94-N99</f>
+        <v>4943444115.7201576</v>
+      </c>
+      <c r="O100" s="342">
+        <f>O94-O99</f>
         <v>239262119.76572576</v>
       </c>
-      <c r="P89" s="348">
-        <f>P83-P88</f>
+      <c r="P100" s="342">
+        <f>P94-P99</f>
         <v>456660250.30380738</v>
       </c>
-      <c r="Q89" s="353">
-        <f>Q83-Q88</f>
-        <v>-314199537.1316151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" s="350" customFormat="1">
-      <c r="A90" s="354" t="s">
+      <c r="Q100" s="347">
+        <f>Q94-Q99</f>
+        <v>-269988537.1316151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="344" customFormat="1">
+      <c r="A101" s="348" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="315">
+      <c r="B101" s="309">
         <v>0.2</v>
       </c>
-      <c r="C90" s="315">
-        <v>0</v>
-      </c>
-      <c r="D90" s="315">
-        <v>0</v>
-      </c>
-      <c r="E90" s="315">
-        <v>0</v>
-      </c>
-      <c r="F90" s="315">
-        <v>0</v>
-      </c>
-      <c r="G90" s="315">
-        <v>0</v>
-      </c>
-      <c r="H90" s="315">
-        <v>0</v>
-      </c>
-      <c r="I90" s="315">
-        <v>0</v>
-      </c>
-      <c r="J90" s="315">
-        <v>0</v>
-      </c>
-      <c r="K90" s="315">
-        <v>0</v>
-      </c>
-      <c r="L90" s="315">
-        <v>0</v>
-      </c>
-      <c r="M90" s="315">
-        <v>0</v>
-      </c>
-      <c r="N90" s="315">
-        <v>0</v>
-      </c>
-      <c r="O90" s="316">
-        <v>0</v>
-      </c>
-      <c r="P90" s="316">
+      <c r="C101" s="309">
+        <v>0</v>
+      </c>
+      <c r="D101" s="309">
+        <v>0</v>
+      </c>
+      <c r="E101" s="309">
+        <v>0</v>
+      </c>
+      <c r="F101" s="309">
+        <v>0</v>
+      </c>
+      <c r="G101" s="309">
+        <v>0</v>
+      </c>
+      <c r="H101" s="309">
+        <v>0</v>
+      </c>
+      <c r="I101" s="309">
+        <v>0</v>
+      </c>
+      <c r="J101" s="309">
+        <v>0</v>
+      </c>
+      <c r="K101" s="309">
+        <v>0</v>
+      </c>
+      <c r="L101" s="309">
+        <v>0</v>
+      </c>
+      <c r="M101" s="309">
+        <v>0</v>
+      </c>
+      <c r="N101" s="309">
+        <v>0</v>
+      </c>
+      <c r="O101" s="310">
+        <v>0</v>
+      </c>
+      <c r="P101" s="310">
         <v>1</v>
       </c>
-      <c r="Q90" s="349">
-        <f>-B89*B90</f>
-        <v>-285698164.53561515</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" s="350" customFormat="1">
-      <c r="A91" s="355" t="s">
+      <c r="Q101" s="343">
+        <f>-B100*B101</f>
+        <v>-241487164.53561512</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" s="344" customFormat="1">
+      <c r="A102" s="349" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="356"/>
-      <c r="C91" s="356">
-        <f>C88+C90</f>
-        <v>0</v>
-      </c>
-      <c r="D91" s="356">
-        <f t="shared" ref="D91:O91" si="55">D88+D90</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="356">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="356">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="356">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="356">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="356">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="356">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="K91" s="356">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="L91" s="356">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="M91" s="356">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="N91" s="356">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="O91" s="356">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="P91" s="356">
-        <f t="shared" ref="P91" si="56">P88+P90</f>
+      <c r="B102" s="350"/>
+      <c r="C102" s="350">
+        <f>C99+C101</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="350">
+        <f t="shared" ref="D102:O102" si="59">D99+D101</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="350">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="350">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="350">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="350">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="350">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="350">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="350">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="350">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="350">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="350">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="350">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="350">
+        <f t="shared" ref="P102" si="60">P99+P101</f>
         <v>2</v>
       </c>
-      <c r="Q91" s="356">
-        <f>Q89+Q90</f>
-        <v>-599897701.66723025</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" s="328" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A92" s="345"/>
-      <c r="B92" s="346"/>
-      <c r="C92" s="347"/>
-      <c r="D92" s="347"/>
-      <c r="E92" s="347"/>
-      <c r="F92" s="347"/>
-      <c r="G92" s="347"/>
-      <c r="H92" s="347"/>
-      <c r="I92" s="347"/>
-      <c r="J92" s="347"/>
-      <c r="K92" s="347"/>
-      <c r="L92" s="347"/>
-      <c r="M92" s="347"/>
-      <c r="N92" s="347"/>
-      <c r="O92" s="348"/>
-      <c r="P92" s="348"/>
-      <c r="Q92" s="349"/>
-    </row>
-    <row r="93" spans="1:17" s="6" customFormat="1">
-      <c r="A93" s="309" t="s">
+      <c r="Q102" s="350">
+        <f>Q100+Q101</f>
+        <v>-511475701.66723025</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" s="322" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A103" s="339"/>
+      <c r="B103" s="340"/>
+      <c r="C103" s="341"/>
+      <c r="D103" s="341"/>
+      <c r="E103" s="341"/>
+      <c r="F103" s="341"/>
+      <c r="G103" s="341"/>
+      <c r="H103" s="341"/>
+      <c r="I103" s="341"/>
+      <c r="J103" s="341"/>
+      <c r="K103" s="341"/>
+      <c r="L103" s="341"/>
+      <c r="M103" s="341"/>
+      <c r="N103" s="341"/>
+      <c r="O103" s="342"/>
+      <c r="P103" s="342"/>
+      <c r="Q103" s="343"/>
+    </row>
+    <row r="104" spans="1:17" s="6" customFormat="1">
+      <c r="A104" s="303" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="310"/>
-      <c r="C93" s="310"/>
-      <c r="D93" s="310"/>
-      <c r="E93" s="310"/>
-      <c r="F93" s="310"/>
-      <c r="G93" s="310"/>
-      <c r="H93" s="310"/>
-      <c r="I93" s="310"/>
-      <c r="J93" s="310"/>
-      <c r="K93" s="310"/>
-      <c r="L93" s="310"/>
-      <c r="M93" s="310"/>
-      <c r="N93" s="310"/>
-      <c r="O93" s="310"/>
-      <c r="P93" s="310"/>
-      <c r="Q93" s="248"/>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="262" t="s">
+      <c r="B104" s="304"/>
+      <c r="C104" s="304"/>
+      <c r="D104" s="304"/>
+      <c r="E104" s="304"/>
+      <c r="F104" s="304"/>
+      <c r="G104" s="304"/>
+      <c r="H104" s="304"/>
+      <c r="I104" s="304"/>
+      <c r="J104" s="304"/>
+      <c r="K104" s="304"/>
+      <c r="L104" s="304"/>
+      <c r="M104" s="304"/>
+      <c r="N104" s="304"/>
+      <c r="O104" s="304"/>
+      <c r="P104" s="304"/>
+      <c r="Q104" s="248"/>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="261" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="163">
+      <c r="B105" s="163">
         <v>19</v>
       </c>
-      <c r="C94" s="164">
-        <f>(POWER((1+$B$94/100),1/4)-1)*100</f>
+      <c r="C105" s="164">
+        <f>(POWER((1+$B$105/100),1/4)-1)*100</f>
         <v>4.4447802172789874</v>
       </c>
-      <c r="D94" s="164">
-        <f t="shared" ref="D94:M94" si="57">(POWER((1+$B$94/100),1/4)-1)*100</f>
+      <c r="D105" s="164">
+        <f t="shared" ref="D105:M105" si="61">(POWER((1+$B$105/100),1/4)-1)*100</f>
         <v>4.4447802172789874</v>
       </c>
-      <c r="E94" s="164">
-        <f t="shared" si="57"/>
+      <c r="E105" s="164">
+        <f t="shared" si="61"/>
         <v>4.4447802172789874</v>
       </c>
-      <c r="F94" s="164">
-        <f t="shared" si="57"/>
+      <c r="F105" s="164">
+        <f t="shared" si="61"/>
         <v>4.4447802172789874</v>
       </c>
-      <c r="G94" s="164">
-        <f t="shared" si="57"/>
+      <c r="G105" s="164">
+        <f t="shared" si="61"/>
         <v>4.4447802172789874</v>
       </c>
-      <c r="H94" s="164">
-        <f t="shared" si="57"/>
+      <c r="H105" s="164">
+        <f t="shared" si="61"/>
         <v>4.4447802172789874</v>
       </c>
-      <c r="I94" s="164">
-        <f t="shared" si="57"/>
+      <c r="I105" s="164">
+        <f t="shared" si="61"/>
         <v>4.4447802172789874</v>
       </c>
-      <c r="J94" s="164">
-        <f t="shared" si="57"/>
+      <c r="J105" s="164">
+        <f t="shared" si="61"/>
         <v>4.4447802172789874</v>
       </c>
-      <c r="K94" s="164">
-        <f t="shared" si="57"/>
+      <c r="K105" s="164">
+        <f t="shared" si="61"/>
         <v>4.4447802172789874</v>
       </c>
-      <c r="L94" s="164">
-        <f t="shared" si="57"/>
+      <c r="L105" s="164">
+        <f t="shared" si="61"/>
         <v>4.4447802172789874</v>
       </c>
-      <c r="M94" s="164">
-        <f t="shared" si="57"/>
+      <c r="M105" s="164">
+        <f t="shared" si="61"/>
         <v>4.4447802172789874</v>
       </c>
-      <c r="N94" s="164">
-        <f>M94</f>
+      <c r="N105" s="164">
+        <f>M105</f>
         <v>4.4447802172789874</v>
       </c>
-      <c r="O94" s="311">
-        <f>N94</f>
+      <c r="O105" s="305">
+        <f>N105</f>
         <v>4.4447802172789874</v>
       </c>
-      <c r="P94" s="311">
-        <f>O94</f>
+      <c r="P105" s="305">
+        <f>O105</f>
         <v>4.4447802172789874</v>
       </c>
-      <c r="Q94" s="166">
-        <f>O94</f>
+      <c r="Q105" s="166">
+        <f>O105</f>
         <v>4.4447802172789874</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="25.5">
-      <c r="A95" s="260" t="s">
+    <row r="106" spans="1:17" ht="25.5">
+      <c r="A106" s="259" t="s">
         <v>90</v>
       </c>
-      <c r="B95" s="167"/>
-      <c r="C95" s="168">
-        <f>1/(1+C94/100)^0.5</f>
+      <c r="B106" s="167"/>
+      <c r="C106" s="168">
+        <f>1/(1+C105/100)^0.5</f>
         <v>0.9784905367330925</v>
       </c>
-      <c r="D95" s="168">
-        <f>C95/(1+D94/100)</f>
+      <c r="D106" s="168">
+        <f>C106/(1+D105/100)</f>
         <v>0.9368496297254062</v>
       </c>
-      <c r="E95" s="168">
-        <f>D95/(1+E94/100)</f>
+      <c r="E106" s="168">
+        <f>D106/(1+E105/100)</f>
         <v>0.89698080437955385</v>
       </c>
-      <c r="F95" s="168">
-        <f>E95/(1+F94/100)</f>
+      <c r="F106" s="168">
+        <f>E106/(1+F105/100)</f>
         <v>0.85880864751071628</v>
       </c>
-      <c r="G95" s="168">
-        <f t="shared" ref="G95:P95" si="58">F95/(1+G94/100)</f>
+      <c r="G106" s="168">
+        <f t="shared" ref="G106:P106" si="62">F106/(1+G105/100)</f>
         <v>0.82226095523789322</v>
       </c>
-      <c r="H95" s="168">
-        <f t="shared" si="58"/>
+      <c r="H106" s="168">
+        <f t="shared" si="62"/>
         <v>0.7872685964079047</v>
       </c>
-      <c r="I95" s="168">
-        <f t="shared" si="58"/>
+      <c r="I106" s="168">
+        <f t="shared" si="62"/>
         <v>0.75376538183155817</v>
       </c>
-      <c r="J95" s="168">
-        <f t="shared" si="58"/>
+      <c r="J106" s="168">
+        <f t="shared" si="62"/>
         <v>0.7216879390846358</v>
       </c>
-      <c r="K95" s="168">
-        <f t="shared" si="58"/>
+      <c r="K106" s="168">
+        <f t="shared" si="62"/>
         <v>0.69097559263688524</v>
       </c>
-      <c r="L95" s="168">
-        <f t="shared" si="58"/>
+      <c r="L106" s="168">
+        <f t="shared" si="62"/>
         <v>0.66157024908227302</v>
       </c>
-      <c r="M95" s="168">
-        <f t="shared" si="58"/>
+      <c r="M106" s="168">
+        <f t="shared" si="62"/>
         <v>0.63341628725341037</v>
       </c>
-      <c r="N95" s="168">
-        <f t="shared" si="58"/>
+      <c r="N106" s="168">
+        <f t="shared" si="62"/>
         <v>0.60646045301229912</v>
       </c>
-      <c r="O95" s="312">
-        <f t="shared" si="58"/>
+      <c r="O106" s="306">
+        <f t="shared" si="62"/>
         <v>0.58065175851839113</v>
       </c>
-      <c r="P95" s="312">
-        <f t="shared" si="58"/>
+      <c r="P106" s="306">
+        <f t="shared" si="62"/>
         <v>0.55594138578342289</v>
       </c>
-      <c r="Q95" s="170">
-        <f>O95/(1+Q94/100)</f>
+      <c r="Q106" s="170">
+        <f>O106/(1+Q105/100)</f>
         <v>0.55594138578342289</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="38.25">
-      <c r="A96" s="260" t="s">
+    <row r="107" spans="1:17" ht="38.25">
+      <c r="A107" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="B96" s="167"/>
-      <c r="C96" s="168">
-        <f>1/(1+C95/100)</f>
+      <c r="B107" s="167"/>
+      <c r="C107" s="168">
+        <f>1/(1+C106/100)</f>
         <v>0.99030991123424306</v>
       </c>
-      <c r="D96" s="168">
-        <f>C96/(1+D94/100)</f>
+      <c r="D107" s="168">
+        <f>C107/(1+D105/100)</f>
         <v>0.94816601573968329</v>
       </c>
-      <c r="E96" s="168">
-        <f t="shared" ref="E96:N96" si="59">D96/(1+E94/100)</f>
+      <c r="E107" s="168">
+        <f t="shared" ref="E107:N107" si="63">D107/(1+E105/100)</f>
         <v>0.9078156072205722</v>
       </c>
-      <c r="F96" s="168">
-        <f t="shared" si="59"/>
+      <c r="F107" s="168">
+        <f t="shared" si="63"/>
         <v>0.86918236156179518</v>
       </c>
-      <c r="G96" s="168">
-        <f t="shared" si="59"/>
+      <c r="G107" s="168">
+        <f t="shared" si="63"/>
         <v>0.83219320271785169</v>
       </c>
-      <c r="H96" s="168">
-        <f t="shared" si="59"/>
+      <c r="H107" s="168">
+        <f t="shared" si="63"/>
         <v>0.79677816448712913</v>
       </c>
-      <c r="I96" s="168">
-        <f t="shared" si="59"/>
+      <c r="I107" s="168">
+        <f t="shared" si="63"/>
         <v>0.76287025816854837</v>
       </c>
-      <c r="J96" s="168">
-        <f t="shared" si="59"/>
+      <c r="J107" s="168">
+        <f t="shared" si="63"/>
         <v>0.73040534585024841</v>
       </c>
-      <c r="K96" s="168">
-        <f t="shared" si="59"/>
+      <c r="K107" s="168">
+        <f t="shared" si="63"/>
         <v>0.69932201909063196</v>
       </c>
-      <c r="L96" s="168">
-        <f t="shared" si="59"/>
+      <c r="L107" s="168">
+        <f t="shared" si="63"/>
         <v>0.66956148276229366</v>
       </c>
-      <c r="M96" s="168">
-        <f t="shared" si="59"/>
+      <c r="M107" s="168">
+        <f t="shared" si="63"/>
         <v>0.64106744383911651</v>
       </c>
-      <c r="N96" s="168">
-        <f t="shared" si="59"/>
+      <c r="N107" s="168">
+        <f t="shared" si="63"/>
         <v>0.6137860049161753</v>
       </c>
-      <c r="O96" s="312">
-        <f>N96/(1+O94/100)</f>
+      <c r="O107" s="306">
+        <f>N107/(1+O105/100)</f>
         <v>0.5876655622610355</v>
       </c>
-      <c r="P96" s="312">
-        <f>O96/(1+P94/100)</f>
+      <c r="P107" s="306">
+        <f>O107/(1+P105/100)</f>
         <v>0.56265670820360836</v>
       </c>
-      <c r="Q96" s="170">
-        <f>O96/(1+Q94/100)</f>
+      <c r="Q107" s="170">
+        <f>O107/(1+Q105/100)</f>
         <v>0.56265670820360836</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A97" s="171" t="s">
+    <row r="108" spans="1:17" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A108" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="313">
-        <f>SUM(C97:Q97)</f>
-        <v>3439100956.0950851</v>
-      </c>
-      <c r="C97" s="314">
-        <f>C84*C95+C85*C96+C91*C95</f>
+      <c r="B108" s="307">
+        <f>SUM(C108:Q108)</f>
+        <v>3336100677.321084</v>
+      </c>
+      <c r="C108" s="308">
+        <f>C95*C106+C96*C107+C102*C106</f>
         <v>-83522502.07299152</v>
       </c>
-      <c r="D97" s="314">
-        <f t="shared" ref="D97:O97" si="60">D84*D95+D85*D96+D91*D95</f>
+      <c r="D108" s="308">
+        <f t="shared" ref="D108:O108" si="64">D95*D106+D96*D107+D102*D106</f>
         <v>-23795291.073697839</v>
       </c>
-      <c r="E97" s="314">
-        <f t="shared" si="60"/>
-        <v>-180692133.09377122</v>
-      </c>
-      <c r="F97" s="314">
-        <f t="shared" si="60"/>
+      <c r="E108" s="308">
+        <f t="shared" si="64"/>
+        <v>-153782708.96238461</v>
+      </c>
+      <c r="F108" s="308">
+        <f t="shared" si="64"/>
         <v>-349009370.62379384</v>
       </c>
-      <c r="G97" s="314">
-        <f t="shared" si="60"/>
+      <c r="G108" s="308">
+        <f t="shared" si="64"/>
         <v>-318493584.84487456</v>
       </c>
-      <c r="H97" s="314">
-        <f t="shared" si="60"/>
+      <c r="H108" s="308">
+        <f t="shared" si="64"/>
         <v>-454910417.27934349</v>
       </c>
-      <c r="I97" s="314">
-        <f t="shared" si="60"/>
+      <c r="I108" s="308">
+        <f t="shared" si="64"/>
         <v>-579138909.59904718</v>
       </c>
-      <c r="J97" s="314">
-        <f t="shared" si="60"/>
+      <c r="J108" s="308">
+        <f t="shared" si="64"/>
         <v>-417015695.80245066</v>
       </c>
-      <c r="K97" s="314">
-        <f t="shared" si="60"/>
+      <c r="K108" s="308">
+        <f t="shared" si="64"/>
         <v>-399269063.45623291</v>
       </c>
-      <c r="L97" s="314">
-        <f t="shared" si="60"/>
+      <c r="L108" s="308">
+        <f t="shared" si="64"/>
         <v>-256251836.98035273</v>
       </c>
-      <c r="M97" s="314">
-        <f t="shared" si="60"/>
+      <c r="M108" s="308">
+        <f t="shared" si="64"/>
         <v>-124684712.51580071</v>
       </c>
-      <c r="N97" s="314">
-        <f t="shared" si="60"/>
-        <v>3215493468.748518</v>
-      </c>
-      <c r="O97" s="314">
-        <f t="shared" si="60"/>
+      <c r="N108" s="308">
+        <f t="shared" si="64"/>
+        <v>3036426316.6293883</v>
+      </c>
+      <c r="O108" s="308">
+        <f t="shared" si="64"/>
         <v>140628376.3215054</v>
       </c>
-      <c r="P97" s="314">
-        <f t="shared" ref="P97" si="61">P84*P95+P85*P96+P91*P95</f>
+      <c r="P108" s="308">
+        <f t="shared" ref="P108" si="65">P95*P106+P96*P107+P102*P106</f>
         <v>256964275.40879002</v>
       </c>
-      <c r="Q97" s="314">
-        <f>Q84*Q95+Q85*Q96+Q91*Q95</f>
-        <v>3012798352.9586287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" s="14" customFormat="1" ht="13.5" thickTop="1">
-      <c r="A98" s="176"/>
-      <c r="B98" s="177"/>
-      <c r="C98" s="177"/>
-      <c r="D98" s="307"/>
-      <c r="E98" s="307"/>
-      <c r="F98" s="307"/>
-      <c r="G98" s="307"/>
-      <c r="H98" s="307"/>
-      <c r="I98" s="307"/>
-      <c r="J98" s="307"/>
-      <c r="K98" s="307"/>
-      <c r="L98" s="307"/>
-      <c r="M98" s="308"/>
-    </row>
-    <row r="99" spans="1:17" s="14" customFormat="1">
-      <c r="A99" s="181"/>
-      <c r="B99" s="509"/>
-      <c r="C99" s="509"/>
-      <c r="D99" s="509"/>
-      <c r="E99" s="182"/>
-      <c r="F99" s="183"/>
-      <c r="G99" s="183"/>
-      <c r="H99" s="183"/>
-      <c r="I99" s="183"/>
-      <c r="J99" s="183"/>
-      <c r="K99" s="183"/>
-      <c r="L99" s="183"/>
-      <c r="M99" s="183"/>
-      <c r="N99" s="184"/>
-    </row>
-    <row r="100" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="491" t="s">
+      <c r="Q108" s="308">
+        <f>Q95*Q106+Q96*Q107+Q102*Q106</f>
+        <v>3061955802.1723704</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" s="14" customFormat="1" ht="13.5" thickTop="1">
+      <c r="A109" s="176"/>
+      <c r="B109" s="177"/>
+      <c r="C109" s="177"/>
+      <c r="D109" s="301"/>
+      <c r="E109" s="301"/>
+      <c r="F109" s="301"/>
+      <c r="G109" s="301"/>
+      <c r="H109" s="301"/>
+      <c r="I109" s="301"/>
+      <c r="J109" s="301"/>
+      <c r="K109" s="301"/>
+      <c r="L109" s="301"/>
+      <c r="M109" s="302"/>
+    </row>
+    <row r="110" spans="1:17" s="14" customFormat="1">
+      <c r="A110" s="181"/>
+      <c r="B110" s="508"/>
+      <c r="C110" s="508"/>
+      <c r="D110" s="508"/>
+      <c r="E110" s="182"/>
+      <c r="F110" s="183"/>
+      <c r="G110" s="183"/>
+      <c r="H110" s="183"/>
+      <c r="I110" s="183"/>
+      <c r="J110" s="183"/>
+      <c r="K110" s="183"/>
+      <c r="L110" s="183"/>
+      <c r="M110" s="183"/>
+      <c r="N110" s="184"/>
+    </row>
+    <row r="111" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A111" s="478" t="s">
         <v>88</v>
       </c>
-      <c r="B100" s="491"/>
-      <c r="C100" s="491"/>
-      <c r="D100" s="491"/>
-      <c r="E100" s="491"/>
-      <c r="F100" s="491"/>
-      <c r="G100" s="491"/>
-      <c r="H100" s="491"/>
-      <c r="I100" s="491"/>
-      <c r="J100" s="491"/>
-      <c r="K100" s="491"/>
-      <c r="L100" s="185"/>
-      <c r="M100" s="185"/>
-      <c r="N100" s="184"/>
-    </row>
-    <row r="101" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="491"/>
-      <c r="B101" s="491"/>
-      <c r="C101" s="491"/>
-      <c r="D101" s="491"/>
-      <c r="E101" s="491"/>
-      <c r="F101" s="491"/>
-      <c r="G101" s="491"/>
-      <c r="H101" s="491"/>
-      <c r="I101" s="491"/>
-      <c r="J101" s="491"/>
-      <c r="K101" s="491"/>
-      <c r="L101" s="186"/>
-      <c r="M101" s="186"/>
-      <c r="N101" s="184"/>
-    </row>
-    <row r="102" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A102" s="491"/>
-      <c r="B102" s="491"/>
-      <c r="C102" s="491"/>
-      <c r="D102" s="491"/>
-      <c r="E102" s="491"/>
-      <c r="F102" s="491"/>
-      <c r="G102" s="491"/>
-      <c r="H102" s="491"/>
-      <c r="I102" s="491"/>
-      <c r="J102" s="491"/>
-      <c r="K102" s="491"/>
-      <c r="L102" s="186"/>
-      <c r="M102" s="186"/>
-      <c r="N102" s="184"/>
-    </row>
-    <row r="103" spans="1:17" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A103" s="491"/>
-      <c r="B103" s="491"/>
-      <c r="C103" s="491"/>
-      <c r="D103" s="491"/>
-      <c r="E103" s="491"/>
-      <c r="F103" s="491"/>
-      <c r="G103" s="491"/>
-      <c r="H103" s="491"/>
-      <c r="I103" s="491"/>
-      <c r="J103" s="491"/>
-      <c r="K103" s="491"/>
-      <c r="L103" s="186"/>
-      <c r="M103" s="186"/>
-      <c r="N103" s="184"/>
-    </row>
-    <row r="104" spans="1:17" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A104" s="491"/>
-      <c r="B104" s="491"/>
-      <c r="C104" s="491"/>
-      <c r="D104" s="491"/>
-      <c r="E104" s="491"/>
-      <c r="F104" s="491"/>
-      <c r="G104" s="491"/>
-      <c r="H104" s="491"/>
-      <c r="I104" s="491"/>
-      <c r="J104" s="491"/>
-      <c r="K104" s="491"/>
-      <c r="L104" s="187"/>
-      <c r="M104" s="187"/>
-      <c r="N104" s="184"/>
-    </row>
-    <row r="105" spans="1:17" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A105" s="491"/>
-      <c r="B105" s="491"/>
-      <c r="C105" s="491"/>
-      <c r="D105" s="491"/>
-      <c r="E105" s="491"/>
-      <c r="F105" s="491"/>
-      <c r="G105" s="491"/>
-      <c r="H105" s="491"/>
-      <c r="I105" s="491"/>
-      <c r="J105" s="491"/>
-      <c r="K105" s="491"/>
-      <c r="L105" s="187"/>
-      <c r="M105" s="187"/>
-      <c r="N105" s="184"/>
-    </row>
-    <row r="106" spans="1:17" s="190" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A106" s="491"/>
-      <c r="B106" s="491"/>
-      <c r="C106" s="491"/>
-      <c r="D106" s="491"/>
-      <c r="E106" s="491"/>
-      <c r="F106" s="491"/>
-      <c r="G106" s="491"/>
-      <c r="H106" s="491"/>
-      <c r="I106" s="491"/>
-      <c r="J106" s="491"/>
-      <c r="K106" s="491"/>
-      <c r="L106" s="188"/>
-      <c r="M106" s="189"/>
-      <c r="N106" s="189"/>
-    </row>
-    <row r="107" spans="1:17" s="189" customFormat="1" ht="18.75" collapsed="1">
-      <c r="A107" s="491"/>
-      <c r="B107" s="491"/>
-      <c r="C107" s="491"/>
-      <c r="D107" s="491"/>
-      <c r="E107" s="491"/>
-      <c r="F107" s="491"/>
-      <c r="G107" s="491"/>
-      <c r="H107" s="491"/>
-      <c r="I107" s="491"/>
-      <c r="J107" s="491"/>
-      <c r="K107" s="491"/>
-      <c r="L107" s="188"/>
-    </row>
-    <row r="108" spans="1:17" s="190" customFormat="1" ht="18.75">
-      <c r="A108" s="176"/>
-      <c r="B108" s="176"/>
-      <c r="C108" s="176"/>
-      <c r="D108" s="176"/>
-      <c r="E108" s="176"/>
-      <c r="F108" s="176"/>
-      <c r="G108" s="176"/>
-      <c r="H108" s="176"/>
-      <c r="I108" s="176"/>
-      <c r="J108" s="176"/>
-      <c r="K108" s="176"/>
-      <c r="L108" s="191"/>
-    </row>
-    <row r="109" spans="1:17" s="14" customFormat="1">
-      <c r="B109" s="192"/>
-      <c r="C109" s="193"/>
-      <c r="D109" s="193"/>
-      <c r="E109" s="193"/>
-      <c r="F109" s="193"/>
-      <c r="G109" s="193"/>
-      <c r="H109" s="193"/>
-      <c r="I109" s="193"/>
-      <c r="J109" s="193"/>
-      <c r="K109" s="193"/>
-      <c r="L109" s="193"/>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="B110" s="194"/>
-    </row>
-    <row r="140" spans="2:29">
-      <c r="C140" s="196"/>
-    </row>
-    <row r="141" spans="2:29">
-      <c r="B141" s="22"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
-    </row>
-    <row r="142" spans="2:29">
-      <c r="M142" s="22"/>
-      <c r="N142" s="22"/>
-      <c r="O142" s="22"/>
-      <c r="P142" s="22"/>
-      <c r="Q142" s="22"/>
-      <c r="R142" s="22"/>
-      <c r="S142" s="22"/>
-      <c r="T142" s="22"/>
-      <c r="U142" s="22"/>
-      <c r="V142" s="22"/>
-      <c r="W142" s="22"/>
-      <c r="X142" s="22"/>
-      <c r="Y142" s="22"/>
-      <c r="Z142" s="22"/>
-      <c r="AA142" s="22"/>
-    </row>
-    <row r="144" spans="2:29">
-      <c r="M144" s="22"/>
-      <c r="N144" s="22"/>
-      <c r="O144" s="22"/>
-      <c r="P144" s="22"/>
-      <c r="Q144" s="22"/>
-      <c r="R144" s="22"/>
-      <c r="S144" s="22"/>
-      <c r="T144" s="22"/>
-      <c r="U144" s="22"/>
-      <c r="V144" s="22"/>
-      <c r="W144" s="22"/>
-      <c r="X144" s="22"/>
-      <c r="Y144" s="22"/>
-      <c r="Z144" s="22"/>
-      <c r="AA144" s="22"/>
-      <c r="AC144" s="197"/>
-    </row>
-    <row r="146" spans="2:12">
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="198"/>
-      <c r="E146" s="198"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
+      <c r="B111" s="478"/>
+      <c r="C111" s="478"/>
+      <c r="D111" s="478"/>
+      <c r="E111" s="478"/>
+      <c r="F111" s="478"/>
+      <c r="G111" s="478"/>
+      <c r="H111" s="478"/>
+      <c r="I111" s="478"/>
+      <c r="J111" s="478"/>
+      <c r="K111" s="478"/>
+      <c r="L111" s="185"/>
+      <c r="M111" s="185"/>
+      <c r="N111" s="184"/>
+    </row>
+    <row r="112" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A112" s="478"/>
+      <c r="B112" s="478"/>
+      <c r="C112" s="478"/>
+      <c r="D112" s="478"/>
+      <c r="E112" s="478"/>
+      <c r="F112" s="478"/>
+      <c r="G112" s="478"/>
+      <c r="H112" s="478"/>
+      <c r="I112" s="478"/>
+      <c r="J112" s="478"/>
+      <c r="K112" s="478"/>
+      <c r="L112" s="186"/>
+      <c r="M112" s="186"/>
+      <c r="N112" s="184"/>
+    </row>
+    <row r="113" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A113" s="478"/>
+      <c r="B113" s="478"/>
+      <c r="C113" s="478"/>
+      <c r="D113" s="478"/>
+      <c r="E113" s="478"/>
+      <c r="F113" s="478"/>
+      <c r="G113" s="478"/>
+      <c r="H113" s="478"/>
+      <c r="I113" s="478"/>
+      <c r="J113" s="478"/>
+      <c r="K113" s="478"/>
+      <c r="L113" s="186"/>
+      <c r="M113" s="186"/>
+      <c r="N113" s="184"/>
+    </row>
+    <row r="114" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A114" s="478"/>
+      <c r="B114" s="478"/>
+      <c r="C114" s="478"/>
+      <c r="D114" s="478"/>
+      <c r="E114" s="478"/>
+      <c r="F114" s="478"/>
+      <c r="G114" s="478"/>
+      <c r="H114" s="478"/>
+      <c r="I114" s="478"/>
+      <c r="J114" s="478"/>
+      <c r="K114" s="478"/>
+      <c r="L114" s="186"/>
+      <c r="M114" s="186"/>
+      <c r="N114" s="184"/>
+    </row>
+    <row r="115" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A115" s="478"/>
+      <c r="B115" s="478"/>
+      <c r="C115" s="478"/>
+      <c r="D115" s="478"/>
+      <c r="E115" s="478"/>
+      <c r="F115" s="478"/>
+      <c r="G115" s="478"/>
+      <c r="H115" s="478"/>
+      <c r="I115" s="478"/>
+      <c r="J115" s="478"/>
+      <c r="K115" s="478"/>
+      <c r="L115" s="187"/>
+      <c r="M115" s="187"/>
+      <c r="N115" s="184"/>
+    </row>
+    <row r="116" spans="1:14" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A116" s="478"/>
+      <c r="B116" s="478"/>
+      <c r="C116" s="478"/>
+      <c r="D116" s="478"/>
+      <c r="E116" s="478"/>
+      <c r="F116" s="478"/>
+      <c r="G116" s="478"/>
+      <c r="H116" s="478"/>
+      <c r="I116" s="478"/>
+      <c r="J116" s="478"/>
+      <c r="K116" s="478"/>
+      <c r="L116" s="187"/>
+      <c r="M116" s="187"/>
+      <c r="N116" s="184"/>
+    </row>
+    <row r="117" spans="1:14" s="190" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A117" s="478"/>
+      <c r="B117" s="478"/>
+      <c r="C117" s="478"/>
+      <c r="D117" s="478"/>
+      <c r="E117" s="478"/>
+      <c r="F117" s="478"/>
+      <c r="G117" s="478"/>
+      <c r="H117" s="478"/>
+      <c r="I117" s="478"/>
+      <c r="J117" s="478"/>
+      <c r="K117" s="478"/>
+      <c r="L117" s="188"/>
+      <c r="M117" s="189"/>
+      <c r="N117" s="189"/>
+    </row>
+    <row r="118" spans="1:14" s="189" customFormat="1" ht="18.75" collapsed="1">
+      <c r="A118" s="478"/>
+      <c r="B118" s="478"/>
+      <c r="C118" s="478"/>
+      <c r="D118" s="478"/>
+      <c r="E118" s="478"/>
+      <c r="F118" s="478"/>
+      <c r="G118" s="478"/>
+      <c r="H118" s="478"/>
+      <c r="I118" s="478"/>
+      <c r="J118" s="478"/>
+      <c r="K118" s="478"/>
+      <c r="L118" s="188"/>
+    </row>
+    <row r="119" spans="1:14" s="190" customFormat="1" ht="18.75">
+      <c r="A119" s="176"/>
+      <c r="B119" s="176"/>
+      <c r="C119" s="176"/>
+      <c r="D119" s="176"/>
+      <c r="E119" s="176"/>
+      <c r="F119" s="176"/>
+      <c r="G119" s="176"/>
+      <c r="H119" s="176"/>
+      <c r="I119" s="176"/>
+      <c r="J119" s="176"/>
+      <c r="K119" s="176"/>
+      <c r="L119" s="191"/>
+    </row>
+    <row r="120" spans="1:14" s="14" customFormat="1">
+      <c r="B120" s="192"/>
+      <c r="C120" s="193"/>
+      <c r="D120" s="193"/>
+      <c r="E120" s="193"/>
+      <c r="F120" s="193"/>
+      <c r="G120" s="193"/>
+      <c r="H120" s="193"/>
+      <c r="I120" s="193"/>
+      <c r="J120" s="193"/>
+      <c r="K120" s="193"/>
+      <c r="L120" s="193"/>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="B121" s="194"/>
+    </row>
+    <row r="151" spans="2:29">
+      <c r="C151" s="196"/>
+    </row>
+    <row r="152" spans="2:29">
+      <c r="B152" s="22"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+    </row>
+    <row r="153" spans="2:29">
+      <c r="M153" s="22"/>
+      <c r="N153" s="22"/>
+      <c r="O153" s="22"/>
+      <c r="P153" s="22"/>
+      <c r="Q153" s="22"/>
+      <c r="R153" s="22"/>
+      <c r="S153" s="22"/>
+      <c r="T153" s="22"/>
+      <c r="U153" s="22"/>
+      <c r="V153" s="22"/>
+      <c r="W153" s="22"/>
+      <c r="X153" s="22"/>
+      <c r="Y153" s="22"/>
+      <c r="Z153" s="22"/>
+      <c r="AA153" s="22"/>
+    </row>
+    <row r="155" spans="2:29">
+      <c r="M155" s="22"/>
+      <c r="N155" s="22"/>
+      <c r="O155" s="22"/>
+      <c r="P155" s="22"/>
+      <c r="Q155" s="22"/>
+      <c r="R155" s="22"/>
+      <c r="S155" s="22"/>
+      <c r="T155" s="22"/>
+      <c r="U155" s="22"/>
+      <c r="V155" s="22"/>
+      <c r="W155" s="22"/>
+      <c r="X155" s="22"/>
+      <c r="Y155" s="22"/>
+      <c r="Z155" s="22"/>
+      <c r="AA155" s="22"/>
+      <c r="AC155" s="197"/>
+    </row>
+    <row r="157" spans="2:29">
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="198"/>
+      <c r="E157" s="198"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Q1:T3"/>
-    <mergeCell ref="U1:X3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q4:T6"/>
-    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="A111:K118"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
     <mergeCell ref="T53:W55"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
@@ -20459,11 +21082,12 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="A100:K107"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="U1:X3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q4:T6"/>
+    <mergeCell ref="U4:X6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.31496062992125984" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/Бизнес-планирование в строительстве/Эффективность проекта _лист в КП-2022.xlsx
+++ b/Бизнес-планирование в строительстве/Эффективность проекта _лист в КП-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamet\Documents\GitHub\3-term-of-SPBSTU\Бизнес-планирование в строительстве\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\3-term-of-SPBSTU\Бизнес-планирование в строительстве\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -799,7 +799,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="194">
   <si>
     <t>!!! Цена продажи м.-мест растет в том же темпе, что и квартиры</t>
   </si>
@@ -1409,23 +1409,36 @@
     <t>15 квартал</t>
   </si>
   <si>
-    <t xml:space="preserve"> =I34+(-I35/(-I35+J35))</t>
+    <t>прибыль</t>
   </si>
   <si>
-    <t xml:space="preserve"> =K34+(-K36/(-K36+L36))</t>
+    <t>затраты</t>
   </si>
   <si>
-    <t>дисконтирование расходов</t>
+    <t>чистый доход</t>
   </si>
   <si>
-    <t>прибыль</t>
+    <t>итог</t>
+  </si>
+  <si>
+    <t>коэф. Дисконтирования</t>
+  </si>
+  <si>
+    <t>чистый доход дисконтированный</t>
+  </si>
+  <si>
+    <t>дисконтированные расходы</t>
+  </si>
+  <si>
+    <t>ИСП проходит по данным критериям и может рассматриваться в
+дальнейшем</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="22">
+  <numFmts count="24">
     <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
@@ -1447,9 +1460,11 @@
     <numFmt numFmtId="182" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.000_р_._-;\-* #,##0.000_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="184" formatCode="0.000000%"/>
-    <numFmt numFmtId="188" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="_-* #,##0.0000_р_._-;\-* #,##0.0000_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="187" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;????\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1791,13 +1806,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -2924,7 +2932,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="548">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4108,290 +4116,304 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="44" fillId="12" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="11" fillId="18" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="51" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="11" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="46" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="46" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="46" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="13" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="44" fillId="12" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -4669,7 +4691,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4976,7 +4997,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6005,13 +6025,37 @@
       <sheetName val="график строительства"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="K1">
+            <v>28.66</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="K1">
+            <v>28.66</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="1">
+          <cell r="K1">
+            <v>28.66</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="1">
+          <cell r="K1">
+            <v>28.66</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1">
         <row r="1">
@@ -6020,7 +6064,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12" refreshError="1"/>
@@ -6121,13 +6165,7 @@
       <sheetName val="Трансформация бу в уу(сентябрь)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>28.39</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="C2">
@@ -6143,8 +6181,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
@@ -6687,7 +6725,7 @@
       <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="15" refreshError="1"/>
       <sheetData sheetId="16" refreshError="1"/>
       <sheetData sheetId="17" refreshError="1"/>
       <sheetData sheetId="18" refreshError="1"/>
@@ -6979,7 +7017,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1" refreshError="1">
         <row r="3">
           <cell r="D3">
             <v>1.4999999999999999E-2</v>
@@ -7367,13 +7405,19 @@
       <sheetName val="Док+Исх"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="J7">
+            <v>0.15</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
@@ -7714,7 +7758,7 @@
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13" refreshError="1"/>
@@ -8369,7 +8413,7 @@
       <sheetName val="кредит"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="5">
           <cell r="B5">
             <v>63630</v>
@@ -8391,18 +8435,24 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="7">
+          <cell r="AQ7">
+            <v>14.285714285714286</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
         <row r="8">
           <cell r="B8">
             <v>4793508324.9936466</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1">
+      <sheetData sheetId="6">
         <row r="10">
           <cell r="D10">
             <v>0.19700000000000001</v>
@@ -8424,9 +8474,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8607,7 +8657,7 @@
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
+      <sheetData sheetId="3" refreshError="1">
         <row r="3">
           <cell r="B3" t="str">
             <v>нет</v>
@@ -9329,7 +9379,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6" refreshError="1">
         <row r="10">
           <cell r="D10" t="str">
             <v>Генерирующая компания</v>
@@ -9455,8 +9505,8 @@
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
@@ -9494,8 +9544,8 @@
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
@@ -10338,7 +10388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -10367,26 +10417,26 @@
       <c r="M2" s="342"/>
     </row>
     <row r="3" spans="2:16" ht="36.75" customHeight="1">
-      <c r="C3" s="445" t="s">
+      <c r="C3" s="462" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="445"/>
-      <c r="E3" s="445"/>
-      <c r="F3" s="445"/>
-      <c r="G3" s="445"/>
-      <c r="H3" s="445"/>
-      <c r="I3" s="445"/>
-      <c r="J3" s="445"/>
-      <c r="K3" s="445"/>
-      <c r="L3" s="445"/>
-      <c r="M3" s="445"/>
+      <c r="D3" s="462"/>
+      <c r="E3" s="462"/>
+      <c r="F3" s="462"/>
+      <c r="G3" s="462"/>
+      <c r="H3" s="462"/>
+      <c r="I3" s="462"/>
+      <c r="J3" s="462"/>
+      <c r="K3" s="462"/>
+      <c r="L3" s="462"/>
+      <c r="M3" s="462"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1">
-      <c r="C4" s="445" t="s">
+      <c r="C4" s="462" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="445"/>
-      <c r="E4" s="446"/>
+      <c r="D4" s="462"/>
+      <c r="E4" s="463"/>
       <c r="F4" s="343">
         <v>50000000</v>
       </c>
@@ -10419,26 +10469,26 @@
       <c r="C7" s="340" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="447" t="s">
+      <c r="D7" s="464" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="447"/>
-      <c r="F7" s="447"/>
+      <c r="E7" s="464"/>
+      <c r="F7" s="464"/>
       <c r="K7" s="344"/>
       <c r="L7" s="342"/>
       <c r="M7" s="342"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="C8" s="445" t="s">
+      <c r="C8" s="462" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="445"/>
-      <c r="E8" s="445"/>
-      <c r="F8" s="445"/>
-      <c r="G8" s="445"/>
-      <c r="H8" s="445"/>
-      <c r="I8" s="445"/>
-      <c r="J8" s="445"/>
+      <c r="D8" s="462"/>
+      <c r="E8" s="462"/>
+      <c r="F8" s="462"/>
+      <c r="G8" s="462"/>
+      <c r="H8" s="462"/>
+      <c r="I8" s="462"/>
+      <c r="J8" s="462"/>
       <c r="K8" s="345">
         <v>0.28000000000000003</v>
       </c>
@@ -10446,47 +10496,47 @@
       <c r="M8" s="342"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="C9" s="445" t="s">
+      <c r="C9" s="462" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="445"/>
-      <c r="E9" s="445"/>
-      <c r="F9" s="445"/>
-      <c r="G9" s="445"/>
-      <c r="H9" s="445"/>
-      <c r="I9" s="445"/>
-      <c r="J9" s="445"/>
-      <c r="K9" s="445"/>
+      <c r="D9" s="462"/>
+      <c r="E9" s="462"/>
+      <c r="F9" s="462"/>
+      <c r="G9" s="462"/>
+      <c r="H9" s="462"/>
+      <c r="I9" s="462"/>
+      <c r="J9" s="462"/>
+      <c r="K9" s="462"/>
       <c r="L9" s="342"/>
       <c r="M9" s="342"/>
     </row>
     <row r="10" spans="2:16" ht="37.5" customHeight="1">
-      <c r="C10" s="445" t="s">
+      <c r="C10" s="462" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="445"/>
-      <c r="E10" s="445"/>
-      <c r="F10" s="445"/>
-      <c r="G10" s="445"/>
-      <c r="H10" s="445"/>
-      <c r="I10" s="445"/>
-      <c r="J10" s="445"/>
-      <c r="K10" s="445"/>
+      <c r="D10" s="462"/>
+      <c r="E10" s="462"/>
+      <c r="F10" s="462"/>
+      <c r="G10" s="462"/>
+      <c r="H10" s="462"/>
+      <c r="I10" s="462"/>
+      <c r="J10" s="462"/>
+      <c r="K10" s="462"/>
       <c r="L10" s="342"/>
       <c r="M10" s="342"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
-      <c r="C11" s="445" t="s">
+      <c r="C11" s="462" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="445"/>
-      <c r="E11" s="445"/>
-      <c r="F11" s="445"/>
-      <c r="G11" s="445"/>
-      <c r="H11" s="445"/>
-      <c r="I11" s="445"/>
-      <c r="J11" s="445"/>
-      <c r="K11" s="445"/>
+      <c r="D11" s="462"/>
+      <c r="E11" s="462"/>
+      <c r="F11" s="462"/>
+      <c r="G11" s="462"/>
+      <c r="H11" s="462"/>
+      <c r="I11" s="462"/>
+      <c r="J11" s="462"/>
+      <c r="K11" s="462"/>
       <c r="L11" s="342"/>
       <c r="M11" s="342"/>
     </row>
@@ -10504,10 +10554,10 @@
       <c r="M12" s="342"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="C13" s="460" t="s">
+      <c r="C13" s="477" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="460"/>
+      <c r="D13" s="477"/>
       <c r="E13" s="342"/>
       <c r="F13" s="342"/>
       <c r="G13" s="342"/>
@@ -10522,11 +10572,11 @@
       <c r="B14" s="347" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="461" t="s">
+      <c r="C14" s="478" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="461"/>
-      <c r="E14" s="461"/>
+      <c r="D14" s="478"/>
+      <c r="E14" s="478"/>
       <c r="F14" s="348">
         <v>1</v>
       </c>
@@ -10562,11 +10612,11 @@
       <c r="B15" s="349">
         <v>1</v>
       </c>
-      <c r="C15" s="462" t="s">
+      <c r="C15" s="479" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="463"/>
-      <c r="E15" s="464"/>
+      <c r="D15" s="480"/>
+      <c r="E15" s="481"/>
       <c r="F15" s="350">
         <f>F4*5%</f>
         <v>2500000</v>
@@ -10595,11 +10645,11 @@
       <c r="B16" s="349">
         <v>2</v>
       </c>
-      <c r="C16" s="457" t="s">
+      <c r="C16" s="474" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="458"/>
-      <c r="E16" s="459"/>
+      <c r="D16" s="475"/>
+      <c r="E16" s="476"/>
       <c r="F16" s="351"/>
       <c r="G16" s="351"/>
       <c r="H16" s="351"/>
@@ -10640,11 +10690,11 @@
       <c r="B17" s="349">
         <v>3</v>
       </c>
-      <c r="C17" s="457" t="s">
+      <c r="C17" s="474" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="458"/>
-      <c r="E17" s="459"/>
+      <c r="D17" s="475"/>
+      <c r="E17" s="476"/>
       <c r="F17" s="352">
         <f>F16-F15</f>
         <v>-2500000</v>
@@ -10690,11 +10740,11 @@
       <c r="B18" s="349">
         <v>4</v>
       </c>
-      <c r="C18" s="465" t="s">
+      <c r="C18" s="482" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="466"/>
-      <c r="E18" s="467"/>
+      <c r="D18" s="483"/>
+      <c r="E18" s="484"/>
       <c r="F18" s="354">
         <f t="shared" ref="F18:O18" si="2">1/(1+$K$8)^F14</f>
         <v>0.78125</v>
@@ -10740,11 +10790,11 @@
       <c r="B19" s="349">
         <v>5</v>
       </c>
-      <c r="C19" s="457" t="s">
+      <c r="C19" s="474" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="458"/>
-      <c r="E19" s="459"/>
+      <c r="D19" s="475"/>
+      <c r="E19" s="476"/>
       <c r="F19" s="350">
         <f>F17*F18</f>
         <v>-1953125</v>
@@ -10787,13 +10837,13 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="468" t="s">
+      <c r="B20" s="485" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="469"/>
-      <c r="D20" s="469"/>
-      <c r="E20" s="469"/>
-      <c r="F20" s="470"/>
+      <c r="C20" s="486"/>
+      <c r="D20" s="486"/>
+      <c r="E20" s="486"/>
+      <c r="F20" s="487"/>
       <c r="G20" s="355"/>
       <c r="H20" s="355"/>
       <c r="I20" s="355"/>
@@ -10808,11 +10858,11 @@
       <c r="B21" s="349">
         <v>6</v>
       </c>
-      <c r="C21" s="465" t="s">
+      <c r="C21" s="482" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="466"/>
-      <c r="E21" s="467"/>
+      <c r="D21" s="483"/>
+      <c r="E21" s="484"/>
       <c r="F21" s="356">
         <f>SUM(F17:O17)</f>
         <v>160000000</v>
@@ -10831,24 +10881,24 @@
       <c r="B22" s="349">
         <v>7</v>
       </c>
-      <c r="C22" s="457" t="s">
+      <c r="C22" s="474" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="458"/>
-      <c r="E22" s="459"/>
+      <c r="D22" s="475"/>
+      <c r="E22" s="476"/>
       <c r="F22" s="358">
         <f>SUM(F19:O19)</f>
         <v>14240485.398768097</v>
       </c>
       <c r="G22" s="357"/>
-      <c r="H22" s="448" t="s">
+      <c r="H22" s="465" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="449"/>
-      <c r="J22" s="449"/>
-      <c r="K22" s="449"/>
-      <c r="L22" s="449"/>
-      <c r="M22" s="450"/>
+      <c r="I22" s="466"/>
+      <c r="J22" s="466"/>
+      <c r="K22" s="466"/>
+      <c r="L22" s="466"/>
+      <c r="M22" s="467"/>
       <c r="N22" s="357"/>
       <c r="O22" s="357"/>
     </row>
@@ -10856,22 +10906,22 @@
       <c r="B23" s="349">
         <v>8</v>
       </c>
-      <c r="C23" s="457" t="str">
+      <c r="C23" s="474" t="str">
         <f>C11</f>
         <v>Стоит ли принимать такой проект к рассмотрению?</v>
       </c>
-      <c r="D23" s="458"/>
-      <c r="E23" s="459"/>
+      <c r="D23" s="475"/>
+      <c r="E23" s="476"/>
       <c r="F23" s="358" t="s">
         <v>130</v>
       </c>
       <c r="G23" s="357"/>
-      <c r="H23" s="451"/>
-      <c r="I23" s="452"/>
-      <c r="J23" s="452"/>
-      <c r="K23" s="452"/>
-      <c r="L23" s="452"/>
-      <c r="M23" s="453"/>
+      <c r="H23" s="468"/>
+      <c r="I23" s="469"/>
+      <c r="J23" s="469"/>
+      <c r="K23" s="469"/>
+      <c r="L23" s="469"/>
+      <c r="M23" s="470"/>
       <c r="N23" s="357"/>
       <c r="O23" s="357"/>
     </row>
@@ -10881,12 +10931,12 @@
       <c r="E24" s="359"/>
       <c r="F24" s="360"/>
       <c r="G24" s="357"/>
-      <c r="H24" s="451"/>
-      <c r="I24" s="452"/>
-      <c r="J24" s="452"/>
-      <c r="K24" s="452"/>
-      <c r="L24" s="452"/>
-      <c r="M24" s="453"/>
+      <c r="H24" s="468"/>
+      <c r="I24" s="469"/>
+      <c r="J24" s="469"/>
+      <c r="K24" s="469"/>
+      <c r="L24" s="469"/>
+      <c r="M24" s="470"/>
       <c r="N24" s="357"/>
       <c r="O24" s="357"/>
     </row>
@@ -10896,12 +10946,12 @@
       <c r="E25" s="359"/>
       <c r="F25" s="360"/>
       <c r="G25" s="357"/>
-      <c r="H25" s="451"/>
-      <c r="I25" s="452"/>
-      <c r="J25" s="452"/>
-      <c r="K25" s="452"/>
-      <c r="L25" s="452"/>
-      <c r="M25" s="453"/>
+      <c r="H25" s="468"/>
+      <c r="I25" s="469"/>
+      <c r="J25" s="469"/>
+      <c r="K25" s="469"/>
+      <c r="L25" s="469"/>
+      <c r="M25" s="470"/>
       <c r="N25" s="357"/>
       <c r="O25" s="357"/>
     </row>
@@ -10911,12 +10961,12 @@
       <c r="E26" s="359"/>
       <c r="F26" s="360"/>
       <c r="G26" s="357"/>
-      <c r="H26" s="451"/>
-      <c r="I26" s="452"/>
-      <c r="J26" s="452"/>
-      <c r="K26" s="452"/>
-      <c r="L26" s="452"/>
-      <c r="M26" s="453"/>
+      <c r="H26" s="468"/>
+      <c r="I26" s="469"/>
+      <c r="J26" s="469"/>
+      <c r="K26" s="469"/>
+      <c r="L26" s="469"/>
+      <c r="M26" s="470"/>
       <c r="N26" s="357"/>
       <c r="O26" s="357"/>
     </row>
@@ -10926,12 +10976,12 @@
       <c r="E27" s="359"/>
       <c r="F27" s="360"/>
       <c r="G27" s="357"/>
-      <c r="H27" s="451"/>
-      <c r="I27" s="452"/>
-      <c r="J27" s="452"/>
-      <c r="K27" s="452"/>
-      <c r="L27" s="452"/>
-      <c r="M27" s="453"/>
+      <c r="H27" s="468"/>
+      <c r="I27" s="469"/>
+      <c r="J27" s="469"/>
+      <c r="K27" s="469"/>
+      <c r="L27" s="469"/>
+      <c r="M27" s="470"/>
       <c r="N27" s="357"/>
       <c r="O27" s="357"/>
     </row>
@@ -10941,12 +10991,12 @@
       <c r="E28" s="359"/>
       <c r="F28" s="360"/>
       <c r="G28" s="357"/>
-      <c r="H28" s="454"/>
-      <c r="I28" s="455"/>
-      <c r="J28" s="455"/>
-      <c r="K28" s="455"/>
-      <c r="L28" s="455"/>
-      <c r="M28" s="456"/>
+      <c r="H28" s="471"/>
+      <c r="I28" s="472"/>
+      <c r="J28" s="472"/>
+      <c r="K28" s="472"/>
+      <c r="L28" s="472"/>
+      <c r="M28" s="473"/>
       <c r="N28" s="357"/>
       <c r="O28" s="357"/>
     </row>
@@ -10961,20 +11011,20 @@
       </c>
     </row>
     <row r="33" spans="2:17">
-      <c r="C33" s="460" t="s">
+      <c r="C33" s="477" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="460"/>
+      <c r="D33" s="477"/>
     </row>
     <row r="34" spans="2:17" ht="30">
       <c r="B34" s="347" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="471" t="s">
+      <c r="C34" s="488" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="472"/>
-      <c r="E34" s="473"/>
+      <c r="D34" s="489"/>
+      <c r="E34" s="490"/>
       <c r="F34" s="348">
         <v>1</v>
       </c>
@@ -11010,11 +11060,11 @@
       <c r="B35" s="349">
         <v>1</v>
       </c>
-      <c r="C35" s="462" t="s">
+      <c r="C35" s="479" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="463"/>
-      <c r="E35" s="464"/>
+      <c r="D35" s="480"/>
+      <c r="E35" s="481"/>
       <c r="F35" s="361">
         <f>F17</f>
         <v>-2500000</v>
@@ -11065,11 +11115,11 @@
       <c r="B36" s="349">
         <v>2</v>
       </c>
-      <c r="C36" s="462" t="s">
+      <c r="C36" s="479" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="463"/>
-      <c r="E36" s="464"/>
+      <c r="D36" s="480"/>
+      <c r="E36" s="481"/>
       <c r="F36" s="361">
         <f>F19</f>
         <v>-1953125</v>
@@ -11117,99 +11167,99 @@
       <c r="Q36" s="357"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B37" s="468" t="s">
+      <c r="B37" s="485" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="469"/>
-      <c r="D37" s="469"/>
-      <c r="E37" s="469"/>
-      <c r="F37" s="470"/>
+      <c r="C37" s="486"/>
+      <c r="D37" s="486"/>
+      <c r="E37" s="486"/>
+      <c r="F37" s="487"/>
     </row>
     <row r="38" spans="2:17" ht="31.5" customHeight="1">
       <c r="B38" s="349">
         <v>3</v>
       </c>
-      <c r="C38" s="465" t="s">
+      <c r="C38" s="482" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="466"/>
-      <c r="E38" s="467"/>
+      <c r="D38" s="483"/>
+      <c r="E38" s="484"/>
       <c r="F38" s="364">
         <f>I34+(-I35/(-I35+J35))</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H38" s="448" t="s">
+      <c r="H38" s="465" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="449"/>
-      <c r="J38" s="449"/>
-      <c r="K38" s="449"/>
-      <c r="L38" s="449"/>
-      <c r="M38" s="450"/>
+      <c r="I38" s="466"/>
+      <c r="J38" s="466"/>
+      <c r="K38" s="466"/>
+      <c r="L38" s="466"/>
+      <c r="M38" s="467"/>
     </row>
     <row r="39" spans="2:17" ht="36.75" customHeight="1">
       <c r="B39" s="349">
         <v>4</v>
       </c>
-      <c r="C39" s="457" t="s">
+      <c r="C39" s="474" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="458"/>
-      <c r="E39" s="459"/>
+      <c r="D39" s="475"/>
+      <c r="E39" s="476"/>
       <c r="F39" s="364">
         <f>K34+(-K36/(-K36+L36))</f>
         <v>6.1962118567253333</v>
       </c>
-      <c r="H39" s="451"/>
-      <c r="I39" s="452"/>
-      <c r="J39" s="452"/>
-      <c r="K39" s="452"/>
-      <c r="L39" s="452"/>
-      <c r="M39" s="453"/>
+      <c r="H39" s="468"/>
+      <c r="I39" s="469"/>
+      <c r="J39" s="469"/>
+      <c r="K39" s="469"/>
+      <c r="L39" s="469"/>
+      <c r="M39" s="470"/>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="474" t="s">
+      <c r="B40" s="491" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="474"/>
-      <c r="D40" s="474"/>
-      <c r="E40" s="474"/>
-      <c r="F40" s="474"/>
-      <c r="H40" s="451"/>
-      <c r="I40" s="452"/>
-      <c r="J40" s="452"/>
-      <c r="K40" s="452"/>
-      <c r="L40" s="452"/>
-      <c r="M40" s="453"/>
+      <c r="C40" s="491"/>
+      <c r="D40" s="491"/>
+      <c r="E40" s="491"/>
+      <c r="F40" s="491"/>
+      <c r="H40" s="468"/>
+      <c r="I40" s="469"/>
+      <c r="J40" s="469"/>
+      <c r="K40" s="469"/>
+      <c r="L40" s="469"/>
+      <c r="M40" s="470"/>
     </row>
     <row r="41" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B41" s="475"/>
-      <c r="C41" s="475"/>
-      <c r="D41" s="475"/>
-      <c r="E41" s="475"/>
-      <c r="F41" s="475"/>
-      <c r="H41" s="451"/>
-      <c r="I41" s="452"/>
-      <c r="J41" s="452"/>
-      <c r="K41" s="452"/>
-      <c r="L41" s="452"/>
-      <c r="M41" s="453"/>
+      <c r="B41" s="492"/>
+      <c r="C41" s="492"/>
+      <c r="D41" s="492"/>
+      <c r="E41" s="492"/>
+      <c r="F41" s="492"/>
+      <c r="H41" s="468"/>
+      <c r="I41" s="469"/>
+      <c r="J41" s="469"/>
+      <c r="K41" s="469"/>
+      <c r="L41" s="469"/>
+      <c r="M41" s="470"/>
     </row>
     <row r="42" spans="2:17" ht="130.5" customHeight="1">
-      <c r="H42" s="451"/>
-      <c r="I42" s="452"/>
-      <c r="J42" s="452"/>
-      <c r="K42" s="452"/>
-      <c r="L42" s="452"/>
-      <c r="M42" s="453"/>
+      <c r="H42" s="468"/>
+      <c r="I42" s="469"/>
+      <c r="J42" s="469"/>
+      <c r="K42" s="469"/>
+      <c r="L42" s="469"/>
+      <c r="M42" s="470"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" thickBot="1">
-      <c r="H43" s="454"/>
-      <c r="I43" s="455"/>
-      <c r="J43" s="455"/>
-      <c r="K43" s="455"/>
-      <c r="L43" s="455"/>
-      <c r="M43" s="456"/>
+      <c r="H43" s="471"/>
+      <c r="I43" s="472"/>
+      <c r="J43" s="472"/>
+      <c r="K43" s="472"/>
+      <c r="L43" s="472"/>
+      <c r="M43" s="473"/>
     </row>
     <row r="47" spans="2:17">
       <c r="C47" s="340" t="s">
@@ -11227,10 +11277,10 @@
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="D51" s="460" t="s">
+      <c r="D51" s="477" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="460"/>
+      <c r="E51" s="477"/>
       <c r="F51" s="342"/>
       <c r="G51" s="342"/>
       <c r="H51" s="342"/>
@@ -11245,11 +11295,11 @@
       <c r="B52" s="347" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="461" t="s">
+      <c r="C52" s="478" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="461"/>
-      <c r="E52" s="461"/>
+      <c r="D52" s="478"/>
+      <c r="E52" s="478"/>
       <c r="F52" s="348">
         <v>1</v>
       </c>
@@ -11285,11 +11335,11 @@
       <c r="B53" s="349">
         <v>1</v>
       </c>
-      <c r="C53" s="457" t="s">
+      <c r="C53" s="474" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="458"/>
-      <c r="E53" s="459"/>
+      <c r="D53" s="475"/>
+      <c r="E53" s="476"/>
       <c r="F53" s="352">
         <f>F17</f>
         <v>-2500000</v>
@@ -11335,35 +11385,35 @@
       <c r="B54" s="349">
         <v>2</v>
       </c>
-      <c r="C54" s="465" t="s">
+      <c r="C54" s="482" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="466"/>
-      <c r="E54" s="467"/>
+      <c r="D54" s="483"/>
+      <c r="E54" s="484"/>
       <c r="F54" s="366">
         <v>0.43822984635546786</v>
       </c>
-      <c r="G54" s="476" t="s">
+      <c r="G54" s="493" t="s">
         <v>143</v>
       </c>
-      <c r="H54" s="477"/>
-      <c r="I54" s="477"/>
-      <c r="J54" s="477"/>
-      <c r="K54" s="477"/>
-      <c r="L54" s="477"/>
-      <c r="M54" s="477"/>
-      <c r="N54" s="477"/>
-      <c r="O54" s="477"/>
+      <c r="H54" s="494"/>
+      <c r="I54" s="494"/>
+      <c r="J54" s="494"/>
+      <c r="K54" s="494"/>
+      <c r="L54" s="494"/>
+      <c r="M54" s="494"/>
+      <c r="N54" s="494"/>
+      <c r="O54" s="494"/>
     </row>
     <row r="55" spans="2:15" ht="36" customHeight="1">
       <c r="B55" s="349">
         <v>3</v>
       </c>
-      <c r="C55" s="465" t="s">
+      <c r="C55" s="482" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="466"/>
-      <c r="E55" s="467"/>
+      <c r="D55" s="483"/>
+      <c r="E55" s="484"/>
       <c r="F55" s="354">
         <f>1/(1+$F$54)^F52</f>
         <v>0.69529915717855539</v>
@@ -11409,11 +11459,11 @@
       <c r="B56" s="349">
         <v>4</v>
       </c>
-      <c r="C56" s="457" t="s">
+      <c r="C56" s="474" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="458"/>
-      <c r="E56" s="459"/>
+      <c r="D56" s="475"/>
+      <c r="E56" s="476"/>
       <c r="F56" s="350">
         <f t="shared" ref="F56:O56" si="8">F53*F55</f>
         <v>-1738247.8929463886</v>
@@ -11459,11 +11509,11 @@
       <c r="B57" s="349">
         <v>5</v>
       </c>
-      <c r="C57" s="457" t="s">
+      <c r="C57" s="474" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="458"/>
-      <c r="E57" s="459"/>
+      <c r="D57" s="475"/>
+      <c r="E57" s="476"/>
       <c r="F57" s="367">
         <f>SUM(F56:O56)</f>
         <v>9.1665424406528473E-6</v>
@@ -11479,57 +11529,57 @@
       <c r="O57" s="355"/>
     </row>
     <row r="58" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B58" s="468" t="s">
+      <c r="B58" s="485" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="469"/>
-      <c r="D58" s="469"/>
-      <c r="E58" s="469"/>
-      <c r="F58" s="470"/>
+      <c r="C58" s="486"/>
+      <c r="D58" s="486"/>
+      <c r="E58" s="486"/>
+      <c r="F58" s="487"/>
       <c r="G58" s="368"/>
     </row>
     <row r="59" spans="2:15" ht="15" customHeight="1">
       <c r="B59" s="349">
         <v>6</v>
       </c>
-      <c r="C59" s="457" t="s">
+      <c r="C59" s="474" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="458"/>
-      <c r="E59" s="459"/>
+      <c r="D59" s="475"/>
+      <c r="E59" s="476"/>
       <c r="F59" s="369">
         <f>IRR(F53:O53)</f>
         <v>0.43822984635565154</v>
       </c>
-      <c r="H59" s="478" t="s">
+      <c r="H59" s="495" t="s">
         <v>145</v>
       </c>
-      <c r="I59" s="479"/>
-      <c r="J59" s="479"/>
-      <c r="K59" s="479"/>
-      <c r="L59" s="479"/>
-      <c r="M59" s="479"/>
-      <c r="N59" s="479"/>
-      <c r="O59" s="480"/>
+      <c r="I59" s="496"/>
+      <c r="J59" s="496"/>
+      <c r="K59" s="496"/>
+      <c r="L59" s="496"/>
+      <c r="M59" s="496"/>
+      <c r="N59" s="496"/>
+      <c r="O59" s="497"/>
     </row>
     <row r="60" spans="2:15" ht="66.75" customHeight="1">
       <c r="B60" s="349">
         <v>7</v>
       </c>
-      <c r="C60" s="457" t="s">
+      <c r="C60" s="474" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="458"/>
-      <c r="E60" s="459"/>
+      <c r="D60" s="475"/>
+      <c r="E60" s="476"/>
       <c r="F60" s="364"/>
-      <c r="H60" s="481"/>
-      <c r="I60" s="482"/>
-      <c r="J60" s="482"/>
-      <c r="K60" s="482"/>
-      <c r="L60" s="482"/>
-      <c r="M60" s="482"/>
-      <c r="N60" s="482"/>
-      <c r="O60" s="483"/>
+      <c r="H60" s="498"/>
+      <c r="I60" s="499"/>
+      <c r="J60" s="499"/>
+      <c r="K60" s="499"/>
+      <c r="L60" s="499"/>
+      <c r="M60" s="499"/>
+      <c r="N60" s="499"/>
+      <c r="O60" s="500"/>
     </row>
     <row r="61" spans="2:15" ht="33" customHeight="1">
       <c r="H61" s="370"/>
@@ -11633,21 +11683,21 @@
       </c>
     </row>
     <row r="77" spans="2:15">
-      <c r="D77" s="460" t="s">
+      <c r="D77" s="477" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="460"/>
+      <c r="E77" s="477"/>
       <c r="F77" s="342"/>
     </row>
     <row r="78" spans="2:15" ht="30">
       <c r="B78" s="347" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="461" t="s">
+      <c r="C78" s="478" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="461"/>
-      <c r="E78" s="461"/>
+      <c r="D78" s="478"/>
+      <c r="E78" s="478"/>
       <c r="F78" s="365">
         <v>1</v>
       </c>
@@ -11683,12 +11733,12 @@
       <c r="B79" s="349">
         <v>1</v>
       </c>
-      <c r="C79" s="457" t="str">
+      <c r="C79" s="474" t="str">
         <f>C15</f>
         <v>Затраты на осуществление ИСП (IC), руб.</v>
       </c>
-      <c r="D79" s="458"/>
-      <c r="E79" s="459"/>
+      <c r="D79" s="475"/>
+      <c r="E79" s="476"/>
       <c r="F79" s="353">
         <f>F15</f>
         <v>2500000</v>
@@ -11713,11 +11763,11 @@
       <c r="B80" s="349">
         <v>2</v>
       </c>
-      <c r="C80" s="457" t="s">
+      <c r="C80" s="474" t="s">
         <v>124</v>
       </c>
-      <c r="D80" s="458"/>
-      <c r="E80" s="459"/>
+      <c r="D80" s="475"/>
+      <c r="E80" s="476"/>
       <c r="F80" s="351">
         <f>F16</f>
         <v>0</v>
@@ -11763,11 +11813,11 @@
       <c r="B81" s="349">
         <v>3</v>
       </c>
-      <c r="C81" s="465" t="s">
+      <c r="C81" s="482" t="s">
         <v>126</v>
       </c>
-      <c r="D81" s="466"/>
-      <c r="E81" s="467"/>
+      <c r="D81" s="483"/>
+      <c r="E81" s="484"/>
       <c r="F81" s="354">
         <f>F18</f>
         <v>0.78125</v>
@@ -11813,11 +11863,11 @@
       <c r="B82" s="349">
         <v>4</v>
       </c>
-      <c r="C82" s="484" t="s">
+      <c r="C82" s="501" t="s">
         <v>155</v>
       </c>
-      <c r="D82" s="484"/>
-      <c r="E82" s="484"/>
+      <c r="D82" s="501"/>
+      <c r="E82" s="501"/>
       <c r="I82" s="361">
         <f t="shared" ref="I82:O82" si="11">I80*I81</f>
         <v>11175870.895385742</v>
@@ -11851,11 +11901,11 @@
       <c r="B83" s="349">
         <v>5</v>
       </c>
-      <c r="C83" s="484" t="s">
+      <c r="C83" s="501" t="s">
         <v>156</v>
       </c>
-      <c r="D83" s="484"/>
-      <c r="E83" s="484"/>
+      <c r="D83" s="501"/>
+      <c r="E83" s="501"/>
       <c r="F83" s="350">
         <f>F79*F81</f>
         <v>1953125</v>
@@ -11877,23 +11927,23 @@
       <c r="O83" s="376"/>
     </row>
     <row r="84" spans="2:15">
-      <c r="B84" s="485" t="s">
+      <c r="B84" s="502" t="s">
         <v>128</v>
       </c>
-      <c r="C84" s="486"/>
-      <c r="D84" s="486"/>
-      <c r="E84" s="486"/>
-      <c r="F84" s="487"/>
+      <c r="C84" s="503"/>
+      <c r="D84" s="503"/>
+      <c r="E84" s="503"/>
+      <c r="F84" s="504"/>
     </row>
     <row r="85" spans="2:15">
       <c r="B85" s="349">
         <v>5</v>
       </c>
-      <c r="C85" s="457" t="s">
+      <c r="C85" s="474" t="s">
         <v>107</v>
       </c>
-      <c r="D85" s="458"/>
-      <c r="E85" s="459"/>
+      <c r="D85" s="475"/>
+      <c r="E85" s="476"/>
       <c r="F85" s="377">
         <f>SUM(I82:O82)/SUM(F83:H83)</f>
         <v>1.5127298429934641</v>
@@ -11903,26 +11953,26 @@
       <c r="B86" s="349">
         <v>6</v>
       </c>
-      <c r="C86" s="457" t="s">
+      <c r="C86" s="474" t="s">
         <v>152</v>
       </c>
-      <c r="D86" s="458"/>
-      <c r="E86" s="459"/>
-      <c r="F86" s="489"/>
-      <c r="G86" s="489"/>
-      <c r="H86" s="489"/>
-      <c r="I86" s="489"/>
+      <c r="D86" s="475"/>
+      <c r="E86" s="476"/>
+      <c r="F86" s="506"/>
+      <c r="G86" s="506"/>
+      <c r="H86" s="506"/>
+      <c r="I86" s="506"/>
       <c r="K86" s="378"/>
     </row>
     <row r="87" spans="2:15" ht="49.5" customHeight="1">
       <c r="B87" s="349">
         <v>7</v>
       </c>
-      <c r="C87" s="457" t="s">
+      <c r="C87" s="474" t="s">
         <v>157</v>
       </c>
-      <c r="D87" s="458"/>
-      <c r="E87" s="459"/>
+      <c r="D87" s="475"/>
+      <c r="E87" s="476"/>
       <c r="F87" s="379"/>
       <c r="K87" s="378"/>
     </row>
@@ -11930,51 +11980,51 @@
       <c r="B88" s="349">
         <v>8</v>
       </c>
-      <c r="C88" s="457" t="str">
+      <c r="C88" s="474" t="str">
         <f>C75</f>
         <v>Почему для данного проекта нельзя использовать оценку экономической эффективности по PI?</v>
       </c>
-      <c r="D88" s="458"/>
-      <c r="E88" s="459"/>
-      <c r="F88" s="490"/>
-      <c r="G88" s="490"/>
-      <c r="H88" s="490"/>
-      <c r="I88" s="490"/>
+      <c r="D88" s="475"/>
+      <c r="E88" s="476"/>
+      <c r="F88" s="507"/>
+      <c r="G88" s="507"/>
+      <c r="H88" s="507"/>
+      <c r="I88" s="507"/>
     </row>
     <row r="91" spans="2:15" ht="78" customHeight="1">
-      <c r="E91" s="491" t="s">
+      <c r="E91" s="508" t="s">
         <v>158</v>
       </c>
-      <c r="F91" s="491"/>
-      <c r="G91" s="491"/>
-      <c r="H91" s="491"/>
-      <c r="I91" s="491"/>
-      <c r="J91" s="491"/>
-      <c r="K91" s="491"/>
+      <c r="F91" s="508"/>
+      <c r="G91" s="508"/>
+      <c r="H91" s="508"/>
+      <c r="I91" s="508"/>
+      <c r="J91" s="508"/>
+      <c r="K91" s="508"/>
     </row>
     <row r="92" spans="2:15">
-      <c r="E92" s="488"/>
-      <c r="F92" s="488"/>
-      <c r="G92" s="488"/>
-      <c r="H92" s="488"/>
-      <c r="I92" s="488"/>
-      <c r="J92" s="488"/>
+      <c r="E92" s="505"/>
+      <c r="F92" s="505"/>
+      <c r="G92" s="505"/>
+      <c r="H92" s="505"/>
+      <c r="I92" s="505"/>
+      <c r="J92" s="505"/>
     </row>
     <row r="93" spans="2:15">
-      <c r="E93" s="488"/>
-      <c r="F93" s="488"/>
-      <c r="G93" s="488"/>
-      <c r="H93" s="488"/>
-      <c r="I93" s="488"/>
-      <c r="J93" s="488"/>
+      <c r="E93" s="505"/>
+      <c r="F93" s="505"/>
+      <c r="G93" s="505"/>
+      <c r="H93" s="505"/>
+      <c r="I93" s="505"/>
+      <c r="J93" s="505"/>
     </row>
     <row r="94" spans="2:15">
-      <c r="E94" s="488"/>
-      <c r="F94" s="488"/>
-      <c r="G94" s="488"/>
-      <c r="H94" s="488"/>
-      <c r="I94" s="488"/>
-      <c r="J94" s="488"/>
+      <c r="E94" s="505"/>
+      <c r="F94" s="505"/>
+      <c r="G94" s="505"/>
+      <c r="H94" s="505"/>
+      <c r="I94" s="505"/>
+      <c r="J94" s="505"/>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
@@ -12055,23 +12105,23 @@
   <sheetPr codeName="Лист3122">
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AC142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="O137" sqref="O137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="62.28515625" style="15" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="188" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="15" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="22" customWidth="1"/>
-    <col min="7" max="12" width="19.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="19.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="15" customWidth="1"/>
+    <col min="7" max="12" width="19.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="15" customWidth="1"/>
     <col min="17" max="17" width="17.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.42578125" style="15" customWidth="1"/>
     <col min="19" max="28" width="9.140625" style="15" customWidth="1"/>
@@ -12092,22 +12142,22 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
-      <c r="Q1" s="501" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="523"/>
-      <c r="S1" s="523"/>
-      <c r="T1" s="524"/>
-      <c r="U1" s="501"/>
-      <c r="V1" s="523"/>
-      <c r="W1" s="523"/>
-      <c r="X1" s="524"/>
+      <c r="Q1" s="518" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="539"/>
+      <c r="S1" s="539"/>
+      <c r="T1" s="540"/>
+      <c r="U1" s="518"/>
+      <c r="V1" s="539"/>
+      <c r="W1" s="539"/>
+      <c r="X1" s="540"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="15.75">
-      <c r="A2" s="511" t="s">
+      <c r="A2" s="527" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="512"/>
+      <c r="B2" s="528"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -12122,14 +12172,14 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="501"/>
-      <c r="R2" s="523"/>
-      <c r="S2" s="523"/>
-      <c r="T2" s="524"/>
-      <c r="U2" s="501"/>
-      <c r="V2" s="523"/>
-      <c r="W2" s="523"/>
-      <c r="X2" s="524"/>
+      <c r="Q2" s="518"/>
+      <c r="R2" s="539"/>
+      <c r="S2" s="539"/>
+      <c r="T2" s="540"/>
+      <c r="U2" s="518"/>
+      <c r="V2" s="539"/>
+      <c r="W2" s="539"/>
+      <c r="X2" s="540"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
@@ -12153,14 +12203,14 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="501"/>
-      <c r="R3" s="523"/>
-      <c r="S3" s="523"/>
-      <c r="T3" s="524"/>
-      <c r="U3" s="501"/>
-      <c r="V3" s="523"/>
-      <c r="W3" s="523"/>
-      <c r="X3" s="524"/>
+      <c r="Q3" s="518"/>
+      <c r="R3" s="539"/>
+      <c r="S3" s="539"/>
+      <c r="T3" s="540"/>
+      <c r="U3" s="518"/>
+      <c r="V3" s="539"/>
+      <c r="W3" s="539"/>
+      <c r="X3" s="540"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -12184,16 +12234,16 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="513" t="s">
+      <c r="Q4" s="529" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="514"/>
-      <c r="S4" s="514"/>
-      <c r="T4" s="515"/>
-      <c r="U4" s="513"/>
-      <c r="V4" s="514"/>
-      <c r="W4" s="514"/>
-      <c r="X4" s="515"/>
+      <c r="R4" s="530"/>
+      <c r="S4" s="530"/>
+      <c r="T4" s="531"/>
+      <c r="U4" s="529"/>
+      <c r="V4" s="530"/>
+      <c r="W4" s="530"/>
+      <c r="X4" s="531"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
@@ -12217,14 +12267,14 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="513"/>
-      <c r="R5" s="514"/>
-      <c r="S5" s="514"/>
-      <c r="T5" s="515"/>
-      <c r="U5" s="513"/>
-      <c r="V5" s="514"/>
-      <c r="W5" s="514"/>
-      <c r="X5" s="515"/>
+      <c r="Q5" s="529"/>
+      <c r="R5" s="530"/>
+      <c r="S5" s="530"/>
+      <c r="T5" s="531"/>
+      <c r="U5" s="529"/>
+      <c r="V5" s="530"/>
+      <c r="W5" s="530"/>
+      <c r="X5" s="531"/>
     </row>
     <row r="6" spans="1:24" hidden="1">
       <c r="A6" s="16" t="s">
@@ -12248,14 +12298,14 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="516"/>
-      <c r="R6" s="517"/>
-      <c r="S6" s="517"/>
-      <c r="T6" s="518"/>
-      <c r="U6" s="516"/>
-      <c r="V6" s="517"/>
-      <c r="W6" s="517"/>
-      <c r="X6" s="518"/>
+      <c r="Q6" s="532"/>
+      <c r="R6" s="533"/>
+      <c r="S6" s="533"/>
+      <c r="T6" s="534"/>
+      <c r="U6" s="532"/>
+      <c r="V6" s="533"/>
+      <c r="W6" s="533"/>
+      <c r="X6" s="534"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="18" t="s">
@@ -12298,7 +12348,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:24" hidden="1">
-      <c r="A9" s="521" t="s">
+      <c r="A9" s="537" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -12319,7 +12369,7 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="522"/>
+      <c r="A10" s="538"/>
       <c r="B10" s="23">
         <f>B6*B9</f>
         <v>1127.3</v>
@@ -12339,7 +12389,7 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:24" hidden="1">
-      <c r="A11" s="519" t="s">
+      <c r="A11" s="535" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
@@ -12361,7 +12411,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A12" s="520"/>
+      <c r="A12" s="536"/>
       <c r="B12" s="23">
         <f>B5*B11</f>
         <v>62858</v>
@@ -12382,7 +12432,7 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:24" hidden="1">
-      <c r="A13" s="521" t="s">
+      <c r="A13" s="537" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="24">
@@ -12404,7 +12454,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A14" s="522"/>
+      <c r="A14" s="538"/>
       <c r="B14" s="23">
         <f>B5*B13</f>
         <v>0</v>
@@ -12443,34 +12493,34 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A16" s="495" t="s">
+      <c r="A16" s="512" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="496"/>
-      <c r="C16" s="494" t="s">
+      <c r="B16" s="513"/>
+      <c r="C16" s="511" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="494"/>
-      <c r="E16" s="494"/>
-      <c r="F16" s="494"/>
-      <c r="G16" s="494" t="s">
+      <c r="D16" s="511"/>
+      <c r="E16" s="511"/>
+      <c r="F16" s="511"/>
+      <c r="G16" s="511" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="494"/>
-      <c r="I16" s="494"/>
-      <c r="J16" s="494"/>
-      <c r="K16" s="494" t="s">
+      <c r="H16" s="511"/>
+      <c r="I16" s="511"/>
+      <c r="J16" s="511"/>
+      <c r="K16" s="511" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="494"/>
-      <c r="M16" s="494"/>
+      <c r="L16" s="511"/>
+      <c r="M16" s="511"/>
       <c r="N16" s="192"/>
       <c r="O16" s="193"/>
       <c r="P16" s="383"/>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="497"/>
-      <c r="B17" s="498"/>
+      <c r="A17" s="514"/>
+      <c r="B17" s="515"/>
       <c r="C17" s="194">
         <v>1</v>
       </c>
@@ -12621,26 +12671,26 @@
         <v>21</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="500">
+      <c r="C20" s="517">
         <f>Q20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D20" s="500"/>
-      <c r="E20" s="500"/>
-      <c r="F20" s="500"/>
-      <c r="G20" s="500">
+      <c r="D20" s="517"/>
+      <c r="E20" s="517"/>
+      <c r="F20" s="517"/>
+      <c r="G20" s="517">
         <f>C20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="500"/>
-      <c r="I20" s="500"/>
-      <c r="J20" s="500"/>
-      <c r="K20" s="500">
+      <c r="H20" s="517"/>
+      <c r="I20" s="517"/>
+      <c r="J20" s="517"/>
+      <c r="K20" s="517">
         <f>G20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L20" s="500"/>
-      <c r="M20" s="500"/>
+      <c r="L20" s="517"/>
+      <c r="M20" s="517"/>
       <c r="N20" s="214">
         <f>(1+C20)^(1/4)-1</f>
         <v>1.6106667595102708E-2</v>
@@ -13849,12 +13899,12 @@
       <c r="N53" s="36"/>
       <c r="O53" s="37"/>
       <c r="P53" s="36"/>
-      <c r="T53" s="501" t="s">
+      <c r="T53" s="518" t="s">
         <v>53</v>
       </c>
-      <c r="U53" s="502"/>
-      <c r="V53" s="502"/>
-      <c r="W53" s="502"/>
+      <c r="U53" s="519"/>
+      <c r="V53" s="519"/>
+      <c r="W53" s="519"/>
     </row>
     <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="96" t="s">
@@ -13896,10 +13946,10 @@
       <c r="N54" s="102"/>
       <c r="O54" s="103"/>
       <c r="P54" s="102"/>
-      <c r="T54" s="501"/>
-      <c r="U54" s="502"/>
-      <c r="V54" s="502"/>
-      <c r="W54" s="502"/>
+      <c r="T54" s="518"/>
+      <c r="U54" s="519"/>
+      <c r="V54" s="519"/>
+      <c r="W54" s="519"/>
     </row>
     <row r="55" spans="1:23" hidden="1">
       <c r="A55" s="104" t="s">
@@ -13929,10 +13979,10 @@
       <c r="N55" s="52"/>
       <c r="O55" s="53"/>
       <c r="P55" s="52"/>
-      <c r="T55" s="501"/>
-      <c r="U55" s="502"/>
-      <c r="V55" s="502"/>
-      <c r="W55" s="502"/>
+      <c r="T55" s="518"/>
+      <c r="U55" s="519"/>
+      <c r="V55" s="519"/>
+      <c r="W55" s="519"/>
     </row>
     <row r="56" spans="1:23" hidden="1">
       <c r="A56" s="108" t="s">
@@ -14323,22 +14373,10 @@
         <f>SUM(C65:P65)</f>
         <v>5933504682.4885702</v>
       </c>
-      <c r="C65" s="209">
-        <f>C50+C57+C64</f>
-        <v>0</v>
-      </c>
-      <c r="D65" s="209">
-        <f>D50+D57+D64</f>
-        <v>0</v>
-      </c>
-      <c r="E65" s="209">
-        <f>E50+E57+E64</f>
-        <v>0</v>
-      </c>
-      <c r="F65" s="209">
-        <f>F50+F57+F64</f>
-        <v>0</v>
-      </c>
+      <c r="C65" s="209"/>
+      <c r="D65" s="209"/>
+      <c r="E65" s="209"/>
+      <c r="F65" s="209"/>
       <c r="G65" s="208">
         <f>SUM(G50+G63)</f>
         <v>886506300.66158772</v>
@@ -14450,17 +14488,17 @@
         <v>66</v>
       </c>
       <c r="B67" s="91"/>
-      <c r="C67" s="503"/>
-      <c r="D67" s="503"/>
-      <c r="E67" s="503"/>
-      <c r="F67" s="504"/>
-      <c r="G67" s="504"/>
-      <c r="H67" s="504"/>
-      <c r="I67" s="504"/>
-      <c r="J67" s="504"/>
-      <c r="K67" s="504"/>
-      <c r="L67" s="504"/>
-      <c r="M67" s="504"/>
+      <c r="C67" s="520"/>
+      <c r="D67" s="520"/>
+      <c r="E67" s="520"/>
+      <c r="F67" s="521"/>
+      <c r="G67" s="521"/>
+      <c r="H67" s="521"/>
+      <c r="I67" s="521"/>
+      <c r="J67" s="521"/>
+      <c r="K67" s="521"/>
+      <c r="L67" s="521"/>
+      <c r="M67" s="521"/>
       <c r="N67" s="128"/>
       <c r="O67" s="129"/>
       <c r="P67" s="128"/>
@@ -15845,102 +15883,85 @@
       <c r="L92" s="184"/>
     </row>
     <row r="93" spans="1:17" s="14" customFormat="1" ht="15.75">
-      <c r="A93" s="505" t="s">
+      <c r="A93" s="522" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="505"/>
-      <c r="C93" s="505"/>
-      <c r="D93" s="505"/>
-      <c r="E93" s="505"/>
+      <c r="B93" s="522"/>
+      <c r="C93" s="522"/>
+      <c r="D93" s="522"/>
+      <c r="E93" s="522"/>
       <c r="F93" s="385"/>
       <c r="G93" s="387"/>
-      <c r="H93" s="186" t="s">
-        <v>186</v>
-      </c>
+      <c r="H93" s="186"/>
       <c r="I93" s="186"/>
       <c r="J93" s="186"/>
       <c r="K93" s="186"/>
       <c r="L93" s="186"/>
     </row>
     <row r="94" spans="1:17" ht="15.75">
-      <c r="A94" s="492" t="s">
+      <c r="A94" s="509" t="s">
         <v>102</v>
       </c>
-      <c r="B94" s="492"/>
-      <c r="C94" s="492"/>
-      <c r="D94" s="506">
+      <c r="B94" s="509"/>
+      <c r="C94" s="509"/>
+      <c r="D94" s="523">
         <f>B86</f>
         <v>1256156984.3194733</v>
       </c>
-      <c r="E94" s="506"/>
+      <c r="E94" s="523"/>
       <c r="F94" s="386"/>
       <c r="G94" s="388"/>
-      <c r="H94" s="22" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="95" spans="1:17" ht="15.75">
-      <c r="A95" s="492" t="s">
+      <c r="A95" s="509" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="492"/>
-      <c r="C95" s="492"/>
-      <c r="D95" s="506">
+      <c r="B95" s="509"/>
+      <c r="C95" s="509"/>
+      <c r="D95" s="523">
         <f>B90</f>
         <v>771601140.15286112</v>
       </c>
-      <c r="E95" s="506"/>
+      <c r="E95" s="523"/>
       <c r="F95" s="386"/>
       <c r="G95" s="388"/>
     </row>
     <row r="96" spans="1:17" ht="15.75">
-      <c r="A96" s="492" t="s">
+      <c r="A96" s="509" t="s">
         <v>104</v>
       </c>
-      <c r="B96" s="492"/>
-      <c r="C96" s="492"/>
-      <c r="D96" s="532">
-        <f>F123+(-F124/(F124+G127))</f>
-        <v>4.0022681904506756</v>
+      <c r="B96" s="509"/>
+      <c r="C96" s="509"/>
+      <c r="D96" s="380">
+        <f>F123+(-F127/(G127+F127))</f>
+        <v>3.4762991636032208</v>
       </c>
       <c r="E96" s="380"/>
-      <c r="F96" s="530">
-        <f>SUM(C86:F86)</f>
-        <v>-675508782.27819991</v>
-      </c>
-      <c r="G96" s="531">
-        <f>SUM(G86:H86)</f>
-        <v>734619115.7595489</v>
-      </c>
+      <c r="F96" s="445"/>
+      <c r="G96" s="446"/>
     </row>
     <row r="97" spans="1:16" ht="15.75">
-      <c r="A97" s="492" t="s">
+      <c r="A97" s="509" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="492"/>
-      <c r="C97" s="492"/>
+      <c r="B97" s="509"/>
+      <c r="C97" s="509"/>
       <c r="D97" s="380">
-        <f>G123+(-G127/(-G127+H127))</f>
-        <v>6.379216291346343</v>
+        <f>G123+(-G130/(H130+E129))</f>
+        <v>5.9929501036444162</v>
       </c>
       <c r="E97" s="380"/>
-      <c r="F97" s="530">
-        <f>SUM(C90:F90)</f>
-        <v>-598368501.80901146</v>
-      </c>
-      <c r="G97" s="531">
-        <f>SUM(G90:H90)</f>
-        <v>595962193.61484098</v>
-      </c>
+      <c r="F97" s="445"/>
+      <c r="G97" s="446"/>
     </row>
     <row r="98" spans="1:16" ht="15.75">
-      <c r="A98" s="492" t="s">
+      <c r="A98" s="509" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="492"/>
-      <c r="C98" s="492"/>
+      <c r="B98" s="509"/>
+      <c r="C98" s="509"/>
       <c r="D98" s="381">
-        <f>IRR(C81:P81)</f>
+        <f>IRR(B126:O126)</f>
         <v>0.28180800467489253</v>
       </c>
       <c r="E98" s="381">
@@ -15951,72 +15972,77 @@
       <c r="G98" s="388"/>
     </row>
     <row r="99" spans="1:16" ht="15.75">
-      <c r="A99" s="492" t="s">
+      <c r="A99" s="509" t="s">
         <v>107</v>
       </c>
-      <c r="B99" s="492"/>
-      <c r="C99" s="492"/>
-      <c r="D99" s="493"/>
-      <c r="E99" s="493"/>
+      <c r="B99" s="509"/>
+      <c r="C99" s="509"/>
+      <c r="D99" s="510">
+        <f>SUM(B131:O131)/SUM(B132:O132)</f>
+        <v>1.3452823534053628</v>
+      </c>
+      <c r="E99" s="510"/>
       <c r="F99" s="386"/>
       <c r="G99" s="388"/>
     </row>
     <row r="100" spans="1:16" ht="15.75">
-      <c r="A100" s="507" t="s">
+      <c r="A100" s="524" t="s">
         <v>108</v>
       </c>
-      <c r="B100" s="508"/>
-      <c r="C100" s="508"/>
-      <c r="D100" s="509"/>
+      <c r="B100" s="525"/>
+      <c r="C100" s="525"/>
+      <c r="D100" s="526"/>
       <c r="E100" s="339"/>
     </row>
-    <row r="101" spans="1:16" ht="15.75" hidden="1">
-      <c r="A101" s="510"/>
-      <c r="B101" s="510"/>
-      <c r="C101" s="510"/>
-      <c r="D101" s="510"/>
+    <row r="101" spans="1:16" ht="15.75">
+      <c r="A101" s="546" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="547"/>
+      <c r="C101" s="547"/>
+      <c r="D101" s="547"/>
       <c r="E101" s="339"/>
     </row>
-    <row r="102" spans="1:16" ht="15.75" hidden="1">
-      <c r="A102" s="510"/>
-      <c r="B102" s="510"/>
-      <c r="C102" s="510"/>
-      <c r="D102" s="510"/>
+    <row r="102" spans="1:16" ht="15.75">
+      <c r="A102" s="547"/>
+      <c r="B102" s="547"/>
+      <c r="C102" s="547"/>
+      <c r="D102" s="547"/>
       <c r="E102" s="339"/>
     </row>
-    <row r="103" spans="1:16" ht="15.75" hidden="1">
-      <c r="A103" s="510"/>
-      <c r="B103" s="510"/>
-      <c r="C103" s="510"/>
-      <c r="D103" s="510"/>
+    <row r="103" spans="1:16" ht="15.75">
+      <c r="A103" s="547"/>
+      <c r="B103" s="547"/>
+      <c r="C103" s="547"/>
+      <c r="D103" s="547"/>
       <c r="E103" s="339"/>
     </row>
-    <row r="104" spans="1:16" ht="15.75" hidden="1">
-      <c r="A104" s="510"/>
-      <c r="B104" s="510"/>
-      <c r="C104" s="510"/>
-      <c r="D104" s="510"/>
+    <row r="104" spans="1:16" ht="15.75">
+      <c r="A104" s="547"/>
+      <c r="B104" s="547"/>
+      <c r="C104" s="547"/>
+      <c r="D104" s="547"/>
       <c r="E104" s="339"/>
     </row>
-    <row r="105" spans="1:16" ht="15.75" hidden="1">
-      <c r="A105" s="510"/>
-      <c r="B105" s="510"/>
-      <c r="C105" s="510"/>
-      <c r="D105" s="510"/>
+    <row r="105" spans="1:16" ht="15.75">
+      <c r="A105" s="547"/>
+      <c r="B105" s="547"/>
+      <c r="C105" s="547"/>
+      <c r="D105" s="547"/>
       <c r="E105" s="339"/>
     </row>
-    <row r="106" spans="1:16" ht="15.75" hidden="1">
-      <c r="A106" s="510"/>
-      <c r="B106" s="510"/>
-      <c r="C106" s="510"/>
-      <c r="D106" s="510"/>
+    <row r="106" spans="1:16" ht="15.75">
+      <c r="A106" s="547"/>
+      <c r="B106" s="547"/>
+      <c r="C106" s="547"/>
+      <c r="D106" s="547"/>
       <c r="E106" s="339"/>
     </row>
-    <row r="107" spans="1:16" ht="15.75" hidden="1">
-      <c r="A107" s="510"/>
-      <c r="B107" s="510"/>
-      <c r="C107" s="510"/>
-      <c r="D107" s="510"/>
+    <row r="107" spans="1:16" ht="15.75">
+      <c r="A107" s="547"/>
+      <c r="B107" s="547"/>
+      <c r="C107" s="547"/>
+      <c r="D107" s="547"/>
       <c r="E107" s="339"/>
     </row>
     <row r="109" spans="1:16" hidden="1"/>
@@ -16024,131 +16050,131 @@
       <c r="P112" s="14"/>
     </row>
     <row r="113" spans="1:16" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
-      <c r="A113" s="499" t="s">
+      <c r="A113" s="516" t="s">
         <v>88</v>
       </c>
-      <c r="B113" s="499"/>
-      <c r="C113" s="499"/>
-      <c r="D113" s="499"/>
-      <c r="E113" s="499"/>
-      <c r="F113" s="499"/>
-      <c r="G113" s="499"/>
-      <c r="H113" s="499"/>
-      <c r="I113" s="499"/>
-      <c r="J113" s="499"/>
-      <c r="K113" s="499"/>
+      <c r="B113" s="516"/>
+      <c r="C113" s="516"/>
+      <c r="D113" s="516"/>
+      <c r="E113" s="516"/>
+      <c r="F113" s="516"/>
+      <c r="G113" s="516"/>
+      <c r="H113" s="516"/>
+      <c r="I113" s="516"/>
+      <c r="J113" s="516"/>
+      <c r="K113" s="516"/>
       <c r="L113" s="178"/>
       <c r="M113" s="178"/>
       <c r="N113" s="177"/>
     </row>
     <row r="114" spans="1:16" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
-      <c r="A114" s="499"/>
-      <c r="B114" s="499"/>
-      <c r="C114" s="499"/>
-      <c r="D114" s="499"/>
-      <c r="E114" s="499"/>
-      <c r="F114" s="499"/>
-      <c r="G114" s="499"/>
-      <c r="H114" s="499"/>
-      <c r="I114" s="499"/>
-      <c r="J114" s="499"/>
-      <c r="K114" s="499"/>
+      <c r="A114" s="516"/>
+      <c r="B114" s="516"/>
+      <c r="C114" s="516"/>
+      <c r="D114" s="516"/>
+      <c r="E114" s="516"/>
+      <c r="F114" s="516"/>
+      <c r="G114" s="516"/>
+      <c r="H114" s="516"/>
+      <c r="I114" s="516"/>
+      <c r="J114" s="516"/>
+      <c r="K114" s="516"/>
       <c r="L114" s="179"/>
       <c r="M114" s="179"/>
       <c r="N114" s="177"/>
     </row>
     <row r="115" spans="1:16" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
-      <c r="A115" s="499"/>
-      <c r="B115" s="499"/>
-      <c r="C115" s="499"/>
-      <c r="D115" s="499"/>
-      <c r="E115" s="499"/>
-      <c r="F115" s="499"/>
-      <c r="G115" s="499"/>
-      <c r="H115" s="499"/>
-      <c r="I115" s="499"/>
-      <c r="J115" s="499"/>
-      <c r="K115" s="499"/>
+      <c r="A115" s="516"/>
+      <c r="B115" s="516"/>
+      <c r="C115" s="516"/>
+      <c r="D115" s="516"/>
+      <c r="E115" s="516"/>
+      <c r="F115" s="516"/>
+      <c r="G115" s="516"/>
+      <c r="H115" s="516"/>
+      <c r="I115" s="516"/>
+      <c r="J115" s="516"/>
+      <c r="K115" s="516"/>
       <c r="L115" s="179"/>
       <c r="M115" s="179"/>
       <c r="N115" s="177"/>
     </row>
     <row r="116" spans="1:16" s="14" customFormat="1" ht="26.25" hidden="1" customHeight="1">
-      <c r="A116" s="499"/>
-      <c r="B116" s="499"/>
-      <c r="C116" s="499"/>
-      <c r="D116" s="499"/>
-      <c r="E116" s="499"/>
-      <c r="F116" s="499"/>
-      <c r="G116" s="499"/>
-      <c r="H116" s="499"/>
-      <c r="I116" s="499"/>
-      <c r="J116" s="499"/>
-      <c r="K116" s="499"/>
+      <c r="A116" s="516"/>
+      <c r="B116" s="516"/>
+      <c r="C116" s="516"/>
+      <c r="D116" s="516"/>
+      <c r="E116" s="516"/>
+      <c r="F116" s="516"/>
+      <c r="G116" s="516"/>
+      <c r="H116" s="516"/>
+      <c r="I116" s="516"/>
+      <c r="J116" s="516"/>
+      <c r="K116" s="516"/>
       <c r="L116" s="179"/>
       <c r="M116" s="179"/>
       <c r="N116" s="177"/>
     </row>
     <row r="117" spans="1:16" s="14" customFormat="1" ht="26.25" hidden="1" customHeight="1">
-      <c r="A117" s="499"/>
-      <c r="B117" s="499"/>
-      <c r="C117" s="499"/>
-      <c r="D117" s="499"/>
-      <c r="E117" s="499"/>
-      <c r="F117" s="499"/>
-      <c r="G117" s="499"/>
-      <c r="H117" s="499"/>
-      <c r="I117" s="499"/>
-      <c r="J117" s="499"/>
-      <c r="K117" s="499"/>
+      <c r="A117" s="516"/>
+      <c r="B117" s="516"/>
+      <c r="C117" s="516"/>
+      <c r="D117" s="516"/>
+      <c r="E117" s="516"/>
+      <c r="F117" s="516"/>
+      <c r="G117" s="516"/>
+      <c r="H117" s="516"/>
+      <c r="I117" s="516"/>
+      <c r="J117" s="516"/>
+      <c r="K117" s="516"/>
       <c r="L117" s="180"/>
       <c r="M117" s="180"/>
       <c r="N117" s="177"/>
     </row>
     <row r="118" spans="1:16" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A118" s="499"/>
-      <c r="B118" s="499"/>
-      <c r="C118" s="499"/>
-      <c r="D118" s="499"/>
-      <c r="E118" s="499"/>
-      <c r="F118" s="499"/>
-      <c r="G118" s="499"/>
-      <c r="H118" s="499"/>
-      <c r="I118" s="499"/>
-      <c r="J118" s="499"/>
-      <c r="K118" s="499"/>
+      <c r="A118" s="516"/>
+      <c r="B118" s="516"/>
+      <c r="C118" s="516"/>
+      <c r="D118" s="516"/>
+      <c r="E118" s="516"/>
+      <c r="F118" s="516"/>
+      <c r="G118" s="516"/>
+      <c r="H118" s="516"/>
+      <c r="I118" s="516"/>
+      <c r="J118" s="516"/>
+      <c r="K118" s="516"/>
       <c r="L118" s="180"/>
       <c r="M118" s="180"/>
       <c r="N118" s="177"/>
     </row>
     <row r="119" spans="1:16" s="183" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A119" s="499"/>
-      <c r="B119" s="499"/>
-      <c r="C119" s="499"/>
-      <c r="D119" s="499"/>
-      <c r="E119" s="499"/>
-      <c r="F119" s="499"/>
-      <c r="G119" s="499"/>
-      <c r="H119" s="499"/>
-      <c r="I119" s="499"/>
-      <c r="J119" s="499"/>
-      <c r="K119" s="499"/>
+      <c r="A119" s="516"/>
+      <c r="B119" s="516"/>
+      <c r="C119" s="516"/>
+      <c r="D119" s="516"/>
+      <c r="E119" s="516"/>
+      <c r="F119" s="516"/>
+      <c r="G119" s="516"/>
+      <c r="H119" s="516"/>
+      <c r="I119" s="516"/>
+      <c r="J119" s="516"/>
+      <c r="K119" s="516"/>
       <c r="L119" s="181"/>
       <c r="M119" s="182"/>
       <c r="N119" s="182"/>
     </row>
     <row r="120" spans="1:16" s="182" customFormat="1" ht="18.75" hidden="1" collapsed="1">
-      <c r="A120" s="499"/>
-      <c r="B120" s="499"/>
-      <c r="C120" s="499"/>
-      <c r="D120" s="499"/>
-      <c r="E120" s="499"/>
-      <c r="F120" s="499"/>
-      <c r="G120" s="499"/>
-      <c r="H120" s="499"/>
-      <c r="I120" s="499"/>
-      <c r="J120" s="499"/>
-      <c r="K120" s="499"/>
+      <c r="A120" s="516"/>
+      <c r="B120" s="516"/>
+      <c r="C120" s="516"/>
+      <c r="D120" s="516"/>
+      <c r="E120" s="516"/>
+      <c r="F120" s="516"/>
+      <c r="G120" s="516"/>
+      <c r="H120" s="516"/>
+      <c r="I120" s="516"/>
+      <c r="J120" s="516"/>
+      <c r="K120" s="516"/>
       <c r="L120" s="181"/>
     </row>
     <row r="121" spans="1:16">
@@ -16158,319 +16184,677 @@
       <c r="P122" s="14"/>
     </row>
     <row r="123" spans="1:16">
-      <c r="B123" s="188" t="str">
-        <f>C68</f>
-        <v>1 квартал</v>
-      </c>
-      <c r="C123" s="188" t="str">
-        <f t="shared" ref="C123:O123" si="50">D68</f>
-        <v>2 квартал</v>
-      </c>
-      <c r="D123" s="188" t="str">
+      <c r="B123" s="188">
+        <v>1</v>
+      </c>
+      <c r="C123" s="188">
+        <v>2</v>
+      </c>
+      <c r="D123" s="188">
+        <v>3</v>
+      </c>
+      <c r="E123" s="188">
+        <v>4</v>
+      </c>
+      <c r="F123" s="188">
+        <v>5</v>
+      </c>
+      <c r="G123" s="188">
+        <v>6</v>
+      </c>
+      <c r="H123" s="188">
+        <v>7</v>
+      </c>
+      <c r="I123" s="188">
+        <v>8</v>
+      </c>
+      <c r="J123" s="188">
+        <v>9</v>
+      </c>
+      <c r="K123" s="188">
+        <v>10</v>
+      </c>
+      <c r="L123" s="188">
+        <v>11</v>
+      </c>
+      <c r="M123" s="188">
+        <v>12</v>
+      </c>
+      <c r="N123" s="188">
+        <v>13</v>
+      </c>
+      <c r="O123" s="188">
+        <v>14</v>
+      </c>
+      <c r="P123" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
+      <c r="A124" s="447" t="s">
+        <v>187</v>
+      </c>
+      <c r="B124" s="449">
+        <f>C78</f>
+        <v>85358517.979999989</v>
+      </c>
+      <c r="C124" s="449">
+        <f t="shared" ref="C124:O124" si="50">D78</f>
+        <v>21038720.099399999</v>
+      </c>
+      <c r="D124" s="449">
         <f t="shared" si="50"/>
-        <v>3 квартал</v>
-      </c>
-      <c r="E123" s="188">
+        <v>167084272.09940001</v>
+      </c>
+      <c r="E124" s="449">
         <f t="shared" si="50"/>
-        <v>4</v>
-      </c>
-      <c r="F123" s="188">
+        <v>402027272.09939998</v>
+      </c>
+      <c r="F124" s="449">
         <f t="shared" si="50"/>
-        <v>5</v>
-      </c>
-      <c r="G123" s="188">
+        <v>382978272.09939998</v>
+      </c>
+      <c r="G124" s="449">
         <f t="shared" si="50"/>
-        <v>6</v>
-      </c>
-      <c r="H123" s="188" t="str">
+        <v>573473272.09940004</v>
+      </c>
+      <c r="H124" s="449">
         <f t="shared" si="50"/>
-        <v>7 квартал</v>
-      </c>
-      <c r="I123" s="188" t="str">
+        <v>763967272.09940004</v>
+      </c>
+      <c r="I124" s="449">
         <f t="shared" si="50"/>
-        <v>8 квартал</v>
-      </c>
-      <c r="J123" s="188" t="str">
+        <v>573473272.09940004</v>
+      </c>
+      <c r="J124" s="449">
         <f t="shared" si="50"/>
-        <v>9 квартал</v>
-      </c>
-      <c r="K123" s="188" t="str">
+        <v>573473272.09940004</v>
+      </c>
+      <c r="K124" s="449">
         <f t="shared" si="50"/>
-        <v>10 квартал</v>
-      </c>
-      <c r="L123" s="188" t="str">
+        <v>382978272.09939998</v>
+      </c>
+      <c r="L124" s="449">
         <f t="shared" si="50"/>
-        <v>11 квартал</v>
-      </c>
-      <c r="M123" s="188" t="str">
+        <v>192484272.09940001</v>
+      </c>
+      <c r="M124" s="449">
         <f t="shared" si="50"/>
-        <v>12 квартал</v>
-      </c>
-      <c r="N123" s="188" t="str">
+        <v>1989272.0993999997</v>
+      </c>
+      <c r="N124" s="449">
         <f t="shared" si="50"/>
-        <v>13 квартал</v>
-      </c>
-      <c r="O123" s="188" t="str">
+        <v>994636.04969999986</v>
+      </c>
+      <c r="O124" s="449">
         <f t="shared" si="50"/>
-        <v>14 квартал</v>
-      </c>
-      <c r="P123" s="14"/>
-    </row>
-    <row r="124" spans="1:16">
-      <c r="A124" s="533" t="s">
+        <v>994636.04969999986</v>
+      </c>
+      <c r="P124" s="14"/>
+    </row>
+    <row r="125" spans="1:16">
+      <c r="A125" s="447" t="s">
         <v>188</v>
       </c>
-      <c r="B124" s="535">
-        <f>-C78</f>
+      <c r="B125" s="455">
+        <f>C65</f>
+        <v>0</v>
+      </c>
+      <c r="C125" s="455">
+        <f t="shared" ref="C125:O125" si="51">D65</f>
+        <v>0</v>
+      </c>
+      <c r="D125" s="455">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="E125" s="455">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F125" s="456">
+        <f t="shared" si="51"/>
+        <v>886506300.66158772</v>
+      </c>
+      <c r="G125" s="456">
+        <f t="shared" si="51"/>
+        <v>804564359.29676127</v>
+      </c>
+      <c r="H125" s="456">
+        <f t="shared" si="51"/>
+        <v>772385643.37667525</v>
+      </c>
+      <c r="I125" s="456">
+        <f t="shared" si="51"/>
+        <v>737710789.5198772</v>
+      </c>
+      <c r="J125" s="456">
+        <f t="shared" si="51"/>
+        <v>700423413.4097755</v>
+      </c>
+      <c r="K125" s="456">
+        <f t="shared" si="51"/>
+        <v>564343969.41280913</v>
+      </c>
+      <c r="L125" s="456">
+        <f t="shared" si="51"/>
+        <v>500193080.72251832</v>
+      </c>
+      <c r="M125" s="456">
+        <f t="shared" si="51"/>
+        <v>269945049.28975403</v>
+      </c>
+      <c r="N125" s="456">
+        <f t="shared" si="51"/>
+        <v>242021615.80881092</v>
+      </c>
+      <c r="O125" s="456">
+        <f t="shared" si="51"/>
+        <v>455410460.99000072</v>
+      </c>
+      <c r="P125" s="14"/>
+    </row>
+    <row r="126" spans="1:16" ht="15">
+      <c r="A126" s="447" t="s">
+        <v>186</v>
+      </c>
+      <c r="B126" s="453">
+        <f>B125-B124</f>
         <v>-85358517.979999989</v>
       </c>
-      <c r="C124" s="536">
-        <f>B124-D78</f>
+      <c r="C126" s="453">
+        <f t="shared" ref="C126:O126" si="52">C125-C124</f>
+        <v>-21038720.099399999</v>
+      </c>
+      <c r="D126" s="453">
+        <f t="shared" si="52"/>
+        <v>-167084272.09940001</v>
+      </c>
+      <c r="E126" s="453">
+        <f t="shared" si="52"/>
+        <v>-402027272.09939998</v>
+      </c>
+      <c r="F126" s="453">
+        <f t="shared" si="52"/>
+        <v>503528028.56218773</v>
+      </c>
+      <c r="G126" s="453">
+        <f t="shared" si="52"/>
+        <v>231091087.19736123</v>
+      </c>
+      <c r="H126" s="453">
+        <f t="shared" si="52"/>
+        <v>8418371.2772752047</v>
+      </c>
+      <c r="I126" s="453">
+        <f t="shared" si="52"/>
+        <v>164237517.42047715</v>
+      </c>
+      <c r="J126" s="453">
+        <f t="shared" si="52"/>
+        <v>126950141.31037545</v>
+      </c>
+      <c r="K126" s="453">
+        <f t="shared" si="52"/>
+        <v>181365697.31340915</v>
+      </c>
+      <c r="L126" s="453">
+        <f t="shared" si="52"/>
+        <v>307708808.62311828</v>
+      </c>
+      <c r="M126" s="453">
+        <f t="shared" si="52"/>
+        <v>267955777.19035402</v>
+      </c>
+      <c r="N126" s="453">
+        <f t="shared" si="52"/>
+        <v>241026979.75911093</v>
+      </c>
+      <c r="O126" s="453">
+        <f t="shared" si="52"/>
+        <v>454415824.9403007</v>
+      </c>
+      <c r="P126" s="458">
+        <f>SUM(B126:O126)</f>
+        <v>1811189451.3157699</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="15">
+      <c r="A127" s="448" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="453">
+        <f>B126</f>
+        <v>-85358517.979999989</v>
+      </c>
+      <c r="C127" s="453">
+        <f>B127+C126</f>
         <v>-106397238.07939999</v>
       </c>
-      <c r="D124" s="536">
-        <f t="shared" ref="D124:O124" si="51">C124-E78</f>
+      <c r="D127" s="453">
+        <f t="shared" ref="D127:O127" si="53">C127+D126</f>
         <v>-273481510.17879999</v>
       </c>
-      <c r="E124" s="536">
-        <f t="shared" si="51"/>
+      <c r="E127" s="453">
+        <f t="shared" si="53"/>
         <v>-675508782.27819991</v>
       </c>
-      <c r="F124" s="536">
-        <f t="shared" si="51"/>
-        <v>-1058487054.3776</v>
-      </c>
-      <c r="G124" s="536">
-        <f t="shared" si="51"/>
-        <v>-1631960326.477</v>
-      </c>
-      <c r="H124" s="536">
-        <f t="shared" si="51"/>
-        <v>-2395927598.5763998</v>
-      </c>
-      <c r="I124" s="536">
-        <f t="shared" si="51"/>
-        <v>-2969400870.6757998</v>
-      </c>
-      <c r="J124" s="536">
-        <f t="shared" si="51"/>
-        <v>-3542874142.7751999</v>
-      </c>
-      <c r="K124" s="536">
-        <f t="shared" si="51"/>
-        <v>-3925852414.8745999</v>
-      </c>
-      <c r="L124" s="536">
-        <f t="shared" si="51"/>
-        <v>-4118336686.974</v>
-      </c>
-      <c r="M124" s="536">
-        <f t="shared" si="51"/>
-        <v>-4120325959.0734</v>
-      </c>
-      <c r="N124" s="536">
-        <f t="shared" si="51"/>
-        <v>-4121320595.1230998</v>
-      </c>
-      <c r="O124" s="536">
-        <f t="shared" si="51"/>
-        <v>-4122315231.1727996</v>
-      </c>
-      <c r="P124" s="537"/>
-    </row>
-    <row r="125" spans="1:16" ht="15">
-      <c r="A125" s="533" t="s">
-        <v>189</v>
-      </c>
-      <c r="B125" s="541">
-        <f>C65-C78</f>
-        <v>-85358517.979999989</v>
-      </c>
-      <c r="C125" s="541">
-        <f>D65-D78</f>
-        <v>-21038720.099399999</v>
-      </c>
-      <c r="D125" s="541">
-        <f>E65-E78</f>
-        <v>-167084272.09940001</v>
-      </c>
-      <c r="E125" s="541">
-        <f>F65-F78</f>
-        <v>-402027272.09939998</v>
-      </c>
-      <c r="F125" s="541">
-        <f>G65-G78</f>
-        <v>503528028.56218773</v>
-      </c>
-      <c r="G125" s="541">
-        <f>H65-H78</f>
-        <v>231091087.19736123</v>
-      </c>
-      <c r="H125" s="541">
-        <f>I65-I78</f>
-        <v>8418371.2772752047</v>
-      </c>
-      <c r="I125" s="541">
-        <f>J65-J78</f>
-        <v>164237517.42047715</v>
-      </c>
-      <c r="J125" s="541">
-        <f>K65-K78</f>
-        <v>126950141.31037545</v>
-      </c>
-      <c r="K125" s="541">
-        <f>L65-L78</f>
-        <v>181365697.31340915</v>
-      </c>
-      <c r="L125" s="541">
-        <f>M65-M78</f>
-        <v>307708808.62311828</v>
-      </c>
-      <c r="M125" s="541">
-        <f>N65-N78</f>
-        <v>267955777.19035402</v>
-      </c>
-      <c r="N125" s="541">
-        <f>O65-O78</f>
-        <v>241026979.75911093</v>
-      </c>
-      <c r="O125" s="541">
-        <f>P65-P78</f>
-        <v>454415824.9403007</v>
-      </c>
-      <c r="P125" s="14"/>
-    </row>
-    <row r="126" spans="1:16" ht="15">
-      <c r="A126" s="534" t="s">
-        <v>133</v>
-      </c>
-      <c r="P126" s="538"/>
-    </row>
-    <row r="127" spans="1:16" ht="15" customHeight="1">
-      <c r="A127" s="534" t="s">
+      <c r="F127" s="453">
+        <f t="shared" si="53"/>
+        <v>-171980753.71601218</v>
+      </c>
+      <c r="G127" s="453">
+        <f t="shared" si="53"/>
+        <v>59110333.481349051</v>
+      </c>
+      <c r="H127" s="453">
+        <f t="shared" si="53"/>
+        <v>67528704.758624256</v>
+      </c>
+      <c r="I127" s="453">
+        <f t="shared" si="53"/>
+        <v>231766222.17910141</v>
+      </c>
+      <c r="J127" s="453">
+        <f t="shared" si="53"/>
+        <v>358716363.48947686</v>
+      </c>
+      <c r="K127" s="453">
+        <f t="shared" si="53"/>
+        <v>540082060.80288601</v>
+      </c>
+      <c r="L127" s="453">
+        <f t="shared" si="53"/>
+        <v>847790869.42600429</v>
+      </c>
+      <c r="M127" s="453">
+        <f t="shared" si="53"/>
+        <v>1115746646.6163583</v>
+      </c>
+      <c r="N127" s="453">
+        <f t="shared" si="53"/>
+        <v>1356773626.3754692</v>
+      </c>
+      <c r="O127" s="453">
+        <f t="shared" si="53"/>
+        <v>1811189451.3157699</v>
+      </c>
+      <c r="P127" s="453" t="b">
+        <f>O127=P126</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="15">
+      <c r="A128" s="457" t="s">
+        <v>190</v>
+      </c>
+      <c r="B128" s="459">
+        <f>C89</f>
+        <v>0.9784905367330925</v>
+      </c>
+      <c r="C128" s="459">
+        <f t="shared" ref="C128:O128" si="54">D89</f>
+        <v>0.9368496297254062</v>
+      </c>
+      <c r="D128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.89698080437955385</v>
+      </c>
+      <c r="E128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.85880864751071628</v>
+      </c>
+      <c r="F128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.82226095523789322</v>
+      </c>
+      <c r="G128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.7872685964079047</v>
+      </c>
+      <c r="H128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.75376538183155817</v>
+      </c>
+      <c r="I128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.7216879390846358</v>
+      </c>
+      <c r="J128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.69097559263688524</v>
+      </c>
+      <c r="K128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.66157024908227302</v>
+      </c>
+      <c r="L128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.63341628725341037</v>
+      </c>
+      <c r="M128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.60646045301229912</v>
+      </c>
+      <c r="N128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.58065175851839113</v>
+      </c>
+      <c r="O128" s="459">
+        <f t="shared" si="54"/>
+        <v>0.55594138578342289</v>
+      </c>
+      <c r="P128" s="14"/>
+    </row>
+    <row r="129" spans="1:29" ht="23.25" customHeight="1">
+      <c r="A129" s="448" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="452">
+        <f>B126*B128</f>
+        <v>-83522502.07299152</v>
+      </c>
+      <c r="C129" s="452">
+        <f t="shared" ref="C129:O129" si="55">C126*C128</f>
+        <v>-19710117.135019351</v>
+      </c>
+      <c r="D129" s="452">
+        <f t="shared" si="55"/>
+        <v>-149871384.78689209</v>
+      </c>
+      <c r="E129" s="452">
+        <f t="shared" si="55"/>
+        <v>-345264497.81410843</v>
+      </c>
+      <c r="F129" s="452">
+        <f t="shared" si="55"/>
+        <v>414031437.75459766</v>
+      </c>
+      <c r="G129" s="452">
+        <f t="shared" si="55"/>
+        <v>181930755.86024329</v>
+      </c>
+      <c r="H129" s="452">
+        <f t="shared" si="55"/>
+        <v>6345476.840215167</v>
+      </c>
+      <c r="I129" s="452">
+        <f t="shared" si="55"/>
+        <v>118528235.46756113</v>
+      </c>
+      <c r="J129" s="452">
+        <f t="shared" si="55"/>
+        <v>87719449.127273008</v>
+      </c>
+      <c r="K129" s="452">
+        <f t="shared" si="55"/>
+        <v>119986149.54661223</v>
+      </c>
+      <c r="L129" s="452">
+        <f t="shared" si="55"/>
+        <v>194907771.11322576</v>
+      </c>
+      <c r="M129" s="452">
+        <f t="shared" si="55"/>
+        <v>162504582.0221248</v>
+      </c>
+      <c r="N129" s="452">
+        <f t="shared" si="55"/>
+        <v>139952739.64750442</v>
+      </c>
+      <c r="O129" s="452">
+        <f t="shared" si="55"/>
+        <v>252628563.43922809</v>
+      </c>
+      <c r="P129" s="450"/>
+    </row>
+    <row r="130" spans="1:29" ht="23.25" customHeight="1">
+      <c r="A130" s="448" t="s">
         <v>134</v>
       </c>
-      <c r="B127" s="539">
-        <f>C90</f>
+      <c r="B130" s="452">
+        <f>B129</f>
         <v>-83522502.07299152</v>
       </c>
-      <c r="C127" s="539">
-        <f>B127+D90</f>
+      <c r="C130" s="452">
+        <f>B130+C129</f>
         <v>-103232619.20801087</v>
       </c>
-      <c r="D127" s="539">
-        <f t="shared" ref="D127:O127" si="52">C127+E90</f>
+      <c r="D130" s="452">
+        <f t="shared" ref="D130:O130" si="56">C130+D129</f>
         <v>-253104003.99490297</v>
       </c>
-      <c r="E127" s="539">
-        <f t="shared" si="52"/>
+      <c r="E130" s="452">
+        <f t="shared" si="56"/>
         <v>-598368501.80901146</v>
       </c>
-      <c r="F127" s="539">
-        <f t="shared" si="52"/>
+      <c r="F130" s="452">
+        <f t="shared" si="56"/>
         <v>-184337064.0544138</v>
       </c>
-      <c r="G127" s="539">
-        <f t="shared" si="52"/>
+      <c r="G130" s="452">
+        <f t="shared" si="56"/>
         <v>-2406308.1941705048</v>
       </c>
-      <c r="H127" s="539">
-        <f t="shared" si="52"/>
+      <c r="H130" s="452">
+        <f t="shared" si="56"/>
         <v>3939168.6460446622</v>
       </c>
-      <c r="I127" s="539">
-        <f t="shared" si="52"/>
+      <c r="I130" s="452">
+        <f t="shared" si="56"/>
         <v>122467404.11360578</v>
       </c>
-      <c r="J127" s="539">
-        <f t="shared" si="52"/>
+      <c r="J130" s="452">
+        <f t="shared" si="56"/>
         <v>210186853.24087879</v>
       </c>
-      <c r="K127" s="539">
-        <f t="shared" si="52"/>
+      <c r="K130" s="452">
+        <f t="shared" si="56"/>
         <v>330173002.78749102</v>
       </c>
-      <c r="L127" s="539">
-        <f t="shared" si="52"/>
+      <c r="L130" s="452">
+        <f t="shared" si="56"/>
         <v>525080773.90071678</v>
       </c>
-      <c r="M127" s="539">
-        <f t="shared" si="52"/>
+      <c r="M130" s="452">
+        <f t="shared" si="56"/>
         <v>687585355.92284155</v>
       </c>
-      <c r="N127" s="539">
-        <f t="shared" si="52"/>
+      <c r="N130" s="452">
+        <f t="shared" si="56"/>
         <v>827538095.570346</v>
       </c>
-      <c r="O127" s="539">
-        <f t="shared" si="52"/>
+      <c r="O130" s="452">
+        <f t="shared" si="56"/>
         <v>1080166659.0095742</v>
       </c>
-      <c r="P127" s="14"/>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="P128" s="14"/>
-    </row>
-    <row r="129" spans="2:29">
-      <c r="O129" s="540">
-        <f>O125+O124</f>
-        <v>-3667899406.2324991</v>
-      </c>
-    </row>
-    <row r="132" spans="2:29">
-      <c r="C132" s="189"/>
-    </row>
-    <row r="133" spans="2:29">
-      <c r="B133" s="22"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-    </row>
-    <row r="134" spans="2:29">
-      <c r="M134" s="22"/>
-      <c r="N134" s="22"/>
-      <c r="O134" s="22"/>
-      <c r="P134" s="22"/>
-      <c r="Q134" s="22"/>
-      <c r="R134" s="22"/>
-      <c r="S134" s="22"/>
-      <c r="T134" s="22"/>
-      <c r="U134" s="22"/>
-      <c r="V134" s="22"/>
-      <c r="W134" s="22"/>
-      <c r="X134" s="22"/>
-      <c r="Y134" s="22"/>
-      <c r="Z134" s="22"/>
-      <c r="AA134" s="22"/>
-    </row>
-    <row r="136" spans="2:29">
-      <c r="M136" s="22"/>
-      <c r="N136" s="22"/>
-      <c r="O136" s="22"/>
-      <c r="P136" s="22"/>
-      <c r="Q136" s="22"/>
-      <c r="R136" s="22"/>
-      <c r="S136" s="22"/>
-      <c r="T136" s="22"/>
-      <c r="U136" s="22"/>
-      <c r="V136" s="22"/>
-      <c r="W136" s="22"/>
-      <c r="X136" s="22"/>
-      <c r="Y136" s="22"/>
-      <c r="Z136" s="22"/>
-      <c r="AA136" s="22"/>
-      <c r="AC136" s="190"/>
-    </row>
-    <row r="138" spans="2:29">
-      <c r="D138" s="191"/>
-      <c r="E138" s="191"/>
+      <c r="P130" s="450"/>
+      <c r="Q130" s="461">
+        <f>SUM(B130:O130)</f>
+        <v>2562166313.8579979</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" ht="15" customHeight="1">
+      <c r="A131" s="448" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" s="454">
+        <f>B128*B125</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="454">
+        <f t="shared" ref="C131:O131" si="57">C128*C125</f>
+        <v>0</v>
+      </c>
+      <c r="D131" s="454">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="E131" s="454">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F131" s="454">
+        <f t="shared" si="57"/>
+        <v>728939517.60640812</v>
+      </c>
+      <c r="G131" s="454">
+        <f t="shared" si="57"/>
+        <v>633408253.86338639</v>
+      </c>
+      <c r="H131" s="454">
+        <f t="shared" si="57"/>
+        <v>582197559.40103328</v>
+      </c>
+      <c r="I131" s="454">
+        <f t="shared" si="57"/>
+        <v>532396979.32909971</v>
+      </c>
+      <c r="J131" s="454">
+        <f t="shared" si="57"/>
+        <v>483975483.17756969</v>
+      </c>
+      <c r="K131" s="454">
+        <f t="shared" si="57"/>
+        <v>373353180.41251081</v>
+      </c>
+      <c r="L131" s="454">
+        <f t="shared" si="57"/>
+        <v>316830444.10110295</v>
+      </c>
+      <c r="M131" s="454">
+        <f t="shared" si="57"/>
+        <v>163710996.88069165</v>
+      </c>
+      <c r="N131" s="454">
+        <f t="shared" si="57"/>
+        <v>140530276.81884852</v>
+      </c>
+      <c r="O131" s="454">
+        <f t="shared" si="57"/>
+        <v>253181522.78304845</v>
+      </c>
+      <c r="P131" s="14"/>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="447" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" s="460">
+        <f>B128*B124</f>
+        <v>83522502.07299152</v>
+      </c>
+      <c r="C132" s="460">
+        <f t="shared" ref="C132:O132" si="58">C128*C124</f>
+        <v>19710117.135019351</v>
+      </c>
+      <c r="D132" s="460">
+        <f t="shared" si="58"/>
+        <v>149871384.78689209</v>
+      </c>
+      <c r="E132" s="460">
+        <f t="shared" si="58"/>
+        <v>345264497.81410843</v>
+      </c>
+      <c r="F132" s="460">
+        <f t="shared" si="58"/>
+        <v>314908079.8518104</v>
+      </c>
+      <c r="G132" s="460">
+        <f t="shared" si="58"/>
+        <v>451477498.00314307</v>
+      </c>
+      <c r="H132" s="460">
+        <f t="shared" si="58"/>
+        <v>575852082.5608182</v>
+      </c>
+      <c r="I132" s="460">
+        <f t="shared" si="58"/>
+        <v>413868743.86153859</v>
+      </c>
+      <c r="J132" s="460">
+        <f t="shared" si="58"/>
+        <v>396256034.05029666</v>
+      </c>
+      <c r="K132" s="460">
+        <f t="shared" si="58"/>
+        <v>253367030.86589858</v>
+      </c>
+      <c r="L132" s="460">
+        <f t="shared" si="58"/>
+        <v>121922672.98787716</v>
+      </c>
+      <c r="M132" s="460">
+        <f t="shared" si="58"/>
+        <v>1206414.8585668511</v>
+      </c>
+      <c r="N132" s="460">
+        <f t="shared" si="58"/>
+        <v>577537.17134409084</v>
+      </c>
+      <c r="O132" s="460">
+        <f t="shared" si="58"/>
+        <v>552959.34382036736</v>
+      </c>
+      <c r="P132" s="14"/>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="O133" s="451"/>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="C136" s="189"/>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="B137" s="22"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="M138" s="22"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="22"/>
+      <c r="P138" s="22"/>
+      <c r="Q138" s="22"/>
+      <c r="R138" s="22"/>
+      <c r="S138" s="22"/>
+      <c r="T138" s="22"/>
+      <c r="U138" s="22"/>
+      <c r="V138" s="22"/>
+      <c r="W138" s="22"/>
+      <c r="X138" s="22"/>
+      <c r="Y138" s="22"/>
+      <c r="Z138" s="22"/>
+      <c r="AA138" s="22"/>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="M140" s="22"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="22"/>
+      <c r="P140" s="22"/>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="22"/>
+      <c r="S140" s="22"/>
+      <c r="T140" s="22"/>
+      <c r="U140" s="22"/>
+      <c r="V140" s="22"/>
+      <c r="W140" s="22"/>
+      <c r="X140" s="22"/>
+      <c r="Y140" s="22"/>
+      <c r="Z140" s="22"/>
+      <c r="AA140" s="22"/>
+      <c r="AC140" s="190"/>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="D142" s="191"/>
+      <c r="E142" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -16522,7 +16906,7 @@
   </sheetPr>
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="Q92" sqref="Q92"/>
     </sheetView>
   </sheetViews>
@@ -16566,22 +16950,22 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
-      <c r="Q1" s="501" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="523"/>
-      <c r="S1" s="523"/>
-      <c r="T1" s="524"/>
-      <c r="U1" s="501"/>
-      <c r="V1" s="523"/>
-      <c r="W1" s="523"/>
-      <c r="X1" s="524"/>
+      <c r="Q1" s="518" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="539"/>
+      <c r="S1" s="539"/>
+      <c r="T1" s="540"/>
+      <c r="U1" s="518"/>
+      <c r="V1" s="539"/>
+      <c r="W1" s="539"/>
+      <c r="X1" s="540"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="15.75">
-      <c r="A2" s="511" t="s">
+      <c r="A2" s="527" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="512"/>
+      <c r="B2" s="528"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -16596,14 +16980,14 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="501"/>
-      <c r="R2" s="523"/>
-      <c r="S2" s="523"/>
-      <c r="T2" s="524"/>
-      <c r="U2" s="501"/>
-      <c r="V2" s="523"/>
-      <c r="W2" s="523"/>
-      <c r="X2" s="524"/>
+      <c r="Q2" s="518"/>
+      <c r="R2" s="539"/>
+      <c r="S2" s="539"/>
+      <c r="T2" s="540"/>
+      <c r="U2" s="518"/>
+      <c r="V2" s="539"/>
+      <c r="W2" s="539"/>
+      <c r="X2" s="540"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
@@ -16627,14 +17011,14 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="501"/>
-      <c r="R3" s="523"/>
-      <c r="S3" s="523"/>
-      <c r="T3" s="524"/>
-      <c r="U3" s="501"/>
-      <c r="V3" s="523"/>
-      <c r="W3" s="523"/>
-      <c r="X3" s="524"/>
+      <c r="Q3" s="518"/>
+      <c r="R3" s="539"/>
+      <c r="S3" s="539"/>
+      <c r="T3" s="540"/>
+      <c r="U3" s="518"/>
+      <c r="V3" s="539"/>
+      <c r="W3" s="539"/>
+      <c r="X3" s="540"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -16658,16 +17042,16 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="513" t="s">
+      <c r="Q4" s="529" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="514"/>
-      <c r="S4" s="514"/>
-      <c r="T4" s="515"/>
-      <c r="U4" s="513"/>
-      <c r="V4" s="514"/>
-      <c r="W4" s="514"/>
-      <c r="X4" s="515"/>
+      <c r="R4" s="530"/>
+      <c r="S4" s="530"/>
+      <c r="T4" s="531"/>
+      <c r="U4" s="529"/>
+      <c r="V4" s="530"/>
+      <c r="W4" s="530"/>
+      <c r="X4" s="531"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
@@ -16691,14 +17075,14 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="513"/>
-      <c r="R5" s="514"/>
-      <c r="S5" s="514"/>
-      <c r="T5" s="515"/>
-      <c r="U5" s="513"/>
-      <c r="V5" s="514"/>
-      <c r="W5" s="514"/>
-      <c r="X5" s="515"/>
+      <c r="Q5" s="529"/>
+      <c r="R5" s="530"/>
+      <c r="S5" s="530"/>
+      <c r="T5" s="531"/>
+      <c r="U5" s="529"/>
+      <c r="V5" s="530"/>
+      <c r="W5" s="530"/>
+      <c r="X5" s="531"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="16" t="s">
@@ -16722,14 +17106,14 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="516"/>
-      <c r="R6" s="517"/>
-      <c r="S6" s="517"/>
-      <c r="T6" s="518"/>
-      <c r="U6" s="516"/>
-      <c r="V6" s="517"/>
-      <c r="W6" s="517"/>
-      <c r="X6" s="518"/>
+      <c r="Q6" s="532"/>
+      <c r="R6" s="533"/>
+      <c r="S6" s="533"/>
+      <c r="T6" s="534"/>
+      <c r="U6" s="532"/>
+      <c r="V6" s="533"/>
+      <c r="W6" s="533"/>
+      <c r="X6" s="534"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="18" t="s">
@@ -16772,7 +17156,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:24" hidden="1">
-      <c r="A9" s="521" t="s">
+      <c r="A9" s="537" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -16793,7 +17177,7 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="522"/>
+      <c r="A10" s="538"/>
       <c r="B10" s="23">
         <f>B6*B9</f>
         <v>1127.3</v>
@@ -16813,7 +17197,7 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:24" hidden="1">
-      <c r="A11" s="519" t="s">
+      <c r="A11" s="535" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
@@ -16835,7 +17219,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A12" s="520"/>
+      <c r="A12" s="536"/>
       <c r="B12" s="23">
         <f>B5*B11</f>
         <v>62858</v>
@@ -16856,7 +17240,7 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:24" hidden="1">
-      <c r="A13" s="521" t="s">
+      <c r="A13" s="537" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="24">
@@ -16878,7 +17262,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A14" s="522"/>
+      <c r="A14" s="538"/>
       <c r="B14" s="23">
         <f>B5*B13</f>
         <v>0</v>
@@ -16917,34 +17301,34 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A16" s="525" t="s">
+      <c r="A16" s="541" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="526"/>
-      <c r="C16" s="528" t="s">
+      <c r="B16" s="542"/>
+      <c r="C16" s="544" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="528"/>
-      <c r="E16" s="528"/>
-      <c r="F16" s="528"/>
-      <c r="G16" s="528" t="s">
+      <c r="D16" s="544"/>
+      <c r="E16" s="544"/>
+      <c r="F16" s="544"/>
+      <c r="G16" s="544" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="528"/>
-      <c r="I16" s="528"/>
-      <c r="J16" s="528"/>
-      <c r="K16" s="528" t="s">
+      <c r="H16" s="544"/>
+      <c r="I16" s="544"/>
+      <c r="J16" s="544"/>
+      <c r="K16" s="544" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="528"/>
-      <c r="M16" s="528"/>
+      <c r="L16" s="544"/>
+      <c r="M16" s="544"/>
       <c r="N16" s="244"/>
       <c r="O16" s="245"/>
       <c r="P16" s="389"/>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="527"/>
-      <c r="B17" s="498"/>
+      <c r="A17" s="543"/>
+      <c r="B17" s="515"/>
       <c r="C17" s="194">
         <v>1</v>
       </c>
@@ -17099,26 +17483,26 @@
         <v>21</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="500">
+      <c r="C20" s="517">
         <f>Q20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D20" s="500"/>
-      <c r="E20" s="500"/>
-      <c r="F20" s="500"/>
-      <c r="G20" s="500">
+      <c r="D20" s="517"/>
+      <c r="E20" s="517"/>
+      <c r="F20" s="517"/>
+      <c r="G20" s="517">
         <f>C20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="500"/>
-      <c r="I20" s="500"/>
-      <c r="J20" s="500"/>
-      <c r="K20" s="500">
+      <c r="H20" s="517"/>
+      <c r="I20" s="517"/>
+      <c r="J20" s="517"/>
+      <c r="K20" s="517">
         <f>G20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L20" s="500"/>
-      <c r="M20" s="500"/>
+      <c r="L20" s="517"/>
+      <c r="M20" s="517"/>
       <c r="N20" s="214">
         <f>(1+C20)^(1/4)-1</f>
         <v>1.6106667595102708E-2</v>
@@ -18535,12 +18919,12 @@
       <c r="N53" s="36"/>
       <c r="O53" s="250"/>
       <c r="P53" s="250"/>
-      <c r="T53" s="501" t="s">
+      <c r="T53" s="518" t="s">
         <v>53</v>
       </c>
-      <c r="U53" s="502"/>
-      <c r="V53" s="502"/>
-      <c r="W53" s="502"/>
+      <c r="U53" s="519"/>
+      <c r="V53" s="519"/>
+      <c r="W53" s="519"/>
     </row>
     <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="266" t="s">
@@ -18582,10 +18966,10 @@
       <c r="N54" s="102"/>
       <c r="O54" s="267"/>
       <c r="P54" s="267"/>
-      <c r="T54" s="501"/>
-      <c r="U54" s="502"/>
-      <c r="V54" s="502"/>
-      <c r="W54" s="502"/>
+      <c r="T54" s="518"/>
+      <c r="U54" s="519"/>
+      <c r="V54" s="519"/>
+      <c r="W54" s="519"/>
     </row>
     <row r="55" spans="1:23" hidden="1">
       <c r="A55" s="268" t="s">
@@ -18615,10 +18999,10 @@
       <c r="N55" s="52"/>
       <c r="O55" s="255"/>
       <c r="P55" s="255"/>
-      <c r="T55" s="501"/>
-      <c r="U55" s="502"/>
-      <c r="V55" s="502"/>
-      <c r="W55" s="502"/>
+      <c r="T55" s="518"/>
+      <c r="U55" s="519"/>
+      <c r="V55" s="519"/>
+      <c r="W55" s="519"/>
     </row>
     <row r="56" spans="1:23" hidden="1">
       <c r="A56" s="269" t="s">
@@ -21176,9 +21560,9 @@
     </row>
     <row r="110" spans="1:17" s="14" customFormat="1">
       <c r="A110" s="174"/>
-      <c r="B110" s="529"/>
-      <c r="C110" s="529"/>
-      <c r="D110" s="529"/>
+      <c r="B110" s="545"/>
+      <c r="C110" s="545"/>
+      <c r="D110" s="545"/>
       <c r="E110" s="175"/>
       <c r="F110" s="176"/>
       <c r="G110" s="176"/>
@@ -21191,131 +21575,131 @@
       <c r="N110" s="177"/>
     </row>
     <row r="111" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="499" t="s">
+      <c r="A111" s="516" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="499"/>
-      <c r="C111" s="499"/>
-      <c r="D111" s="499"/>
-      <c r="E111" s="499"/>
-      <c r="F111" s="499"/>
-      <c r="G111" s="499"/>
-      <c r="H111" s="499"/>
-      <c r="I111" s="499"/>
-      <c r="J111" s="499"/>
-      <c r="K111" s="499"/>
+      <c r="B111" s="516"/>
+      <c r="C111" s="516"/>
+      <c r="D111" s="516"/>
+      <c r="E111" s="516"/>
+      <c r="F111" s="516"/>
+      <c r="G111" s="516"/>
+      <c r="H111" s="516"/>
+      <c r="I111" s="516"/>
+      <c r="J111" s="516"/>
+      <c r="K111" s="516"/>
       <c r="L111" s="178"/>
       <c r="M111" s="178"/>
       <c r="N111" s="177"/>
     </row>
     <row r="112" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A112" s="499"/>
-      <c r="B112" s="499"/>
-      <c r="C112" s="499"/>
-      <c r="D112" s="499"/>
-      <c r="E112" s="499"/>
-      <c r="F112" s="499"/>
-      <c r="G112" s="499"/>
-      <c r="H112" s="499"/>
-      <c r="I112" s="499"/>
-      <c r="J112" s="499"/>
-      <c r="K112" s="499"/>
+      <c r="A112" s="516"/>
+      <c r="B112" s="516"/>
+      <c r="C112" s="516"/>
+      <c r="D112" s="516"/>
+      <c r="E112" s="516"/>
+      <c r="F112" s="516"/>
+      <c r="G112" s="516"/>
+      <c r="H112" s="516"/>
+      <c r="I112" s="516"/>
+      <c r="J112" s="516"/>
+      <c r="K112" s="516"/>
       <c r="L112" s="179"/>
       <c r="M112" s="179"/>
       <c r="N112" s="177"/>
     </row>
     <row r="113" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A113" s="499"/>
-      <c r="B113" s="499"/>
-      <c r="C113" s="499"/>
-      <c r="D113" s="499"/>
-      <c r="E113" s="499"/>
-      <c r="F113" s="499"/>
-      <c r="G113" s="499"/>
-      <c r="H113" s="499"/>
-      <c r="I113" s="499"/>
-      <c r="J113" s="499"/>
-      <c r="K113" s="499"/>
+      <c r="A113" s="516"/>
+      <c r="B113" s="516"/>
+      <c r="C113" s="516"/>
+      <c r="D113" s="516"/>
+      <c r="E113" s="516"/>
+      <c r="F113" s="516"/>
+      <c r="G113" s="516"/>
+      <c r="H113" s="516"/>
+      <c r="I113" s="516"/>
+      <c r="J113" s="516"/>
+      <c r="K113" s="516"/>
       <c r="L113" s="179"/>
       <c r="M113" s="179"/>
       <c r="N113" s="177"/>
     </row>
     <row r="114" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A114" s="499"/>
-      <c r="B114" s="499"/>
-      <c r="C114" s="499"/>
-      <c r="D114" s="499"/>
-      <c r="E114" s="499"/>
-      <c r="F114" s="499"/>
-      <c r="G114" s="499"/>
-      <c r="H114" s="499"/>
-      <c r="I114" s="499"/>
-      <c r="J114" s="499"/>
-      <c r="K114" s="499"/>
+      <c r="A114" s="516"/>
+      <c r="B114" s="516"/>
+      <c r="C114" s="516"/>
+      <c r="D114" s="516"/>
+      <c r="E114" s="516"/>
+      <c r="F114" s="516"/>
+      <c r="G114" s="516"/>
+      <c r="H114" s="516"/>
+      <c r="I114" s="516"/>
+      <c r="J114" s="516"/>
+      <c r="K114" s="516"/>
       <c r="L114" s="179"/>
       <c r="M114" s="179"/>
       <c r="N114" s="177"/>
     </row>
     <row r="115" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A115" s="499"/>
-      <c r="B115" s="499"/>
-      <c r="C115" s="499"/>
-      <c r="D115" s="499"/>
-      <c r="E115" s="499"/>
-      <c r="F115" s="499"/>
-      <c r="G115" s="499"/>
-      <c r="H115" s="499"/>
-      <c r="I115" s="499"/>
-      <c r="J115" s="499"/>
-      <c r="K115" s="499"/>
+      <c r="A115" s="516"/>
+      <c r="B115" s="516"/>
+      <c r="C115" s="516"/>
+      <c r="D115" s="516"/>
+      <c r="E115" s="516"/>
+      <c r="F115" s="516"/>
+      <c r="G115" s="516"/>
+      <c r="H115" s="516"/>
+      <c r="I115" s="516"/>
+      <c r="J115" s="516"/>
+      <c r="K115" s="516"/>
       <c r="L115" s="180"/>
       <c r="M115" s="180"/>
       <c r="N115" s="177"/>
     </row>
     <row r="116" spans="1:14" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A116" s="499"/>
-      <c r="B116" s="499"/>
-      <c r="C116" s="499"/>
-      <c r="D116" s="499"/>
-      <c r="E116" s="499"/>
-      <c r="F116" s="499"/>
-      <c r="G116" s="499"/>
-      <c r="H116" s="499"/>
-      <c r="I116" s="499"/>
-      <c r="J116" s="499"/>
-      <c r="K116" s="499"/>
+      <c r="A116" s="516"/>
+      <c r="B116" s="516"/>
+      <c r="C116" s="516"/>
+      <c r="D116" s="516"/>
+      <c r="E116" s="516"/>
+      <c r="F116" s="516"/>
+      <c r="G116" s="516"/>
+      <c r="H116" s="516"/>
+      <c r="I116" s="516"/>
+      <c r="J116" s="516"/>
+      <c r="K116" s="516"/>
       <c r="L116" s="180"/>
       <c r="M116" s="180"/>
       <c r="N116" s="177"/>
     </row>
     <row r="117" spans="1:14" s="183" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A117" s="499"/>
-      <c r="B117" s="499"/>
-      <c r="C117" s="499"/>
-      <c r="D117" s="499"/>
-      <c r="E117" s="499"/>
-      <c r="F117" s="499"/>
-      <c r="G117" s="499"/>
-      <c r="H117" s="499"/>
-      <c r="I117" s="499"/>
-      <c r="J117" s="499"/>
-      <c r="K117" s="499"/>
+      <c r="A117" s="516"/>
+      <c r="B117" s="516"/>
+      <c r="C117" s="516"/>
+      <c r="D117" s="516"/>
+      <c r="E117" s="516"/>
+      <c r="F117" s="516"/>
+      <c r="G117" s="516"/>
+      <c r="H117" s="516"/>
+      <c r="I117" s="516"/>
+      <c r="J117" s="516"/>
+      <c r="K117" s="516"/>
       <c r="L117" s="181"/>
       <c r="M117" s="182"/>
       <c r="N117" s="182"/>
     </row>
     <row r="118" spans="1:14" s="182" customFormat="1" ht="18.75" collapsed="1">
-      <c r="A118" s="499"/>
-      <c r="B118" s="499"/>
-      <c r="C118" s="499"/>
-      <c r="D118" s="499"/>
-      <c r="E118" s="499"/>
-      <c r="F118" s="499"/>
-      <c r="G118" s="499"/>
-      <c r="H118" s="499"/>
-      <c r="I118" s="499"/>
-      <c r="J118" s="499"/>
-      <c r="K118" s="499"/>
+      <c r="A118" s="516"/>
+      <c r="B118" s="516"/>
+      <c r="C118" s="516"/>
+      <c r="D118" s="516"/>
+      <c r="E118" s="516"/>
+      <c r="F118" s="516"/>
+      <c r="G118" s="516"/>
+      <c r="H118" s="516"/>
+      <c r="I118" s="516"/>
+      <c r="J118" s="516"/>
+      <c r="K118" s="516"/>
       <c r="L118" s="181"/>
     </row>
     <row r="119" spans="1:14" s="183" customFormat="1" ht="18.75">

--- a/Бизнес-планирование в строительстве/Эффективность проекта _лист в КП-2022.xlsx
+++ b/Бизнес-планирование в строительстве/Эффективность проекта _лист в КП-2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\3-term-of-SPBSTU\Бизнес-планирование в строительстве\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamet\Documents\GitHub\3-term-of-SPBSTU\Бизнес-планирование в строительстве\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -799,7 +799,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="195">
   <si>
     <t>!!! Цена продажи м.-мест растет в том же темпе, что и квартиры</t>
   </si>
@@ -1409,12 +1409,6 @@
     <t>15 квартал</t>
   </si>
   <si>
-    <t>прибыль</t>
-  </si>
-  <si>
-    <t>затраты</t>
-  </si>
-  <si>
     <t>чистый доход</t>
   </si>
   <si>
@@ -1432,6 +1426,15 @@
   <si>
     <t>ИСП проходит по данным критериям и может рассматриваться в
 дальнейшем</t>
+  </si>
+  <si>
+    <t>денежный поток проекта</t>
+  </si>
+  <si>
+    <t>квартал</t>
+  </si>
+  <si>
+    <t>год</t>
   </si>
 </sst>
 </file>
@@ -2932,7 +2935,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="548">
+  <cellXfs count="552">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4158,6 +4161,138 @@
     </xf>
     <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4166,141 +4301,90 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="182" fontId="44" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="44" fillId="12" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4319,101 +4403,30 @@
     <xf numFmtId="0" fontId="36" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -4691,6 +4704,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4997,6 +5011,390 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13520864857866499"/>
+          <c:y val="0.24918970424664874"/>
+          <c:w val="0.84012736585721104"/>
+          <c:h val="0.30109891187980031"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Весь проект'!$A$96:$C$96</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Простой срок окупаемости, кварталов/ лет</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Весь проект'!$B$127:$O$127</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #\ ##0_р_._-;\-* #\ ##0_р_._-;_-* "-"??_р_._-;_-@_-</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-85358517.979999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-106397238.07939999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-273481510.17879999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-675508782.27819991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-171980753.71601218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59110333.481349051</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67528704.758624256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>231766222.17910141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>358716363.48947686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>540082060.80288601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>847790869.42600429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1115746646.6163583</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1356773626.3754692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1811189451.3157699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C547-443F-8A66-88A034009133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Весь проект'!$A$97:$C$97</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Дисконтированный срок окупаемости, кварталов/ лет</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Весь проект'!$B$130:$O$130</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0_ ;\-#\ ##0\ </c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-83522502.07299152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-103232619.20801087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-253104003.99490297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-598368501.80901146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-184337064.0544138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2406308.1941705048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3939168.6460446622</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122467404.11360578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210186853.24087879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>330173002.78749102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>525080773.90071678</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>687585355.92284155</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>827538095.570346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1080166659.0095742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C547-443F-8A66-88A034009133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="192009344"/>
+        <c:axId val="192010880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="192009344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192010880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="192010880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #\ ##0_р_._-;\-* #\ ##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192009344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5694,7 +6092,254 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>60339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>787339</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D25CA2-F370-4E4B-BFF6-AAF6EBC35C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.4199</cdr:x>
+      <cdr:y>0.44608</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4472</cdr:x>
+      <cdr:y>0.47776</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Звезда: 6 точек 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9E8364-7275-4F03-BC83-6685110D8385}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3021697" y="1478410"/>
+          <a:ext cx="196460" cy="104995"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="star6">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.48029</cdr:x>
+      <cdr:y>0.4258</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.50758</cdr:x>
+      <cdr:y>0.45748</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Звезда: 6 точек 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C6A2CD-00B7-4EED-A0D3-238A96A603B2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3456326" y="1411185"/>
+          <a:ext cx="196387" cy="104996"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="star6">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6025,37 +6670,13 @@
       <sheetName val="график строительства"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="K1">
-            <v>28.66</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="K1">
-            <v>28.66</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="K1">
-            <v>28.66</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="1">
-          <cell r="K1">
-            <v>28.66</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1">
         <row r="1">
@@ -6064,7 +6685,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12" refreshError="1"/>
@@ -6165,7 +6786,13 @@
       <sheetName val="Трансформация бу в уу(сентябрь)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2">
+            <v>28.39</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="C2">
@@ -6181,8 +6808,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
@@ -6725,7 +7352,7 @@
       <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16" refreshError="1"/>
       <sheetData sheetId="17" refreshError="1"/>
       <sheetData sheetId="18" refreshError="1"/>
@@ -7017,7 +7644,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1">
+      <sheetData sheetId="1">
         <row r="3">
           <cell r="D3">
             <v>1.4999999999999999E-2</v>
@@ -7405,19 +8032,13 @@
       <sheetName val="Док+Исх"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="7">
-          <cell r="J7">
-            <v>0.15</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
@@ -7758,7 +8379,7 @@
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13" refreshError="1"/>
@@ -8592,9 +9213,9 @@
       <sheetName val="График Стр-ва"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="24">
           <cell r="AN24">
@@ -8657,7 +9278,7 @@
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1">
+      <sheetData sheetId="3">
         <row r="3">
           <cell r="B3" t="str">
             <v>нет</v>
@@ -9505,8 +10126,8 @@
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
@@ -10388,8 +11009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10417,26 +11038,26 @@
       <c r="M2" s="342"/>
     </row>
     <row r="3" spans="2:16" ht="36.75" customHeight="1">
-      <c r="C3" s="462" t="s">
+      <c r="C3" s="506" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="462"/>
-      <c r="E3" s="462"/>
-      <c r="F3" s="462"/>
-      <c r="G3" s="462"/>
-      <c r="H3" s="462"/>
-      <c r="I3" s="462"/>
-      <c r="J3" s="462"/>
-      <c r="K3" s="462"/>
-      <c r="L3" s="462"/>
-      <c r="M3" s="462"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="506"/>
+      <c r="H3" s="506"/>
+      <c r="I3" s="506"/>
+      <c r="J3" s="506"/>
+      <c r="K3" s="506"/>
+      <c r="L3" s="506"/>
+      <c r="M3" s="506"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1">
-      <c r="C4" s="462" t="s">
+      <c r="C4" s="506" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="462"/>
-      <c r="E4" s="463"/>
+      <c r="D4" s="506"/>
+      <c r="E4" s="507"/>
       <c r="F4" s="343">
         <v>50000000</v>
       </c>
@@ -10469,26 +11090,26 @@
       <c r="C7" s="340" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="464" t="s">
+      <c r="D7" s="508" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="464"/>
-      <c r="F7" s="464"/>
+      <c r="E7" s="508"/>
+      <c r="F7" s="508"/>
       <c r="K7" s="344"/>
       <c r="L7" s="342"/>
       <c r="M7" s="342"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="C8" s="462" t="s">
+      <c r="C8" s="506" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="462"/>
-      <c r="E8" s="462"/>
-      <c r="F8" s="462"/>
-      <c r="G8" s="462"/>
-      <c r="H8" s="462"/>
-      <c r="I8" s="462"/>
-      <c r="J8" s="462"/>
+      <c r="D8" s="506"/>
+      <c r="E8" s="506"/>
+      <c r="F8" s="506"/>
+      <c r="G8" s="506"/>
+      <c r="H8" s="506"/>
+      <c r="I8" s="506"/>
+      <c r="J8" s="506"/>
       <c r="K8" s="345">
         <v>0.28000000000000003</v>
       </c>
@@ -10496,47 +11117,47 @@
       <c r="M8" s="342"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="C9" s="462" t="s">
+      <c r="C9" s="506" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="462"/>
-      <c r="E9" s="462"/>
-      <c r="F9" s="462"/>
-      <c r="G9" s="462"/>
-      <c r="H9" s="462"/>
-      <c r="I9" s="462"/>
-      <c r="J9" s="462"/>
-      <c r="K9" s="462"/>
+      <c r="D9" s="506"/>
+      <c r="E9" s="506"/>
+      <c r="F9" s="506"/>
+      <c r="G9" s="506"/>
+      <c r="H9" s="506"/>
+      <c r="I9" s="506"/>
+      <c r="J9" s="506"/>
+      <c r="K9" s="506"/>
       <c r="L9" s="342"/>
       <c r="M9" s="342"/>
     </row>
     <row r="10" spans="2:16" ht="37.5" customHeight="1">
-      <c r="C10" s="462" t="s">
+      <c r="C10" s="506" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="462"/>
-      <c r="E10" s="462"/>
-      <c r="F10" s="462"/>
-      <c r="G10" s="462"/>
-      <c r="H10" s="462"/>
-      <c r="I10" s="462"/>
-      <c r="J10" s="462"/>
-      <c r="K10" s="462"/>
+      <c r="D10" s="506"/>
+      <c r="E10" s="506"/>
+      <c r="F10" s="506"/>
+      <c r="G10" s="506"/>
+      <c r="H10" s="506"/>
+      <c r="I10" s="506"/>
+      <c r="J10" s="506"/>
+      <c r="K10" s="506"/>
       <c r="L10" s="342"/>
       <c r="M10" s="342"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
-      <c r="C11" s="462" t="s">
+      <c r="C11" s="506" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="462"/>
-      <c r="E11" s="462"/>
-      <c r="F11" s="462"/>
-      <c r="G11" s="462"/>
-      <c r="H11" s="462"/>
-      <c r="I11" s="462"/>
-      <c r="J11" s="462"/>
-      <c r="K11" s="462"/>
+      <c r="D11" s="506"/>
+      <c r="E11" s="506"/>
+      <c r="F11" s="506"/>
+      <c r="G11" s="506"/>
+      <c r="H11" s="506"/>
+      <c r="I11" s="506"/>
+      <c r="J11" s="506"/>
+      <c r="K11" s="506"/>
       <c r="L11" s="342"/>
       <c r="M11" s="342"/>
     </row>
@@ -10554,10 +11175,10 @@
       <c r="M12" s="342"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="C13" s="477" t="s">
+      <c r="C13" s="475" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="477"/>
+      <c r="D13" s="475"/>
       <c r="E13" s="342"/>
       <c r="F13" s="342"/>
       <c r="G13" s="342"/>
@@ -10572,11 +11193,11 @@
       <c r="B14" s="347" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="478" t="s">
+      <c r="C14" s="476" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="478"/>
-      <c r="E14" s="478"/>
+      <c r="D14" s="476"/>
+      <c r="E14" s="476"/>
       <c r="F14" s="348">
         <v>1</v>
       </c>
@@ -10612,11 +11233,11 @@
       <c r="B15" s="349">
         <v>1</v>
       </c>
-      <c r="C15" s="479" t="s">
+      <c r="C15" s="503" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="480"/>
-      <c r="E15" s="481"/>
+      <c r="D15" s="504"/>
+      <c r="E15" s="505"/>
       <c r="F15" s="350">
         <f>F4*5%</f>
         <v>2500000</v>
@@ -10645,11 +11266,11 @@
       <c r="B16" s="349">
         <v>2</v>
       </c>
-      <c r="C16" s="474" t="s">
+      <c r="C16" s="463" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="475"/>
-      <c r="E16" s="476"/>
+      <c r="D16" s="464"/>
+      <c r="E16" s="465"/>
       <c r="F16" s="351"/>
       <c r="G16" s="351"/>
       <c r="H16" s="351"/>
@@ -10690,11 +11311,11 @@
       <c r="B17" s="349">
         <v>3</v>
       </c>
-      <c r="C17" s="474" t="s">
+      <c r="C17" s="463" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="475"/>
-      <c r="E17" s="476"/>
+      <c r="D17" s="464"/>
+      <c r="E17" s="465"/>
       <c r="F17" s="352">
         <f>F16-F15</f>
         <v>-2500000</v>
@@ -10740,11 +11361,11 @@
       <c r="B18" s="349">
         <v>4</v>
       </c>
-      <c r="C18" s="482" t="s">
+      <c r="C18" s="477" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="483"/>
-      <c r="E18" s="484"/>
+      <c r="D18" s="478"/>
+      <c r="E18" s="479"/>
       <c r="F18" s="354">
         <f t="shared" ref="F18:O18" si="2">1/(1+$K$8)^F14</f>
         <v>0.78125</v>
@@ -10790,11 +11411,11 @@
       <c r="B19" s="349">
         <v>5</v>
       </c>
-      <c r="C19" s="474" t="s">
+      <c r="C19" s="463" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="475"/>
-      <c r="E19" s="476"/>
+      <c r="D19" s="464"/>
+      <c r="E19" s="465"/>
       <c r="F19" s="350">
         <f>F17*F18</f>
         <v>-1953125</v>
@@ -10837,13 +11458,13 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="485" t="s">
+      <c r="B20" s="484" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="486"/>
-      <c r="D20" s="486"/>
-      <c r="E20" s="486"/>
-      <c r="F20" s="487"/>
+      <c r="C20" s="485"/>
+      <c r="D20" s="485"/>
+      <c r="E20" s="485"/>
+      <c r="F20" s="486"/>
       <c r="G20" s="355"/>
       <c r="H20" s="355"/>
       <c r="I20" s="355"/>
@@ -10858,11 +11479,11 @@
       <c r="B21" s="349">
         <v>6</v>
       </c>
-      <c r="C21" s="482" t="s">
+      <c r="C21" s="477" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="483"/>
-      <c r="E21" s="484"/>
+      <c r="D21" s="478"/>
+      <c r="E21" s="479"/>
       <c r="F21" s="356">
         <f>SUM(F17:O17)</f>
         <v>160000000</v>
@@ -10881,24 +11502,24 @@
       <c r="B22" s="349">
         <v>7</v>
       </c>
-      <c r="C22" s="474" t="s">
+      <c r="C22" s="463" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="475"/>
-      <c r="E22" s="476"/>
+      <c r="D22" s="464"/>
+      <c r="E22" s="465"/>
       <c r="F22" s="358">
         <f>SUM(F19:O19)</f>
         <v>14240485.398768097</v>
       </c>
       <c r="G22" s="357"/>
-      <c r="H22" s="465" t="s">
+      <c r="H22" s="487" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="466"/>
-      <c r="J22" s="466"/>
-      <c r="K22" s="466"/>
-      <c r="L22" s="466"/>
-      <c r="M22" s="467"/>
+      <c r="I22" s="488"/>
+      <c r="J22" s="488"/>
+      <c r="K22" s="488"/>
+      <c r="L22" s="488"/>
+      <c r="M22" s="489"/>
       <c r="N22" s="357"/>
       <c r="O22" s="357"/>
     </row>
@@ -10906,22 +11527,22 @@
       <c r="B23" s="349">
         <v>8</v>
       </c>
-      <c r="C23" s="474" t="str">
+      <c r="C23" s="463" t="str">
         <f>C11</f>
         <v>Стоит ли принимать такой проект к рассмотрению?</v>
       </c>
-      <c r="D23" s="475"/>
-      <c r="E23" s="476"/>
+      <c r="D23" s="464"/>
+      <c r="E23" s="465"/>
       <c r="F23" s="358" t="s">
         <v>130</v>
       </c>
       <c r="G23" s="357"/>
-      <c r="H23" s="468"/>
-      <c r="I23" s="469"/>
-      <c r="J23" s="469"/>
-      <c r="K23" s="469"/>
-      <c r="L23" s="469"/>
-      <c r="M23" s="470"/>
+      <c r="H23" s="490"/>
+      <c r="I23" s="491"/>
+      <c r="J23" s="491"/>
+      <c r="K23" s="491"/>
+      <c r="L23" s="491"/>
+      <c r="M23" s="492"/>
       <c r="N23" s="357"/>
       <c r="O23" s="357"/>
     </row>
@@ -10931,12 +11552,12 @@
       <c r="E24" s="359"/>
       <c r="F24" s="360"/>
       <c r="G24" s="357"/>
-      <c r="H24" s="468"/>
-      <c r="I24" s="469"/>
-      <c r="J24" s="469"/>
-      <c r="K24" s="469"/>
-      <c r="L24" s="469"/>
-      <c r="M24" s="470"/>
+      <c r="H24" s="490"/>
+      <c r="I24" s="491"/>
+      <c r="J24" s="491"/>
+      <c r="K24" s="491"/>
+      <c r="L24" s="491"/>
+      <c r="M24" s="492"/>
       <c r="N24" s="357"/>
       <c r="O24" s="357"/>
     </row>
@@ -10946,12 +11567,12 @@
       <c r="E25" s="359"/>
       <c r="F25" s="360"/>
       <c r="G25" s="357"/>
-      <c r="H25" s="468"/>
-      <c r="I25" s="469"/>
-      <c r="J25" s="469"/>
-      <c r="K25" s="469"/>
-      <c r="L25" s="469"/>
-      <c r="M25" s="470"/>
+      <c r="H25" s="490"/>
+      <c r="I25" s="491"/>
+      <c r="J25" s="491"/>
+      <c r="K25" s="491"/>
+      <c r="L25" s="491"/>
+      <c r="M25" s="492"/>
       <c r="N25" s="357"/>
       <c r="O25" s="357"/>
     </row>
@@ -10961,12 +11582,12 @@
       <c r="E26" s="359"/>
       <c r="F26" s="360"/>
       <c r="G26" s="357"/>
-      <c r="H26" s="468"/>
-      <c r="I26" s="469"/>
-      <c r="J26" s="469"/>
-      <c r="K26" s="469"/>
-      <c r="L26" s="469"/>
-      <c r="M26" s="470"/>
+      <c r="H26" s="490"/>
+      <c r="I26" s="491"/>
+      <c r="J26" s="491"/>
+      <c r="K26" s="491"/>
+      <c r="L26" s="491"/>
+      <c r="M26" s="492"/>
       <c r="N26" s="357"/>
       <c r="O26" s="357"/>
     </row>
@@ -10976,12 +11597,12 @@
       <c r="E27" s="359"/>
       <c r="F27" s="360"/>
       <c r="G27" s="357"/>
-      <c r="H27" s="468"/>
-      <c r="I27" s="469"/>
-      <c r="J27" s="469"/>
-      <c r="K27" s="469"/>
-      <c r="L27" s="469"/>
-      <c r="M27" s="470"/>
+      <c r="H27" s="490"/>
+      <c r="I27" s="491"/>
+      <c r="J27" s="491"/>
+      <c r="K27" s="491"/>
+      <c r="L27" s="491"/>
+      <c r="M27" s="492"/>
       <c r="N27" s="357"/>
       <c r="O27" s="357"/>
     </row>
@@ -10991,12 +11612,12 @@
       <c r="E28" s="359"/>
       <c r="F28" s="360"/>
       <c r="G28" s="357"/>
-      <c r="H28" s="471"/>
-      <c r="I28" s="472"/>
-      <c r="J28" s="472"/>
-      <c r="K28" s="472"/>
-      <c r="L28" s="472"/>
-      <c r="M28" s="473"/>
+      <c r="H28" s="493"/>
+      <c r="I28" s="494"/>
+      <c r="J28" s="494"/>
+      <c r="K28" s="494"/>
+      <c r="L28" s="494"/>
+      <c r="M28" s="495"/>
       <c r="N28" s="357"/>
       <c r="O28" s="357"/>
     </row>
@@ -11011,20 +11632,20 @@
       </c>
     </row>
     <row r="33" spans="2:17">
-      <c r="C33" s="477" t="s">
+      <c r="C33" s="475" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="477"/>
+      <c r="D33" s="475"/>
     </row>
     <row r="34" spans="2:17" ht="30">
       <c r="B34" s="347" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="488" t="s">
+      <c r="C34" s="500" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="489"/>
-      <c r="E34" s="490"/>
+      <c r="D34" s="501"/>
+      <c r="E34" s="502"/>
       <c r="F34" s="348">
         <v>1</v>
       </c>
@@ -11060,11 +11681,11 @@
       <c r="B35" s="349">
         <v>1</v>
       </c>
-      <c r="C35" s="479" t="s">
+      <c r="C35" s="503" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="480"/>
-      <c r="E35" s="481"/>
+      <c r="D35" s="504"/>
+      <c r="E35" s="505"/>
       <c r="F35" s="361">
         <f>F17</f>
         <v>-2500000</v>
@@ -11115,11 +11736,11 @@
       <c r="B36" s="349">
         <v>2</v>
       </c>
-      <c r="C36" s="479" t="s">
+      <c r="C36" s="503" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="480"/>
-      <c r="E36" s="481"/>
+      <c r="D36" s="504"/>
+      <c r="E36" s="505"/>
       <c r="F36" s="361">
         <f>F19</f>
         <v>-1953125</v>
@@ -11167,99 +11788,99 @@
       <c r="Q36" s="357"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B37" s="485" t="s">
+      <c r="B37" s="484" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="486"/>
-      <c r="D37" s="486"/>
-      <c r="E37" s="486"/>
-      <c r="F37" s="487"/>
+      <c r="C37" s="485"/>
+      <c r="D37" s="485"/>
+      <c r="E37" s="485"/>
+      <c r="F37" s="486"/>
     </row>
     <row r="38" spans="2:17" ht="31.5" customHeight="1">
       <c r="B38" s="349">
         <v>3</v>
       </c>
-      <c r="C38" s="482" t="s">
+      <c r="C38" s="477" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="483"/>
-      <c r="E38" s="484"/>
+      <c r="D38" s="478"/>
+      <c r="E38" s="479"/>
       <c r="F38" s="364">
         <f>I34+(-I35/(-I35+J35))</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H38" s="465" t="s">
+      <c r="H38" s="487" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="466"/>
-      <c r="J38" s="466"/>
-      <c r="K38" s="466"/>
-      <c r="L38" s="466"/>
-      <c r="M38" s="467"/>
+      <c r="I38" s="488"/>
+      <c r="J38" s="488"/>
+      <c r="K38" s="488"/>
+      <c r="L38" s="488"/>
+      <c r="M38" s="489"/>
     </row>
     <row r="39" spans="2:17" ht="36.75" customHeight="1">
       <c r="B39" s="349">
         <v>4</v>
       </c>
-      <c r="C39" s="474" t="s">
+      <c r="C39" s="463" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="475"/>
-      <c r="E39" s="476"/>
+      <c r="D39" s="464"/>
+      <c r="E39" s="465"/>
       <c r="F39" s="364">
         <f>K34+(-K36/(-K36+L36))</f>
         <v>6.1962118567253333</v>
       </c>
-      <c r="H39" s="468"/>
-      <c r="I39" s="469"/>
-      <c r="J39" s="469"/>
-      <c r="K39" s="469"/>
-      <c r="L39" s="469"/>
-      <c r="M39" s="470"/>
+      <c r="H39" s="490"/>
+      <c r="I39" s="491"/>
+      <c r="J39" s="491"/>
+      <c r="K39" s="491"/>
+      <c r="L39" s="491"/>
+      <c r="M39" s="492"/>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="491" t="s">
+      <c r="B40" s="496" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="491"/>
-      <c r="D40" s="491"/>
-      <c r="E40" s="491"/>
-      <c r="F40" s="491"/>
-      <c r="H40" s="468"/>
-      <c r="I40" s="469"/>
-      <c r="J40" s="469"/>
-      <c r="K40" s="469"/>
-      <c r="L40" s="469"/>
-      <c r="M40" s="470"/>
+      <c r="C40" s="496"/>
+      <c r="D40" s="496"/>
+      <c r="E40" s="496"/>
+      <c r="F40" s="496"/>
+      <c r="H40" s="490"/>
+      <c r="I40" s="491"/>
+      <c r="J40" s="491"/>
+      <c r="K40" s="491"/>
+      <c r="L40" s="491"/>
+      <c r="M40" s="492"/>
     </row>
     <row r="41" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B41" s="492"/>
-      <c r="C41" s="492"/>
-      <c r="D41" s="492"/>
-      <c r="E41" s="492"/>
-      <c r="F41" s="492"/>
-      <c r="H41" s="468"/>
-      <c r="I41" s="469"/>
-      <c r="J41" s="469"/>
-      <c r="K41" s="469"/>
-      <c r="L41" s="469"/>
-      <c r="M41" s="470"/>
+      <c r="B41" s="497"/>
+      <c r="C41" s="497"/>
+      <c r="D41" s="497"/>
+      <c r="E41" s="497"/>
+      <c r="F41" s="497"/>
+      <c r="H41" s="490"/>
+      <c r="I41" s="491"/>
+      <c r="J41" s="491"/>
+      <c r="K41" s="491"/>
+      <c r="L41" s="491"/>
+      <c r="M41" s="492"/>
     </row>
     <row r="42" spans="2:17" ht="130.5" customHeight="1">
-      <c r="H42" s="468"/>
-      <c r="I42" s="469"/>
-      <c r="J42" s="469"/>
-      <c r="K42" s="469"/>
-      <c r="L42" s="469"/>
-      <c r="M42" s="470"/>
+      <c r="H42" s="490"/>
+      <c r="I42" s="491"/>
+      <c r="J42" s="491"/>
+      <c r="K42" s="491"/>
+      <c r="L42" s="491"/>
+      <c r="M42" s="492"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" thickBot="1">
-      <c r="H43" s="471"/>
-      <c r="I43" s="472"/>
-      <c r="J43" s="472"/>
-      <c r="K43" s="472"/>
-      <c r="L43" s="472"/>
-      <c r="M43" s="473"/>
+      <c r="H43" s="493"/>
+      <c r="I43" s="494"/>
+      <c r="J43" s="494"/>
+      <c r="K43" s="494"/>
+      <c r="L43" s="494"/>
+      <c r="M43" s="495"/>
     </row>
     <row r="47" spans="2:17">
       <c r="C47" s="340" t="s">
@@ -11277,10 +11898,10 @@
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="D51" s="477" t="s">
+      <c r="D51" s="475" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="477"/>
+      <c r="E51" s="475"/>
       <c r="F51" s="342"/>
       <c r="G51" s="342"/>
       <c r="H51" s="342"/>
@@ -11295,11 +11916,11 @@
       <c r="B52" s="347" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="478" t="s">
+      <c r="C52" s="476" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="478"/>
-      <c r="E52" s="478"/>
+      <c r="D52" s="476"/>
+      <c r="E52" s="476"/>
       <c r="F52" s="348">
         <v>1</v>
       </c>
@@ -11335,11 +11956,11 @@
       <c r="B53" s="349">
         <v>1</v>
       </c>
-      <c r="C53" s="474" t="s">
+      <c r="C53" s="463" t="s">
         <v>125</v>
       </c>
-      <c r="D53" s="475"/>
-      <c r="E53" s="476"/>
+      <c r="D53" s="464"/>
+      <c r="E53" s="465"/>
       <c r="F53" s="352">
         <f>F17</f>
         <v>-2500000</v>
@@ -11385,35 +12006,35 @@
       <c r="B54" s="349">
         <v>2</v>
       </c>
-      <c r="C54" s="482" t="s">
+      <c r="C54" s="477" t="s">
         <v>142</v>
       </c>
-      <c r="D54" s="483"/>
-      <c r="E54" s="484"/>
+      <c r="D54" s="478"/>
+      <c r="E54" s="479"/>
       <c r="F54" s="366">
         <v>0.43822984635546786</v>
       </c>
-      <c r="G54" s="493" t="s">
+      <c r="G54" s="498" t="s">
         <v>143</v>
       </c>
-      <c r="H54" s="494"/>
-      <c r="I54" s="494"/>
-      <c r="J54" s="494"/>
-      <c r="K54" s="494"/>
-      <c r="L54" s="494"/>
-      <c r="M54" s="494"/>
-      <c r="N54" s="494"/>
-      <c r="O54" s="494"/>
+      <c r="H54" s="499"/>
+      <c r="I54" s="499"/>
+      <c r="J54" s="499"/>
+      <c r="K54" s="499"/>
+      <c r="L54" s="499"/>
+      <c r="M54" s="499"/>
+      <c r="N54" s="499"/>
+      <c r="O54" s="499"/>
     </row>
     <row r="55" spans="2:15" ht="36" customHeight="1">
       <c r="B55" s="349">
         <v>3</v>
       </c>
-      <c r="C55" s="482" t="s">
+      <c r="C55" s="477" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="483"/>
-      <c r="E55" s="484"/>
+      <c r="D55" s="478"/>
+      <c r="E55" s="479"/>
       <c r="F55" s="354">
         <f>1/(1+$F$54)^F52</f>
         <v>0.69529915717855539</v>
@@ -11459,11 +12080,11 @@
       <c r="B56" s="349">
         <v>4</v>
       </c>
-      <c r="C56" s="474" t="s">
+      <c r="C56" s="463" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="475"/>
-      <c r="E56" s="476"/>
+      <c r="D56" s="464"/>
+      <c r="E56" s="465"/>
       <c r="F56" s="350">
         <f t="shared" ref="F56:O56" si="8">F53*F55</f>
         <v>-1738247.8929463886</v>
@@ -11509,11 +12130,11 @@
       <c r="B57" s="349">
         <v>5</v>
       </c>
-      <c r="C57" s="474" t="s">
+      <c r="C57" s="463" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="475"/>
-      <c r="E57" s="476"/>
+      <c r="D57" s="464"/>
+      <c r="E57" s="465"/>
       <c r="F57" s="367">
         <f>SUM(F56:O56)</f>
         <v>9.1665424406528473E-6</v>
@@ -11529,57 +12150,57 @@
       <c r="O57" s="355"/>
     </row>
     <row r="58" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B58" s="485" t="s">
+      <c r="B58" s="484" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="486"/>
-      <c r="D58" s="486"/>
-      <c r="E58" s="486"/>
-      <c r="F58" s="487"/>
+      <c r="C58" s="485"/>
+      <c r="D58" s="485"/>
+      <c r="E58" s="485"/>
+      <c r="F58" s="486"/>
       <c r="G58" s="368"/>
     </row>
     <row r="59" spans="2:15" ht="15" customHeight="1">
       <c r="B59" s="349">
         <v>6</v>
       </c>
-      <c r="C59" s="474" t="s">
+      <c r="C59" s="463" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="475"/>
-      <c r="E59" s="476"/>
+      <c r="D59" s="464"/>
+      <c r="E59" s="465"/>
       <c r="F59" s="369">
         <f>IRR(F53:O53)</f>
         <v>0.43822984635565154</v>
       </c>
-      <c r="H59" s="495" t="s">
+      <c r="H59" s="469" t="s">
         <v>145</v>
       </c>
-      <c r="I59" s="496"/>
-      <c r="J59" s="496"/>
-      <c r="K59" s="496"/>
-      <c r="L59" s="496"/>
-      <c r="M59" s="496"/>
-      <c r="N59" s="496"/>
-      <c r="O59" s="497"/>
+      <c r="I59" s="470"/>
+      <c r="J59" s="470"/>
+      <c r="K59" s="470"/>
+      <c r="L59" s="470"/>
+      <c r="M59" s="470"/>
+      <c r="N59" s="470"/>
+      <c r="O59" s="471"/>
     </row>
     <row r="60" spans="2:15" ht="66.75" customHeight="1">
       <c r="B60" s="349">
         <v>7</v>
       </c>
-      <c r="C60" s="474" t="s">
+      <c r="C60" s="463" t="s">
         <v>146</v>
       </c>
-      <c r="D60" s="475"/>
-      <c r="E60" s="476"/>
+      <c r="D60" s="464"/>
+      <c r="E60" s="465"/>
       <c r="F60" s="364"/>
-      <c r="H60" s="498"/>
-      <c r="I60" s="499"/>
-      <c r="J60" s="499"/>
-      <c r="K60" s="499"/>
-      <c r="L60" s="499"/>
-      <c r="M60" s="499"/>
-      <c r="N60" s="499"/>
-      <c r="O60" s="500"/>
+      <c r="H60" s="472"/>
+      <c r="I60" s="473"/>
+      <c r="J60" s="473"/>
+      <c r="K60" s="473"/>
+      <c r="L60" s="473"/>
+      <c r="M60" s="473"/>
+      <c r="N60" s="473"/>
+      <c r="O60" s="474"/>
     </row>
     <row r="61" spans="2:15" ht="33" customHeight="1">
       <c r="H61" s="370"/>
@@ -11683,21 +12304,21 @@
       </c>
     </row>
     <row r="77" spans="2:15">
-      <c r="D77" s="477" t="s">
+      <c r="D77" s="475" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="477"/>
+      <c r="E77" s="475"/>
       <c r="F77" s="342"/>
     </row>
     <row r="78" spans="2:15" ht="30">
       <c r="B78" s="347" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="478" t="s">
+      <c r="C78" s="476" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="478"/>
-      <c r="E78" s="478"/>
+      <c r="D78" s="476"/>
+      <c r="E78" s="476"/>
       <c r="F78" s="365">
         <v>1</v>
       </c>
@@ -11733,12 +12354,12 @@
       <c r="B79" s="349">
         <v>1</v>
       </c>
-      <c r="C79" s="474" t="str">
+      <c r="C79" s="463" t="str">
         <f>C15</f>
         <v>Затраты на осуществление ИСП (IC), руб.</v>
       </c>
-      <c r="D79" s="475"/>
-      <c r="E79" s="476"/>
+      <c r="D79" s="464"/>
+      <c r="E79" s="465"/>
       <c r="F79" s="353">
         <f>F15</f>
         <v>2500000</v>
@@ -11763,11 +12384,11 @@
       <c r="B80" s="349">
         <v>2</v>
       </c>
-      <c r="C80" s="474" t="s">
+      <c r="C80" s="463" t="s">
         <v>124</v>
       </c>
-      <c r="D80" s="475"/>
-      <c r="E80" s="476"/>
+      <c r="D80" s="464"/>
+      <c r="E80" s="465"/>
       <c r="F80" s="351">
         <f>F16</f>
         <v>0</v>
@@ -11813,11 +12434,11 @@
       <c r="B81" s="349">
         <v>3</v>
       </c>
-      <c r="C81" s="482" t="s">
+      <c r="C81" s="477" t="s">
         <v>126</v>
       </c>
-      <c r="D81" s="483"/>
-      <c r="E81" s="484"/>
+      <c r="D81" s="478"/>
+      <c r="E81" s="479"/>
       <c r="F81" s="354">
         <f>F18</f>
         <v>0.78125</v>
@@ -11863,11 +12484,11 @@
       <c r="B82" s="349">
         <v>4</v>
       </c>
-      <c r="C82" s="501" t="s">
+      <c r="C82" s="480" t="s">
         <v>155</v>
       </c>
-      <c r="D82" s="501"/>
-      <c r="E82" s="501"/>
+      <c r="D82" s="480"/>
+      <c r="E82" s="480"/>
       <c r="I82" s="361">
         <f t="shared" ref="I82:O82" si="11">I80*I81</f>
         <v>11175870.895385742</v>
@@ -11901,11 +12522,11 @@
       <c r="B83" s="349">
         <v>5</v>
       </c>
-      <c r="C83" s="501" t="s">
+      <c r="C83" s="480" t="s">
         <v>156</v>
       </c>
-      <c r="D83" s="501"/>
-      <c r="E83" s="501"/>
+      <c r="D83" s="480"/>
+      <c r="E83" s="480"/>
       <c r="F83" s="350">
         <f>F79*F81</f>
         <v>1953125</v>
@@ -11927,23 +12548,23 @@
       <c r="O83" s="376"/>
     </row>
     <row r="84" spans="2:15">
-      <c r="B84" s="502" t="s">
+      <c r="B84" s="481" t="s">
         <v>128</v>
       </c>
-      <c r="C84" s="503"/>
-      <c r="D84" s="503"/>
-      <c r="E84" s="503"/>
-      <c r="F84" s="504"/>
+      <c r="C84" s="482"/>
+      <c r="D84" s="482"/>
+      <c r="E84" s="482"/>
+      <c r="F84" s="483"/>
     </row>
     <row r="85" spans="2:15">
       <c r="B85" s="349">
         <v>5</v>
       </c>
-      <c r="C85" s="474" t="s">
+      <c r="C85" s="463" t="s">
         <v>107</v>
       </c>
-      <c r="D85" s="475"/>
-      <c r="E85" s="476"/>
+      <c r="D85" s="464"/>
+      <c r="E85" s="465"/>
       <c r="F85" s="377">
         <f>SUM(I82:O82)/SUM(F83:H83)</f>
         <v>1.5127298429934641</v>
@@ -11953,26 +12574,26 @@
       <c r="B86" s="349">
         <v>6</v>
       </c>
-      <c r="C86" s="474" t="s">
+      <c r="C86" s="463" t="s">
         <v>152</v>
       </c>
-      <c r="D86" s="475"/>
-      <c r="E86" s="476"/>
-      <c r="F86" s="506"/>
-      <c r="G86" s="506"/>
-      <c r="H86" s="506"/>
-      <c r="I86" s="506"/>
+      <c r="D86" s="464"/>
+      <c r="E86" s="465"/>
+      <c r="F86" s="466"/>
+      <c r="G86" s="466"/>
+      <c r="H86" s="466"/>
+      <c r="I86" s="466"/>
       <c r="K86" s="378"/>
     </row>
     <row r="87" spans="2:15" ht="49.5" customHeight="1">
       <c r="B87" s="349">
         <v>7</v>
       </c>
-      <c r="C87" s="474" t="s">
+      <c r="C87" s="463" t="s">
         <v>157</v>
       </c>
-      <c r="D87" s="475"/>
-      <c r="E87" s="476"/>
+      <c r="D87" s="464"/>
+      <c r="E87" s="465"/>
       <c r="F87" s="379"/>
       <c r="K87" s="378"/>
     </row>
@@ -11980,51 +12601,51 @@
       <c r="B88" s="349">
         <v>8</v>
       </c>
-      <c r="C88" s="474" t="str">
+      <c r="C88" s="463" t="str">
         <f>C75</f>
         <v>Почему для данного проекта нельзя использовать оценку экономической эффективности по PI?</v>
       </c>
-      <c r="D88" s="475"/>
-      <c r="E88" s="476"/>
-      <c r="F88" s="507"/>
-      <c r="G88" s="507"/>
-      <c r="H88" s="507"/>
-      <c r="I88" s="507"/>
+      <c r="D88" s="464"/>
+      <c r="E88" s="465"/>
+      <c r="F88" s="467"/>
+      <c r="G88" s="467"/>
+      <c r="H88" s="467"/>
+      <c r="I88" s="467"/>
     </row>
     <row r="91" spans="2:15" ht="78" customHeight="1">
-      <c r="E91" s="508" t="s">
+      <c r="E91" s="468" t="s">
         <v>158</v>
       </c>
-      <c r="F91" s="508"/>
-      <c r="G91" s="508"/>
-      <c r="H91" s="508"/>
-      <c r="I91" s="508"/>
-      <c r="J91" s="508"/>
-      <c r="K91" s="508"/>
+      <c r="F91" s="468"/>
+      <c r="G91" s="468"/>
+      <c r="H91" s="468"/>
+      <c r="I91" s="468"/>
+      <c r="J91" s="468"/>
+      <c r="K91" s="468"/>
     </row>
     <row r="92" spans="2:15">
-      <c r="E92" s="505"/>
-      <c r="F92" s="505"/>
-      <c r="G92" s="505"/>
-      <c r="H92" s="505"/>
-      <c r="I92" s="505"/>
-      <c r="J92" s="505"/>
+      <c r="E92" s="462"/>
+      <c r="F92" s="462"/>
+      <c r="G92" s="462"/>
+      <c r="H92" s="462"/>
+      <c r="I92" s="462"/>
+      <c r="J92" s="462"/>
     </row>
     <row r="93" spans="2:15">
-      <c r="E93" s="505"/>
-      <c r="F93" s="505"/>
-      <c r="G93" s="505"/>
-      <c r="H93" s="505"/>
-      <c r="I93" s="505"/>
-      <c r="J93" s="505"/>
+      <c r="E93" s="462"/>
+      <c r="F93" s="462"/>
+      <c r="G93" s="462"/>
+      <c r="H93" s="462"/>
+      <c r="I93" s="462"/>
+      <c r="J93" s="462"/>
     </row>
     <row r="94" spans="2:15">
-      <c r="E94" s="505"/>
-      <c r="F94" s="505"/>
-      <c r="G94" s="505"/>
-      <c r="H94" s="505"/>
-      <c r="I94" s="505"/>
-      <c r="J94" s="505"/>
+      <c r="E94" s="462"/>
+      <c r="F94" s="462"/>
+      <c r="G94" s="462"/>
+      <c r="H94" s="462"/>
+      <c r="I94" s="462"/>
+      <c r="J94" s="462"/>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
@@ -12038,25 +12659,30 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E92:J94"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="E91:K91"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="H59:O60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="H22:M28"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="B58:F58"/>
     <mergeCell ref="H38:M43"/>
     <mergeCell ref="C39:E39"/>
@@ -12070,30 +12696,25 @@
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="H22:M28"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="H59:O60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="E92:J94"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="E91:K91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12107,8 +12728,8 @@
   </sheetPr>
   <dimension ref="A1:AC142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O137" sqref="O137"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -12142,22 +12763,22 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
-      <c r="Q1" s="518" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="539"/>
-      <c r="S1" s="539"/>
-      <c r="T1" s="540"/>
-      <c r="U1" s="518"/>
-      <c r="V1" s="539"/>
-      <c r="W1" s="539"/>
-      <c r="X1" s="540"/>
+      <c r="Q1" s="521" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="522"/>
+      <c r="S1" s="522"/>
+      <c r="T1" s="523"/>
+      <c r="U1" s="521"/>
+      <c r="V1" s="522"/>
+      <c r="W1" s="522"/>
+      <c r="X1" s="523"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="15.75">
-      <c r="A2" s="527" t="s">
+      <c r="A2" s="509" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="528"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -12172,14 +12793,14 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="518"/>
-      <c r="R2" s="539"/>
-      <c r="S2" s="539"/>
-      <c r="T2" s="540"/>
-      <c r="U2" s="518"/>
-      <c r="V2" s="539"/>
-      <c r="W2" s="539"/>
-      <c r="X2" s="540"/>
+      <c r="Q2" s="521"/>
+      <c r="R2" s="522"/>
+      <c r="S2" s="522"/>
+      <c r="T2" s="523"/>
+      <c r="U2" s="521"/>
+      <c r="V2" s="522"/>
+      <c r="W2" s="522"/>
+      <c r="X2" s="523"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
@@ -12203,14 +12824,14 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="518"/>
-      <c r="R3" s="539"/>
-      <c r="S3" s="539"/>
-      <c r="T3" s="540"/>
-      <c r="U3" s="518"/>
-      <c r="V3" s="539"/>
-      <c r="W3" s="539"/>
-      <c r="X3" s="540"/>
+      <c r="Q3" s="521"/>
+      <c r="R3" s="522"/>
+      <c r="S3" s="522"/>
+      <c r="T3" s="523"/>
+      <c r="U3" s="521"/>
+      <c r="V3" s="522"/>
+      <c r="W3" s="522"/>
+      <c r="X3" s="523"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -12234,16 +12855,16 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="529" t="s">
+      <c r="Q4" s="511" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="530"/>
-      <c r="S4" s="530"/>
-      <c r="T4" s="531"/>
-      <c r="U4" s="529"/>
-      <c r="V4" s="530"/>
-      <c r="W4" s="530"/>
-      <c r="X4" s="531"/>
+      <c r="R4" s="512"/>
+      <c r="S4" s="512"/>
+      <c r="T4" s="513"/>
+      <c r="U4" s="511"/>
+      <c r="V4" s="512"/>
+      <c r="W4" s="512"/>
+      <c r="X4" s="513"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
@@ -12267,14 +12888,14 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="529"/>
-      <c r="R5" s="530"/>
-      <c r="S5" s="530"/>
-      <c r="T5" s="531"/>
-      <c r="U5" s="529"/>
-      <c r="V5" s="530"/>
-      <c r="W5" s="530"/>
-      <c r="X5" s="531"/>
+      <c r="Q5" s="511"/>
+      <c r="R5" s="512"/>
+      <c r="S5" s="512"/>
+      <c r="T5" s="513"/>
+      <c r="U5" s="511"/>
+      <c r="V5" s="512"/>
+      <c r="W5" s="512"/>
+      <c r="X5" s="513"/>
     </row>
     <row r="6" spans="1:24" hidden="1">
       <c r="A6" s="16" t="s">
@@ -12298,14 +12919,14 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="532"/>
-      <c r="R6" s="533"/>
-      <c r="S6" s="533"/>
-      <c r="T6" s="534"/>
-      <c r="U6" s="532"/>
-      <c r="V6" s="533"/>
-      <c r="W6" s="533"/>
-      <c r="X6" s="534"/>
+      <c r="Q6" s="514"/>
+      <c r="R6" s="515"/>
+      <c r="S6" s="515"/>
+      <c r="T6" s="516"/>
+      <c r="U6" s="514"/>
+      <c r="V6" s="515"/>
+      <c r="W6" s="515"/>
+      <c r="X6" s="516"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="18" t="s">
@@ -12348,7 +12969,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:24" hidden="1">
-      <c r="A9" s="537" t="s">
+      <c r="A9" s="519" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -12369,7 +12990,7 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="538"/>
+      <c r="A10" s="520"/>
       <c r="B10" s="23">
         <f>B6*B9</f>
         <v>1127.3</v>
@@ -12389,7 +13010,7 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:24" hidden="1">
-      <c r="A11" s="535" t="s">
+      <c r="A11" s="517" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
@@ -12411,7 +13032,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A12" s="536"/>
+      <c r="A12" s="518"/>
       <c r="B12" s="23">
         <f>B5*B11</f>
         <v>62858</v>
@@ -12432,7 +13053,7 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:24" hidden="1">
-      <c r="A13" s="537" t="s">
+      <c r="A13" s="519" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="24">
@@ -12454,7 +13075,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A14" s="538"/>
+      <c r="A14" s="520"/>
       <c r="B14" s="23">
         <f>B5*B13</f>
         <v>0</v>
@@ -12493,34 +13114,34 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A16" s="512" t="s">
+      <c r="A16" s="539" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="513"/>
-      <c r="C16" s="511" t="s">
+      <c r="B16" s="540"/>
+      <c r="C16" s="538" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="511"/>
-      <c r="E16" s="511"/>
-      <c r="F16" s="511"/>
-      <c r="G16" s="511" t="s">
+      <c r="D16" s="538"/>
+      <c r="E16" s="538"/>
+      <c r="F16" s="538"/>
+      <c r="G16" s="538" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="511"/>
-      <c r="I16" s="511"/>
-      <c r="J16" s="511"/>
-      <c r="K16" s="511" t="s">
+      <c r="H16" s="538"/>
+      <c r="I16" s="538"/>
+      <c r="J16" s="538"/>
+      <c r="K16" s="538" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="511"/>
-      <c r="M16" s="511"/>
+      <c r="L16" s="538"/>
+      <c r="M16" s="538"/>
       <c r="N16" s="192"/>
       <c r="O16" s="193"/>
       <c r="P16" s="383"/>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="514"/>
-      <c r="B17" s="515"/>
+      <c r="A17" s="541"/>
+      <c r="B17" s="542"/>
       <c r="C17" s="194">
         <v>1</v>
       </c>
@@ -12671,26 +13292,26 @@
         <v>21</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="517">
+      <c r="C20" s="525">
         <f>Q20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D20" s="517"/>
-      <c r="E20" s="517"/>
-      <c r="F20" s="517"/>
-      <c r="G20" s="517">
+      <c r="D20" s="525"/>
+      <c r="E20" s="525"/>
+      <c r="F20" s="525"/>
+      <c r="G20" s="525">
         <f>C20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="517"/>
-      <c r="I20" s="517"/>
-      <c r="J20" s="517"/>
-      <c r="K20" s="517">
+      <c r="H20" s="525"/>
+      <c r="I20" s="525"/>
+      <c r="J20" s="525"/>
+      <c r="K20" s="525">
         <f>G20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L20" s="517"/>
-      <c r="M20" s="517"/>
+      <c r="L20" s="525"/>
+      <c r="M20" s="525"/>
       <c r="N20" s="214">
         <f>(1+C20)^(1/4)-1</f>
         <v>1.6106667595102708E-2</v>
@@ -13899,12 +14520,12 @@
       <c r="N53" s="36"/>
       <c r="O53" s="37"/>
       <c r="P53" s="36"/>
-      <c r="T53" s="518" t="s">
+      <c r="T53" s="521" t="s">
         <v>53</v>
       </c>
-      <c r="U53" s="519"/>
-      <c r="V53" s="519"/>
-      <c r="W53" s="519"/>
+      <c r="U53" s="526"/>
+      <c r="V53" s="526"/>
+      <c r="W53" s="526"/>
     </row>
     <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="96" t="s">
@@ -13946,10 +14567,10 @@
       <c r="N54" s="102"/>
       <c r="O54" s="103"/>
       <c r="P54" s="102"/>
-      <c r="T54" s="518"/>
-      <c r="U54" s="519"/>
-      <c r="V54" s="519"/>
-      <c r="W54" s="519"/>
+      <c r="T54" s="521"/>
+      <c r="U54" s="526"/>
+      <c r="V54" s="526"/>
+      <c r="W54" s="526"/>
     </row>
     <row r="55" spans="1:23" hidden="1">
       <c r="A55" s="104" t="s">
@@ -13979,10 +14600,10 @@
       <c r="N55" s="52"/>
       <c r="O55" s="53"/>
       <c r="P55" s="52"/>
-      <c r="T55" s="518"/>
-      <c r="U55" s="519"/>
-      <c r="V55" s="519"/>
-      <c r="W55" s="519"/>
+      <c r="T55" s="521"/>
+      <c r="U55" s="526"/>
+      <c r="V55" s="526"/>
+      <c r="W55" s="526"/>
     </row>
     <row r="56" spans="1:23" hidden="1">
       <c r="A56" s="108" t="s">
@@ -14488,17 +15109,17 @@
         <v>66</v>
       </c>
       <c r="B67" s="91"/>
-      <c r="C67" s="520"/>
-      <c r="D67" s="520"/>
-      <c r="E67" s="520"/>
-      <c r="F67" s="521"/>
-      <c r="G67" s="521"/>
-      <c r="H67" s="521"/>
-      <c r="I67" s="521"/>
-      <c r="J67" s="521"/>
-      <c r="K67" s="521"/>
-      <c r="L67" s="521"/>
-      <c r="M67" s="521"/>
+      <c r="C67" s="527"/>
+      <c r="D67" s="527"/>
+      <c r="E67" s="527"/>
+      <c r="F67" s="528"/>
+      <c r="G67" s="528"/>
+      <c r="H67" s="528"/>
+      <c r="I67" s="528"/>
+      <c r="J67" s="528"/>
+      <c r="K67" s="528"/>
+      <c r="L67" s="528"/>
+      <c r="M67" s="528"/>
       <c r="N67" s="128"/>
       <c r="O67" s="129"/>
       <c r="P67" s="128"/>
@@ -15855,7 +16476,7 @@
     </row>
     <row r="91" spans="1:17" s="14" customFormat="1" ht="13.5" thickTop="1">
       <c r="A91" s="169"/>
-      <c r="B91" s="170"/>
+      <c r="B91" s="551"/>
       <c r="C91" s="171"/>
       <c r="D91" s="172"/>
       <c r="E91" s="172"/>
@@ -15883,83 +16504,114 @@
       <c r="L92" s="184"/>
     </row>
     <row r="93" spans="1:17" s="14" customFormat="1" ht="15.75">
-      <c r="A93" s="522" t="s">
+      <c r="A93" s="529" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="522"/>
-      <c r="C93" s="522"/>
-      <c r="D93" s="522"/>
-      <c r="E93" s="522"/>
+      <c r="B93" s="529"/>
+      <c r="C93" s="529"/>
+      <c r="D93" s="529"/>
+      <c r="E93" s="529"/>
       <c r="F93" s="385"/>
       <c r="G93" s="387"/>
-      <c r="H93" s="186"/>
-      <c r="I93" s="186"/>
-      <c r="J93" s="186"/>
-      <c r="K93" s="186"/>
-      <c r="L93" s="186"/>
+      <c r="H93" s="549"/>
+      <c r="I93" s="549"/>
+      <c r="J93" s="549"/>
+      <c r="K93" s="549"/>
+      <c r="L93" s="549"/>
+      <c r="M93" s="549"/>
     </row>
     <row r="94" spans="1:17" ht="15.75">
-      <c r="A94" s="509" t="s">
+      <c r="A94" s="530" t="s">
         <v>102</v>
       </c>
-      <c r="B94" s="509"/>
-      <c r="C94" s="509"/>
-      <c r="D94" s="523">
+      <c r="B94" s="530"/>
+      <c r="C94" s="530"/>
+      <c r="D94" s="531">
         <f>B86</f>
         <v>1256156984.3194733</v>
       </c>
-      <c r="E94" s="523"/>
+      <c r="E94" s="531"/>
       <c r="F94" s="386"/>
       <c r="G94" s="388"/>
+      <c r="H94" s="549"/>
+      <c r="I94" s="549"/>
+      <c r="J94" s="549"/>
+      <c r="K94" s="549"/>
+      <c r="L94" s="549"/>
+      <c r="M94" s="549"/>
     </row>
     <row r="95" spans="1:17" ht="15.75">
-      <c r="A95" s="509" t="s">
+      <c r="A95" s="530" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="509"/>
-      <c r="C95" s="509"/>
-      <c r="D95" s="523">
+      <c r="B95" s="530"/>
+      <c r="C95" s="530"/>
+      <c r="D95" s="531">
         <f>B90</f>
         <v>771601140.15286112</v>
       </c>
-      <c r="E95" s="523"/>
+      <c r="E95" s="531"/>
       <c r="F95" s="386"/>
       <c r="G95" s="388"/>
+      <c r="H95" s="549"/>
+      <c r="I95" s="549"/>
+      <c r="J95" s="549"/>
+      <c r="K95" s="549"/>
+      <c r="L95" s="549"/>
+      <c r="M95" s="549"/>
     </row>
     <row r="96" spans="1:17" ht="15.75">
-      <c r="A96" s="509" t="s">
+      <c r="A96" s="530" t="s">
         <v>104</v>
       </c>
-      <c r="B96" s="509"/>
-      <c r="C96" s="509"/>
+      <c r="B96" s="530"/>
+      <c r="C96" s="530"/>
       <c r="D96" s="380">
-        <f>F123+(-F127/(G127+F127))</f>
-        <v>3.4762991636032208</v>
-      </c>
-      <c r="E96" s="380"/>
+        <f>F123+(-F127/(-F127+G127))</f>
+        <v>5.7442119720053659</v>
+      </c>
+      <c r="E96" s="380">
+        <f>D96/4</f>
+        <v>1.4360529930013415</v>
+      </c>
       <c r="F96" s="445"/>
       <c r="G96" s="446"/>
+      <c r="H96" s="549"/>
+      <c r="I96" s="549"/>
+      <c r="J96" s="549"/>
+      <c r="K96" s="549"/>
+      <c r="L96" s="549"/>
+      <c r="M96" s="549"/>
     </row>
     <row r="97" spans="1:16" ht="15.75">
-      <c r="A97" s="509" t="s">
+      <c r="A97" s="530" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="509"/>
-      <c r="C97" s="509"/>
+      <c r="B97" s="530"/>
+      <c r="C97" s="530"/>
       <c r="D97" s="380">
-        <f>G123+(-G130/(H130+E129))</f>
-        <v>5.9929501036444162</v>
-      </c>
-      <c r="E97" s="380"/>
+        <f>G123+(-G130/(-G130+H130))</f>
+        <v>6.379216291346343</v>
+      </c>
+      <c r="E97" s="380">
+        <f>D97/4</f>
+        <v>1.5948040728365858</v>
+      </c>
       <c r="F97" s="445"/>
       <c r="G97" s="446"/>
+      <c r="H97" s="549"/>
+      <c r="I97" s="549"/>
+      <c r="J97" s="549"/>
+      <c r="K97" s="549"/>
+      <c r="L97" s="549"/>
+      <c r="M97" s="549"/>
     </row>
     <row r="98" spans="1:16" ht="15.75">
-      <c r="A98" s="509" t="s">
+      <c r="A98" s="530" t="s">
         <v>106</v>
       </c>
-      <c r="B98" s="509"/>
-      <c r="C98" s="509"/>
+      <c r="B98" s="530"/>
+      <c r="C98" s="530"/>
       <c r="D98" s="381">
         <f>IRR(B126:O126)</f>
         <v>0.28180800467489253</v>
@@ -15970,220 +16622,253 @@
       </c>
       <c r="F98" s="386"/>
       <c r="G98" s="388"/>
+      <c r="H98" s="549"/>
+      <c r="I98" s="549"/>
+      <c r="J98" s="549"/>
+      <c r="K98" s="549"/>
+      <c r="L98" s="549"/>
+      <c r="M98" s="549"/>
     </row>
     <row r="99" spans="1:16" ht="15.75">
-      <c r="A99" s="509" t="s">
+      <c r="A99" s="530" t="s">
         <v>107</v>
       </c>
-      <c r="B99" s="509"/>
-      <c r="C99" s="509"/>
-      <c r="D99" s="510">
+      <c r="B99" s="530"/>
+      <c r="C99" s="530"/>
+      <c r="D99" s="537">
         <f>SUM(B131:O131)/SUM(B132:O132)</f>
         <v>1.3452823534053628</v>
       </c>
-      <c r="E99" s="510"/>
+      <c r="E99" s="537"/>
       <c r="F99" s="386"/>
       <c r="G99" s="388"/>
     </row>
     <row r="100" spans="1:16" ht="15.75">
-      <c r="A100" s="524" t="s">
+      <c r="A100" s="532" t="s">
         <v>108</v>
       </c>
-      <c r="B100" s="525"/>
-      <c r="C100" s="525"/>
-      <c r="D100" s="526"/>
+      <c r="B100" s="533"/>
+      <c r="C100" s="533"/>
+      <c r="D100" s="534"/>
       <c r="E100" s="339"/>
     </row>
     <row r="101" spans="1:16" ht="15.75">
-      <c r="A101" s="546" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101" s="547"/>
-      <c r="C101" s="547"/>
-      <c r="D101" s="547"/>
+      <c r="A101" s="535" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="536"/>
+      <c r="C101" s="536"/>
+      <c r="D101" s="536"/>
       <c r="E101" s="339"/>
     </row>
     <row r="102" spans="1:16" ht="15.75">
-      <c r="A102" s="547"/>
-      <c r="B102" s="547"/>
-      <c r="C102" s="547"/>
-      <c r="D102" s="547"/>
+      <c r="A102" s="536"/>
+      <c r="B102" s="536"/>
+      <c r="C102" s="536"/>
+      <c r="D102" s="536"/>
       <c r="E102" s="339"/>
     </row>
     <row r="103" spans="1:16" ht="15.75">
-      <c r="A103" s="547"/>
-      <c r="B103" s="547"/>
-      <c r="C103" s="547"/>
-      <c r="D103" s="547"/>
+      <c r="A103" s="536"/>
+      <c r="B103" s="536"/>
+      <c r="C103" s="536"/>
+      <c r="D103" s="536"/>
       <c r="E103" s="339"/>
     </row>
     <row r="104" spans="1:16" ht="15.75">
-      <c r="A104" s="547"/>
-      <c r="B104" s="547"/>
-      <c r="C104" s="547"/>
-      <c r="D104" s="547"/>
+      <c r="A104" s="536"/>
+      <c r="B104" s="536"/>
+      <c r="C104" s="536"/>
+      <c r="D104" s="536"/>
       <c r="E104" s="339"/>
     </row>
     <row r="105" spans="1:16" ht="15.75">
-      <c r="A105" s="547"/>
-      <c r="B105" s="547"/>
-      <c r="C105" s="547"/>
-      <c r="D105" s="547"/>
+      <c r="A105" s="536"/>
+      <c r="B105" s="536"/>
+      <c r="C105" s="536"/>
+      <c r="D105" s="536"/>
       <c r="E105" s="339"/>
     </row>
     <row r="106" spans="1:16" ht="15.75">
-      <c r="A106" s="547"/>
-      <c r="B106" s="547"/>
-      <c r="C106" s="547"/>
-      <c r="D106" s="547"/>
+      <c r="A106" s="536"/>
+      <c r="B106" s="536"/>
+      <c r="C106" s="536"/>
+      <c r="D106" s="536"/>
       <c r="E106" s="339"/>
     </row>
     <row r="107" spans="1:16" ht="15.75">
-      <c r="A107" s="547"/>
-      <c r="B107" s="547"/>
-      <c r="C107" s="547"/>
-      <c r="D107" s="547"/>
+      <c r="A107" s="536"/>
+      <c r="B107" s="536"/>
+      <c r="C107" s="536"/>
+      <c r="D107" s="536"/>
       <c r="E107" s="339"/>
     </row>
     <row r="109" spans="1:16" hidden="1"/>
     <row r="112" spans="1:16">
       <c r="P112" s="14"/>
     </row>
-    <row r="113" spans="1:16" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
-      <c r="A113" s="516" t="s">
-        <v>88</v>
-      </c>
-      <c r="B113" s="516"/>
-      <c r="C113" s="516"/>
-      <c r="D113" s="516"/>
-      <c r="E113" s="516"/>
-      <c r="F113" s="516"/>
-      <c r="G113" s="516"/>
-      <c r="H113" s="516"/>
-      <c r="I113" s="516"/>
-      <c r="J113" s="516"/>
-      <c r="K113" s="516"/>
+    <row r="113" spans="1:17" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+      <c r="A113" s="524"/>
+      <c r="B113" s="524"/>
+      <c r="C113" s="524"/>
+      <c r="D113" s="524"/>
+      <c r="E113" s="524"/>
+      <c r="F113" s="524"/>
+      <c r="G113" s="524"/>
+      <c r="H113" s="524"/>
+      <c r="I113" s="524"/>
+      <c r="J113" s="524"/>
+      <c r="K113" s="524"/>
       <c r="L113" s="178"/>
       <c r="M113" s="178"/>
       <c r="N113" s="177"/>
     </row>
-    <row r="114" spans="1:16" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
-      <c r="A114" s="516"/>
-      <c r="B114" s="516"/>
-      <c r="C114" s="516"/>
-      <c r="D114" s="516"/>
-      <c r="E114" s="516"/>
-      <c r="F114" s="516"/>
-      <c r="G114" s="516"/>
-      <c r="H114" s="516"/>
-      <c r="I114" s="516"/>
-      <c r="J114" s="516"/>
-      <c r="K114" s="516"/>
+    <row r="114" spans="1:17" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+      <c r="A114" s="524"/>
+      <c r="B114" s="524"/>
+      <c r="C114" s="524"/>
+      <c r="D114" s="524"/>
+      <c r="E114" s="524"/>
+      <c r="F114" s="524"/>
+      <c r="G114" s="524"/>
+      <c r="H114" s="524"/>
+      <c r="I114" s="524"/>
+      <c r="J114" s="524"/>
+      <c r="K114" s="524"/>
       <c r="L114" s="179"/>
       <c r="M114" s="179"/>
       <c r="N114" s="177"/>
     </row>
-    <row r="115" spans="1:16" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
-      <c r="A115" s="516"/>
-      <c r="B115" s="516"/>
-      <c r="C115" s="516"/>
-      <c r="D115" s="516"/>
-      <c r="E115" s="516"/>
-      <c r="F115" s="516"/>
-      <c r="G115" s="516"/>
-      <c r="H115" s="516"/>
-      <c r="I115" s="516"/>
-      <c r="J115" s="516"/>
-      <c r="K115" s="516"/>
+    <row r="115" spans="1:17" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
+      <c r="A115" s="524"/>
+      <c r="B115" s="524"/>
+      <c r="C115" s="524"/>
+      <c r="D115" s="524"/>
+      <c r="E115" s="524"/>
+      <c r="F115" s="524"/>
+      <c r="G115" s="524"/>
+      <c r="H115" s="524"/>
+      <c r="I115" s="524"/>
+      <c r="J115" s="524"/>
+      <c r="K115" s="524"/>
       <c r="L115" s="179"/>
       <c r="M115" s="179"/>
       <c r="N115" s="177"/>
     </row>
-    <row r="116" spans="1:16" s="14" customFormat="1" ht="26.25" hidden="1" customHeight="1">
-      <c r="A116" s="516"/>
-      <c r="B116" s="516"/>
-      <c r="C116" s="516"/>
-      <c r="D116" s="516"/>
-      <c r="E116" s="516"/>
-      <c r="F116" s="516"/>
-      <c r="G116" s="516"/>
-      <c r="H116" s="516"/>
-      <c r="I116" s="516"/>
-      <c r="J116" s="516"/>
-      <c r="K116" s="516"/>
+    <row r="116" spans="1:17" s="14" customFormat="1" ht="26.25" hidden="1" customHeight="1">
+      <c r="A116" s="524"/>
+      <c r="B116" s="524"/>
+      <c r="C116" s="524"/>
+      <c r="D116" s="524"/>
+      <c r="E116" s="524"/>
+      <c r="F116" s="524"/>
+      <c r="G116" s="524"/>
+      <c r="H116" s="524"/>
+      <c r="I116" s="524"/>
+      <c r="J116" s="524"/>
+      <c r="K116" s="524"/>
       <c r="L116" s="179"/>
       <c r="M116" s="179"/>
       <c r="N116" s="177"/>
     </row>
-    <row r="117" spans="1:16" s="14" customFormat="1" ht="26.25" hidden="1" customHeight="1">
-      <c r="A117" s="516"/>
-      <c r="B117" s="516"/>
-      <c r="C117" s="516"/>
-      <c r="D117" s="516"/>
-      <c r="E117" s="516"/>
-      <c r="F117" s="516"/>
-      <c r="G117" s="516"/>
-      <c r="H117" s="516"/>
-      <c r="I117" s="516"/>
-      <c r="J117" s="516"/>
-      <c r="K117" s="516"/>
+    <row r="117" spans="1:17" s="14" customFormat="1" ht="26.25" hidden="1" customHeight="1">
+      <c r="A117" s="524"/>
+      <c r="B117" s="524"/>
+      <c r="C117" s="524"/>
+      <c r="D117" s="524"/>
+      <c r="E117" s="524"/>
+      <c r="F117" s="524"/>
+      <c r="G117" s="524"/>
+      <c r="H117" s="524"/>
+      <c r="I117" s="524"/>
+      <c r="J117" s="524"/>
+      <c r="K117" s="524"/>
       <c r="L117" s="180"/>
       <c r="M117" s="180"/>
       <c r="N117" s="177"/>
     </row>
-    <row r="118" spans="1:16" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A118" s="516"/>
-      <c r="B118" s="516"/>
-      <c r="C118" s="516"/>
-      <c r="D118" s="516"/>
-      <c r="E118" s="516"/>
-      <c r="F118" s="516"/>
-      <c r="G118" s="516"/>
-      <c r="H118" s="516"/>
-      <c r="I118" s="516"/>
-      <c r="J118" s="516"/>
-      <c r="K118" s="516"/>
+    <row r="118" spans="1:17" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A118" s="524"/>
+      <c r="B118" s="524"/>
+      <c r="C118" s="524"/>
+      <c r="D118" s="524"/>
+      <c r="E118" s="524"/>
+      <c r="F118" s="524"/>
+      <c r="G118" s="524"/>
+      <c r="H118" s="524"/>
+      <c r="I118" s="524"/>
+      <c r="J118" s="524"/>
+      <c r="K118" s="524"/>
       <c r="L118" s="180"/>
       <c r="M118" s="180"/>
       <c r="N118" s="177"/>
     </row>
-    <row r="119" spans="1:16" s="183" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A119" s="516"/>
-      <c r="B119" s="516"/>
-      <c r="C119" s="516"/>
-      <c r="D119" s="516"/>
-      <c r="E119" s="516"/>
-      <c r="F119" s="516"/>
-      <c r="G119" s="516"/>
-      <c r="H119" s="516"/>
-      <c r="I119" s="516"/>
-      <c r="J119" s="516"/>
-      <c r="K119" s="516"/>
+    <row r="119" spans="1:17" s="183" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A119" s="524"/>
+      <c r="B119" s="524"/>
+      <c r="C119" s="524"/>
+      <c r="D119" s="524"/>
+      <c r="E119" s="524"/>
+      <c r="F119" s="524"/>
+      <c r="G119" s="524"/>
+      <c r="H119" s="524"/>
+      <c r="I119" s="524"/>
+      <c r="J119" s="524"/>
+      <c r="K119" s="524"/>
       <c r="L119" s="181"/>
       <c r="M119" s="182"/>
       <c r="N119" s="182"/>
     </row>
-    <row r="120" spans="1:16" s="182" customFormat="1" ht="18.75" hidden="1" collapsed="1">
-      <c r="A120" s="516"/>
-      <c r="B120" s="516"/>
-      <c r="C120" s="516"/>
-      <c r="D120" s="516"/>
-      <c r="E120" s="516"/>
-      <c r="F120" s="516"/>
-      <c r="G120" s="516"/>
-      <c r="H120" s="516"/>
-      <c r="I120" s="516"/>
-      <c r="J120" s="516"/>
-      <c r="K120" s="516"/>
+    <row r="120" spans="1:17" s="182" customFormat="1" ht="18.75" hidden="1" collapsed="1">
+      <c r="A120" s="524"/>
+      <c r="B120" s="524"/>
+      <c r="C120" s="524"/>
+      <c r="D120" s="524"/>
+      <c r="E120" s="524"/>
+      <c r="F120" s="524"/>
+      <c r="G120" s="524"/>
+      <c r="H120" s="524"/>
+      <c r="I120" s="524"/>
+      <c r="J120" s="524"/>
+      <c r="K120" s="524"/>
       <c r="L120" s="181"/>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:17">
       <c r="P121" s="14"/>
     </row>
-    <row r="122" spans="1:16">
-      <c r="P122" s="14"/>
-    </row>
-    <row r="123" spans="1:16">
+    <row r="122" spans="1:17">
+      <c r="A122" s="447" t="s">
+        <v>194</v>
+      </c>
+      <c r="B122" s="550">
+        <v>1</v>
+      </c>
+      <c r="C122" s="550"/>
+      <c r="D122" s="550"/>
+      <c r="E122" s="550"/>
+      <c r="F122" s="550">
+        <v>2</v>
+      </c>
+      <c r="G122" s="550"/>
+      <c r="H122" s="550"/>
+      <c r="I122" s="550"/>
+      <c r="J122" s="550">
+        <v>3</v>
+      </c>
+      <c r="K122" s="550"/>
+      <c r="L122" s="550"/>
+      <c r="M122" s="550"/>
+      <c r="N122" s="550">
+        <v>4</v>
+      </c>
+      <c r="O122" s="550"/>
+      <c r="P122" s="550"/>
+      <c r="Q122" s="550"/>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="447" t="s">
+        <v>193</v>
+      </c>
       <c r="B123" s="188">
         <v>1</v>
       </c>
@@ -16227,12 +16912,12 @@
         <v>14</v>
       </c>
       <c r="P123" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
       <c r="A124" s="447" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B124" s="449">
         <f>C78</f>
@@ -16292,9 +16977,9 @@
       </c>
       <c r="P124" s="14"/>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:17">
       <c r="A125" s="447" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B125" s="455">
         <f>C65</f>
@@ -16354,9 +17039,9 @@
       </c>
       <c r="P125" s="14"/>
     </row>
-    <row r="126" spans="1:16" ht="15">
+    <row r="126" spans="1:17" ht="15">
       <c r="A126" s="447" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B126" s="453">
         <f>B125-B124</f>
@@ -16419,7 +17104,7 @@
         <v>1811189451.3157699</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15">
+    <row r="127" spans="1:17" ht="15">
       <c r="A127" s="448" t="s">
         <v>133</v>
       </c>
@@ -16484,9 +17169,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15">
+    <row r="128" spans="1:17" ht="15">
       <c r="A128" s="457" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B128" s="459">
         <f>C89</f>
@@ -16669,14 +17354,11 @@
         <v>1080166659.0095742</v>
       </c>
       <c r="P130" s="450"/>
-      <c r="Q130" s="461">
-        <f>SUM(B130:O130)</f>
-        <v>2562166313.8579979</v>
-      </c>
+      <c r="Q130" s="461"/>
     </row>
     <row r="131" spans="1:29" ht="15" customHeight="1">
       <c r="A131" s="448" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B131" s="454">
         <f>B128*B125</f>
@@ -16734,11 +17416,11 @@
         <f t="shared" si="57"/>
         <v>253181522.78304845</v>
       </c>
-      <c r="P131" s="14"/>
+      <c r="P131" s="548"/>
     </row>
     <row r="132" spans="1:29">
       <c r="A132" s="447" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B132" s="460">
         <f>B128*B124</f>
@@ -16857,15 +17539,18 @@
       <c r="E142" s="191"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q4:T6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="U4:X6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Q1:T3"/>
-    <mergeCell ref="U1:X3"/>
+  <mergeCells count="35">
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A98:C98"/>
     <mergeCell ref="A113:K120"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:J20"/>
@@ -16882,13 +17567,14 @@
     <mergeCell ref="A101:D107"/>
     <mergeCell ref="A96:C96"/>
     <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q4:T6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="U1:X3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.31496062992125984" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -16906,8 +17592,8 @@
   </sheetPr>
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q92" sqref="Q92"/>
+    <sheetView topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83:N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -16950,22 +17636,22 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
-      <c r="Q1" s="518" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="539"/>
-      <c r="S1" s="539"/>
-      <c r="T1" s="540"/>
-      <c r="U1" s="518"/>
-      <c r="V1" s="539"/>
-      <c r="W1" s="539"/>
-      <c r="X1" s="540"/>
+      <c r="Q1" s="521" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="522"/>
+      <c r="S1" s="522"/>
+      <c r="T1" s="523"/>
+      <c r="U1" s="521"/>
+      <c r="V1" s="522"/>
+      <c r="W1" s="522"/>
+      <c r="X1" s="523"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="15.75">
-      <c r="A2" s="527" t="s">
+      <c r="A2" s="509" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="528"/>
+      <c r="B2" s="510"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -16980,14 +17666,14 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="518"/>
-      <c r="R2" s="539"/>
-      <c r="S2" s="539"/>
-      <c r="T2" s="540"/>
-      <c r="U2" s="518"/>
-      <c r="V2" s="539"/>
-      <c r="W2" s="539"/>
-      <c r="X2" s="540"/>
+      <c r="Q2" s="521"/>
+      <c r="R2" s="522"/>
+      <c r="S2" s="522"/>
+      <c r="T2" s="523"/>
+      <c r="U2" s="521"/>
+      <c r="V2" s="522"/>
+      <c r="W2" s="522"/>
+      <c r="X2" s="523"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
@@ -17011,14 +17697,14 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="518"/>
-      <c r="R3" s="539"/>
-      <c r="S3" s="539"/>
-      <c r="T3" s="540"/>
-      <c r="U3" s="518"/>
-      <c r="V3" s="539"/>
-      <c r="W3" s="539"/>
-      <c r="X3" s="540"/>
+      <c r="Q3" s="521"/>
+      <c r="R3" s="522"/>
+      <c r="S3" s="522"/>
+      <c r="T3" s="523"/>
+      <c r="U3" s="521"/>
+      <c r="V3" s="522"/>
+      <c r="W3" s="522"/>
+      <c r="X3" s="523"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -17042,16 +17728,16 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="529" t="s">
+      <c r="Q4" s="511" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="530"/>
-      <c r="S4" s="530"/>
-      <c r="T4" s="531"/>
-      <c r="U4" s="529"/>
-      <c r="V4" s="530"/>
-      <c r="W4" s="530"/>
-      <c r="X4" s="531"/>
+      <c r="R4" s="512"/>
+      <c r="S4" s="512"/>
+      <c r="T4" s="513"/>
+      <c r="U4" s="511"/>
+      <c r="V4" s="512"/>
+      <c r="W4" s="512"/>
+      <c r="X4" s="513"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
@@ -17075,14 +17761,14 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="529"/>
-      <c r="R5" s="530"/>
-      <c r="S5" s="530"/>
-      <c r="T5" s="531"/>
-      <c r="U5" s="529"/>
-      <c r="V5" s="530"/>
-      <c r="W5" s="530"/>
-      <c r="X5" s="531"/>
+      <c r="Q5" s="511"/>
+      <c r="R5" s="512"/>
+      <c r="S5" s="512"/>
+      <c r="T5" s="513"/>
+      <c r="U5" s="511"/>
+      <c r="V5" s="512"/>
+      <c r="W5" s="512"/>
+      <c r="X5" s="513"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="16" t="s">
@@ -17106,14 +17792,14 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="532"/>
-      <c r="R6" s="533"/>
-      <c r="S6" s="533"/>
-      <c r="T6" s="534"/>
-      <c r="U6" s="532"/>
-      <c r="V6" s="533"/>
-      <c r="W6" s="533"/>
-      <c r="X6" s="534"/>
+      <c r="Q6" s="514"/>
+      <c r="R6" s="515"/>
+      <c r="S6" s="515"/>
+      <c r="T6" s="516"/>
+      <c r="U6" s="514"/>
+      <c r="V6" s="515"/>
+      <c r="W6" s="515"/>
+      <c r="X6" s="516"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="18" t="s">
@@ -17156,7 +17842,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:24" hidden="1">
-      <c r="A9" s="537" t="s">
+      <c r="A9" s="519" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -17177,7 +17863,7 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="538"/>
+      <c r="A10" s="520"/>
       <c r="B10" s="23">
         <f>B6*B9</f>
         <v>1127.3</v>
@@ -17197,7 +17883,7 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:24" hidden="1">
-      <c r="A11" s="535" t="s">
+      <c r="A11" s="517" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
@@ -17219,7 +17905,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A12" s="536"/>
+      <c r="A12" s="518"/>
       <c r="B12" s="23">
         <f>B5*B11</f>
         <v>62858</v>
@@ -17240,7 +17926,7 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:24" hidden="1">
-      <c r="A13" s="537" t="s">
+      <c r="A13" s="519" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="24">
@@ -17262,7 +17948,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A14" s="538"/>
+      <c r="A14" s="520"/>
       <c r="B14" s="23">
         <f>B5*B13</f>
         <v>0</v>
@@ -17301,34 +17987,34 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A16" s="541" t="s">
+      <c r="A16" s="544" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="542"/>
-      <c r="C16" s="544" t="s">
+      <c r="B16" s="545"/>
+      <c r="C16" s="547" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="544"/>
-      <c r="E16" s="544"/>
-      <c r="F16" s="544"/>
-      <c r="G16" s="544" t="s">
+      <c r="D16" s="547"/>
+      <c r="E16" s="547"/>
+      <c r="F16" s="547"/>
+      <c r="G16" s="547" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="544"/>
-      <c r="I16" s="544"/>
-      <c r="J16" s="544"/>
-      <c r="K16" s="544" t="s">
+      <c r="H16" s="547"/>
+      <c r="I16" s="547"/>
+      <c r="J16" s="547"/>
+      <c r="K16" s="547" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="544"/>
-      <c r="M16" s="544"/>
+      <c r="L16" s="547"/>
+      <c r="M16" s="547"/>
       <c r="N16" s="244"/>
       <c r="O16" s="245"/>
       <c r="P16" s="389"/>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="543"/>
-      <c r="B17" s="515"/>
+      <c r="A17" s="546"/>
+      <c r="B17" s="542"/>
       <c r="C17" s="194">
         <v>1</v>
       </c>
@@ -17483,26 +18169,26 @@
         <v>21</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="517">
+      <c r="C20" s="525">
         <f>Q20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D20" s="517"/>
-      <c r="E20" s="517"/>
-      <c r="F20" s="517"/>
-      <c r="G20" s="517">
+      <c r="D20" s="525"/>
+      <c r="E20" s="525"/>
+      <c r="F20" s="525"/>
+      <c r="G20" s="525">
         <f>C20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="517"/>
-      <c r="I20" s="517"/>
-      <c r="J20" s="517"/>
-      <c r="K20" s="517">
+      <c r="H20" s="525"/>
+      <c r="I20" s="525"/>
+      <c r="J20" s="525"/>
+      <c r="K20" s="525">
         <f>G20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L20" s="517"/>
-      <c r="M20" s="517"/>
+      <c r="L20" s="525"/>
+      <c r="M20" s="525"/>
       <c r="N20" s="214">
         <f>(1+C20)^(1/4)-1</f>
         <v>1.6106667595102708E-2</v>
@@ -18919,12 +19605,12 @@
       <c r="N53" s="36"/>
       <c r="O53" s="250"/>
       <c r="P53" s="250"/>
-      <c r="T53" s="518" t="s">
+      <c r="T53" s="521" t="s">
         <v>53</v>
       </c>
-      <c r="U53" s="519"/>
-      <c r="V53" s="519"/>
-      <c r="W53" s="519"/>
+      <c r="U53" s="526"/>
+      <c r="V53" s="526"/>
+      <c r="W53" s="526"/>
     </row>
     <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="266" t="s">
@@ -18966,10 +19652,10 @@
       <c r="N54" s="102"/>
       <c r="O54" s="267"/>
       <c r="P54" s="267"/>
-      <c r="T54" s="518"/>
-      <c r="U54" s="519"/>
-      <c r="V54" s="519"/>
-      <c r="W54" s="519"/>
+      <c r="T54" s="521"/>
+      <c r="U54" s="526"/>
+      <c r="V54" s="526"/>
+      <c r="W54" s="526"/>
     </row>
     <row r="55" spans="1:23" hidden="1">
       <c r="A55" s="268" t="s">
@@ -18999,10 +19685,10 @@
       <c r="N55" s="52"/>
       <c r="O55" s="255"/>
       <c r="P55" s="255"/>
-      <c r="T55" s="518"/>
-      <c r="U55" s="519"/>
-      <c r="V55" s="519"/>
-      <c r="W55" s="519"/>
+      <c r="T55" s="521"/>
+      <c r="U55" s="526"/>
+      <c r="V55" s="526"/>
+      <c r="W55" s="526"/>
     </row>
     <row r="56" spans="1:23" hidden="1">
       <c r="A56" s="269" t="s">
@@ -21560,9 +22246,9 @@
     </row>
     <row r="110" spans="1:17" s="14" customFormat="1">
       <c r="A110" s="174"/>
-      <c r="B110" s="545"/>
-      <c r="C110" s="545"/>
-      <c r="D110" s="545"/>
+      <c r="B110" s="543"/>
+      <c r="C110" s="543"/>
+      <c r="D110" s="543"/>
       <c r="E110" s="175"/>
       <c r="F110" s="176"/>
       <c r="G110" s="176"/>
@@ -21575,131 +22261,131 @@
       <c r="N110" s="177"/>
     </row>
     <row r="111" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="516" t="s">
+      <c r="A111" s="524" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="516"/>
-      <c r="C111" s="516"/>
-      <c r="D111" s="516"/>
-      <c r="E111" s="516"/>
-      <c r="F111" s="516"/>
-      <c r="G111" s="516"/>
-      <c r="H111" s="516"/>
-      <c r="I111" s="516"/>
-      <c r="J111" s="516"/>
-      <c r="K111" s="516"/>
+      <c r="B111" s="524"/>
+      <c r="C111" s="524"/>
+      <c r="D111" s="524"/>
+      <c r="E111" s="524"/>
+      <c r="F111" s="524"/>
+      <c r="G111" s="524"/>
+      <c r="H111" s="524"/>
+      <c r="I111" s="524"/>
+      <c r="J111" s="524"/>
+      <c r="K111" s="524"/>
       <c r="L111" s="178"/>
       <c r="M111" s="178"/>
       <c r="N111" s="177"/>
     </row>
     <row r="112" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A112" s="516"/>
-      <c r="B112" s="516"/>
-      <c r="C112" s="516"/>
-      <c r="D112" s="516"/>
-      <c r="E112" s="516"/>
-      <c r="F112" s="516"/>
-      <c r="G112" s="516"/>
-      <c r="H112" s="516"/>
-      <c r="I112" s="516"/>
-      <c r="J112" s="516"/>
-      <c r="K112" s="516"/>
+      <c r="A112" s="524"/>
+      <c r="B112" s="524"/>
+      <c r="C112" s="524"/>
+      <c r="D112" s="524"/>
+      <c r="E112" s="524"/>
+      <c r="F112" s="524"/>
+      <c r="G112" s="524"/>
+      <c r="H112" s="524"/>
+      <c r="I112" s="524"/>
+      <c r="J112" s="524"/>
+      <c r="K112" s="524"/>
       <c r="L112" s="179"/>
       <c r="M112" s="179"/>
       <c r="N112" s="177"/>
     </row>
     <row r="113" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A113" s="516"/>
-      <c r="B113" s="516"/>
-      <c r="C113" s="516"/>
-      <c r="D113" s="516"/>
-      <c r="E113" s="516"/>
-      <c r="F113" s="516"/>
-      <c r="G113" s="516"/>
-      <c r="H113" s="516"/>
-      <c r="I113" s="516"/>
-      <c r="J113" s="516"/>
-      <c r="K113" s="516"/>
+      <c r="A113" s="524"/>
+      <c r="B113" s="524"/>
+      <c r="C113" s="524"/>
+      <c r="D113" s="524"/>
+      <c r="E113" s="524"/>
+      <c r="F113" s="524"/>
+      <c r="G113" s="524"/>
+      <c r="H113" s="524"/>
+      <c r="I113" s="524"/>
+      <c r="J113" s="524"/>
+      <c r="K113" s="524"/>
       <c r="L113" s="179"/>
       <c r="M113" s="179"/>
       <c r="N113" s="177"/>
     </row>
     <row r="114" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A114" s="516"/>
-      <c r="B114" s="516"/>
-      <c r="C114" s="516"/>
-      <c r="D114" s="516"/>
-      <c r="E114" s="516"/>
-      <c r="F114" s="516"/>
-      <c r="G114" s="516"/>
-      <c r="H114" s="516"/>
-      <c r="I114" s="516"/>
-      <c r="J114" s="516"/>
-      <c r="K114" s="516"/>
+      <c r="A114" s="524"/>
+      <c r="B114" s="524"/>
+      <c r="C114" s="524"/>
+      <c r="D114" s="524"/>
+      <c r="E114" s="524"/>
+      <c r="F114" s="524"/>
+      <c r="G114" s="524"/>
+      <c r="H114" s="524"/>
+      <c r="I114" s="524"/>
+      <c r="J114" s="524"/>
+      <c r="K114" s="524"/>
       <c r="L114" s="179"/>
       <c r="M114" s="179"/>
       <c r="N114" s="177"/>
     </row>
     <row r="115" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A115" s="516"/>
-      <c r="B115" s="516"/>
-      <c r="C115" s="516"/>
-      <c r="D115" s="516"/>
-      <c r="E115" s="516"/>
-      <c r="F115" s="516"/>
-      <c r="G115" s="516"/>
-      <c r="H115" s="516"/>
-      <c r="I115" s="516"/>
-      <c r="J115" s="516"/>
-      <c r="K115" s="516"/>
+      <c r="A115" s="524"/>
+      <c r="B115" s="524"/>
+      <c r="C115" s="524"/>
+      <c r="D115" s="524"/>
+      <c r="E115" s="524"/>
+      <c r="F115" s="524"/>
+      <c r="G115" s="524"/>
+      <c r="H115" s="524"/>
+      <c r="I115" s="524"/>
+      <c r="J115" s="524"/>
+      <c r="K115" s="524"/>
       <c r="L115" s="180"/>
       <c r="M115" s="180"/>
       <c r="N115" s="177"/>
     </row>
     <row r="116" spans="1:14" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A116" s="516"/>
-      <c r="B116" s="516"/>
-      <c r="C116" s="516"/>
-      <c r="D116" s="516"/>
-      <c r="E116" s="516"/>
-      <c r="F116" s="516"/>
-      <c r="G116" s="516"/>
-      <c r="H116" s="516"/>
-      <c r="I116" s="516"/>
-      <c r="J116" s="516"/>
-      <c r="K116" s="516"/>
+      <c r="A116" s="524"/>
+      <c r="B116" s="524"/>
+      <c r="C116" s="524"/>
+      <c r="D116" s="524"/>
+      <c r="E116" s="524"/>
+      <c r="F116" s="524"/>
+      <c r="G116" s="524"/>
+      <c r="H116" s="524"/>
+      <c r="I116" s="524"/>
+      <c r="J116" s="524"/>
+      <c r="K116" s="524"/>
       <c r="L116" s="180"/>
       <c r="M116" s="180"/>
       <c r="N116" s="177"/>
     </row>
     <row r="117" spans="1:14" s="183" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A117" s="516"/>
-      <c r="B117" s="516"/>
-      <c r="C117" s="516"/>
-      <c r="D117" s="516"/>
-      <c r="E117" s="516"/>
-      <c r="F117" s="516"/>
-      <c r="G117" s="516"/>
-      <c r="H117" s="516"/>
-      <c r="I117" s="516"/>
-      <c r="J117" s="516"/>
-      <c r="K117" s="516"/>
+      <c r="A117" s="524"/>
+      <c r="B117" s="524"/>
+      <c r="C117" s="524"/>
+      <c r="D117" s="524"/>
+      <c r="E117" s="524"/>
+      <c r="F117" s="524"/>
+      <c r="G117" s="524"/>
+      <c r="H117" s="524"/>
+      <c r="I117" s="524"/>
+      <c r="J117" s="524"/>
+      <c r="K117" s="524"/>
       <c r="L117" s="181"/>
       <c r="M117" s="182"/>
       <c r="N117" s="182"/>
     </row>
     <row r="118" spans="1:14" s="182" customFormat="1" ht="18.75" collapsed="1">
-      <c r="A118" s="516"/>
-      <c r="B118" s="516"/>
-      <c r="C118" s="516"/>
-      <c r="D118" s="516"/>
-      <c r="E118" s="516"/>
-      <c r="F118" s="516"/>
-      <c r="G118" s="516"/>
-      <c r="H118" s="516"/>
-      <c r="I118" s="516"/>
-      <c r="J118" s="516"/>
-      <c r="K118" s="516"/>
+      <c r="A118" s="524"/>
+      <c r="B118" s="524"/>
+      <c r="C118" s="524"/>
+      <c r="D118" s="524"/>
+      <c r="E118" s="524"/>
+      <c r="F118" s="524"/>
+      <c r="G118" s="524"/>
+      <c r="H118" s="524"/>
+      <c r="I118" s="524"/>
+      <c r="J118" s="524"/>
+      <c r="K118" s="524"/>
       <c r="L118" s="181"/>
     </row>
     <row r="119" spans="1:14" s="183" customFormat="1" ht="18.75">
@@ -21729,7 +22415,7 @@
       <c r="K120" s="186"/>
       <c r="L120" s="186"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" ht="15.75" customHeight="1">
       <c r="B121" s="187"/>
     </row>
     <row r="151" spans="2:29">
@@ -21798,11 +22484,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="A111:K118"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="U1:X3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q4:T6"/>
+    <mergeCell ref="U4:X6"/>
     <mergeCell ref="T53:W55"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
@@ -21810,12 +22497,11 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="K16:M16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Q1:T3"/>
-    <mergeCell ref="U1:X3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q4:T6"/>
-    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="A111:K118"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.31496062992125984" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/Бизнес-планирование в строительстве/Эффективность проекта _лист в КП-2022.xlsx
+++ b/Бизнес-планирование в строительстве/Эффективность проекта _лист в КП-2022.xlsx
@@ -799,7 +799,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="196">
   <si>
     <t>!!! Цена продажи м.-мест растет в том же темпе, что и квартиры</t>
   </si>
@@ -1119,9 +1119,6 @@
     <t>Дисконтированный срок окупаемости, кварталов/ лет</t>
   </si>
   <si>
-    <t>IRR квартальная/ годовая</t>
-  </si>
-  <si>
     <t>DPI</t>
   </si>
   <si>
@@ -1435,6 +1432,12 @@
   </si>
   <si>
     <t>год</t>
+  </si>
+  <si>
+    <t>Дисконтированный индекс рентабельности DPI</t>
+  </si>
+  <si>
+    <t>Внутренняя норма доходности IRR квартальная/ годовая</t>
   </si>
 </sst>
 </file>
@@ -4160,273 +4163,273 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="41" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="44" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="44" fillId="12" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="41" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="44" fillId="12" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="44" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -5179,7 +5182,7 @@
                   <c:v>1356773626.3754692</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1811189451.3157699</c:v>
+                  <c:v>1585302609.8942132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5254,7 +5257,7 @@
                   <c:v>827538095.570346</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1080166659.0095742</c:v>
+                  <c:v>954586815.35943353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5394,7 +5397,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10126,8 +10128,8 @@
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
@@ -11009,8 +11011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11024,7 +11026,7 @@
   <sheetData>
     <row r="2" spans="2:16">
       <c r="C2" s="340" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="341"/>
       <c r="E2" s="341"/>
@@ -11038,34 +11040,34 @@
       <c r="M2" s="342"/>
     </row>
     <row r="3" spans="2:16" ht="36.75" customHeight="1">
-      <c r="C3" s="506" t="s">
+      <c r="C3" s="465" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465"/>
+      <c r="F3" s="465"/>
+      <c r="G3" s="465"/>
+      <c r="H3" s="465"/>
+      <c r="I3" s="465"/>
+      <c r="J3" s="465"/>
+      <c r="K3" s="465"/>
+      <c r="L3" s="465"/>
+      <c r="M3" s="465"/>
+    </row>
+    <row r="4" spans="2:16" ht="15" customHeight="1">
+      <c r="C4" s="465" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
-      <c r="J3" s="506"/>
-      <c r="K3" s="506"/>
-      <c r="L3" s="506"/>
-      <c r="M3" s="506"/>
-    </row>
-    <row r="4" spans="2:16" ht="15" customHeight="1">
-      <c r="C4" s="506" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="506"/>
-      <c r="E4" s="507"/>
+      <c r="D4" s="465"/>
+      <c r="E4" s="466"/>
       <c r="F4" s="343">
         <v>50000000</v>
       </c>
       <c r="G4" s="342" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" t="s">
         <v>112</v>
-      </c>
-      <c r="H4" t="s">
-        <v>113</v>
       </c>
       <c r="I4" s="342"/>
       <c r="J4" s="342"/>
@@ -11074,7 +11076,7 @@
         <v>30000000</v>
       </c>
       <c r="M4" s="342" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:16">
@@ -11088,28 +11090,28 @@
     </row>
     <row r="7" spans="2:16">
       <c r="C7" s="340" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="467" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="508" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="508"/>
-      <c r="F7" s="508"/>
+      <c r="E7" s="467"/>
+      <c r="F7" s="467"/>
       <c r="K7" s="344"/>
       <c r="L7" s="342"/>
       <c r="M7" s="342"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="C8" s="506" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="506"/>
-      <c r="E8" s="506"/>
-      <c r="F8" s="506"/>
-      <c r="G8" s="506"/>
-      <c r="H8" s="506"/>
-      <c r="I8" s="506"/>
-      <c r="J8" s="506"/>
+      <c r="C8" s="465" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="465"/>
+      <c r="E8" s="465"/>
+      <c r="F8" s="465"/>
+      <c r="G8" s="465"/>
+      <c r="H8" s="465"/>
+      <c r="I8" s="465"/>
+      <c r="J8" s="465"/>
       <c r="K8" s="345">
         <v>0.28000000000000003</v>
       </c>
@@ -11117,47 +11119,47 @@
       <c r="M8" s="342"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="C9" s="506" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="506"/>
-      <c r="E9" s="506"/>
-      <c r="F9" s="506"/>
-      <c r="G9" s="506"/>
-      <c r="H9" s="506"/>
-      <c r="I9" s="506"/>
-      <c r="J9" s="506"/>
-      <c r="K9" s="506"/>
+      <c r="C9" s="465" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="465"/>
+      <c r="E9" s="465"/>
+      <c r="F9" s="465"/>
+      <c r="G9" s="465"/>
+      <c r="H9" s="465"/>
+      <c r="I9" s="465"/>
+      <c r="J9" s="465"/>
+      <c r="K9" s="465"/>
       <c r="L9" s="342"/>
       <c r="M9" s="342"/>
     </row>
     <row r="10" spans="2:16" ht="37.5" customHeight="1">
-      <c r="C10" s="506" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="506"/>
-      <c r="E10" s="506"/>
-      <c r="F10" s="506"/>
-      <c r="G10" s="506"/>
-      <c r="H10" s="506"/>
-      <c r="I10" s="506"/>
-      <c r="J10" s="506"/>
-      <c r="K10" s="506"/>
+      <c r="C10" s="465" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="465"/>
+      <c r="E10" s="465"/>
+      <c r="F10" s="465"/>
+      <c r="G10" s="465"/>
+      <c r="H10" s="465"/>
+      <c r="I10" s="465"/>
+      <c r="J10" s="465"/>
+      <c r="K10" s="465"/>
       <c r="L10" s="342"/>
       <c r="M10" s="342"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
-      <c r="C11" s="506" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="506"/>
-      <c r="E11" s="506"/>
-      <c r="F11" s="506"/>
-      <c r="G11" s="506"/>
-      <c r="H11" s="506"/>
-      <c r="I11" s="506"/>
-      <c r="J11" s="506"/>
-      <c r="K11" s="506"/>
+      <c r="C11" s="465" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="465"/>
+      <c r="E11" s="465"/>
+      <c r="F11" s="465"/>
+      <c r="G11" s="465"/>
+      <c r="H11" s="465"/>
+      <c r="I11" s="465"/>
+      <c r="J11" s="465"/>
+      <c r="K11" s="465"/>
       <c r="L11" s="342"/>
       <c r="M11" s="342"/>
     </row>
@@ -11175,10 +11177,10 @@
       <c r="M12" s="342"/>
     </row>
     <row r="13" spans="2:16">
-      <c r="C13" s="475" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="475"/>
+      <c r="C13" s="480" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="480"/>
       <c r="E13" s="342"/>
       <c r="F13" s="342"/>
       <c r="G13" s="342"/>
@@ -11191,13 +11193,13 @@
     </row>
     <row r="14" spans="2:16" ht="30">
       <c r="B14" s="347" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="481" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="476" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="476"/>
-      <c r="E14" s="476"/>
+      <c r="D14" s="481"/>
+      <c r="E14" s="481"/>
       <c r="F14" s="348">
         <v>1</v>
       </c>
@@ -11233,11 +11235,11 @@
       <c r="B15" s="349">
         <v>1</v>
       </c>
-      <c r="C15" s="503" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="504"/>
-      <c r="E15" s="505"/>
+      <c r="C15" s="482" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="483"/>
+      <c r="E15" s="484"/>
       <c r="F15" s="350">
         <f>F4*5%</f>
         <v>2500000</v>
@@ -11266,11 +11268,11 @@
       <c r="B16" s="349">
         <v>2</v>
       </c>
-      <c r="C16" s="463" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="464"/>
-      <c r="E16" s="465"/>
+      <c r="C16" s="477" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="478"/>
+      <c r="E16" s="479"/>
       <c r="F16" s="351"/>
       <c r="G16" s="351"/>
       <c r="H16" s="351"/>
@@ -11311,11 +11313,11 @@
       <c r="B17" s="349">
         <v>3</v>
       </c>
-      <c r="C17" s="463" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="464"/>
-      <c r="E17" s="465"/>
+      <c r="C17" s="477" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="478"/>
+      <c r="E17" s="479"/>
       <c r="F17" s="352">
         <f>F16-F15</f>
         <v>-2500000</v>
@@ -11361,11 +11363,11 @@
       <c r="B18" s="349">
         <v>4</v>
       </c>
-      <c r="C18" s="477" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="478"/>
-      <c r="E18" s="479"/>
+      <c r="C18" s="485" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="486"/>
+      <c r="E18" s="487"/>
       <c r="F18" s="354">
         <f t="shared" ref="F18:O18" si="2">1/(1+$K$8)^F14</f>
         <v>0.78125</v>
@@ -11411,11 +11413,11 @@
       <c r="B19" s="349">
         <v>5</v>
       </c>
-      <c r="C19" s="463" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="464"/>
-      <c r="E19" s="465"/>
+      <c r="C19" s="477" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="478"/>
+      <c r="E19" s="479"/>
       <c r="F19" s="350">
         <f>F17*F18</f>
         <v>-1953125</v>
@@ -11458,13 +11460,13 @@
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="484" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="485"/>
-      <c r="D20" s="485"/>
-      <c r="E20" s="485"/>
-      <c r="F20" s="486"/>
+      <c r="B20" s="488" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="489"/>
+      <c r="D20" s="489"/>
+      <c r="E20" s="489"/>
+      <c r="F20" s="490"/>
       <c r="G20" s="355"/>
       <c r="H20" s="355"/>
       <c r="I20" s="355"/>
@@ -11479,11 +11481,11 @@
       <c r="B21" s="349">
         <v>6</v>
       </c>
-      <c r="C21" s="477" t="s">
+      <c r="C21" s="485" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="478"/>
-      <c r="E21" s="479"/>
+      <c r="D21" s="486"/>
+      <c r="E21" s="487"/>
       <c r="F21" s="356">
         <f>SUM(F17:O17)</f>
         <v>160000000</v>
@@ -11502,24 +11504,24 @@
       <c r="B22" s="349">
         <v>7</v>
       </c>
-      <c r="C22" s="463" t="s">
+      <c r="C22" s="477" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="464"/>
-      <c r="E22" s="465"/>
+      <c r="D22" s="478"/>
+      <c r="E22" s="479"/>
       <c r="F22" s="358">
         <f>SUM(F19:O19)</f>
         <v>14240485.398768097</v>
       </c>
       <c r="G22" s="357"/>
-      <c r="H22" s="487" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="488"/>
-      <c r="J22" s="488"/>
-      <c r="K22" s="488"/>
-      <c r="L22" s="488"/>
-      <c r="M22" s="489"/>
+      <c r="H22" s="468" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="469"/>
+      <c r="J22" s="469"/>
+      <c r="K22" s="469"/>
+      <c r="L22" s="469"/>
+      <c r="M22" s="470"/>
       <c r="N22" s="357"/>
       <c r="O22" s="357"/>
     </row>
@@ -11527,22 +11529,22 @@
       <c r="B23" s="349">
         <v>8</v>
       </c>
-      <c r="C23" s="463" t="str">
+      <c r="C23" s="477" t="str">
         <f>C11</f>
         <v>Стоит ли принимать такой проект к рассмотрению?</v>
       </c>
-      <c r="D23" s="464"/>
-      <c r="E23" s="465"/>
+      <c r="D23" s="478"/>
+      <c r="E23" s="479"/>
       <c r="F23" s="358" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="357"/>
-      <c r="H23" s="490"/>
-      <c r="I23" s="491"/>
-      <c r="J23" s="491"/>
-      <c r="K23" s="491"/>
-      <c r="L23" s="491"/>
-      <c r="M23" s="492"/>
+      <c r="H23" s="471"/>
+      <c r="I23" s="472"/>
+      <c r="J23" s="472"/>
+      <c r="K23" s="472"/>
+      <c r="L23" s="472"/>
+      <c r="M23" s="473"/>
       <c r="N23" s="357"/>
       <c r="O23" s="357"/>
     </row>
@@ -11552,12 +11554,12 @@
       <c r="E24" s="359"/>
       <c r="F24" s="360"/>
       <c r="G24" s="357"/>
-      <c r="H24" s="490"/>
-      <c r="I24" s="491"/>
-      <c r="J24" s="491"/>
-      <c r="K24" s="491"/>
-      <c r="L24" s="491"/>
-      <c r="M24" s="492"/>
+      <c r="H24" s="471"/>
+      <c r="I24" s="472"/>
+      <c r="J24" s="472"/>
+      <c r="K24" s="472"/>
+      <c r="L24" s="472"/>
+      <c r="M24" s="473"/>
       <c r="N24" s="357"/>
       <c r="O24" s="357"/>
     </row>
@@ -11567,12 +11569,12 @@
       <c r="E25" s="359"/>
       <c r="F25" s="360"/>
       <c r="G25" s="357"/>
-      <c r="H25" s="490"/>
-      <c r="I25" s="491"/>
-      <c r="J25" s="491"/>
-      <c r="K25" s="491"/>
-      <c r="L25" s="491"/>
-      <c r="M25" s="492"/>
+      <c r="H25" s="471"/>
+      <c r="I25" s="472"/>
+      <c r="J25" s="472"/>
+      <c r="K25" s="472"/>
+      <c r="L25" s="472"/>
+      <c r="M25" s="473"/>
       <c r="N25" s="357"/>
       <c r="O25" s="357"/>
     </row>
@@ -11582,12 +11584,12 @@
       <c r="E26" s="359"/>
       <c r="F26" s="360"/>
       <c r="G26" s="357"/>
-      <c r="H26" s="490"/>
-      <c r="I26" s="491"/>
-      <c r="J26" s="491"/>
-      <c r="K26" s="491"/>
-      <c r="L26" s="491"/>
-      <c r="M26" s="492"/>
+      <c r="H26" s="471"/>
+      <c r="I26" s="472"/>
+      <c r="J26" s="472"/>
+      <c r="K26" s="472"/>
+      <c r="L26" s="472"/>
+      <c r="M26" s="473"/>
       <c r="N26" s="357"/>
       <c r="O26" s="357"/>
     </row>
@@ -11597,12 +11599,12 @@
       <c r="E27" s="359"/>
       <c r="F27" s="360"/>
       <c r="G27" s="357"/>
-      <c r="H27" s="490"/>
-      <c r="I27" s="491"/>
-      <c r="J27" s="491"/>
-      <c r="K27" s="491"/>
-      <c r="L27" s="491"/>
-      <c r="M27" s="492"/>
+      <c r="H27" s="471"/>
+      <c r="I27" s="472"/>
+      <c r="J27" s="472"/>
+      <c r="K27" s="472"/>
+      <c r="L27" s="472"/>
+      <c r="M27" s="473"/>
       <c r="N27" s="357"/>
       <c r="O27" s="357"/>
     </row>
@@ -11612,40 +11614,40 @@
       <c r="E28" s="359"/>
       <c r="F28" s="360"/>
       <c r="G28" s="357"/>
-      <c r="H28" s="493"/>
-      <c r="I28" s="494"/>
-      <c r="J28" s="494"/>
-      <c r="K28" s="494"/>
-      <c r="L28" s="494"/>
-      <c r="M28" s="495"/>
+      <c r="H28" s="474"/>
+      <c r="I28" s="475"/>
+      <c r="J28" s="475"/>
+      <c r="K28" s="475"/>
+      <c r="L28" s="475"/>
+      <c r="M28" s="476"/>
       <c r="N28" s="357"/>
       <c r="O28" s="357"/>
     </row>
     <row r="31" spans="2:15">
       <c r="C31" s="340" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:17">
-      <c r="C33" s="475" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="475"/>
+      <c r="C33" s="480" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="480"/>
     </row>
     <row r="34" spans="2:17" ht="30">
       <c r="B34" s="347" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="491" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="500" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="501"/>
-      <c r="E34" s="502"/>
+      <c r="D34" s="492"/>
+      <c r="E34" s="493"/>
       <c r="F34" s="348">
         <v>1</v>
       </c>
@@ -11681,11 +11683,11 @@
       <c r="B35" s="349">
         <v>1</v>
       </c>
-      <c r="C35" s="503" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="504"/>
-      <c r="E35" s="505"/>
+      <c r="C35" s="482" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="483"/>
+      <c r="E35" s="484"/>
       <c r="F35" s="361">
         <f>F17</f>
         <v>-2500000</v>
@@ -11736,11 +11738,11 @@
       <c r="B36" s="349">
         <v>2</v>
       </c>
-      <c r="C36" s="503" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="504"/>
-      <c r="E36" s="505"/>
+      <c r="C36" s="482" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="483"/>
+      <c r="E36" s="484"/>
       <c r="F36" s="361">
         <f>F19</f>
         <v>-1953125</v>
@@ -11788,120 +11790,120 @@
       <c r="Q36" s="357"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1">
-      <c r="B37" s="484" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="485"/>
-      <c r="D37" s="485"/>
-      <c r="E37" s="485"/>
-      <c r="F37" s="486"/>
+      <c r="B37" s="488" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="489"/>
+      <c r="D37" s="489"/>
+      <c r="E37" s="489"/>
+      <c r="F37" s="490"/>
     </row>
     <row r="38" spans="2:17" ht="31.5" customHeight="1">
       <c r="B38" s="349">
         <v>3</v>
       </c>
-      <c r="C38" s="477" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="478"/>
-      <c r="E38" s="479"/>
+      <c r="C38" s="485" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="486"/>
+      <c r="E38" s="487"/>
       <c r="F38" s="364">
         <f>I34+(-I35/(-I35+J35))</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H38" s="487" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="488"/>
-      <c r="J38" s="488"/>
-      <c r="K38" s="488"/>
-      <c r="L38" s="488"/>
-      <c r="M38" s="489"/>
+      <c r="H38" s="468" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="469"/>
+      <c r="J38" s="469"/>
+      <c r="K38" s="469"/>
+      <c r="L38" s="469"/>
+      <c r="M38" s="470"/>
     </row>
     <row r="39" spans="2:17" ht="36.75" customHeight="1">
       <c r="B39" s="349">
         <v>4</v>
       </c>
-      <c r="C39" s="463" t="s">
-        <v>137</v>
-      </c>
-      <c r="D39" s="464"/>
-      <c r="E39" s="465"/>
+      <c r="C39" s="477" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="478"/>
+      <c r="E39" s="479"/>
       <c r="F39" s="364">
         <f>K34+(-K36/(-K36+L36))</f>
         <v>6.1962118567253333</v>
       </c>
-      <c r="H39" s="490"/>
-      <c r="I39" s="491"/>
-      <c r="J39" s="491"/>
-      <c r="K39" s="491"/>
-      <c r="L39" s="491"/>
-      <c r="M39" s="492"/>
+      <c r="H39" s="471"/>
+      <c r="I39" s="472"/>
+      <c r="J39" s="472"/>
+      <c r="K39" s="472"/>
+      <c r="L39" s="472"/>
+      <c r="M39" s="473"/>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="496" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="496"/>
-      <c r="D40" s="496"/>
-      <c r="E40" s="496"/>
-      <c r="F40" s="496"/>
-      <c r="H40" s="490"/>
-      <c r="I40" s="491"/>
-      <c r="J40" s="491"/>
-      <c r="K40" s="491"/>
-      <c r="L40" s="491"/>
-      <c r="M40" s="492"/>
+      <c r="B40" s="494" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="494"/>
+      <c r="D40" s="494"/>
+      <c r="E40" s="494"/>
+      <c r="F40" s="494"/>
+      <c r="H40" s="471"/>
+      <c r="I40" s="472"/>
+      <c r="J40" s="472"/>
+      <c r="K40" s="472"/>
+      <c r="L40" s="472"/>
+      <c r="M40" s="473"/>
     </row>
     <row r="41" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B41" s="497"/>
-      <c r="C41" s="497"/>
-      <c r="D41" s="497"/>
-      <c r="E41" s="497"/>
-      <c r="F41" s="497"/>
-      <c r="H41" s="490"/>
-      <c r="I41" s="491"/>
-      <c r="J41" s="491"/>
-      <c r="K41" s="491"/>
-      <c r="L41" s="491"/>
-      <c r="M41" s="492"/>
+      <c r="B41" s="495"/>
+      <c r="C41" s="495"/>
+      <c r="D41" s="495"/>
+      <c r="E41" s="495"/>
+      <c r="F41" s="495"/>
+      <c r="H41" s="471"/>
+      <c r="I41" s="472"/>
+      <c r="J41" s="472"/>
+      <c r="K41" s="472"/>
+      <c r="L41" s="472"/>
+      <c r="M41" s="473"/>
     </row>
     <row r="42" spans="2:17" ht="130.5" customHeight="1">
-      <c r="H42" s="490"/>
-      <c r="I42" s="491"/>
-      <c r="J42" s="491"/>
-      <c r="K42" s="491"/>
-      <c r="L42" s="491"/>
-      <c r="M42" s="492"/>
+      <c r="H42" s="471"/>
+      <c r="I42" s="472"/>
+      <c r="J42" s="472"/>
+      <c r="K42" s="472"/>
+      <c r="L42" s="472"/>
+      <c r="M42" s="473"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" thickBot="1">
-      <c r="H43" s="493"/>
-      <c r="I43" s="494"/>
-      <c r="J43" s="494"/>
-      <c r="K43" s="494"/>
-      <c r="L43" s="494"/>
-      <c r="M43" s="495"/>
+      <c r="H43" s="474"/>
+      <c r="I43" s="475"/>
+      <c r="J43" s="475"/>
+      <c r="K43" s="475"/>
+      <c r="L43" s="475"/>
+      <c r="M43" s="476"/>
     </row>
     <row r="47" spans="2:17">
       <c r="C47" s="340" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="2:17">
       <c r="C48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="2:15">
       <c r="C49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="D51" s="475" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" s="475"/>
+      <c r="D51" s="480" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="480"/>
       <c r="F51" s="342"/>
       <c r="G51" s="342"/>
       <c r="H51" s="342"/>
@@ -11914,13 +11916,13 @@
     </row>
     <row r="52" spans="2:15" ht="30">
       <c r="B52" s="347" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="481" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="476" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="476"/>
-      <c r="E52" s="476"/>
+      <c r="D52" s="481"/>
+      <c r="E52" s="481"/>
       <c r="F52" s="348">
         <v>1</v>
       </c>
@@ -11956,11 +11958,11 @@
       <c r="B53" s="349">
         <v>1</v>
       </c>
-      <c r="C53" s="463" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="464"/>
-      <c r="E53" s="465"/>
+      <c r="C53" s="477" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="478"/>
+      <c r="E53" s="479"/>
       <c r="F53" s="352">
         <f>F17</f>
         <v>-2500000</v>
@@ -12006,35 +12008,35 @@
       <c r="B54" s="349">
         <v>2</v>
       </c>
-      <c r="C54" s="477" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" s="478"/>
-      <c r="E54" s="479"/>
+      <c r="C54" s="485" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="486"/>
+      <c r="E54" s="487"/>
       <c r="F54" s="366">
         <v>0.43822984635546786</v>
       </c>
-      <c r="G54" s="498" t="s">
-        <v>143</v>
-      </c>
-      <c r="H54" s="499"/>
-      <c r="I54" s="499"/>
-      <c r="J54" s="499"/>
-      <c r="K54" s="499"/>
-      <c r="L54" s="499"/>
-      <c r="M54" s="499"/>
-      <c r="N54" s="499"/>
-      <c r="O54" s="499"/>
+      <c r="G54" s="496" t="s">
+        <v>142</v>
+      </c>
+      <c r="H54" s="497"/>
+      <c r="I54" s="497"/>
+      <c r="J54" s="497"/>
+      <c r="K54" s="497"/>
+      <c r="L54" s="497"/>
+      <c r="M54" s="497"/>
+      <c r="N54" s="497"/>
+      <c r="O54" s="497"/>
     </row>
     <row r="55" spans="2:15" ht="36" customHeight="1">
       <c r="B55" s="349">
         <v>3</v>
       </c>
-      <c r="C55" s="477" t="s">
-        <v>126</v>
-      </c>
-      <c r="D55" s="478"/>
-      <c r="E55" s="479"/>
+      <c r="C55" s="485" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="486"/>
+      <c r="E55" s="487"/>
       <c r="F55" s="354">
         <f>1/(1+$F$54)^F52</f>
         <v>0.69529915717855539</v>
@@ -12080,11 +12082,11 @@
       <c r="B56" s="349">
         <v>4</v>
       </c>
-      <c r="C56" s="463" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="464"/>
-      <c r="E56" s="465"/>
+      <c r="C56" s="477" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="478"/>
+      <c r="E56" s="479"/>
       <c r="F56" s="350">
         <f t="shared" ref="F56:O56" si="8">F53*F55</f>
         <v>-1738247.8929463886</v>
@@ -12130,11 +12132,11 @@
       <c r="B57" s="349">
         <v>5</v>
       </c>
-      <c r="C57" s="463" t="s">
+      <c r="C57" s="477" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="464"/>
-      <c r="E57" s="465"/>
+      <c r="D57" s="478"/>
+      <c r="E57" s="479"/>
       <c r="F57" s="367">
         <f>SUM(F56:O56)</f>
         <v>9.1665424406528473E-6</v>
@@ -12150,57 +12152,57 @@
       <c r="O57" s="355"/>
     </row>
     <row r="58" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B58" s="484" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="485"/>
-      <c r="D58" s="485"/>
-      <c r="E58" s="485"/>
-      <c r="F58" s="486"/>
+      <c r="B58" s="488" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="489"/>
+      <c r="D58" s="489"/>
+      <c r="E58" s="489"/>
+      <c r="F58" s="490"/>
       <c r="G58" s="368"/>
     </row>
     <row r="59" spans="2:15" ht="15" customHeight="1">
       <c r="B59" s="349">
         <v>6</v>
       </c>
-      <c r="C59" s="463" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="464"/>
-      <c r="E59" s="465"/>
+      <c r="C59" s="477" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="478"/>
+      <c r="E59" s="479"/>
       <c r="F59" s="369">
         <f>IRR(F53:O53)</f>
         <v>0.43822984635565154</v>
       </c>
-      <c r="H59" s="469" t="s">
-        <v>145</v>
-      </c>
-      <c r="I59" s="470"/>
-      <c r="J59" s="470"/>
-      <c r="K59" s="470"/>
-      <c r="L59" s="470"/>
-      <c r="M59" s="470"/>
-      <c r="N59" s="470"/>
-      <c r="O59" s="471"/>
+      <c r="H59" s="498" t="s">
+        <v>144</v>
+      </c>
+      <c r="I59" s="499"/>
+      <c r="J59" s="499"/>
+      <c r="K59" s="499"/>
+      <c r="L59" s="499"/>
+      <c r="M59" s="499"/>
+      <c r="N59" s="499"/>
+      <c r="O59" s="500"/>
     </row>
     <row r="60" spans="2:15" ht="66.75" customHeight="1">
       <c r="B60" s="349">
         <v>7</v>
       </c>
-      <c r="C60" s="463" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60" s="464"/>
-      <c r="E60" s="465"/>
+      <c r="C60" s="477" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="478"/>
+      <c r="E60" s="479"/>
       <c r="F60" s="364"/>
-      <c r="H60" s="472"/>
-      <c r="I60" s="473"/>
-      <c r="J60" s="473"/>
-      <c r="K60" s="473"/>
-      <c r="L60" s="473"/>
-      <c r="M60" s="473"/>
-      <c r="N60" s="473"/>
-      <c r="O60" s="474"/>
+      <c r="H60" s="501"/>
+      <c r="I60" s="502"/>
+      <c r="J60" s="502"/>
+      <c r="K60" s="502"/>
+      <c r="L60" s="502"/>
+      <c r="M60" s="502"/>
+      <c r="N60" s="502"/>
+      <c r="O60" s="503"/>
     </row>
     <row r="61" spans="2:15" ht="33" customHeight="1">
       <c r="H61" s="370"/>
@@ -12218,7 +12220,7 @@
       <c r="J62" s="357"/>
       <c r="K62" s="357"/>
       <c r="L62" s="357" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M62" s="357"/>
       <c r="N62" s="357"/>
@@ -12230,7 +12232,7 @@
       <c r="J63" s="357"/>
       <c r="K63" s="357"/>
       <c r="L63" s="357" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M63" s="357"/>
       <c r="N63" s="357"/>
@@ -12242,7 +12244,7 @@
       <c r="J64" s="357"/>
       <c r="K64" s="357"/>
       <c r="L64" s="357" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M64" s="357"/>
       <c r="N64" s="357"/>
@@ -12280,45 +12282,45 @@
     </row>
     <row r="71" spans="2:15">
       <c r="C71" s="340" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="2:15">
       <c r="C72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="2:15">
       <c r="C73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="2:15">
       <c r="C74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="2:15">
       <c r="C75" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="2:15">
-      <c r="D77" s="475" t="s">
-        <v>120</v>
-      </c>
-      <c r="E77" s="475"/>
+      <c r="D77" s="480" t="s">
+        <v>119</v>
+      </c>
+      <c r="E77" s="480"/>
       <c r="F77" s="342"/>
     </row>
     <row r="78" spans="2:15" ht="30">
       <c r="B78" s="347" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="481" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="476" t="s">
-        <v>122</v>
-      </c>
-      <c r="D78" s="476"/>
-      <c r="E78" s="476"/>
+      <c r="D78" s="481"/>
+      <c r="E78" s="481"/>
       <c r="F78" s="365">
         <v>1</v>
       </c>
@@ -12354,12 +12356,12 @@
       <c r="B79" s="349">
         <v>1</v>
       </c>
-      <c r="C79" s="463" t="str">
+      <c r="C79" s="477" t="str">
         <f>C15</f>
         <v>Затраты на осуществление ИСП (IC), руб.</v>
       </c>
-      <c r="D79" s="464"/>
-      <c r="E79" s="465"/>
+      <c r="D79" s="478"/>
+      <c r="E79" s="479"/>
       <c r="F79" s="353">
         <f>F15</f>
         <v>2500000</v>
@@ -12384,11 +12386,11 @@
       <c r="B80" s="349">
         <v>2</v>
       </c>
-      <c r="C80" s="463" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="464"/>
-      <c r="E80" s="465"/>
+      <c r="C80" s="477" t="s">
+        <v>123</v>
+      </c>
+      <c r="D80" s="478"/>
+      <c r="E80" s="479"/>
       <c r="F80" s="351">
         <f>F16</f>
         <v>0</v>
@@ -12434,11 +12436,11 @@
       <c r="B81" s="349">
         <v>3</v>
       </c>
-      <c r="C81" s="477" t="s">
-        <v>126</v>
-      </c>
-      <c r="D81" s="478"/>
-      <c r="E81" s="479"/>
+      <c r="C81" s="485" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="486"/>
+      <c r="E81" s="487"/>
       <c r="F81" s="354">
         <f>F18</f>
         <v>0.78125</v>
@@ -12484,11 +12486,11 @@
       <c r="B82" s="349">
         <v>4</v>
       </c>
-      <c r="C82" s="480" t="s">
-        <v>155</v>
-      </c>
-      <c r="D82" s="480"/>
-      <c r="E82" s="480"/>
+      <c r="C82" s="504" t="s">
+        <v>154</v>
+      </c>
+      <c r="D82" s="504"/>
+      <c r="E82" s="504"/>
       <c r="I82" s="361">
         <f t="shared" ref="I82:O82" si="11">I80*I81</f>
         <v>11175870.895385742</v>
@@ -12522,11 +12524,11 @@
       <c r="B83" s="349">
         <v>5</v>
       </c>
-      <c r="C83" s="480" t="s">
-        <v>156</v>
-      </c>
-      <c r="D83" s="480"/>
-      <c r="E83" s="480"/>
+      <c r="C83" s="504" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="504"/>
+      <c r="E83" s="504"/>
       <c r="F83" s="350">
         <f>F79*F81</f>
         <v>1953125</v>
@@ -12548,23 +12550,23 @@
       <c r="O83" s="376"/>
     </row>
     <row r="84" spans="2:15">
-      <c r="B84" s="481" t="s">
-        <v>128</v>
-      </c>
-      <c r="C84" s="482"/>
-      <c r="D84" s="482"/>
-      <c r="E84" s="482"/>
-      <c r="F84" s="483"/>
+      <c r="B84" s="505" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="506"/>
+      <c r="D84" s="506"/>
+      <c r="E84" s="506"/>
+      <c r="F84" s="507"/>
     </row>
     <row r="85" spans="2:15">
       <c r="B85" s="349">
         <v>5</v>
       </c>
-      <c r="C85" s="463" t="s">
-        <v>107</v>
-      </c>
-      <c r="D85" s="464"/>
-      <c r="E85" s="465"/>
+      <c r="C85" s="477" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="478"/>
+      <c r="E85" s="479"/>
       <c r="F85" s="377">
         <f>SUM(I82:O82)/SUM(F83:H83)</f>
         <v>1.5127298429934641</v>
@@ -12574,26 +12576,26 @@
       <c r="B86" s="349">
         <v>6</v>
       </c>
-      <c r="C86" s="463" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" s="464"/>
-      <c r="E86" s="465"/>
-      <c r="F86" s="466"/>
-      <c r="G86" s="466"/>
-      <c r="H86" s="466"/>
-      <c r="I86" s="466"/>
+      <c r="C86" s="477" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86" s="478"/>
+      <c r="E86" s="479"/>
+      <c r="F86" s="509"/>
+      <c r="G86" s="509"/>
+      <c r="H86" s="509"/>
+      <c r="I86" s="509"/>
       <c r="K86" s="378"/>
     </row>
     <row r="87" spans="2:15" ht="49.5" customHeight="1">
       <c r="B87" s="349">
         <v>7</v>
       </c>
-      <c r="C87" s="463" t="s">
-        <v>157</v>
-      </c>
-      <c r="D87" s="464"/>
-      <c r="E87" s="465"/>
+      <c r="C87" s="477" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="478"/>
+      <c r="E87" s="479"/>
       <c r="F87" s="379"/>
       <c r="K87" s="378"/>
     </row>
@@ -12601,70 +12603,101 @@
       <c r="B88" s="349">
         <v>8</v>
       </c>
-      <c r="C88" s="463" t="str">
+      <c r="C88" s="477" t="str">
         <f>C75</f>
         <v>Почему для данного проекта нельзя использовать оценку экономической эффективности по PI?</v>
       </c>
-      <c r="D88" s="464"/>
-      <c r="E88" s="465"/>
-      <c r="F88" s="467"/>
-      <c r="G88" s="467"/>
-      <c r="H88" s="467"/>
-      <c r="I88" s="467"/>
+      <c r="D88" s="478"/>
+      <c r="E88" s="479"/>
+      <c r="F88" s="510"/>
+      <c r="G88" s="510"/>
+      <c r="H88" s="510"/>
+      <c r="I88" s="510"/>
     </row>
     <row r="91" spans="2:15" ht="78" customHeight="1">
-      <c r="E91" s="468" t="s">
-        <v>158</v>
-      </c>
-      <c r="F91" s="468"/>
-      <c r="G91" s="468"/>
-      <c r="H91" s="468"/>
-      <c r="I91" s="468"/>
-      <c r="J91" s="468"/>
-      <c r="K91" s="468"/>
+      <c r="E91" s="511" t="s">
+        <v>157</v>
+      </c>
+      <c r="F91" s="511"/>
+      <c r="G91" s="511"/>
+      <c r="H91" s="511"/>
+      <c r="I91" s="511"/>
+      <c r="J91" s="511"/>
+      <c r="K91" s="511"/>
     </row>
     <row r="92" spans="2:15">
-      <c r="E92" s="462"/>
-      <c r="F92" s="462"/>
-      <c r="G92" s="462"/>
-      <c r="H92" s="462"/>
-      <c r="I92" s="462"/>
-      <c r="J92" s="462"/>
+      <c r="E92" s="508"/>
+      <c r="F92" s="508"/>
+      <c r="G92" s="508"/>
+      <c r="H92" s="508"/>
+      <c r="I92" s="508"/>
+      <c r="J92" s="508"/>
     </row>
     <row r="93" spans="2:15">
-      <c r="E93" s="462"/>
-      <c r="F93" s="462"/>
-      <c r="G93" s="462"/>
-      <c r="H93" s="462"/>
-      <c r="I93" s="462"/>
-      <c r="J93" s="462"/>
+      <c r="E93" s="508"/>
+      <c r="F93" s="508"/>
+      <c r="G93" s="508"/>
+      <c r="H93" s="508"/>
+      <c r="I93" s="508"/>
+      <c r="J93" s="508"/>
     </row>
     <row r="94" spans="2:15">
-      <c r="E94" s="462"/>
-      <c r="F94" s="462"/>
-      <c r="G94" s="462"/>
-      <c r="H94" s="462"/>
-      <c r="I94" s="462"/>
-      <c r="J94" s="462"/>
+      <c r="E94" s="508"/>
+      <c r="F94" s="508"/>
+      <c r="G94" s="508"/>
+      <c r="H94" s="508"/>
+      <c r="I94" s="508"/>
+      <c r="J94" s="508"/>
     </row>
     <row r="108" spans="11:11">
       <c r="K108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="11:11">
       <c r="K110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="E92:J94"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="E91:K91"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="H59:O60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="H38:M43"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B40:F41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:O54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B37:F37"/>
     <mergeCell ref="H22:M28"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C11:K11"/>
@@ -12678,43 +12711,12 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="H38:M43"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="B40:F41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:O54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="H59:O60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="E92:J94"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="C87:E87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="E91:K91"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12728,8 +12730,8 @@
   </sheetPr>
   <dimension ref="A1:AC142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99:E99"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -12763,22 +12765,22 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
-      <c r="Q1" s="521" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="522"/>
-      <c r="S1" s="522"/>
-      <c r="T1" s="523"/>
-      <c r="U1" s="521"/>
-      <c r="V1" s="522"/>
-      <c r="W1" s="522"/>
-      <c r="X1" s="523"/>
+      <c r="Q1" s="522" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="545"/>
+      <c r="S1" s="545"/>
+      <c r="T1" s="546"/>
+      <c r="U1" s="522"/>
+      <c r="V1" s="545"/>
+      <c r="W1" s="545"/>
+      <c r="X1" s="546"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="15.75">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="533" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="510"/>
+      <c r="B2" s="534"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -12793,14 +12795,14 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="521"/>
-      <c r="R2" s="522"/>
-      <c r="S2" s="522"/>
-      <c r="T2" s="523"/>
-      <c r="U2" s="521"/>
-      <c r="V2" s="522"/>
-      <c r="W2" s="522"/>
-      <c r="X2" s="523"/>
+      <c r="Q2" s="522"/>
+      <c r="R2" s="545"/>
+      <c r="S2" s="545"/>
+      <c r="T2" s="546"/>
+      <c r="U2" s="522"/>
+      <c r="V2" s="545"/>
+      <c r="W2" s="545"/>
+      <c r="X2" s="546"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
@@ -12824,14 +12826,14 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="521"/>
-      <c r="R3" s="522"/>
-      <c r="S3" s="522"/>
-      <c r="T3" s="523"/>
-      <c r="U3" s="521"/>
-      <c r="V3" s="522"/>
-      <c r="W3" s="522"/>
-      <c r="X3" s="523"/>
+      <c r="Q3" s="522"/>
+      <c r="R3" s="545"/>
+      <c r="S3" s="545"/>
+      <c r="T3" s="546"/>
+      <c r="U3" s="522"/>
+      <c r="V3" s="545"/>
+      <c r="W3" s="545"/>
+      <c r="X3" s="546"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -12855,16 +12857,16 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="511" t="s">
+      <c r="Q4" s="535" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="512"/>
-      <c r="S4" s="512"/>
-      <c r="T4" s="513"/>
-      <c r="U4" s="511"/>
-      <c r="V4" s="512"/>
-      <c r="W4" s="512"/>
-      <c r="X4" s="513"/>
+      <c r="R4" s="536"/>
+      <c r="S4" s="536"/>
+      <c r="T4" s="537"/>
+      <c r="U4" s="535"/>
+      <c r="V4" s="536"/>
+      <c r="W4" s="536"/>
+      <c r="X4" s="537"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
@@ -12888,14 +12890,14 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="511"/>
-      <c r="R5" s="512"/>
-      <c r="S5" s="512"/>
-      <c r="T5" s="513"/>
-      <c r="U5" s="511"/>
-      <c r="V5" s="512"/>
-      <c r="W5" s="512"/>
-      <c r="X5" s="513"/>
+      <c r="Q5" s="535"/>
+      <c r="R5" s="536"/>
+      <c r="S5" s="536"/>
+      <c r="T5" s="537"/>
+      <c r="U5" s="535"/>
+      <c r="V5" s="536"/>
+      <c r="W5" s="536"/>
+      <c r="X5" s="537"/>
     </row>
     <row r="6" spans="1:24" hidden="1">
       <c r="A6" s="16" t="s">
@@ -12919,14 +12921,14 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="514"/>
-      <c r="R6" s="515"/>
-      <c r="S6" s="515"/>
-      <c r="T6" s="516"/>
-      <c r="U6" s="514"/>
-      <c r="V6" s="515"/>
-      <c r="W6" s="515"/>
-      <c r="X6" s="516"/>
+      <c r="Q6" s="538"/>
+      <c r="R6" s="539"/>
+      <c r="S6" s="539"/>
+      <c r="T6" s="540"/>
+      <c r="U6" s="538"/>
+      <c r="V6" s="539"/>
+      <c r="W6" s="539"/>
+      <c r="X6" s="540"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="18" t="s">
@@ -12969,7 +12971,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:24" hidden="1">
-      <c r="A9" s="519" t="s">
+      <c r="A9" s="543" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -12990,7 +12992,7 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="520"/>
+      <c r="A10" s="544"/>
       <c r="B10" s="23">
         <f>B6*B9</f>
         <v>1127.3</v>
@@ -13010,7 +13012,7 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:24" hidden="1">
-      <c r="A11" s="517" t="s">
+      <c r="A11" s="541" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
@@ -13032,7 +13034,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A12" s="518"/>
+      <c r="A12" s="542"/>
       <c r="B12" s="23">
         <f>B5*B11</f>
         <v>62858</v>
@@ -13053,7 +13055,7 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:24" hidden="1">
-      <c r="A13" s="519" t="s">
+      <c r="A13" s="543" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="24">
@@ -13075,7 +13077,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A14" s="520"/>
+      <c r="A14" s="544"/>
       <c r="B14" s="23">
         <f>B5*B13</f>
         <v>0</v>
@@ -13114,34 +13116,34 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A16" s="539" t="s">
+      <c r="A16" s="516" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="540"/>
-      <c r="C16" s="538" t="s">
+      <c r="B16" s="517"/>
+      <c r="C16" s="515" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="538"/>
-      <c r="E16" s="538"/>
-      <c r="F16" s="538"/>
-      <c r="G16" s="538" t="s">
+      <c r="D16" s="515"/>
+      <c r="E16" s="515"/>
+      <c r="F16" s="515"/>
+      <c r="G16" s="515" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="538"/>
-      <c r="I16" s="538"/>
-      <c r="J16" s="538"/>
-      <c r="K16" s="538" t="s">
+      <c r="H16" s="515"/>
+      <c r="I16" s="515"/>
+      <c r="J16" s="515"/>
+      <c r="K16" s="515" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="538"/>
-      <c r="M16" s="538"/>
+      <c r="L16" s="515"/>
+      <c r="M16" s="515"/>
       <c r="N16" s="192"/>
       <c r="O16" s="193"/>
       <c r="P16" s="383"/>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="541"/>
-      <c r="B17" s="542"/>
+      <c r="A17" s="518"/>
+      <c r="B17" s="519"/>
       <c r="C17" s="194">
         <v>1</v>
       </c>
@@ -13292,26 +13294,26 @@
         <v>21</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="525">
+      <c r="C20" s="521">
         <f>Q20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D20" s="525"/>
-      <c r="E20" s="525"/>
-      <c r="F20" s="525"/>
-      <c r="G20" s="525">
+      <c r="D20" s="521"/>
+      <c r="E20" s="521"/>
+      <c r="F20" s="521"/>
+      <c r="G20" s="521">
         <f>C20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="525"/>
-      <c r="I20" s="525"/>
-      <c r="J20" s="525"/>
-      <c r="K20" s="525">
+      <c r="H20" s="521"/>
+      <c r="I20" s="521"/>
+      <c r="J20" s="521"/>
+      <c r="K20" s="521">
         <f>G20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L20" s="525"/>
-      <c r="M20" s="525"/>
+      <c r="L20" s="521"/>
+      <c r="M20" s="521"/>
       <c r="N20" s="214">
         <f>(1+C20)^(1/4)-1</f>
         <v>1.6106667595102708E-2</v>
@@ -13321,8 +13323,7 @@
         <v>1.6106667595102708E-2</v>
       </c>
       <c r="P20" s="214">
-        <f>(1+E20)^(1/4)-1</f>
-        <v>0</v>
+        <v>1.61E-2</v>
       </c>
       <c r="Q20" s="42">
         <v>6.6000000000000003E-2</v>
@@ -13388,7 +13389,7 @@
         <v>1.61E-2</v>
       </c>
       <c r="P21" s="46">
-        <v>1.0161</v>
+        <v>1.61E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -13450,12 +13451,12 @@
       </c>
       <c r="P22" s="49">
         <f>O22*(1+P21)</f>
-        <v>2.4815171743288946</v>
+        <v>1.2506669316182679</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B23" s="51"/>
       <c r="C23" s="52">
@@ -13512,7 +13513,7 @@
       </c>
       <c r="P23" s="52">
         <f t="shared" ref="P23" si="4">$B$19*P22</f>
-        <v>205047.76411479656</v>
+        <v>103342.60855961748</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="12" customHeight="1">
@@ -13662,7 +13663,7 @@
       </c>
       <c r="P26" s="62">
         <f t="shared" ref="P26" si="8">P23*P25</f>
-        <v>205047.76411479656</v>
+        <v>103342.60855961748</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="13.5" thickBot="1">
@@ -14250,7 +14251,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="444" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="66">
         <v>100</v>
@@ -14274,11 +14275,11 @@
     </row>
     <row r="47" spans="1:16" ht="13.5" thickBot="1">
       <c r="A47" s="444" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="400">
         <f>P47</f>
-        <v>451111232.4854759</v>
+        <v>227356839.10941529</v>
       </c>
       <c r="C47" s="401"/>
       <c r="D47" s="401"/>
@@ -14295,7 +14296,7 @@
       <c r="O47" s="12"/>
       <c r="P47" s="74">
         <f>$B$5*(1-$M$48)*$P$26*$P$27%*P46%</f>
-        <v>451111232.4854759</v>
+        <v>227356839.10941529</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -14328,7 +14329,7 @@
       </c>
       <c r="B49" s="90">
         <f>B29+B31+B33+B35+B37+B39+B41+B43+B45+B47</f>
-        <v>5877490395.0538197</v>
+        <v>5653736001.6777592</v>
       </c>
       <c r="C49" s="91"/>
       <c r="D49" s="91"/>
@@ -14354,7 +14355,7 @@
       </c>
       <c r="B50" s="222">
         <f>SUM(C50:P50)</f>
-        <v>5877490395.0538197</v>
+        <v>5653736001.6777592</v>
       </c>
       <c r="C50" s="223">
         <f t="shared" ref="C50:H50" si="13">C29+C31+C33+C35+C37+C39+C49+C41</f>
@@ -14410,7 +14411,7 @@
       </c>
       <c r="P50" s="224">
         <f>P47</f>
-        <v>451111232.4854759</v>
+        <v>227356839.10941529</v>
       </c>
     </row>
     <row r="51" spans="1:23" hidden="1">
@@ -14520,12 +14521,12 @@
       <c r="N53" s="36"/>
       <c r="O53" s="37"/>
       <c r="P53" s="36"/>
-      <c r="T53" s="521" t="s">
+      <c r="T53" s="522" t="s">
         <v>53</v>
       </c>
-      <c r="U53" s="526"/>
-      <c r="V53" s="526"/>
-      <c r="W53" s="526"/>
+      <c r="U53" s="523"/>
+      <c r="V53" s="523"/>
+      <c r="W53" s="523"/>
     </row>
     <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="96" t="s">
@@ -14567,10 +14568,10 @@
       <c r="N54" s="102"/>
       <c r="O54" s="103"/>
       <c r="P54" s="102"/>
-      <c r="T54" s="521"/>
-      <c r="U54" s="526"/>
-      <c r="V54" s="526"/>
-      <c r="W54" s="526"/>
+      <c r="T54" s="522"/>
+      <c r="U54" s="523"/>
+      <c r="V54" s="523"/>
+      <c r="W54" s="523"/>
     </row>
     <row r="55" spans="1:23" hidden="1">
       <c r="A55" s="104" t="s">
@@ -14600,10 +14601,10 @@
       <c r="N55" s="52"/>
       <c r="O55" s="53"/>
       <c r="P55" s="52"/>
-      <c r="T55" s="521"/>
-      <c r="U55" s="526"/>
-      <c r="V55" s="526"/>
-      <c r="W55" s="526"/>
+      <c r="T55" s="522"/>
+      <c r="U55" s="523"/>
+      <c r="V55" s="523"/>
+      <c r="W55" s="523"/>
     </row>
     <row r="56" spans="1:23" hidden="1">
       <c r="A56" s="108" t="s">
@@ -14780,7 +14781,7 @@
       </c>
       <c r="P60" s="118">
         <f t="shared" ref="P60" si="19">P25*P22</f>
-        <v>2.4815171743288946</v>
+        <v>1.2506669316182679</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -14836,7 +14837,7 @@
       </c>
       <c r="P61" s="121">
         <f t="shared" ref="P61" si="21">$B$58*P60</f>
-        <v>2729668.891761784</v>
+        <v>1375733.6247800947</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -14904,7 +14905,7 @@
       </c>
       <c r="B63" s="228">
         <f>SUM(C63:P63)</f>
-        <v>56014287.434750862</v>
+        <v>53881839.389254697</v>
       </c>
       <c r="C63" s="228"/>
       <c r="D63" s="228"/>
@@ -14954,7 +14955,7 @@
       </c>
       <c r="P63" s="228">
         <f t="shared" ref="P63" si="25">$B$7*P61*P62%</f>
-        <v>4299228.5045248102</v>
+        <v>2166780.4590286496</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="56.25" hidden="1" customHeight="1">
@@ -14992,7 +14993,7 @@
       </c>
       <c r="B65" s="208">
         <f>SUM(C65:P65)</f>
-        <v>5933504682.4885702</v>
+        <v>5707617841.0670137</v>
       </c>
       <c r="C65" s="209"/>
       <c r="D65" s="209"/>
@@ -15036,7 +15037,7 @@
       </c>
       <c r="P65" s="208">
         <f t="shared" ref="P65" si="27">SUM(P50+P63)</f>
-        <v>455410460.99000072</v>
+        <v>229523619.56844395</v>
       </c>
     </row>
     <row r="66" spans="1:17" s="7" customFormat="1">
@@ -15045,7 +15046,7 @@
       </c>
       <c r="B66" s="236">
         <f>SUM(C66:P67)</f>
-        <v>988917447.08142829</v>
+        <v>951269640.17783546</v>
       </c>
       <c r="C66" s="125">
         <f t="shared" ref="C66:P66" si="28">C65/(1+$B$83)*$B$83</f>
@@ -15101,7 +15102,7 @@
       </c>
       <c r="P66" s="91">
         <f t="shared" si="28"/>
-        <v>75901743.498333454</v>
+        <v>38253936.594740659</v>
       </c>
     </row>
     <row r="67" spans="1:17" s="7" customFormat="1" hidden="1">
@@ -15109,17 +15110,17 @@
         <v>66</v>
       </c>
       <c r="B67" s="91"/>
-      <c r="C67" s="527"/>
-      <c r="D67" s="527"/>
-      <c r="E67" s="527"/>
-      <c r="F67" s="528"/>
-      <c r="G67" s="528"/>
-      <c r="H67" s="528"/>
-      <c r="I67" s="528"/>
-      <c r="J67" s="528"/>
-      <c r="K67" s="528"/>
-      <c r="L67" s="528"/>
-      <c r="M67" s="528"/>
+      <c r="C67" s="524"/>
+      <c r="D67" s="524"/>
+      <c r="E67" s="524"/>
+      <c r="F67" s="525"/>
+      <c r="G67" s="525"/>
+      <c r="H67" s="525"/>
+      <c r="I67" s="525"/>
+      <c r="J67" s="525"/>
+      <c r="K67" s="525"/>
+      <c r="L67" s="525"/>
+      <c r="M67" s="525"/>
       <c r="N67" s="128"/>
       <c r="O67" s="129"/>
       <c r="P67" s="128"/>
@@ -15185,7 +15186,7 @@
         <v>14 квартал</v>
       </c>
       <c r="Q68" s="130" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="7" customFormat="1">
@@ -15833,7 +15834,7 @@
       </c>
       <c r="B81" s="201">
         <f>SUM(C81:P81)</f>
-        <v>1811189451.3157699</v>
+        <v>1585302609.8942132</v>
       </c>
       <c r="C81" s="201">
         <f t="shared" ref="C81:P81" si="39">C65-C78</f>
@@ -15889,7 +15890,7 @@
       </c>
       <c r="P81" s="201">
         <f t="shared" si="39"/>
-        <v>454415824.9403007</v>
+        <v>228528983.51874396</v>
       </c>
       <c r="Q81" s="150"/>
     </row>
@@ -15955,7 +15956,7 @@
       </c>
       <c r="P82" s="201">
         <f t="shared" si="40"/>
-        <v>455410460.99000072</v>
+        <v>229523619.56844395</v>
       </c>
       <c r="Q82" s="150"/>
     </row>
@@ -16019,7 +16020,7 @@
       </c>
       <c r="B84" s="201">
         <f>SUM(C84:Q84)</f>
-        <v>1570196230.3993416</v>
+        <v>1344309388.9777849</v>
       </c>
       <c r="C84" s="201">
         <f>C81-C83</f>
@@ -16075,7 +16076,7 @@
       </c>
       <c r="P84" s="201">
         <f>P81-P83</f>
-        <v>454415824.9403007</v>
+        <v>228528983.51874396</v>
       </c>
       <c r="Q84" s="234">
         <f>Q81-Q83</f>
@@ -16133,7 +16134,7 @@
       </c>
       <c r="Q85" s="150">
         <f>B84*B85</f>
-        <v>314039246.07986832</v>
+        <v>268861877.79555696</v>
       </c>
     </row>
     <row r="86" spans="1:17" s="6" customFormat="1">
@@ -16142,7 +16143,7 @@
       </c>
       <c r="B86" s="201">
         <f>SUM(C86:Q86)</f>
-        <v>1256156984.3194733</v>
+        <v>1075447511.1822281</v>
       </c>
       <c r="C86" s="201">
         <f>C84-C85</f>
@@ -16198,11 +16199,11 @@
       </c>
       <c r="P86" s="201">
         <f t="shared" ref="P86" si="43">P84-P85</f>
-        <v>454415824.9403007</v>
+        <v>228528983.51874396</v>
       </c>
       <c r="Q86" s="235">
         <f>Q84-Q85</f>
-        <v>-555032466.99629653</v>
+        <v>-509855098.71198523</v>
       </c>
     </row>
     <row r="87" spans="1:17" s="6" customFormat="1" hidden="1">
@@ -16267,7 +16268,7 @@
       </c>
       <c r="P87" s="154">
         <f t="shared" ref="P87" si="45">P86</f>
-        <v>454415824.9403007</v>
+        <v>228528983.51874396</v>
       </c>
       <c r="Q87" s="150"/>
     </row>
@@ -16411,7 +16412,7 @@
       </c>
       <c r="B90" s="165">
         <f>SUM(C90:Q90)</f>
-        <v>771601140.15286112</v>
+        <v>671137265.23274851</v>
       </c>
       <c r="C90" s="166">
         <f>C86*C89</f>
@@ -16467,16 +16468,16 @@
       </c>
       <c r="P90" s="166">
         <f t="shared" ref="P90" si="49">P86*P89</f>
-        <v>252628563.43922809</v>
+        <v>127048719.78908753</v>
       </c>
       <c r="Q90" s="168">
         <f>Q86*Q89</f>
-        <v>-308565518.856713</v>
+        <v>-283449550.12668496</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="14" customFormat="1" ht="13.5" thickTop="1">
       <c r="A91" s="169"/>
-      <c r="B91" s="551"/>
+      <c r="B91" s="464"/>
       <c r="C91" s="171"/>
       <c r="D91" s="172"/>
       <c r="E91" s="172"/>
@@ -16504,68 +16505,68 @@
       <c r="L92" s="184"/>
     </row>
     <row r="93" spans="1:17" s="14" customFormat="1" ht="15.75">
-      <c r="A93" s="529" t="s">
+      <c r="A93" s="526" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="529"/>
-      <c r="C93" s="529"/>
-      <c r="D93" s="529"/>
-      <c r="E93" s="529"/>
+      <c r="B93" s="526"/>
+      <c r="C93" s="526"/>
+      <c r="D93" s="526"/>
+      <c r="E93" s="526"/>
       <c r="F93" s="385"/>
       <c r="G93" s="387"/>
-      <c r="H93" s="549"/>
-      <c r="I93" s="549"/>
-      <c r="J93" s="549"/>
-      <c r="K93" s="549"/>
-      <c r="L93" s="549"/>
-      <c r="M93" s="549"/>
+      <c r="H93" s="463"/>
+      <c r="I93" s="463"/>
+      <c r="J93" s="463"/>
+      <c r="K93" s="463"/>
+      <c r="L93" s="463"/>
+      <c r="M93" s="463"/>
     </row>
     <row r="94" spans="1:17" ht="15.75">
-      <c r="A94" s="530" t="s">
+      <c r="A94" s="513" t="s">
         <v>102</v>
       </c>
-      <c r="B94" s="530"/>
-      <c r="C94" s="530"/>
-      <c r="D94" s="531">
+      <c r="B94" s="513"/>
+      <c r="C94" s="513"/>
+      <c r="D94" s="527">
         <f>B86</f>
-        <v>1256156984.3194733</v>
-      </c>
-      <c r="E94" s="531"/>
+        <v>1075447511.1822281</v>
+      </c>
+      <c r="E94" s="527"/>
       <c r="F94" s="386"/>
       <c r="G94" s="388"/>
-      <c r="H94" s="549"/>
-      <c r="I94" s="549"/>
-      <c r="J94" s="549"/>
-      <c r="K94" s="549"/>
-      <c r="L94" s="549"/>
-      <c r="M94" s="549"/>
+      <c r="H94" s="463"/>
+      <c r="I94" s="463"/>
+      <c r="J94" s="463"/>
+      <c r="K94" s="463"/>
+      <c r="L94" s="463"/>
+      <c r="M94" s="463"/>
     </row>
     <row r="95" spans="1:17" ht="15.75">
-      <c r="A95" s="530" t="s">
+      <c r="A95" s="513" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="530"/>
-      <c r="C95" s="530"/>
-      <c r="D95" s="531">
+      <c r="B95" s="513"/>
+      <c r="C95" s="513"/>
+      <c r="D95" s="527">
         <f>B90</f>
-        <v>771601140.15286112</v>
-      </c>
-      <c r="E95" s="531"/>
+        <v>671137265.23274851</v>
+      </c>
+      <c r="E95" s="527"/>
       <c r="F95" s="386"/>
       <c r="G95" s="388"/>
-      <c r="H95" s="549"/>
-      <c r="I95" s="549"/>
-      <c r="J95" s="549"/>
-      <c r="K95" s="549"/>
-      <c r="L95" s="549"/>
-      <c r="M95" s="549"/>
+      <c r="H95" s="463"/>
+      <c r="I95" s="463"/>
+      <c r="J95" s="463"/>
+      <c r="K95" s="463"/>
+      <c r="L95" s="463"/>
+      <c r="M95" s="463"/>
     </row>
     <row r="96" spans="1:17" ht="15.75">
-      <c r="A96" s="530" t="s">
+      <c r="A96" s="513" t="s">
         <v>104</v>
       </c>
-      <c r="B96" s="530"/>
-      <c r="C96" s="530"/>
+      <c r="B96" s="513"/>
+      <c r="C96" s="513"/>
       <c r="D96" s="380">
         <f>F123+(-F127/(-F127+G127))</f>
         <v>5.7442119720053659</v>
@@ -16576,19 +16577,19 @@
       </c>
       <c r="F96" s="445"/>
       <c r="G96" s="446"/>
-      <c r="H96" s="549"/>
-      <c r="I96" s="549"/>
-      <c r="J96" s="549"/>
-      <c r="K96" s="549"/>
-      <c r="L96" s="549"/>
-      <c r="M96" s="549"/>
+      <c r="H96" s="463"/>
+      <c r="I96" s="463"/>
+      <c r="J96" s="463"/>
+      <c r="K96" s="463"/>
+      <c r="L96" s="463"/>
+      <c r="M96" s="463"/>
     </row>
     <row r="97" spans="1:16" ht="15.75">
-      <c r="A97" s="530" t="s">
+      <c r="A97" s="513" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="530"/>
-      <c r="C97" s="530"/>
+      <c r="B97" s="513"/>
+      <c r="C97" s="513"/>
       <c r="D97" s="380">
         <f>G123+(-G130/(-G130+H130))</f>
         <v>6.379216291346343</v>
@@ -16599,108 +16600,108 @@
       </c>
       <c r="F97" s="445"/>
       <c r="G97" s="446"/>
-      <c r="H97" s="549"/>
-      <c r="I97" s="549"/>
-      <c r="J97" s="549"/>
-      <c r="K97" s="549"/>
-      <c r="L97" s="549"/>
-      <c r="M97" s="549"/>
+      <c r="H97" s="463"/>
+      <c r="I97" s="463"/>
+      <c r="J97" s="463"/>
+      <c r="K97" s="463"/>
+      <c r="L97" s="463"/>
+      <c r="M97" s="463"/>
     </row>
     <row r="98" spans="1:16" ht="15.75">
-      <c r="A98" s="530" t="s">
-        <v>106</v>
-      </c>
-      <c r="B98" s="530"/>
-      <c r="C98" s="530"/>
+      <c r="A98" s="513" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" s="513"/>
+      <c r="C98" s="513"/>
       <c r="D98" s="381">
         <f>IRR(B126:O126)</f>
-        <v>0.28180800467489253</v>
+        <v>0.274523063132045</v>
       </c>
       <c r="E98" s="381">
         <f>(1+D98)^4-1</f>
-        <v>1.6995533671573475</v>
+        <v>1.6387047242158923</v>
       </c>
       <c r="F98" s="386"/>
       <c r="G98" s="388"/>
-      <c r="H98" s="549"/>
-      <c r="I98" s="549"/>
-      <c r="J98" s="549"/>
-      <c r="K98" s="549"/>
-      <c r="L98" s="549"/>
-      <c r="M98" s="549"/>
+      <c r="H98" s="463"/>
+      <c r="I98" s="463"/>
+      <c r="J98" s="463"/>
+      <c r="K98" s="463"/>
+      <c r="L98" s="463"/>
+      <c r="M98" s="463"/>
     </row>
     <row r="99" spans="1:16" ht="15.75">
-      <c r="A99" s="530" t="s">
-        <v>107</v>
-      </c>
-      <c r="B99" s="530"/>
-      <c r="C99" s="530"/>
-      <c r="D99" s="537">
+      <c r="A99" s="513" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="513"/>
+      <c r="C99" s="513"/>
+      <c r="D99" s="514">
         <f>SUM(B131:O131)/SUM(B132:O132)</f>
-        <v>1.3452823534053628</v>
-      </c>
-      <c r="E99" s="537"/>
+        <v>1.3051399331648084</v>
+      </c>
+      <c r="E99" s="514"/>
       <c r="F99" s="386"/>
       <c r="G99" s="388"/>
     </row>
     <row r="100" spans="1:16" ht="15.75">
-      <c r="A100" s="532" t="s">
-        <v>108</v>
-      </c>
-      <c r="B100" s="533"/>
-      <c r="C100" s="533"/>
-      <c r="D100" s="534"/>
+      <c r="A100" s="528" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="529"/>
+      <c r="C100" s="529"/>
+      <c r="D100" s="530"/>
       <c r="E100" s="339"/>
     </row>
     <row r="101" spans="1:16" ht="15.75">
-      <c r="A101" s="535" t="s">
-        <v>191</v>
-      </c>
-      <c r="B101" s="536"/>
-      <c r="C101" s="536"/>
-      <c r="D101" s="536"/>
+      <c r="A101" s="531" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" s="532"/>
+      <c r="C101" s="532"/>
+      <c r="D101" s="532"/>
       <c r="E101" s="339"/>
     </row>
     <row r="102" spans="1:16" ht="15.75">
-      <c r="A102" s="536"/>
-      <c r="B102" s="536"/>
-      <c r="C102" s="536"/>
-      <c r="D102" s="536"/>
+      <c r="A102" s="532"/>
+      <c r="B102" s="532"/>
+      <c r="C102" s="532"/>
+      <c r="D102" s="532"/>
       <c r="E102" s="339"/>
     </row>
     <row r="103" spans="1:16" ht="15.75">
-      <c r="A103" s="536"/>
-      <c r="B103" s="536"/>
-      <c r="C103" s="536"/>
-      <c r="D103" s="536"/>
+      <c r="A103" s="532"/>
+      <c r="B103" s="532"/>
+      <c r="C103" s="532"/>
+      <c r="D103" s="532"/>
       <c r="E103" s="339"/>
     </row>
     <row r="104" spans="1:16" ht="15.75">
-      <c r="A104" s="536"/>
-      <c r="B104" s="536"/>
-      <c r="C104" s="536"/>
-      <c r="D104" s="536"/>
+      <c r="A104" s="532"/>
+      <c r="B104" s="532"/>
+      <c r="C104" s="532"/>
+      <c r="D104" s="532"/>
       <c r="E104" s="339"/>
     </row>
     <row r="105" spans="1:16" ht="15.75">
-      <c r="A105" s="536"/>
-      <c r="B105" s="536"/>
-      <c r="C105" s="536"/>
-      <c r="D105" s="536"/>
+      <c r="A105" s="532"/>
+      <c r="B105" s="532"/>
+      <c r="C105" s="532"/>
+      <c r="D105" s="532"/>
       <c r="E105" s="339"/>
     </row>
     <row r="106" spans="1:16" ht="15.75">
-      <c r="A106" s="536"/>
-      <c r="B106" s="536"/>
-      <c r="C106" s="536"/>
-      <c r="D106" s="536"/>
+      <c r="A106" s="532"/>
+      <c r="B106" s="532"/>
+      <c r="C106" s="532"/>
+      <c r="D106" s="532"/>
       <c r="E106" s="339"/>
     </row>
     <row r="107" spans="1:16" ht="15.75">
-      <c r="A107" s="536"/>
-      <c r="B107" s="536"/>
-      <c r="C107" s="536"/>
-      <c r="D107" s="536"/>
+      <c r="A107" s="532"/>
+      <c r="B107" s="532"/>
+      <c r="C107" s="532"/>
+      <c r="D107" s="532"/>
       <c r="E107" s="339"/>
     </row>
     <row r="109" spans="1:16" hidden="1"/>
@@ -16708,129 +16709,129 @@
       <c r="P112" s="14"/>
     </row>
     <row r="113" spans="1:17" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
-      <c r="A113" s="524"/>
-      <c r="B113" s="524"/>
-      <c r="C113" s="524"/>
-      <c r="D113" s="524"/>
-      <c r="E113" s="524"/>
-      <c r="F113" s="524"/>
-      <c r="G113" s="524"/>
-      <c r="H113" s="524"/>
-      <c r="I113" s="524"/>
-      <c r="J113" s="524"/>
-      <c r="K113" s="524"/>
+      <c r="A113" s="520"/>
+      <c r="B113" s="520"/>
+      <c r="C113" s="520"/>
+      <c r="D113" s="520"/>
+      <c r="E113" s="520"/>
+      <c r="F113" s="520"/>
+      <c r="G113" s="520"/>
+      <c r="H113" s="520"/>
+      <c r="I113" s="520"/>
+      <c r="J113" s="520"/>
+      <c r="K113" s="520"/>
       <c r="L113" s="178"/>
       <c r="M113" s="178"/>
       <c r="N113" s="177"/>
     </row>
     <row r="114" spans="1:17" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
-      <c r="A114" s="524"/>
-      <c r="B114" s="524"/>
-      <c r="C114" s="524"/>
-      <c r="D114" s="524"/>
-      <c r="E114" s="524"/>
-      <c r="F114" s="524"/>
-      <c r="G114" s="524"/>
-      <c r="H114" s="524"/>
-      <c r="I114" s="524"/>
-      <c r="J114" s="524"/>
-      <c r="K114" s="524"/>
+      <c r="A114" s="520"/>
+      <c r="B114" s="520"/>
+      <c r="C114" s="520"/>
+      <c r="D114" s="520"/>
+      <c r="E114" s="520"/>
+      <c r="F114" s="520"/>
+      <c r="G114" s="520"/>
+      <c r="H114" s="520"/>
+      <c r="I114" s="520"/>
+      <c r="J114" s="520"/>
+      <c r="K114" s="520"/>
       <c r="L114" s="179"/>
       <c r="M114" s="179"/>
       <c r="N114" s="177"/>
     </row>
     <row r="115" spans="1:17" s="14" customFormat="1" ht="12.75" hidden="1" customHeight="1">
-      <c r="A115" s="524"/>
-      <c r="B115" s="524"/>
-      <c r="C115" s="524"/>
-      <c r="D115" s="524"/>
-      <c r="E115" s="524"/>
-      <c r="F115" s="524"/>
-      <c r="G115" s="524"/>
-      <c r="H115" s="524"/>
-      <c r="I115" s="524"/>
-      <c r="J115" s="524"/>
-      <c r="K115" s="524"/>
+      <c r="A115" s="520"/>
+      <c r="B115" s="520"/>
+      <c r="C115" s="520"/>
+      <c r="D115" s="520"/>
+      <c r="E115" s="520"/>
+      <c r="F115" s="520"/>
+      <c r="G115" s="520"/>
+      <c r="H115" s="520"/>
+      <c r="I115" s="520"/>
+      <c r="J115" s="520"/>
+      <c r="K115" s="520"/>
       <c r="L115" s="179"/>
       <c r="M115" s="179"/>
       <c r="N115" s="177"/>
     </row>
     <row r="116" spans="1:17" s="14" customFormat="1" ht="26.25" hidden="1" customHeight="1">
-      <c r="A116" s="524"/>
-      <c r="B116" s="524"/>
-      <c r="C116" s="524"/>
-      <c r="D116" s="524"/>
-      <c r="E116" s="524"/>
-      <c r="F116" s="524"/>
-      <c r="G116" s="524"/>
-      <c r="H116" s="524"/>
-      <c r="I116" s="524"/>
-      <c r="J116" s="524"/>
-      <c r="K116" s="524"/>
+      <c r="A116" s="520"/>
+      <c r="B116" s="520"/>
+      <c r="C116" s="520"/>
+      <c r="D116" s="520"/>
+      <c r="E116" s="520"/>
+      <c r="F116" s="520"/>
+      <c r="G116" s="520"/>
+      <c r="H116" s="520"/>
+      <c r="I116" s="520"/>
+      <c r="J116" s="520"/>
+      <c r="K116" s="520"/>
       <c r="L116" s="179"/>
       <c r="M116" s="179"/>
       <c r="N116" s="177"/>
     </row>
     <row r="117" spans="1:17" s="14" customFormat="1" ht="26.25" hidden="1" customHeight="1">
-      <c r="A117" s="524"/>
-      <c r="B117" s="524"/>
-      <c r="C117" s="524"/>
-      <c r="D117" s="524"/>
-      <c r="E117" s="524"/>
-      <c r="F117" s="524"/>
-      <c r="G117" s="524"/>
-      <c r="H117" s="524"/>
-      <c r="I117" s="524"/>
-      <c r="J117" s="524"/>
-      <c r="K117" s="524"/>
+      <c r="A117" s="520"/>
+      <c r="B117" s="520"/>
+      <c r="C117" s="520"/>
+      <c r="D117" s="520"/>
+      <c r="E117" s="520"/>
+      <c r="F117" s="520"/>
+      <c r="G117" s="520"/>
+      <c r="H117" s="520"/>
+      <c r="I117" s="520"/>
+      <c r="J117" s="520"/>
+      <c r="K117" s="520"/>
       <c r="L117" s="180"/>
       <c r="M117" s="180"/>
       <c r="N117" s="177"/>
     </row>
     <row r="118" spans="1:17" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A118" s="524"/>
-      <c r="B118" s="524"/>
-      <c r="C118" s="524"/>
-      <c r="D118" s="524"/>
-      <c r="E118" s="524"/>
-      <c r="F118" s="524"/>
-      <c r="G118" s="524"/>
-      <c r="H118" s="524"/>
-      <c r="I118" s="524"/>
-      <c r="J118" s="524"/>
-      <c r="K118" s="524"/>
+      <c r="A118" s="520"/>
+      <c r="B118" s="520"/>
+      <c r="C118" s="520"/>
+      <c r="D118" s="520"/>
+      <c r="E118" s="520"/>
+      <c r="F118" s="520"/>
+      <c r="G118" s="520"/>
+      <c r="H118" s="520"/>
+      <c r="I118" s="520"/>
+      <c r="J118" s="520"/>
+      <c r="K118" s="520"/>
       <c r="L118" s="180"/>
       <c r="M118" s="180"/>
       <c r="N118" s="177"/>
     </row>
     <row r="119" spans="1:17" s="183" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A119" s="524"/>
-      <c r="B119" s="524"/>
-      <c r="C119" s="524"/>
-      <c r="D119" s="524"/>
-      <c r="E119" s="524"/>
-      <c r="F119" s="524"/>
-      <c r="G119" s="524"/>
-      <c r="H119" s="524"/>
-      <c r="I119" s="524"/>
-      <c r="J119" s="524"/>
-      <c r="K119" s="524"/>
+      <c r="A119" s="520"/>
+      <c r="B119" s="520"/>
+      <c r="C119" s="520"/>
+      <c r="D119" s="520"/>
+      <c r="E119" s="520"/>
+      <c r="F119" s="520"/>
+      <c r="G119" s="520"/>
+      <c r="H119" s="520"/>
+      <c r="I119" s="520"/>
+      <c r="J119" s="520"/>
+      <c r="K119" s="520"/>
       <c r="L119" s="181"/>
       <c r="M119" s="182"/>
       <c r="N119" s="182"/>
     </row>
     <row r="120" spans="1:17" s="182" customFormat="1" ht="18.75" hidden="1" collapsed="1">
-      <c r="A120" s="524"/>
-      <c r="B120" s="524"/>
-      <c r="C120" s="524"/>
-      <c r="D120" s="524"/>
-      <c r="E120" s="524"/>
-      <c r="F120" s="524"/>
-      <c r="G120" s="524"/>
-      <c r="H120" s="524"/>
-      <c r="I120" s="524"/>
-      <c r="J120" s="524"/>
-      <c r="K120" s="524"/>
+      <c r="A120" s="520"/>
+      <c r="B120" s="520"/>
+      <c r="C120" s="520"/>
+      <c r="D120" s="520"/>
+      <c r="E120" s="520"/>
+      <c r="F120" s="520"/>
+      <c r="G120" s="520"/>
+      <c r="H120" s="520"/>
+      <c r="I120" s="520"/>
+      <c r="J120" s="520"/>
+      <c r="K120" s="520"/>
       <c r="L120" s="181"/>
     </row>
     <row r="121" spans="1:17">
@@ -16838,36 +16839,36 @@
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="447" t="s">
-        <v>194</v>
-      </c>
-      <c r="B122" s="550">
+        <v>193</v>
+      </c>
+      <c r="B122" s="512">
         <v>1</v>
       </c>
-      <c r="C122" s="550"/>
-      <c r="D122" s="550"/>
-      <c r="E122" s="550"/>
-      <c r="F122" s="550">
+      <c r="C122" s="512"/>
+      <c r="D122" s="512"/>
+      <c r="E122" s="512"/>
+      <c r="F122" s="512">
         <v>2</v>
       </c>
-      <c r="G122" s="550"/>
-      <c r="H122" s="550"/>
-      <c r="I122" s="550"/>
-      <c r="J122" s="550">
+      <c r="G122" s="512"/>
+      <c r="H122" s="512"/>
+      <c r="I122" s="512"/>
+      <c r="J122" s="512">
         <v>3</v>
       </c>
-      <c r="K122" s="550"/>
-      <c r="L122" s="550"/>
-      <c r="M122" s="550"/>
-      <c r="N122" s="550">
+      <c r="K122" s="512"/>
+      <c r="L122" s="512"/>
+      <c r="M122" s="512"/>
+      <c r="N122" s="512">
         <v>4</v>
       </c>
-      <c r="O122" s="550"/>
-      <c r="P122" s="550"/>
-      <c r="Q122" s="550"/>
+      <c r="O122" s="512"/>
+      <c r="P122" s="512"/>
+      <c r="Q122" s="512"/>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="447" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B123" s="188">
         <v>1</v>
@@ -16912,12 +16913,12 @@
         <v>14</v>
       </c>
       <c r="P123" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="447" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B124" s="449">
         <f>C78</f>
@@ -16979,7 +16980,7 @@
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="447" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B125" s="455">
         <f>C65</f>
@@ -17035,13 +17036,13 @@
       </c>
       <c r="O125" s="456">
         <f t="shared" si="51"/>
-        <v>455410460.99000072</v>
+        <v>229523619.56844395</v>
       </c>
       <c r="P125" s="14"/>
     </row>
     <row r="126" spans="1:17" ht="15">
       <c r="A126" s="447" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B126" s="453">
         <f>B125-B124</f>
@@ -17097,16 +17098,16 @@
       </c>
       <c r="O126" s="453">
         <f t="shared" si="52"/>
-        <v>454415824.9403007</v>
+        <v>228528983.51874396</v>
       </c>
       <c r="P126" s="458">
         <f>SUM(B126:O126)</f>
-        <v>1811189451.3157699</v>
+        <v>1585302609.8942132</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="15">
       <c r="A127" s="448" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127" s="453">
         <f>B126</f>
@@ -17162,7 +17163,7 @@
       </c>
       <c r="O127" s="453">
         <f t="shared" si="53"/>
-        <v>1811189451.3157699</v>
+        <v>1585302609.8942132</v>
       </c>
       <c r="P127" s="453" t="b">
         <f>O127=P126</f>
@@ -17171,7 +17172,7 @@
     </row>
     <row r="128" spans="1:17" ht="15">
       <c r="A128" s="457" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B128" s="459">
         <f>C89</f>
@@ -17233,7 +17234,7 @@
     </row>
     <row r="129" spans="1:29" ht="23.25" customHeight="1">
       <c r="A129" s="448" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="452">
         <f>B126*B128</f>
@@ -17289,13 +17290,13 @@
       </c>
       <c r="O129" s="452">
         <f t="shared" si="55"/>
-        <v>252628563.43922809</v>
+        <v>127048719.78908753</v>
       </c>
       <c r="P129" s="450"/>
     </row>
     <row r="130" spans="1:29" ht="23.25" customHeight="1">
       <c r="A130" s="448" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B130" s="452">
         <f>B129</f>
@@ -17351,14 +17352,14 @@
       </c>
       <c r="O130" s="452">
         <f t="shared" si="56"/>
-        <v>1080166659.0095742</v>
+        <v>954586815.35943353</v>
       </c>
       <c r="P130" s="450"/>
       <c r="Q130" s="461"/>
     </row>
     <row r="131" spans="1:29" ht="15" customHeight="1">
       <c r="A131" s="448" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B131" s="454">
         <f>B128*B125</f>
@@ -17414,13 +17415,13 @@
       </c>
       <c r="O131" s="454">
         <f t="shared" si="57"/>
-        <v>253181522.78304845</v>
-      </c>
-      <c r="P131" s="548"/>
+        <v>127601679.1329079</v>
+      </c>
+      <c r="P131" s="462"/>
     </row>
     <row r="132" spans="1:29">
       <c r="A132" s="447" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B132" s="460">
         <f>B128*B124</f>
@@ -17540,33 +17541,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A113:K120"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="T53:W55"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:M67"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D107"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="Q4:T6"/>
     <mergeCell ref="A11:A12"/>
@@ -17575,6 +17549,33 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="Q1:T3"/>
     <mergeCell ref="U1:X3"/>
+    <mergeCell ref="T53:W55"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:M67"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A113:K120"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D107"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.31496062992125984" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -17592,7 +17593,7 @@
   </sheetPr>
   <dimension ref="A1:AC157"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D83" sqref="D83:N83"/>
     </sheetView>
   </sheetViews>
@@ -17636,22 +17637,22 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="5"/>
-      <c r="Q1" s="521" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="522"/>
-      <c r="S1" s="522"/>
-      <c r="T1" s="523"/>
-      <c r="U1" s="521"/>
-      <c r="V1" s="522"/>
-      <c r="W1" s="522"/>
-      <c r="X1" s="523"/>
+      <c r="Q1" s="522" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="545"/>
+      <c r="S1" s="545"/>
+      <c r="T1" s="546"/>
+      <c r="U1" s="522"/>
+      <c r="V1" s="545"/>
+      <c r="W1" s="545"/>
+      <c r="X1" s="546"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="15.75">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="533" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="510"/>
+      <c r="B2" s="534"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -17666,14 +17667,14 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="521"/>
-      <c r="R2" s="522"/>
-      <c r="S2" s="522"/>
-      <c r="T2" s="523"/>
-      <c r="U2" s="521"/>
-      <c r="V2" s="522"/>
-      <c r="W2" s="522"/>
-      <c r="X2" s="523"/>
+      <c r="Q2" s="522"/>
+      <c r="R2" s="545"/>
+      <c r="S2" s="545"/>
+      <c r="T2" s="546"/>
+      <c r="U2" s="522"/>
+      <c r="V2" s="545"/>
+      <c r="W2" s="545"/>
+      <c r="X2" s="546"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="11" t="s">
@@ -17697,14 +17698,14 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
-      <c r="Q3" s="521"/>
-      <c r="R3" s="522"/>
-      <c r="S3" s="522"/>
-      <c r="T3" s="523"/>
-      <c r="U3" s="521"/>
-      <c r="V3" s="522"/>
-      <c r="W3" s="522"/>
-      <c r="X3" s="523"/>
+      <c r="Q3" s="522"/>
+      <c r="R3" s="545"/>
+      <c r="S3" s="545"/>
+      <c r="T3" s="546"/>
+      <c r="U3" s="522"/>
+      <c r="V3" s="545"/>
+      <c r="W3" s="545"/>
+      <c r="X3" s="546"/>
     </row>
     <row r="4" spans="1:24" ht="20.25" customHeight="1">
       <c r="A4" s="11" t="s">
@@ -17728,16 +17729,16 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="Q4" s="511" t="s">
+      <c r="Q4" s="535" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="512"/>
-      <c r="S4" s="512"/>
-      <c r="T4" s="513"/>
-      <c r="U4" s="511"/>
-      <c r="V4" s="512"/>
-      <c r="W4" s="512"/>
-      <c r="X4" s="513"/>
+      <c r="R4" s="536"/>
+      <c r="S4" s="536"/>
+      <c r="T4" s="537"/>
+      <c r="U4" s="535"/>
+      <c r="V4" s="536"/>
+      <c r="W4" s="536"/>
+      <c r="X4" s="537"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11" t="s">
@@ -17761,14 +17762,14 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="511"/>
-      <c r="R5" s="512"/>
-      <c r="S5" s="512"/>
-      <c r="T5" s="513"/>
-      <c r="U5" s="511"/>
-      <c r="V5" s="512"/>
-      <c r="W5" s="512"/>
-      <c r="X5" s="513"/>
+      <c r="Q5" s="535"/>
+      <c r="R5" s="536"/>
+      <c r="S5" s="536"/>
+      <c r="T5" s="537"/>
+      <c r="U5" s="535"/>
+      <c r="V5" s="536"/>
+      <c r="W5" s="536"/>
+      <c r="X5" s="537"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="16" t="s">
@@ -17792,14 +17793,14 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="514"/>
-      <c r="R6" s="515"/>
-      <c r="S6" s="515"/>
-      <c r="T6" s="516"/>
-      <c r="U6" s="514"/>
-      <c r="V6" s="515"/>
-      <c r="W6" s="515"/>
-      <c r="X6" s="516"/>
+      <c r="Q6" s="538"/>
+      <c r="R6" s="539"/>
+      <c r="S6" s="539"/>
+      <c r="T6" s="540"/>
+      <c r="U6" s="538"/>
+      <c r="V6" s="539"/>
+      <c r="W6" s="539"/>
+      <c r="X6" s="540"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="18" t="s">
@@ -17842,7 +17843,7 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:24" hidden="1">
-      <c r="A9" s="519" t="s">
+      <c r="A9" s="543" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21">
@@ -17863,7 +17864,7 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" hidden="1" customHeight="1" thickBot="1">
-      <c r="A10" s="520"/>
+      <c r="A10" s="544"/>
       <c r="B10" s="23">
         <f>B6*B9</f>
         <v>1127.3</v>
@@ -17883,7 +17884,7 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:24" hidden="1">
-      <c r="A11" s="517" t="s">
+      <c r="A11" s="541" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="24">
@@ -17905,7 +17906,7 @@
       <c r="P11" s="9"/>
     </row>
     <row r="12" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A12" s="518"/>
+      <c r="A12" s="542"/>
       <c r="B12" s="23">
         <f>B5*B11</f>
         <v>62858</v>
@@ -17926,7 +17927,7 @@
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:24" hidden="1">
-      <c r="A13" s="519" t="s">
+      <c r="A13" s="543" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="24">
@@ -17948,7 +17949,7 @@
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:24" ht="13.5" hidden="1" thickBot="1">
-      <c r="A14" s="520"/>
+      <c r="A14" s="544"/>
       <c r="B14" s="23">
         <f>B5*B13</f>
         <v>0</v>
@@ -17987,34 +17988,34 @@
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1">
-      <c r="A16" s="544" t="s">
+      <c r="A16" s="547" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="545"/>
-      <c r="C16" s="547" t="s">
+      <c r="B16" s="548"/>
+      <c r="C16" s="550" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="547"/>
-      <c r="E16" s="547"/>
-      <c r="F16" s="547"/>
-      <c r="G16" s="547" t="s">
+      <c r="D16" s="550"/>
+      <c r="E16" s="550"/>
+      <c r="F16" s="550"/>
+      <c r="G16" s="550" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="547"/>
-      <c r="I16" s="547"/>
-      <c r="J16" s="547"/>
-      <c r="K16" s="547" t="s">
+      <c r="H16" s="550"/>
+      <c r="I16" s="550"/>
+      <c r="J16" s="550"/>
+      <c r="K16" s="550" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="547"/>
-      <c r="M16" s="547"/>
+      <c r="L16" s="550"/>
+      <c r="M16" s="550"/>
       <c r="N16" s="244"/>
       <c r="O16" s="245"/>
       <c r="P16" s="389"/>
     </row>
     <row r="17" spans="1:20" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A17" s="546"/>
-      <c r="B17" s="542"/>
+      <c r="A17" s="549"/>
+      <c r="B17" s="519"/>
       <c r="C17" s="194">
         <v>1</v>
       </c>
@@ -18169,26 +18170,26 @@
         <v>21</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="525">
+      <c r="C20" s="521">
         <f>Q20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D20" s="525"/>
-      <c r="E20" s="525"/>
-      <c r="F20" s="525"/>
-      <c r="G20" s="525">
+      <c r="D20" s="521"/>
+      <c r="E20" s="521"/>
+      <c r="F20" s="521"/>
+      <c r="G20" s="521">
         <f>C20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H20" s="525"/>
-      <c r="I20" s="525"/>
-      <c r="J20" s="525"/>
-      <c r="K20" s="525">
+      <c r="H20" s="521"/>
+      <c r="I20" s="521"/>
+      <c r="J20" s="521"/>
+      <c r="K20" s="521">
         <f>G20</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="L20" s="525"/>
-      <c r="M20" s="525"/>
+      <c r="L20" s="521"/>
+      <c r="M20" s="521"/>
       <c r="N20" s="214">
         <f>(1+C20)^(1/4)-1</f>
         <v>1.6106667595102708E-2</v>
@@ -19335,7 +19336,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="259" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="400">
         <v>100</v>
@@ -19359,7 +19360,7 @@
     </row>
     <row r="47" spans="1:16" ht="13.5" thickBot="1">
       <c r="A47" s="395" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="396">
         <f>P47</f>
@@ -19605,12 +19606,12 @@
       <c r="N53" s="36"/>
       <c r="O53" s="250"/>
       <c r="P53" s="250"/>
-      <c r="T53" s="521" t="s">
+      <c r="T53" s="522" t="s">
         <v>53</v>
       </c>
-      <c r="U53" s="526"/>
-      <c r="V53" s="526"/>
-      <c r="W53" s="526"/>
+      <c r="U53" s="523"/>
+      <c r="V53" s="523"/>
+      <c r="W53" s="523"/>
     </row>
     <row r="54" spans="1:23" hidden="1">
       <c r="A54" s="266" t="s">
@@ -19652,10 +19653,10 @@
       <c r="N54" s="102"/>
       <c r="O54" s="267"/>
       <c r="P54" s="267"/>
-      <c r="T54" s="521"/>
-      <c r="U54" s="526"/>
-      <c r="V54" s="526"/>
-      <c r="W54" s="526"/>
+      <c r="T54" s="522"/>
+      <c r="U54" s="523"/>
+      <c r="V54" s="523"/>
+      <c r="W54" s="523"/>
     </row>
     <row r="55" spans="1:23" hidden="1">
       <c r="A55" s="268" t="s">
@@ -19685,10 +19686,10 @@
       <c r="N55" s="52"/>
       <c r="O55" s="255"/>
       <c r="P55" s="255"/>
-      <c r="T55" s="521"/>
-      <c r="U55" s="526"/>
-      <c r="V55" s="526"/>
-      <c r="W55" s="526"/>
+      <c r="T55" s="522"/>
+      <c r="U55" s="523"/>
+      <c r="V55" s="523"/>
+      <c r="W55" s="523"/>
     </row>
     <row r="56" spans="1:23" hidden="1">
       <c r="A56" s="269" t="s">
@@ -20294,11 +20295,11 @@
         <v>14 квартал</v>
       </c>
       <c r="Q68" s="130" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R68" s="149"/>
       <c r="T68" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:21" s="7" customFormat="1">
@@ -20371,7 +20372,7 @@
       </c>
       <c r="R69" s="149"/>
       <c r="S69" s="417" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T69" s="418">
         <v>1</v>
@@ -20439,7 +20440,7 @@
       </c>
       <c r="R70" s="149"/>
       <c r="S70" s="417" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T70" s="418">
         <v>0.15</v>
@@ -20516,7 +20517,7 @@
       <c r="Q71" s="137"/>
       <c r="R71" s="149"/>
       <c r="S71" s="417" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T71" s="418">
         <v>0.85</v>
@@ -20984,7 +20985,7 @@
     </row>
     <row r="81" spans="1:18" s="149" customFormat="1">
       <c r="A81" s="412" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B81" s="424">
         <f>U71</f>
@@ -21008,7 +21009,7 @@
     </row>
     <row r="82" spans="1:18" s="149" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="413" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B82" s="425">
         <v>0.115</v>
@@ -21030,7 +21031,7 @@
     </row>
     <row r="83" spans="1:18" s="149" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="413" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" s="414">
         <f>SUM(C83:P83)</f>
@@ -21058,7 +21059,7 @@
     </row>
     <row r="84" spans="1:18" s="149" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="413" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B84" s="414"/>
       <c r="C84" s="414">
@@ -21082,7 +21083,7 @@
     </row>
     <row r="85" spans="1:18" s="149" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="413" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B85" s="414"/>
       <c r="C85" s="414">
@@ -21145,7 +21146,7 @@
     </row>
     <row r="86" spans="1:18" s="149" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="413" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B86" s="414"/>
       <c r="C86" s="414">
@@ -21202,7 +21203,7 @@
     </row>
     <row r="87" spans="1:18" s="149" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="413" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B87" s="414"/>
       <c r="C87" s="414"/>
@@ -21226,13 +21227,13 @@
         <v>253828669.45801398</v>
       </c>
       <c r="Q87" s="149" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R87" s="410"/>
     </row>
     <row r="88" spans="1:18" s="149" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="413" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B88" s="414"/>
       <c r="C88" s="414"/>
@@ -21256,13 +21257,13 @@
         <v>2207205821.3740344</v>
       </c>
       <c r="Q88" s="149" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R88" s="410"/>
     </row>
     <row r="89" spans="1:18" s="149" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="413" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B89" s="414"/>
       <c r="C89" s="414">
@@ -21325,7 +21326,7 @@
     </row>
     <row r="90" spans="1:18" s="149" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="413" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B90" s="414"/>
       <c r="C90" s="414"/>
@@ -21372,13 +21373,13 @@
     <row r="92" spans="1:18" s="149" customFormat="1">
       <c r="A92" s="287"/>
       <c r="B92" s="288" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C92" s="288" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="288" t="s">
         <v>179</v>
-      </c>
-      <c r="D92" s="288" t="s">
-        <v>180</v>
       </c>
       <c r="E92" s="288"/>
       <c r="F92" s="289"/>
@@ -21403,7 +21404,7 @@
     </row>
     <row r="93" spans="1:18" s="149" customFormat="1" ht="13.5" thickBot="1">
       <c r="A93" s="433" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B93" s="434">
         <f>C93-D93</f>
@@ -22246,9 +22247,9 @@
     </row>
     <row r="110" spans="1:17" s="14" customFormat="1">
       <c r="A110" s="174"/>
-      <c r="B110" s="543"/>
-      <c r="C110" s="543"/>
-      <c r="D110" s="543"/>
+      <c r="B110" s="551"/>
+      <c r="C110" s="551"/>
+      <c r="D110" s="551"/>
       <c r="E110" s="175"/>
       <c r="F110" s="176"/>
       <c r="G110" s="176"/>
@@ -22261,131 +22262,131 @@
       <c r="N110" s="177"/>
     </row>
     <row r="111" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="524" t="s">
+      <c r="A111" s="520" t="s">
         <v>88</v>
       </c>
-      <c r="B111" s="524"/>
-      <c r="C111" s="524"/>
-      <c r="D111" s="524"/>
-      <c r="E111" s="524"/>
-      <c r="F111" s="524"/>
-      <c r="G111" s="524"/>
-      <c r="H111" s="524"/>
-      <c r="I111" s="524"/>
-      <c r="J111" s="524"/>
-      <c r="K111" s="524"/>
+      <c r="B111" s="520"/>
+      <c r="C111" s="520"/>
+      <c r="D111" s="520"/>
+      <c r="E111" s="520"/>
+      <c r="F111" s="520"/>
+      <c r="G111" s="520"/>
+      <c r="H111" s="520"/>
+      <c r="I111" s="520"/>
+      <c r="J111" s="520"/>
+      <c r="K111" s="520"/>
       <c r="L111" s="178"/>
       <c r="M111" s="178"/>
       <c r="N111" s="177"/>
     </row>
     <row r="112" spans="1:17" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A112" s="524"/>
-      <c r="B112" s="524"/>
-      <c r="C112" s="524"/>
-      <c r="D112" s="524"/>
-      <c r="E112" s="524"/>
-      <c r="F112" s="524"/>
-      <c r="G112" s="524"/>
-      <c r="H112" s="524"/>
-      <c r="I112" s="524"/>
-      <c r="J112" s="524"/>
-      <c r="K112" s="524"/>
+      <c r="A112" s="520"/>
+      <c r="B112" s="520"/>
+      <c r="C112" s="520"/>
+      <c r="D112" s="520"/>
+      <c r="E112" s="520"/>
+      <c r="F112" s="520"/>
+      <c r="G112" s="520"/>
+      <c r="H112" s="520"/>
+      <c r="I112" s="520"/>
+      <c r="J112" s="520"/>
+      <c r="K112" s="520"/>
       <c r="L112" s="179"/>
       <c r="M112" s="179"/>
       <c r="N112" s="177"/>
     </row>
     <row r="113" spans="1:14" s="14" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A113" s="524"/>
-      <c r="B113" s="524"/>
-      <c r="C113" s="524"/>
-      <c r="D113" s="524"/>
-      <c r="E113" s="524"/>
-      <c r="F113" s="524"/>
-      <c r="G113" s="524"/>
-      <c r="H113" s="524"/>
-      <c r="I113" s="524"/>
-      <c r="J113" s="524"/>
-      <c r="K113" s="524"/>
+      <c r="A113" s="520"/>
+      <c r="B113" s="520"/>
+      <c r="C113" s="520"/>
+      <c r="D113" s="520"/>
+      <c r="E113" s="520"/>
+      <c r="F113" s="520"/>
+      <c r="G113" s="520"/>
+      <c r="H113" s="520"/>
+      <c r="I113" s="520"/>
+      <c r="J113" s="520"/>
+      <c r="K113" s="520"/>
       <c r="L113" s="179"/>
       <c r="M113" s="179"/>
       <c r="N113" s="177"/>
     </row>
     <row r="114" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A114" s="524"/>
-      <c r="B114" s="524"/>
-      <c r="C114" s="524"/>
-      <c r="D114" s="524"/>
-      <c r="E114" s="524"/>
-      <c r="F114" s="524"/>
-      <c r="G114" s="524"/>
-      <c r="H114" s="524"/>
-      <c r="I114" s="524"/>
-      <c r="J114" s="524"/>
-      <c r="K114" s="524"/>
+      <c r="A114" s="520"/>
+      <c r="B114" s="520"/>
+      <c r="C114" s="520"/>
+      <c r="D114" s="520"/>
+      <c r="E114" s="520"/>
+      <c r="F114" s="520"/>
+      <c r="G114" s="520"/>
+      <c r="H114" s="520"/>
+      <c r="I114" s="520"/>
+      <c r="J114" s="520"/>
+      <c r="K114" s="520"/>
       <c r="L114" s="179"/>
       <c r="M114" s="179"/>
       <c r="N114" s="177"/>
     </row>
     <row r="115" spans="1:14" s="14" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A115" s="524"/>
-      <c r="B115" s="524"/>
-      <c r="C115" s="524"/>
-      <c r="D115" s="524"/>
-      <c r="E115" s="524"/>
-      <c r="F115" s="524"/>
-      <c r="G115" s="524"/>
-      <c r="H115" s="524"/>
-      <c r="I115" s="524"/>
-      <c r="J115" s="524"/>
-      <c r="K115" s="524"/>
+      <c r="A115" s="520"/>
+      <c r="B115" s="520"/>
+      <c r="C115" s="520"/>
+      <c r="D115" s="520"/>
+      <c r="E115" s="520"/>
+      <c r="F115" s="520"/>
+      <c r="G115" s="520"/>
+      <c r="H115" s="520"/>
+      <c r="I115" s="520"/>
+      <c r="J115" s="520"/>
+      <c r="K115" s="520"/>
       <c r="L115" s="180"/>
       <c r="M115" s="180"/>
       <c r="N115" s="177"/>
     </row>
     <row r="116" spans="1:14" s="14" customFormat="1" ht="39.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A116" s="524"/>
-      <c r="B116" s="524"/>
-      <c r="C116" s="524"/>
-      <c r="D116" s="524"/>
-      <c r="E116" s="524"/>
-      <c r="F116" s="524"/>
-      <c r="G116" s="524"/>
-      <c r="H116" s="524"/>
-      <c r="I116" s="524"/>
-      <c r="J116" s="524"/>
-      <c r="K116" s="524"/>
+      <c r="A116" s="520"/>
+      <c r="B116" s="520"/>
+      <c r="C116" s="520"/>
+      <c r="D116" s="520"/>
+      <c r="E116" s="520"/>
+      <c r="F116" s="520"/>
+      <c r="G116" s="520"/>
+      <c r="H116" s="520"/>
+      <c r="I116" s="520"/>
+      <c r="J116" s="520"/>
+      <c r="K116" s="520"/>
       <c r="L116" s="180"/>
       <c r="M116" s="180"/>
       <c r="N116" s="177"/>
     </row>
     <row r="117" spans="1:14" s="183" customFormat="1" ht="65.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A117" s="524"/>
-      <c r="B117" s="524"/>
-      <c r="C117" s="524"/>
-      <c r="D117" s="524"/>
-      <c r="E117" s="524"/>
-      <c r="F117" s="524"/>
-      <c r="G117" s="524"/>
-      <c r="H117" s="524"/>
-      <c r="I117" s="524"/>
-      <c r="J117" s="524"/>
-      <c r="K117" s="524"/>
+      <c r="A117" s="520"/>
+      <c r="B117" s="520"/>
+      <c r="C117" s="520"/>
+      <c r="D117" s="520"/>
+      <c r="E117" s="520"/>
+      <c r="F117" s="520"/>
+      <c r="G117" s="520"/>
+      <c r="H117" s="520"/>
+      <c r="I117" s="520"/>
+      <c r="J117" s="520"/>
+      <c r="K117" s="520"/>
       <c r="L117" s="181"/>
       <c r="M117" s="182"/>
       <c r="N117" s="182"/>
     </row>
     <row r="118" spans="1:14" s="182" customFormat="1" ht="18.75" collapsed="1">
-      <c r="A118" s="524"/>
-      <c r="B118" s="524"/>
-      <c r="C118" s="524"/>
-      <c r="D118" s="524"/>
-      <c r="E118" s="524"/>
-      <c r="F118" s="524"/>
-      <c r="G118" s="524"/>
-      <c r="H118" s="524"/>
-      <c r="I118" s="524"/>
-      <c r="J118" s="524"/>
-      <c r="K118" s="524"/>
+      <c r="A118" s="520"/>
+      <c r="B118" s="520"/>
+      <c r="C118" s="520"/>
+      <c r="D118" s="520"/>
+      <c r="E118" s="520"/>
+      <c r="F118" s="520"/>
+      <c r="G118" s="520"/>
+      <c r="H118" s="520"/>
+      <c r="I118" s="520"/>
+      <c r="J118" s="520"/>
+      <c r="K118" s="520"/>
       <c r="L118" s="181"/>
     </row>
     <row r="119" spans="1:14" s="183" customFormat="1" ht="18.75">
@@ -22484,12 +22485,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Q1:T3"/>
-    <mergeCell ref="U1:X3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="Q4:T6"/>
-    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="A111:K118"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
     <mergeCell ref="T53:W55"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
@@ -22497,11 +22497,12 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="A111:K118"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="Q1:T3"/>
+    <mergeCell ref="U1:X3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="Q4:T6"/>
+    <mergeCell ref="U4:X6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.31496062992125984" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.19685039370078741"/>
